--- a/Data/National Accounts/PSA-07IOS_2018PSNA_Ann.xlsx
+++ b/Data/National Accounts/PSA-07IOS_2018PSNA_Ann.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Desktop\IAD activities\6. MAS_Series\NAP\NAP detailed series as of April 2021\Annl\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Desktop\0. IAD activities\6. MAS_Series\2018-base\NAP\NAP detailed series as of January 2022\Annl\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -42,7 +42,7 @@
     <definedName name="PCE_Per_Con_Qrt">[1]HFCE!#REF!</definedName>
     <definedName name="PCE_Per_Cur_Qrt" localSheetId="0">IOS!$A$37:$A$48</definedName>
     <definedName name="PCE_Per_Cur_Qrt">[1]HFCE!#REF!</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">IOS!$A$1:$V$174</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">IOS!$A$1:$W$174</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="52">
   <si>
     <t>Source: Philippine Statistics Authority</t>
   </si>
@@ -197,16 +197,19 @@
     <t>Unit: In million Philippine pesos</t>
   </si>
   <si>
-    <t>Annual 2000 to 2020</t>
-  </si>
-  <si>
-    <t>Annual 2001 to 2020</t>
-  </si>
-  <si>
     <t>2019 - 2020</t>
   </si>
   <si>
-    <t>As of April 2021</t>
+    <t>2020 - 2021</t>
+  </si>
+  <si>
+    <t>As of January 2022</t>
+  </si>
+  <si>
+    <t>Annual 2000 to 2021</t>
+  </si>
+  <si>
+    <t>Annual 2001 to 2021</t>
   </si>
 </sst>
 </file>
@@ -635,14 +638,14 @@
       <selection activeCell="C4" sqref="C4"/>
       <selection pane="topRight" activeCell="C4" sqref="C4"/>
       <selection pane="bottomLeft" activeCell="C4" sqref="C4"/>
-      <selection pane="bottomRight" sqref="A1:XFD1048576"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.81640625" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="42.6328125" style="1" customWidth="1"/>
-    <col min="2" max="22" width="12.36328125" style="1" customWidth="1"/>
-    <col min="23" max="16384" width="7.81640625" style="1"/>
+    <col min="2" max="23" width="12.36328125" style="1" customWidth="1"/>
+    <col min="24" max="16384" width="7.81640625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:96" x14ac:dyDescent="0.25">
@@ -657,7 +660,7 @@
     </row>
     <row r="3" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="5" spans="1:96" x14ac:dyDescent="0.25">
@@ -667,7 +670,7 @@
     </row>
     <row r="6" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
     </row>
     <row r="7" spans="1:96" x14ac:dyDescent="0.25">
@@ -700,6 +703,7 @@
       <c r="T9" s="4"/>
       <c r="U9" s="4"/>
       <c r="V9" s="4"/>
+      <c r="W9" s="4"/>
     </row>
     <row r="10" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A10" s="5"/>
@@ -766,6 +770,9 @@
       <c r="V10" s="6">
         <v>2020</v>
       </c>
+      <c r="W10" s="6">
+        <v>2021</v>
+      </c>
     </row>
     <row r="11" spans="1:96" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="7"/>
@@ -837,7 +844,9 @@
       <c r="V12" s="8">
         <v>187258.73149934766</v>
       </c>
-      <c r="W12" s="9"/>
+      <c r="W12" s="8">
+        <v>231471.22039685081</v>
+      </c>
       <c r="X12" s="9"/>
       <c r="Y12" s="9"/>
       <c r="Z12" s="9"/>
@@ -979,7 +988,9 @@
       <c r="V13" s="8">
         <v>56356.387926241339</v>
       </c>
-      <c r="W13" s="9"/>
+      <c r="W13" s="8">
+        <v>76086.238458256732</v>
+      </c>
       <c r="X13" s="9"/>
       <c r="Y13" s="9"/>
       <c r="Z13" s="9"/>
@@ -1121,7 +1132,9 @@
       <c r="V14" s="8">
         <v>449647.5553384755</v>
       </c>
-      <c r="W14" s="9"/>
+      <c r="W14" s="8">
+        <v>253478.13845965103</v>
+      </c>
       <c r="X14" s="9"/>
       <c r="Y14" s="9"/>
       <c r="Z14" s="9"/>
@@ -1263,7 +1276,9 @@
       <c r="V15" s="8">
         <v>29211.341745906597</v>
       </c>
-      <c r="W15" s="9"/>
+      <c r="W15" s="8">
+        <v>22191.464063762451</v>
+      </c>
       <c r="X15" s="9"/>
       <c r="Y15" s="9"/>
       <c r="Z15" s="9"/>
@@ -1405,7 +1420,9 @@
       <c r="V16" s="8">
         <v>74750.989256473549</v>
       </c>
-      <c r="W16" s="9"/>
+      <c r="W16" s="8">
+        <v>111507.90540455509</v>
+      </c>
       <c r="X16" s="9"/>
       <c r="Y16" s="9"/>
       <c r="Z16" s="9"/>
@@ -1547,7 +1564,9 @@
       <c r="V17" s="8">
         <v>253292.52365076233</v>
       </c>
-      <c r="W17" s="9"/>
+      <c r="W17" s="8">
+        <v>254242.28795864971</v>
+      </c>
       <c r="X17" s="9"/>
       <c r="Y17" s="9"/>
       <c r="Z17" s="9"/>
@@ -1689,7 +1708,9 @@
       <c r="V18" s="8">
         <v>35900.220264860509</v>
       </c>
-      <c r="W18" s="9"/>
+      <c r="W18" s="8">
+        <v>38331.69682969799</v>
+      </c>
       <c r="X18" s="9"/>
       <c r="Y18" s="9"/>
       <c r="Z18" s="9"/>
@@ -1831,7 +1852,9 @@
       <c r="V19" s="8">
         <v>40919.604420824784</v>
       </c>
-      <c r="W19" s="9"/>
+      <c r="W19" s="8">
+        <v>36036.85487448491</v>
+      </c>
       <c r="X19" s="9"/>
       <c r="Y19" s="9"/>
       <c r="Z19" s="9"/>
@@ -2071,7 +2094,9 @@
       <c r="V21" s="12">
         <v>1127337.3541028921</v>
       </c>
-      <c r="W21" s="9"/>
+      <c r="W21" s="12">
+        <v>1023345.8064459087</v>
+      </c>
       <c r="X21" s="9"/>
       <c r="Y21" s="9"/>
       <c r="Z21" s="9"/>
@@ -2169,6 +2194,7 @@
       <c r="T22" s="13"/>
       <c r="U22" s="13"/>
       <c r="V22" s="13"/>
+      <c r="W22" s="13"/>
     </row>
     <row r="23" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A23" s="14" t="s">
@@ -2383,7 +2409,7 @@
     </row>
     <row r="28" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="30" spans="1:96" x14ac:dyDescent="0.25">
@@ -2393,7 +2419,7 @@
     </row>
     <row r="31" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
     </row>
     <row r="32" spans="1:96" x14ac:dyDescent="0.25">
@@ -2426,6 +2452,7 @@
       <c r="T34" s="15"/>
       <c r="U34" s="15"/>
       <c r="V34" s="15"/>
+      <c r="W34" s="15"/>
     </row>
     <row r="35" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A35" s="5"/>
@@ -2492,6 +2519,9 @@
       <c r="V35" s="16">
         <v>2020</v>
       </c>
+      <c r="W35" s="16">
+        <v>2021</v>
+      </c>
     </row>
     <row r="36" spans="1:96" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="7"/>
@@ -2563,7 +2593,9 @@
       <c r="V37" s="8">
         <v>191614.95581565276</v>
       </c>
-      <c r="W37" s="9"/>
+      <c r="W37" s="8">
+        <v>226612.54014731853</v>
+      </c>
       <c r="X37" s="9"/>
       <c r="Y37" s="9"/>
       <c r="Z37" s="9"/>
@@ -2705,7 +2737,9 @@
       <c r="V38" s="8">
         <v>55753.230003525023</v>
       </c>
-      <c r="W38" s="9"/>
+      <c r="W38" s="8">
+        <v>74745.356376277268</v>
+      </c>
       <c r="X38" s="9"/>
       <c r="Y38" s="9"/>
       <c r="Z38" s="9"/>
@@ -2847,7 +2881,9 @@
       <c r="V39" s="8">
         <v>437020.40138065431</v>
       </c>
-      <c r="W39" s="9"/>
+      <c r="W39" s="8">
+        <v>256710.04615010566</v>
+      </c>
       <c r="X39" s="9"/>
       <c r="Y39" s="9"/>
       <c r="Z39" s="9"/>
@@ -2989,7 +3025,9 @@
       <c r="V40" s="8">
         <v>28671.197427891835</v>
       </c>
-      <c r="W40" s="9"/>
+      <c r="W40" s="8">
+        <v>21908.218866742551</v>
+      </c>
       <c r="X40" s="9"/>
       <c r="Y40" s="9"/>
       <c r="Z40" s="9"/>
@@ -3131,7 +3169,9 @@
       <c r="V41" s="8">
         <v>72845.599838749127</v>
       </c>
-      <c r="W41" s="9"/>
+      <c r="W41" s="8">
+        <v>107957.82526340615</v>
+      </c>
       <c r="X41" s="9"/>
       <c r="Y41" s="9"/>
       <c r="Z41" s="9"/>
@@ -3273,7 +3313,9 @@
       <c r="V42" s="8">
         <v>256068.92582387239</v>
       </c>
-      <c r="W42" s="9"/>
+      <c r="W42" s="8">
+        <v>253585.51309039845</v>
+      </c>
       <c r="X42" s="9"/>
       <c r="Y42" s="9"/>
       <c r="Z42" s="9"/>
@@ -3415,7 +3457,9 @@
       <c r="V43" s="8">
         <v>36352.866980064762</v>
       </c>
-      <c r="W43" s="9"/>
+      <c r="W43" s="8">
+        <v>37697.896021309505</v>
+      </c>
       <c r="X43" s="9"/>
       <c r="Y43" s="9"/>
       <c r="Z43" s="9"/>
@@ -3557,7 +3601,9 @@
       <c r="V44" s="8">
         <v>40453.462726595397</v>
       </c>
-      <c r="W44" s="9"/>
+      <c r="W44" s="8">
+        <v>35492.27617377034</v>
+      </c>
       <c r="X44" s="9"/>
       <c r="Y44" s="9"/>
       <c r="Z44" s="9"/>
@@ -3797,7 +3843,9 @@
       <c r="V46" s="12">
         <v>1118780.6399970055</v>
       </c>
-      <c r="W46" s="9"/>
+      <c r="W46" s="12">
+        <v>1014709.6720893284</v>
+      </c>
       <c r="X46" s="9"/>
       <c r="Y46" s="9"/>
       <c r="Z46" s="9"/>
@@ -3895,6 +3943,7 @@
       <c r="T47" s="13"/>
       <c r="U47" s="13"/>
       <c r="V47" s="13"/>
+      <c r="W47" s="13"/>
     </row>
     <row r="48" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A48" s="14" t="s">
@@ -4109,7 +4158,7 @@
     </row>
     <row r="53" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="55" spans="1:96" x14ac:dyDescent="0.25">
@@ -4119,7 +4168,7 @@
     </row>
     <row r="56" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
     </row>
     <row r="57" spans="1:96" x14ac:dyDescent="0.25">
@@ -4151,6 +4200,8 @@
       <c r="S59" s="15"/>
       <c r="T59" s="15"/>
       <c r="U59" s="15"/>
+      <c r="V59" s="15"/>
+      <c r="W59" s="15"/>
     </row>
     <row r="60" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A60" s="5"/>
@@ -4212,8 +4263,12 @@
         <v>19</v>
       </c>
       <c r="U60" s="16" t="s">
-        <v>49</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="V60" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="W60" s="16"/>
     </row>
     <row r="61" spans="1:96" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="7"/>
@@ -4282,7 +4337,10 @@
       <c r="U62" s="17">
         <v>-27.112273543499427</v>
       </c>
-      <c r="W62" s="9"/>
+      <c r="V62" s="17">
+        <v>23.610375090924492</v>
+      </c>
+      <c r="W62" s="17"/>
       <c r="X62" s="9"/>
       <c r="Y62" s="9"/>
       <c r="Z62" s="9"/>
@@ -4416,7 +4474,10 @@
       <c r="U63" s="17">
         <v>-27.564017965429954</v>
       </c>
-      <c r="W63" s="9"/>
+      <c r="V63" s="17">
+        <v>35.009075737496886</v>
+      </c>
+      <c r="W63" s="17"/>
       <c r="X63" s="9"/>
       <c r="Y63" s="9"/>
       <c r="Z63" s="9"/>
@@ -4550,7 +4611,10 @@
       <c r="U64" s="17">
         <v>-37.58959134321541</v>
       </c>
-      <c r="W64" s="9"/>
+      <c r="V64" s="17">
+        <v>-43.627373161443408</v>
+      </c>
+      <c r="W64" s="17"/>
       <c r="X64" s="9"/>
       <c r="Y64" s="9"/>
       <c r="Z64" s="9"/>
@@ -4684,7 +4748,10 @@
       <c r="U65" s="17">
         <v>3.8445434491178929</v>
       </c>
-      <c r="W65" s="9"/>
+      <c r="V65" s="17">
+        <v>-24.031342836649557</v>
+      </c>
+      <c r="W65" s="17"/>
       <c r="X65" s="9"/>
       <c r="Y65" s="9"/>
       <c r="Z65" s="9"/>
@@ -4818,7 +4885,10 @@
       <c r="U66" s="17">
         <v>26.873974379752326</v>
       </c>
-      <c r="W66" s="9"/>
+      <c r="V66" s="17">
+        <v>49.172481212211295</v>
+      </c>
+      <c r="W66" s="17"/>
       <c r="X66" s="9"/>
       <c r="Y66" s="9"/>
       <c r="Z66" s="9"/>
@@ -4952,7 +5022,10 @@
       <c r="U67" s="17">
         <v>-12.365117132011136</v>
       </c>
-      <c r="W67" s="9"/>
+      <c r="V67" s="17">
+        <v>0.37496736745255532</v>
+      </c>
+      <c r="W67" s="17"/>
       <c r="X67" s="9"/>
       <c r="Y67" s="9"/>
       <c r="Z67" s="9"/>
@@ -5086,7 +5159,10 @@
       <c r="U68" s="17">
         <v>-28.667437767960109</v>
       </c>
-      <c r="W68" s="9"/>
+      <c r="V68" s="17">
+        <v>6.7728736673446974</v>
+      </c>
+      <c r="W68" s="17"/>
       <c r="X68" s="9"/>
       <c r="Y68" s="9"/>
       <c r="Z68" s="9"/>
@@ -5220,7 +5296,10 @@
       <c r="U69" s="17">
         <v>-41.815147972976298</v>
       </c>
-      <c r="W69" s="9"/>
+      <c r="V69" s="17">
+        <v>-11.932543374869354</v>
+      </c>
+      <c r="W69" s="17"/>
       <c r="X69" s="9"/>
       <c r="Y69" s="9"/>
       <c r="Z69" s="9"/>
@@ -5312,6 +5391,7 @@
       <c r="S70" s="9"/>
       <c r="T70" s="9"/>
       <c r="U70" s="9"/>
+      <c r="V70" s="9"/>
       <c r="W70" s="9"/>
       <c r="X70" s="9"/>
       <c r="Y70" s="9"/>
@@ -5446,7 +5526,10 @@
       <c r="U71" s="17">
         <v>-27.358460509385878</v>
       </c>
-      <c r="W71" s="9"/>
+      <c r="V71" s="17">
+        <v>-9.2245278024817452</v>
+      </c>
+      <c r="W71" s="17"/>
       <c r="X71" s="9"/>
       <c r="Y71" s="9"/>
       <c r="Z71" s="9"/>
@@ -5538,6 +5621,8 @@
       <c r="S72" s="13"/>
       <c r="T72" s="13"/>
       <c r="U72" s="13"/>
+      <c r="V72" s="13"/>
+      <c r="W72" s="13"/>
     </row>
     <row r="73" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A73" s="14" t="s">
@@ -5566,6 +5651,7 @@
       <c r="S74" s="9"/>
       <c r="T74" s="9"/>
       <c r="U74" s="9"/>
+      <c r="V74" s="9"/>
       <c r="W74" s="9"/>
       <c r="X74" s="9"/>
       <c r="Y74" s="9"/>
@@ -5658,6 +5744,7 @@
       <c r="S75" s="9"/>
       <c r="T75" s="9"/>
       <c r="U75" s="9"/>
+      <c r="V75" s="9"/>
       <c r="W75" s="9"/>
       <c r="X75" s="9"/>
       <c r="Y75" s="9"/>
@@ -5740,7 +5827,7 @@
     </row>
     <row r="78" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="80" spans="1:91" x14ac:dyDescent="0.25">
@@ -5750,7 +5837,7 @@
     </row>
     <row r="81" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
     </row>
     <row r="82" spans="1:91" x14ac:dyDescent="0.25">
@@ -5782,6 +5869,8 @@
       <c r="S84" s="15"/>
       <c r="T84" s="15"/>
       <c r="U84" s="15"/>
+      <c r="V84" s="15"/>
+      <c r="W84" s="15"/>
     </row>
     <row r="85" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A85" s="5"/>
@@ -5843,8 +5932,12 @@
         <v>19</v>
       </c>
       <c r="U85" s="16" t="s">
-        <v>49</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="V85" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="W85" s="16"/>
     </row>
     <row r="86" spans="1:91" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="7"/>
@@ -5913,7 +6006,10 @@
       <c r="U87" s="17">
         <v>-24.599396620023541</v>
       </c>
-      <c r="W87" s="9"/>
+      <c r="V87" s="17">
+        <v>18.264536910853636</v>
+      </c>
+      <c r="W87" s="17"/>
       <c r="X87" s="9"/>
       <c r="Y87" s="9"/>
       <c r="Z87" s="9"/>
@@ -6047,7 +6143,10 @@
       <c r="U88" s="17">
         <v>-26.076802469914924</v>
       </c>
-      <c r="W88" s="9"/>
+      <c r="V88" s="17">
+        <v>34.064620779013978</v>
+      </c>
+      <c r="W88" s="17"/>
       <c r="X88" s="9"/>
       <c r="Y88" s="9"/>
       <c r="Z88" s="9"/>
@@ -6181,7 +6280,10 @@
       <c r="U89" s="17">
         <v>-39.087328359925287</v>
       </c>
-      <c r="W89" s="9"/>
+      <c r="V89" s="17">
+        <v>-41.259024672739343</v>
+      </c>
+      <c r="W89" s="17"/>
       <c r="X89" s="9"/>
       <c r="Y89" s="9"/>
       <c r="Z89" s="9"/>
@@ -6315,7 +6417,10 @@
       <c r="U90" s="17">
         <v>4.7461514333437549</v>
       </c>
-      <c r="W90" s="9"/>
+      <c r="V90" s="17">
+        <v>-23.588057590403054</v>
+      </c>
+      <c r="W90" s="17"/>
       <c r="X90" s="9"/>
       <c r="Y90" s="9"/>
       <c r="Z90" s="9"/>
@@ -6449,7 +6554,10 @@
       <c r="U91" s="17">
         <v>27.461803503449687</v>
       </c>
-      <c r="W91" s="9"/>
+      <c r="V91" s="17">
+        <v>48.200887222263759</v>
+      </c>
+      <c r="W91" s="17"/>
       <c r="X91" s="9"/>
       <c r="Y91" s="9"/>
       <c r="Z91" s="9"/>
@@ -6583,7 +6691,10 @@
       <c r="U92" s="17">
         <v>-8.9666246574044379</v>
       </c>
-      <c r="W92" s="9"/>
+      <c r="V92" s="17">
+        <v>-0.96982198268838715</v>
+      </c>
+      <c r="W92" s="17"/>
       <c r="X92" s="9"/>
       <c r="Y92" s="9"/>
       <c r="Z92" s="9"/>
@@ -6717,7 +6828,10 @@
       <c r="U93" s="17">
         <v>-25.768293193034552</v>
       </c>
-      <c r="W93" s="9"/>
+      <c r="V93" s="17">
+        <v>3.6999256261750446</v>
+      </c>
+      <c r="W93" s="17"/>
       <c r="X93" s="9"/>
       <c r="Y93" s="9"/>
       <c r="Z93" s="9"/>
@@ -6851,7 +6965,10 @@
       <c r="U94" s="17">
         <v>-40.041224466889517</v>
       </c>
-      <c r="W94" s="9"/>
+      <c r="V94" s="17">
+        <v>-12.263935441955169</v>
+      </c>
+      <c r="W94" s="17"/>
       <c r="X94" s="9"/>
       <c r="Y94" s="9"/>
       <c r="Z94" s="9"/>
@@ -6943,6 +7060,7 @@
       <c r="S95" s="9"/>
       <c r="T95" s="9"/>
       <c r="U95" s="9"/>
+      <c r="V95" s="9"/>
       <c r="W95" s="9"/>
       <c r="X95" s="9"/>
       <c r="Y95" s="9"/>
@@ -7077,7 +7195,10 @@
       <c r="U96" s="17">
         <v>-26.841645950344144</v>
       </c>
-      <c r="W96" s="9"/>
+      <c r="V96" s="17">
+        <v>-9.302178120275272</v>
+      </c>
+      <c r="W96" s="17"/>
       <c r="X96" s="9"/>
       <c r="Y96" s="9"/>
       <c r="Z96" s="9"/>
@@ -7169,6 +7290,8 @@
       <c r="S97" s="13"/>
       <c r="T97" s="13"/>
       <c r="U97" s="13"/>
+      <c r="V97" s="13"/>
+      <c r="W97" s="13"/>
     </row>
     <row r="98" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A98" s="14" t="s">
@@ -7370,7 +7493,7 @@
     </row>
     <row r="102" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="104" spans="1:96" x14ac:dyDescent="0.25">
@@ -7380,7 +7503,7 @@
     </row>
     <row r="105" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
     </row>
     <row r="106" spans="1:96" x14ac:dyDescent="0.25">
@@ -7413,6 +7536,7 @@
       <c r="T108" s="15"/>
       <c r="U108" s="15"/>
       <c r="V108" s="15"/>
+      <c r="W108" s="15"/>
     </row>
     <row r="109" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A109" s="5"/>
@@ -7479,6 +7603,9 @@
       <c r="V109" s="16">
         <v>2020</v>
       </c>
+      <c r="W109" s="16">
+        <v>2021</v>
+      </c>
     </row>
     <row r="110" spans="1:96" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="7"/>
@@ -7550,7 +7677,9 @@
       <c r="V111" s="17">
         <v>97.726573952559264</v>
       </c>
-      <c r="W111" s="9"/>
+      <c r="W111" s="17">
+        <v>102.1440473887163</v>
+      </c>
       <c r="X111" s="9"/>
       <c r="Y111" s="9"/>
       <c r="Z111" s="9"/>
@@ -7692,7 +7821,9 @@
       <c r="V112" s="17">
         <v>101.08183494064502</v>
       </c>
-      <c r="W112" s="9"/>
+      <c r="W112" s="17">
+        <v>101.79393362609619</v>
+      </c>
       <c r="X112" s="9"/>
       <c r="Y112" s="9"/>
       <c r="Z112" s="9"/>
@@ -7834,7 +7965,9 @@
       <c r="V113" s="17">
         <v>102.88937402417118</v>
       </c>
-      <c r="W113" s="9"/>
+      <c r="W113" s="17">
+        <v>98.741027965627481</v>
+      </c>
       <c r="X113" s="9"/>
       <c r="Y113" s="9"/>
       <c r="Z113" s="9"/>
@@ -7976,7 +8109,9 @@
       <c r="V114" s="17">
         <v>101.88392661092452</v>
       </c>
-      <c r="W114" s="9"/>
+      <c r="W114" s="17">
+        <v>101.29287186120766</v>
+      </c>
       <c r="X114" s="9"/>
       <c r="Y114" s="9"/>
       <c r="Z114" s="9"/>
@@ -8118,7 +8253,9 @@
       <c r="V115" s="17">
         <v>102.61565478483558</v>
       </c>
-      <c r="W115" s="9"/>
+      <c r="W115" s="17">
+        <v>103.28839538262937</v>
+      </c>
       <c r="X115" s="9"/>
       <c r="Y115" s="9"/>
       <c r="Z115" s="9"/>
@@ -8260,7 +8397,9 @@
       <c r="V116" s="17">
         <v>98.915759823579805</v>
       </c>
-      <c r="W116" s="9"/>
+      <c r="W116" s="17">
+        <v>100.2589954214053</v>
+      </c>
       <c r="X116" s="9"/>
       <c r="Y116" s="9"/>
       <c r="Z116" s="9"/>
@@ -8402,7 +8541,9 @@
       <c r="V117" s="17">
         <v>98.754852772815767</v>
       </c>
-      <c r="W117" s="9"/>
+      <c r="W117" s="17">
+        <v>101.68126308171207</v>
+      </c>
       <c r="X117" s="9"/>
       <c r="Y117" s="9"/>
       <c r="Z117" s="9"/>
@@ -8544,7 +8685,9 @@
       <c r="V118" s="17">
         <v>101.15229120775101</v>
       </c>
-      <c r="W118" s="9"/>
+      <c r="W118" s="17">
+        <v>101.53435834334297</v>
+      </c>
       <c r="X118" s="9"/>
       <c r="Y118" s="9"/>
       <c r="Z118" s="9"/>
@@ -8784,7 +8927,9 @@
       <c r="V120" s="17">
         <v>100.76482500679576</v>
       </c>
-      <c r="W120" s="9"/>
+      <c r="W120" s="17">
+        <v>100.85109412023226</v>
+      </c>
       <c r="X120" s="9"/>
       <c r="Y120" s="9"/>
       <c r="Z120" s="9"/>
@@ -8882,6 +9027,7 @@
       <c r="T121" s="13"/>
       <c r="U121" s="13"/>
       <c r="V121" s="13"/>
+      <c r="W121" s="13"/>
     </row>
     <row r="122" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A122" s="14" t="s">
@@ -8900,7 +9046,7 @@
     </row>
     <row r="127" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="129" spans="1:96" x14ac:dyDescent="0.25">
@@ -8910,7 +9056,7 @@
     </row>
     <row r="130" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
     </row>
     <row r="131" spans="1:96" x14ac:dyDescent="0.25">
@@ -8943,6 +9089,7 @@
       <c r="T133" s="15"/>
       <c r="U133" s="15"/>
       <c r="V133" s="15"/>
+      <c r="W133" s="15"/>
     </row>
     <row r="134" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A134" s="5"/>
@@ -9009,6 +9156,9 @@
       <c r="V134" s="16">
         <v>2020</v>
       </c>
+      <c r="W134" s="16">
+        <v>2021</v>
+      </c>
     </row>
     <row r="135" spans="1:96" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" s="7"/>
@@ -9080,7 +9230,9 @@
       <c r="V136" s="18">
         <v>16.610709369101286</v>
       </c>
-      <c r="W136" s="9"/>
+      <c r="W136" s="18">
+        <v>22.619061800893377</v>
+      </c>
       <c r="X136" s="9"/>
       <c r="Y136" s="9"/>
       <c r="Z136" s="9"/>
@@ -9222,7 +9374,9 @@
       <c r="V137" s="18">
         <v>4.9990703954885269</v>
       </c>
-      <c r="W137" s="9"/>
+      <c r="W137" s="18">
+        <v>7.4350466850013373</v>
+      </c>
       <c r="X137" s="9"/>
       <c r="Y137" s="9"/>
       <c r="Z137" s="9"/>
@@ -9364,7 +9518,9 @@
       <c r="V138" s="18">
         <v>39.885802923322288</v>
       </c>
-      <c r="W138" s="9"/>
+      <c r="W138" s="18">
+        <v>24.769548754978867</v>
+      </c>
       <c r="X138" s="9"/>
       <c r="Y138" s="9"/>
       <c r="Z138" s="9"/>
@@ -9506,7 +9662,9 @@
       <c r="V139" s="18">
         <v>2.5911801502534511</v>
       </c>
-      <c r="W139" s="9"/>
+      <c r="W139" s="18">
+        <v>2.1685205454482341</v>
+      </c>
       <c r="X139" s="9"/>
       <c r="Y139" s="9"/>
       <c r="Z139" s="9"/>
@@ -9648,7 +9806,9 @@
       <c r="V140" s="18">
         <v>6.6307560008032009</v>
       </c>
-      <c r="W140" s="9"/>
+      <c r="W140" s="18">
+        <v>10.896405174300099</v>
+      </c>
       <c r="X140" s="9"/>
       <c r="Y140" s="9"/>
       <c r="Z140" s="9"/>
@@ -9790,7 +9950,9 @@
       <c r="V141" s="18">
         <v>22.468209957641864</v>
       </c>
-      <c r="W141" s="9"/>
+      <c r="W141" s="18">
+        <v>24.84422043430617</v>
+      </c>
       <c r="X141" s="9"/>
       <c r="Y141" s="9"/>
       <c r="Z141" s="9"/>
@@ -9932,7 +10094,9 @@
       <c r="V142" s="18">
         <v>3.1845143899652859</v>
       </c>
-      <c r="W142" s="9"/>
+      <c r="W142" s="18">
+        <v>3.7457227643140882</v>
+      </c>
       <c r="X142" s="9"/>
       <c r="Y142" s="9"/>
       <c r="Z142" s="9"/>
@@ -10074,7 +10238,9 @@
       <c r="V143" s="18">
         <v>3.6297568134241081</v>
       </c>
-      <c r="W143" s="9"/>
+      <c r="W143" s="18">
+        <v>3.5214738407578281</v>
+      </c>
       <c r="X143" s="9"/>
       <c r="Y143" s="9"/>
       <c r="Z143" s="9"/>
@@ -10314,7 +10480,9 @@
       <c r="V145" s="17">
         <v>100</v>
       </c>
-      <c r="W145" s="9"/>
+      <c r="W145" s="17">
+        <v>100</v>
+      </c>
       <c r="X145" s="9"/>
       <c r="Y145" s="9"/>
       <c r="Z145" s="9"/>
@@ -10412,6 +10580,7 @@
       <c r="T146" s="13"/>
       <c r="U146" s="13"/>
       <c r="V146" s="13"/>
+      <c r="W146" s="13"/>
     </row>
     <row r="147" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A147" s="14" t="s">
@@ -10626,7 +10795,7 @@
     </row>
     <row r="152" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A152" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="154" spans="1:96" x14ac:dyDescent="0.25">
@@ -10636,7 +10805,7 @@
     </row>
     <row r="155" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A155" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
     </row>
     <row r="156" spans="1:96" x14ac:dyDescent="0.25">
@@ -10669,6 +10838,7 @@
       <c r="T158" s="15"/>
       <c r="U158" s="15"/>
       <c r="V158" s="15"/>
+      <c r="W158" s="15"/>
     </row>
     <row r="159" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A159" s="5"/>
@@ -10735,6 +10905,9 @@
       <c r="V159" s="16">
         <v>2020</v>
       </c>
+      <c r="W159" s="16">
+        <v>2021</v>
+      </c>
     </row>
     <row r="160" spans="1:96" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A160" s="7"/>
@@ -10806,7 +10979,9 @@
       <c r="V161" s="18">
         <v>17.127124743253123</v>
       </c>
-      <c r="W161" s="9"/>
+      <c r="W161" s="18">
+        <v>22.332746634878735</v>
+      </c>
       <c r="X161" s="9"/>
       <c r="Y161" s="9"/>
       <c r="Z161" s="9"/>
@@ -10948,7 +11123,9 @@
       <c r="V162" s="18">
         <v>4.983392455171038</v>
       </c>
-      <c r="W162" s="9"/>
+      <c r="W162" s="18">
+        <v>7.3661815228757543</v>
+      </c>
       <c r="X162" s="9"/>
       <c r="Y162" s="9"/>
       <c r="Z162" s="9"/>
@@ -11090,7 +11267,9 @@
       <c r="V163" s="18">
         <v>39.062206276810798</v>
       </c>
-      <c r="W163" s="9"/>
+      <c r="W163" s="18">
+        <v>25.298866583337997</v>
+      </c>
       <c r="X163" s="9"/>
       <c r="Y163" s="9"/>
       <c r="Z163" s="9"/>
@@ -11232,7 +11411,9 @@
       <c r="V164" s="18">
         <v>2.5627184099260578</v>
       </c>
-      <c r="W164" s="9"/>
+      <c r="W164" s="18">
+        <v>2.1590627811433625</v>
+      </c>
       <c r="X164" s="9"/>
       <c r="Y164" s="9"/>
       <c r="Z164" s="9"/>
@@ -11374,7 +11555,9 @@
       <c r="V165" s="18">
         <v>6.5111602073257284</v>
       </c>
-      <c r="W165" s="9"/>
+      <c r="W165" s="18">
+        <v>10.639282174290958</v>
+      </c>
       <c r="X165" s="9"/>
       <c r="Y165" s="9"/>
       <c r="Z165" s="9"/>
@@ -11516,7 +11699,9 @@
       <c r="V166" s="18">
         <v>22.888215676002204</v>
       </c>
-      <c r="W166" s="9"/>
+      <c r="W166" s="18">
+        <v>24.990942736187346</v>
+      </c>
       <c r="X166" s="9"/>
       <c r="Y166" s="9"/>
       <c r="Z166" s="9"/>
@@ -11658,7 +11843,9 @@
       <c r="V167" s="18">
         <v>3.2493292858698433</v>
       </c>
-      <c r="W167" s="9"/>
+      <c r="W167" s="18">
+        <v>3.7151410948599715</v>
+      </c>
       <c r="X167" s="9"/>
       <c r="Y167" s="9"/>
       <c r="Z167" s="9"/>
@@ -11800,7 +11987,9 @@
       <c r="V168" s="18">
         <v>3.6158529456412181</v>
       </c>
-      <c r="W168" s="9"/>
+      <c r="W168" s="18">
+        <v>3.4977764724258815</v>
+      </c>
       <c r="X168" s="9"/>
       <c r="Y168" s="9"/>
       <c r="Z168" s="9"/>
@@ -12040,7 +12229,9 @@
       <c r="V170" s="17">
         <v>100</v>
       </c>
-      <c r="W170" s="9"/>
+      <c r="W170" s="17">
+        <v>100</v>
+      </c>
       <c r="X170" s="9"/>
       <c r="Y170" s="9"/>
       <c r="Z170" s="9"/>
@@ -12138,6 +12329,7 @@
       <c r="T171" s="13"/>
       <c r="U171" s="13"/>
       <c r="V171" s="13"/>
+      <c r="W171" s="13"/>
     </row>
     <row r="172" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A172" s="14" t="s">
@@ -12345,9 +12537,9 @@
   <pageSetup paperSize="9" scale="50" orientation="landscape" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <rowBreaks count="3" manualBreakCount="3">
-    <brk id="50" max="21" man="1"/>
-    <brk id="100" max="21" man="1"/>
-    <brk id="124" max="21" man="1"/>
+    <brk id="50" max="22" man="1"/>
+    <brk id="100" max="22" man="1"/>
+    <brk id="124" max="22" man="1"/>
   </rowBreaks>
 </worksheet>
 </file>
--- a/Data/National Accounts/PSA-07IOS_2018PSNA_Ann.xlsx
+++ b/Data/National Accounts/PSA-07IOS_2018PSNA_Ann.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Desktop\0. IAD activities\6. MAS_Series\2018-base\NAP\NAP detailed series as of January 2022\Annl\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Desktop\0. IAD activities\6. MAS_Series\2018-base\NAP\NAP detailed series as of April 2022\Annl\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B920E84F-577D-4568-ADCB-3C535DD19780}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9528"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="IOS" sheetId="1" r:id="rId1"/>
@@ -203,19 +204,19 @@
     <t>2020 - 2021</t>
   </si>
   <si>
-    <t>As of January 2022</t>
-  </si>
-  <si>
     <t>Annual 2000 to 2021</t>
   </si>
   <si>
     <t>Annual 2001 to 2021</t>
   </si>
+  <si>
+    <t>As of April 2022</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="5">
     <numFmt numFmtId="164" formatCode="#,##0.0"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
@@ -337,7 +338,7 @@
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="2"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -627,7 +628,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr transitionEvaluation="1">
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
@@ -638,7 +639,7 @@
       <selection activeCell="C4" sqref="C4"/>
       <selection pane="topRight" activeCell="C4" sqref="C4"/>
       <selection pane="bottomLeft" activeCell="C4" sqref="C4"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="W1" sqref="W1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.81640625" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -660,7 +661,7 @@
     </row>
     <row r="3" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="5" spans="1:96" x14ac:dyDescent="0.25">
@@ -670,7 +671,7 @@
     </row>
     <row r="6" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="7" spans="1:96" x14ac:dyDescent="0.25">
@@ -842,10 +843,10 @@
         <v>256913.94230975737</v>
       </c>
       <c r="V12" s="8">
-        <v>187258.73149934766</v>
+        <v>198931.79476416245</v>
       </c>
       <c r="W12" s="8">
-        <v>231471.22039685081</v>
+        <v>241104.20938140119</v>
       </c>
       <c r="X12" s="9"/>
       <c r="Y12" s="9"/>
@@ -986,10 +987,10 @@
         <v>77801.648218623275</v>
       </c>
       <c r="V13" s="8">
-        <v>56356.387926241339</v>
+        <v>59961.150828523008</v>
       </c>
       <c r="W13" s="8">
-        <v>76086.238458256732</v>
+        <v>79944.091821299837</v>
       </c>
       <c r="X13" s="9"/>
       <c r="Y13" s="9"/>
@@ -1133,7 +1134,7 @@
         <v>449647.5553384755</v>
       </c>
       <c r="W14" s="8">
-        <v>253478.13845965103</v>
+        <v>253346.65139142075</v>
       </c>
       <c r="X14" s="9"/>
       <c r="Y14" s="9"/>
@@ -1274,10 +1275,10 @@
         <v>28129.87642458043</v>
       </c>
       <c r="V15" s="8">
-        <v>29211.341745906597</v>
+        <v>20154.125705031074</v>
       </c>
       <c r="W15" s="8">
-        <v>22191.464063762451</v>
+        <v>20203.137124077999</v>
       </c>
       <c r="X15" s="9"/>
       <c r="Y15" s="9"/>
@@ -1418,10 +1419,10 @@
         <v>58917.51213904038</v>
       </c>
       <c r="V16" s="8">
-        <v>74750.989256473549</v>
+        <v>73192.859443853522</v>
       </c>
       <c r="W16" s="8">
-        <v>111507.90540455509</v>
+        <v>105387.27515525554</v>
       </c>
       <c r="X16" s="9"/>
       <c r="Y16" s="9"/>
@@ -1562,10 +1563,10 @@
         <v>289031.62229624507</v>
       </c>
       <c r="V17" s="8">
-        <v>253292.52365076233</v>
+        <v>249832.75520974598</v>
       </c>
       <c r="W17" s="8">
-        <v>254242.28795864971</v>
+        <v>254705.43200988305</v>
       </c>
       <c r="X17" s="9"/>
       <c r="Y17" s="9"/>
@@ -1706,10 +1707,10 @@
         <v>50327.955622958805</v>
       </c>
       <c r="V18" s="8">
-        <v>35900.220264860509</v>
+        <v>32579.486270704485</v>
       </c>
       <c r="W18" s="8">
-        <v>38331.69682969799</v>
+        <v>32266.404471436752</v>
       </c>
       <c r="X18" s="9"/>
       <c r="Y18" s="9"/>
@@ -1850,10 +1851,10 @@
         <v>70326.902957181796</v>
       </c>
       <c r="V19" s="8">
-        <v>40919.604420824784</v>
+        <v>43725.458986785845</v>
       </c>
       <c r="W19" s="8">
-        <v>36036.85487448491</v>
+        <v>35339.352697164111</v>
       </c>
       <c r="X19" s="9"/>
       <c r="Y19" s="9"/>
@@ -2092,10 +2093,10 @@
         <v>1551918.3128663637</v>
       </c>
       <c r="V21" s="12">
-        <v>1127337.3541028921</v>
+        <v>1128025.1865472822</v>
       </c>
       <c r="W21" s="12">
-        <v>1023345.8064459087</v>
+        <v>1022296.5540519392</v>
       </c>
       <c r="X21" s="9"/>
       <c r="Y21" s="9"/>
@@ -2409,7 +2410,7 @@
     </row>
     <row r="28" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="30" spans="1:96" x14ac:dyDescent="0.25">
@@ -2419,7 +2420,7 @@
     </row>
     <row r="31" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="32" spans="1:96" x14ac:dyDescent="0.25">
@@ -2591,10 +2592,10 @@
         <v>254129.20749456287</v>
       </c>
       <c r="V37" s="8">
-        <v>191614.95581565276</v>
+        <v>203519.7539653462</v>
       </c>
       <c r="W37" s="8">
-        <v>226612.54014731853</v>
+        <v>235066.56248732028</v>
       </c>
       <c r="X37" s="9"/>
       <c r="Y37" s="9"/>
@@ -2735,10 +2736,10 @@
         <v>75420.479452116124</v>
       </c>
       <c r="V38" s="8">
-        <v>55753.230003525023</v>
+        <v>59496.628037441915</v>
       </c>
       <c r="W38" s="8">
-        <v>74745.356376277268</v>
+        <v>78290.669941890214</v>
       </c>
       <c r="X38" s="9"/>
       <c r="Y38" s="9"/>
@@ -2882,7 +2883,7 @@
         <v>437020.40138065431</v>
       </c>
       <c r="W39" s="8">
-        <v>256710.04615010566</v>
+        <v>256401.96946446007</v>
       </c>
       <c r="X39" s="9"/>
       <c r="Y39" s="9"/>
@@ -3023,10 +3024,10 @@
         <v>27372.077193821322</v>
       </c>
       <c r="V40" s="8">
-        <v>28671.197427891835</v>
+        <v>19837.684024076512</v>
       </c>
       <c r="W40" s="8">
-        <v>21908.218866742551</v>
+        <v>19915.977915513202</v>
       </c>
       <c r="X40" s="9"/>
       <c r="Y40" s="9"/>
@@ -3167,10 +3168,10 @@
         <v>57150.925090101679</v>
       </c>
       <c r="V41" s="8">
-        <v>72845.599838749127</v>
+        <v>71252.513657128555</v>
       </c>
       <c r="W41" s="8">
-        <v>107957.82526340615</v>
+        <v>102640.85341983833</v>
       </c>
       <c r="X41" s="9"/>
       <c r="Y41" s="9"/>
@@ -3311,10 +3312,10 @@
         <v>281291.25703642319</v>
       </c>
       <c r="V42" s="8">
-        <v>256068.92582387239</v>
+        <v>252875.66350563359</v>
       </c>
       <c r="W42" s="8">
-        <v>253585.51309039845</v>
+        <v>253448.4118842379</v>
       </c>
       <c r="X42" s="9"/>
       <c r="Y42" s="9"/>
@@ -3455,10 +3456,10 @@
         <v>48972.155624277839</v>
       </c>
       <c r="V43" s="8">
-        <v>36352.866980064762</v>
+        <v>32935.631073677738</v>
       </c>
       <c r="W43" s="8">
-        <v>37697.896021309505</v>
+        <v>30977.177931895334</v>
       </c>
       <c r="X43" s="9"/>
       <c r="Y43" s="9"/>
@@ -3599,10 +3600,10 @@
         <v>67468.793962038384</v>
       </c>
       <c r="V44" s="8">
-        <v>40453.462726595397</v>
+        <v>43091.342260626625</v>
       </c>
       <c r="W44" s="8">
-        <v>35492.27617377034</v>
+        <v>34429.804326139907</v>
       </c>
       <c r="X44" s="9"/>
       <c r="Y44" s="9"/>
@@ -3841,10 +3842,10 @@
         <v>1529258.8994520556</v>
       </c>
       <c r="V46" s="12">
-        <v>1118780.6399970055</v>
+        <v>1120029.6179045856</v>
       </c>
       <c r="W46" s="12">
-        <v>1014709.6720893284</v>
+        <v>1011171.4273712953</v>
       </c>
       <c r="X46" s="9"/>
       <c r="Y46" s="9"/>
@@ -4158,7 +4159,7 @@
     </row>
     <row r="53" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="55" spans="1:96" x14ac:dyDescent="0.25">
@@ -4168,7 +4169,7 @@
     </row>
     <row r="56" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="57" spans="1:96" x14ac:dyDescent="0.25">
@@ -4335,10 +4336,10 @@
         <v>-6.2194327472904121</v>
       </c>
       <c r="U62" s="17">
-        <v>-27.112273543499427</v>
+        <v>-22.568704144396605</v>
       </c>
       <c r="V62" s="17">
-        <v>23.610375090924492</v>
+        <v>21.199434040815319</v>
       </c>
       <c r="W62" s="17"/>
       <c r="X62" s="9"/>
@@ -4472,10 +4473,10 @@
         <v>3.3925973753485863</v>
       </c>
       <c r="U63" s="17">
-        <v>-27.564017965429954</v>
+        <v>-22.930744783154623</v>
       </c>
       <c r="V63" s="17">
-        <v>35.009075737496886</v>
+        <v>33.326480090290573</v>
       </c>
       <c r="W63" s="17"/>
       <c r="X63" s="9"/>
@@ -4612,7 +4613,7 @@
         <v>-37.58959134321541</v>
       </c>
       <c r="V64" s="17">
-        <v>-43.627373161443408</v>
+        <v>-43.656615412773192</v>
       </c>
       <c r="W64" s="17"/>
       <c r="X64" s="9"/>
@@ -4746,10 +4747,10 @@
         <v>5.2950892633329971</v>
       </c>
       <c r="U65" s="17">
-        <v>3.8445434491178929</v>
+        <v>-28.353308770954968</v>
       </c>
       <c r="V65" s="17">
-        <v>-24.031342836649557</v>
+        <v>0.24318305722728439</v>
       </c>
       <c r="W65" s="17"/>
       <c r="X65" s="9"/>
@@ -4883,10 +4884,10 @@
         <v>15.232388643643489</v>
       </c>
       <c r="U66" s="17">
-        <v>26.873974379752326</v>
+        <v>24.229378985189527</v>
       </c>
       <c r="V66" s="17">
-        <v>49.172481212211295</v>
+        <v>43.985732974537598</v>
       </c>
       <c r="W66" s="17"/>
       <c r="X66" s="9"/>
@@ -5020,10 +5021,10 @@
         <v>20.998025832938282</v>
       </c>
       <c r="U67" s="17">
-        <v>-12.365117132011136</v>
+        <v>-13.562137864043791</v>
       </c>
       <c r="V67" s="17">
-        <v>0.37496736745255532</v>
+        <v>1.9503754806075051</v>
       </c>
       <c r="W67" s="17"/>
       <c r="X67" s="9"/>
@@ -5157,10 +5158,10 @@
         <v>6.4368436327641945</v>
       </c>
       <c r="U68" s="17">
-        <v>-28.667437767960109</v>
+        <v>-35.26562748787228</v>
       </c>
       <c r="V68" s="17">
-        <v>6.7728736673446974</v>
+        <v>-0.96097831827771074</v>
       </c>
       <c r="W68" s="17"/>
       <c r="X68" s="9"/>
@@ -5294,10 +5295,10 @@
         <v>31.786662722076301</v>
       </c>
       <c r="U69" s="17">
-        <v>-41.815147972976298</v>
+        <v>-37.825416521742916</v>
       </c>
       <c r="V69" s="17">
-        <v>-11.932543374869354</v>
+        <v>-19.179001167617415</v>
       </c>
       <c r="W69" s="17"/>
       <c r="X69" s="9"/>
@@ -5524,10 +5525,10 @@
         <v>8.6574035507551059</v>
       </c>
       <c r="U71" s="17">
-        <v>-27.358460509385878</v>
+        <v>-27.314139075797044</v>
       </c>
       <c r="V71" s="17">
-        <v>-9.2245278024817452</v>
+        <v>-9.3728964349601682</v>
       </c>
       <c r="W71" s="17"/>
       <c r="X71" s="9"/>
@@ -5827,7 +5828,7 @@
     </row>
     <row r="78" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="80" spans="1:91" x14ac:dyDescent="0.25">
@@ -5837,7 +5838,7 @@
     </row>
     <row r="81" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="82" spans="1:91" x14ac:dyDescent="0.25">
@@ -6004,10 +6005,10 @@
         <v>-7.2359365939459224</v>
       </c>
       <c r="U87" s="17">
-        <v>-24.599396620023541</v>
+        <v>-19.914851200368005</v>
       </c>
       <c r="V87" s="17">
-        <v>18.264536910853636</v>
+        <v>15.500612548571397</v>
       </c>
       <c r="W87" s="17"/>
       <c r="X87" s="9"/>
@@ -6141,10 +6142,10 @@
         <v>0.22820138637918319</v>
       </c>
       <c r="U88" s="17">
-        <v>-26.076802469914924</v>
+        <v>-21.113431697002326</v>
       </c>
       <c r="V88" s="17">
-        <v>34.064620779013978</v>
+        <v>31.588415216776639</v>
       </c>
       <c r="W88" s="17"/>
       <c r="X88" s="9"/>
@@ -6281,7 +6282,7 @@
         <v>-39.087328359925287</v>
       </c>
       <c r="V89" s="17">
-        <v>-41.259024672739343</v>
+        <v>-41.329519479085285</v>
       </c>
       <c r="W89" s="17"/>
       <c r="X89" s="9"/>
@@ -6415,10 +6416,10 @@
         <v>2.4585130750088666</v>
       </c>
       <c r="U90" s="17">
-        <v>4.7461514333437549</v>
+        <v>-27.525836334575075</v>
       </c>
       <c r="V90" s="17">
-        <v>-23.588057590403054</v>
+        <v>0.39467254010934028</v>
       </c>
       <c r="W90" s="17"/>
       <c r="X90" s="9"/>
@@ -6552,10 +6553,10 @@
         <v>11.777252165447877</v>
       </c>
       <c r="U91" s="17">
-        <v>27.461803503449687</v>
+        <v>24.674296251189148</v>
       </c>
       <c r="V91" s="17">
-        <v>48.200887222263759</v>
+        <v>44.052256056189663</v>
       </c>
       <c r="W91" s="17"/>
       <c r="X91" s="9"/>
@@ -6689,10 +6690,10 @@
         <v>17.757657501530048</v>
       </c>
       <c r="U92" s="17">
-        <v>-8.9666246574044379</v>
+        <v>-10.101840288306647</v>
       </c>
       <c r="V92" s="17">
-        <v>-0.96982198268838715</v>
+        <v>0.22649406853322773</v>
       </c>
       <c r="W92" s="17"/>
       <c r="X92" s="9"/>
@@ -6826,10 +6827,10 @@
         <v>3.5695093516340251</v>
       </c>
       <c r="U93" s="17">
-        <v>-25.768293193034552</v>
+        <v>-32.746209241093794</v>
       </c>
       <c r="V93" s="17">
-        <v>3.6999256261750446</v>
+        <v>-5.9463051957355901</v>
       </c>
       <c r="W93" s="17"/>
       <c r="X93" s="9"/>
@@ -6963,10 +6964,10 @@
         <v>26.430808414156232</v>
       </c>
       <c r="U94" s="17">
-        <v>-40.041224466889517</v>
+        <v>-36.131447251195624</v>
       </c>
       <c r="V94" s="17">
-        <v>-12.263935441955169</v>
+        <v>-20.100413401141438</v>
       </c>
       <c r="W94" s="17"/>
       <c r="X94" s="9"/>
@@ -7193,10 +7194,10 @@
         <v>7.0709070147135407</v>
       </c>
       <c r="U96" s="17">
-        <v>-26.841645950344144</v>
+        <v>-26.759973847077163</v>
       </c>
       <c r="V96" s="17">
-        <v>-9.302178120275272</v>
+        <v>-9.7192242770283315</v>
       </c>
       <c r="W96" s="17"/>
       <c r="X96" s="9"/>
@@ -7493,7 +7494,7 @@
     </row>
     <row r="102" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="104" spans="1:96" x14ac:dyDescent="0.25">
@@ -7503,7 +7504,7 @@
     </row>
     <row r="105" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="106" spans="1:96" x14ac:dyDescent="0.25">
@@ -7675,10 +7676,10 @@
         <v>101.09579486854304</v>
       </c>
       <c r="V111" s="17">
-        <v>97.726573952559264</v>
+        <v>97.745693421993352</v>
       </c>
       <c r="W111" s="17">
-        <v>102.1440473887163</v>
+        <v>102.56848393501589</v>
       </c>
       <c r="X111" s="9"/>
       <c r="Y111" s="9"/>
@@ -7819,10 +7820,10 @@
         <v>103.15719123480108</v>
       </c>
       <c r="V112" s="17">
-        <v>101.08183494064502</v>
+        <v>100.78075481990132</v>
       </c>
       <c r="W112" s="17">
-        <v>101.79393362609619</v>
+        <v>102.11190155945383</v>
       </c>
       <c r="X112" s="9"/>
       <c r="Y112" s="9"/>
@@ -7966,7 +7967,7 @@
         <v>102.88937402417118</v>
       </c>
       <c r="W113" s="17">
-        <v>98.741027965627481</v>
+        <v>98.808387439682747</v>
       </c>
       <c r="X113" s="9"/>
       <c r="Y113" s="9"/>
@@ -8107,10 +8108,10 @@
         <v>102.76851195980905</v>
       </c>
       <c r="V114" s="17">
-        <v>101.88392661092452</v>
+        <v>101.59515435657964</v>
       </c>
       <c r="W114" s="17">
-        <v>101.29287186120766</v>
+        <v>101.44185341931475</v>
       </c>
       <c r="X114" s="9"/>
       <c r="Y114" s="9"/>
@@ -8251,10 +8252,10 @@
         <v>103.09109090737127</v>
       </c>
       <c r="V115" s="17">
-        <v>102.61565478483558</v>
+        <v>102.72319625952009</v>
       </c>
       <c r="W115" s="17">
-        <v>103.28839538262937</v>
+        <v>102.67575886590046</v>
       </c>
       <c r="X115" s="9"/>
       <c r="Y115" s="9"/>
@@ -8395,10 +8396,10 @@
         <v>102.75172621480363</v>
       </c>
       <c r="V116" s="17">
-        <v>98.915759823579805</v>
+        <v>98.796678077398369</v>
       </c>
       <c r="W116" s="17">
-        <v>100.2589954214053</v>
+        <v>100.49596685822569</v>
       </c>
       <c r="X116" s="9"/>
       <c r="Y116" s="9"/>
@@ -8539,10 +8540,10 @@
         <v>102.76851198685817</v>
       </c>
       <c r="V117" s="17">
-        <v>98.754852772815767</v>
+        <v>98.918664099143726</v>
       </c>
       <c r="W117" s="17">
-        <v>101.68126308171207</v>
+        <v>104.1618592319024</v>
       </c>
       <c r="X117" s="9"/>
       <c r="Y117" s="9"/>
@@ -8683,10 +8684,10 @@
         <v>104.23619399029356</v>
       </c>
       <c r="V118" s="17">
-        <v>101.15229120775101</v>
+        <v>101.47156410752751</v>
       </c>
       <c r="W118" s="17">
-        <v>101.53435834334297</v>
+        <v>102.64174713979904</v>
       </c>
       <c r="X118" s="9"/>
       <c r="Y118" s="9"/>
@@ -8925,10 +8926,10 @@
         <v>101.48172512989314</v>
       </c>
       <c r="V120" s="17">
-        <v>100.76482500679576</v>
+        <v>100.71387117937604</v>
       </c>
       <c r="W120" s="17">
-        <v>100.85109412023226</v>
+        <v>101.10022162212053</v>
       </c>
       <c r="X120" s="9"/>
       <c r="Y120" s="9"/>
@@ -9046,7 +9047,7 @@
     </row>
     <row r="127" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="129" spans="1:96" x14ac:dyDescent="0.25">
@@ -9056,7 +9057,7 @@
     </row>
     <row r="130" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="131" spans="1:96" x14ac:dyDescent="0.25">
@@ -9228,10 +9229,10 @@
         <v>16.554604722412368</v>
       </c>
       <c r="V136" s="18">
-        <v>16.610709369101286</v>
+        <v>17.635403636071565</v>
       </c>
       <c r="W136" s="18">
-        <v>22.619061800893377</v>
+        <v>23.584566379077472</v>
       </c>
       <c r="X136" s="9"/>
       <c r="Y136" s="9"/>
@@ -9372,10 +9373,10 @@
         <v>5.0132566626477333</v>
       </c>
       <c r="V137" s="18">
-        <v>4.9990703954885269</v>
+        <v>5.3155861716222139</v>
       </c>
       <c r="W137" s="18">
-        <v>7.4350466850013373</v>
+        <v>7.8200490361075961</v>
       </c>
       <c r="X137" s="9"/>
       <c r="Y137" s="9"/>
@@ -9516,10 +9517,10 @@
         <v>46.424405648470277</v>
       </c>
       <c r="V138" s="18">
-        <v>39.885802923322288</v>
+        <v>39.861481880097024</v>
       </c>
       <c r="W138" s="18">
-        <v>24.769548754978867</v>
+        <v>24.782109495259938</v>
       </c>
       <c r="X138" s="9"/>
       <c r="Y138" s="9"/>
@@ -9660,10 +9661,10 @@
         <v>1.8125874404191469</v>
       </c>
       <c r="V139" s="18">
-        <v>2.5911801502534511</v>
+        <v>1.7866733779872295</v>
       </c>
       <c r="W139" s="18">
-        <v>2.1685205454482341</v>
+        <v>1.9762501442464564</v>
       </c>
       <c r="X139" s="9"/>
       <c r="Y139" s="9"/>
@@ -9804,10 +9805,10 @@
         <v>3.7964312715803228</v>
       </c>
       <c r="V140" s="18">
-        <v>6.6307560008032009</v>
+        <v>6.4885837937613795</v>
       </c>
       <c r="W140" s="18">
-        <v>10.896405174300099</v>
+        <v>10.308875124106228</v>
       </c>
       <c r="X140" s="9"/>
       <c r="Y140" s="9"/>
@@ -9948,10 +9949,10 @@
         <v>18.624151793299554</v>
       </c>
       <c r="V141" s="18">
-        <v>22.468209957641864</v>
+        <v>22.147799374448986</v>
       </c>
       <c r="W141" s="18">
-        <v>24.84422043430617</v>
+        <v>24.91502402119438</v>
       </c>
       <c r="X141" s="9"/>
       <c r="Y141" s="9"/>
@@ -10092,10 +10093,10 @@
         <v>3.2429513335662636</v>
       </c>
       <c r="V142" s="18">
-        <v>3.1845143899652859</v>
+        <v>2.8881878400628147</v>
       </c>
       <c r="W142" s="18">
-        <v>3.7457227643140882</v>
+        <v>3.1562665787678488</v>
       </c>
       <c r="X142" s="9"/>
       <c r="Y142" s="9"/>
@@ -10236,10 +10237,10 @@
         <v>4.5316111276043483</v>
       </c>
       <c r="V143" s="18">
-        <v>3.6297568134241081</v>
+        <v>3.8762839259487625</v>
       </c>
       <c r="W143" s="18">
-        <v>3.5214738407578281</v>
+        <v>3.4568592212400868</v>
       </c>
       <c r="X143" s="9"/>
       <c r="Y143" s="9"/>
@@ -10795,7 +10796,7 @@
     </row>
     <row r="152" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A152" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="154" spans="1:96" x14ac:dyDescent="0.25">
@@ -10805,7 +10806,7 @@
     </row>
     <row r="155" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A155" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="156" spans="1:96" x14ac:dyDescent="0.25">
@@ -10977,10 +10978,10 @@
         <v>16.617801445237244</v>
       </c>
       <c r="V161" s="18">
-        <v>17.127124743253123</v>
+        <v>18.170926081946156</v>
       </c>
       <c r="W161" s="18">
-        <v>22.332746634878735</v>
+        <v>23.246954583993148</v>
       </c>
       <c r="X161" s="9"/>
       <c r="Y161" s="9"/>
@@ -11121,10 +11122,10 @@
         <v>4.9318319794731824</v>
       </c>
       <c r="V162" s="18">
-        <v>4.983392455171038</v>
+        <v>5.3120584568782698</v>
       </c>
       <c r="W162" s="18">
-        <v>7.3661815228757543</v>
+        <v>7.7425714199044915</v>
       </c>
       <c r="X162" s="9"/>
       <c r="Y162" s="9"/>
@@ -11265,10 +11266,10 @@
         <v>46.915143266832231</v>
       </c>
       <c r="V163" s="18">
-        <v>39.062206276810798</v>
+        <v>39.018646863844246</v>
       </c>
       <c r="W163" s="18">
-        <v>25.298866583337997</v>
+        <v>25.356923912596969</v>
       </c>
       <c r="X163" s="9"/>
       <c r="Y163" s="9"/>
@@ -11409,10 +11410,10 @@
         <v>1.7898916399066849</v>
       </c>
       <c r="V164" s="18">
-        <v>2.5627184099260578</v>
+        <v>1.7711749499258751</v>
       </c>
       <c r="W164" s="18">
-        <v>2.1590627811433625</v>
+        <v>1.9695946084323239</v>
       </c>
       <c r="X164" s="9"/>
       <c r="Y164" s="9"/>
@@ -11553,10 +11554,10 @@
         <v>3.7371647868506281</v>
       </c>
       <c r="V165" s="18">
-        <v>6.5111602073257284</v>
+        <v>6.3616633451561544</v>
       </c>
       <c r="W165" s="18">
-        <v>10.639282174290958</v>
+        <v>10.150687671888626</v>
       </c>
       <c r="X165" s="9"/>
       <c r="Y165" s="9"/>
@@ -11697,10 +11698,10 @@
         <v>18.393959135187107</v>
       </c>
       <c r="V166" s="18">
-        <v>22.888215676002204</v>
+        <v>22.577587187268104</v>
       </c>
       <c r="W166" s="18">
-        <v>24.990942736187346</v>
+        <v>25.064831246578862</v>
       </c>
       <c r="X166" s="9"/>
       <c r="Y166" s="9"/>
@@ -11841,10 +11842,10 @@
         <v>3.2023456356425268</v>
       </c>
       <c r="V167" s="18">
-        <v>3.2493292858698433</v>
+        <v>2.9406035829030635</v>
       </c>
       <c r="W167" s="18">
-        <v>3.7151410948599715</v>
+        <v>3.0634941903397674</v>
       </c>
       <c r="X167" s="9"/>
       <c r="Y167" s="9"/>
@@ -11985,10 +11986,10 @@
         <v>4.4118621108703664</v>
       </c>
       <c r="V168" s="18">
-        <v>3.6158529456412181</v>
+        <v>3.8473395320781187</v>
       </c>
       <c r="W168" s="18">
-        <v>3.4977764724258815</v>
+        <v>3.4049423662658063</v>
       </c>
       <c r="X168" s="9"/>
       <c r="Y168" s="9"/>

--- a/Data/National Accounts/PSA-07IOS_2018PSNA_Ann.xlsx
+++ b/Data/National Accounts/PSA-07IOS_2018PSNA_Ann.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Desktop\0. IAD activities\6. MAS_Series\2018-base\NAP\NAP detailed series as of April 2022\Annl\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\Other computers\My Laptop (1)\6. MAS_Series\2018-base\NAP\NAP detailed series as of January 2023\Annl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B920E84F-577D-4568-ADCB-3C535DD19780}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6BA8264-CBAB-437C-B657-C14A0026ECCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="735" yWindow="735" windowWidth="13830" windowHeight="9735" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="IOS" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
     <definedName name="PCE_Per_Con_Qrt">[1]HFCE!#REF!</definedName>
     <definedName name="PCE_Per_Cur_Qrt" localSheetId="0">IOS!$A$37:$A$48</definedName>
     <definedName name="PCE_Per_Cur_Qrt">[1]HFCE!#REF!</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">IOS!$A$1:$W$174</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">IOS!$A$1:$X$174</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="53">
   <si>
     <t>Source: Philippine Statistics Authority</t>
   </si>
@@ -204,13 +204,16 @@
     <t>2020 - 2021</t>
   </si>
   <si>
-    <t>Annual 2000 to 2021</t>
+    <t>2021 - 2022</t>
   </si>
   <si>
-    <t>Annual 2001 to 2021</t>
+    <t>As of January 2023</t>
   </si>
   <si>
-    <t>As of April 2022</t>
+    <t>Annual 2000 to 2022</t>
+  </si>
+  <si>
+    <t>Annual 2001 to 2022</t>
   </si>
 </sst>
 </file>
@@ -218,11 +221,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="5">
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="#,##0.0"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
-    <numFmt numFmtId="166" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="167" formatCode="_-* #,##0.0_-;\-* #,##0.0_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="168" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="166" formatCode="_-* #,##0.0_-;\-* #,##0.0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="167" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -295,45 +298,44 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="168" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="167" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -354,7 +356,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="HFCE"/>
@@ -635,51 +637,51 @@
   <dimension ref="A1:CR174"/>
   <sheetViews>
     <sheetView tabSelected="1" defaultGridColor="0" view="pageBreakPreview" colorId="22" zoomScale="50" zoomScaleNormal="100" zoomScaleSheetLayoutView="50" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="U3" activePane="bottomRight" state="frozen"/>
       <selection activeCell="C4" sqref="C4"/>
       <selection pane="topRight" activeCell="C4" sqref="C4"/>
       <selection pane="bottomLeft" activeCell="C4" sqref="C4"/>
-      <selection pane="bottomRight" activeCell="W1" sqref="W1"/>
+      <selection pane="bottomRight" activeCell="Y8" sqref="Y8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="7.81640625" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="7.77734375" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="42.6328125" style="1" customWidth="1"/>
-    <col min="2" max="23" width="12.36328125" style="1" customWidth="1"/>
-    <col min="24" max="16384" width="7.81640625" style="1"/>
+    <col min="1" max="1" width="42.6640625" style="1" customWidth="1"/>
+    <col min="2" max="24" width="12.33203125" style="1" customWidth="1"/>
+    <col min="25" max="16384" width="7.77734375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="5" spans="1:96" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="6" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="7" spans="1:96" x14ac:dyDescent="0.25">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="7" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="9" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A9" s="3"/>
       <c r="B9" s="4" t="s">
         <v>10</v>
@@ -705,8 +707,9 @@
       <c r="U9" s="4"/>
       <c r="V9" s="4"/>
       <c r="W9" s="4"/>
-    </row>
-    <row r="10" spans="1:96" x14ac:dyDescent="0.25">
+      <c r="X9" s="4"/>
+    </row>
+    <row r="10" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A10" s="5"/>
       <c r="B10" s="6">
         <v>2000</v>
@@ -774,11 +777,14 @@
       <c r="W10" s="6">
         <v>2021</v>
       </c>
-    </row>
-    <row r="11" spans="1:96" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X10" s="6">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="11" spans="1:96" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="7"/>
     </row>
-    <row r="12" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>9</v>
       </c>
@@ -848,7 +854,9 @@
       <c r="W12" s="8">
         <v>241104.20938140119</v>
       </c>
-      <c r="X12" s="9"/>
+      <c r="X12" s="8">
+        <v>348574.37099681445</v>
+      </c>
       <c r="Y12" s="9"/>
       <c r="Z12" s="9"/>
       <c r="AA12" s="9"/>
@@ -922,7 +930,7 @@
       <c r="CQ12" s="9"/>
       <c r="CR12" s="9"/>
     </row>
-    <row r="13" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>8</v>
       </c>
@@ -992,7 +1000,9 @@
       <c r="W13" s="8">
         <v>79944.091821299837</v>
       </c>
-      <c r="X13" s="9"/>
+      <c r="X13" s="8">
+        <v>99053.188059169261</v>
+      </c>
       <c r="Y13" s="9"/>
       <c r="Z13" s="9"/>
       <c r="AA13" s="9"/>
@@ -1066,7 +1076,7 @@
       <c r="CQ13" s="9"/>
       <c r="CR13" s="9"/>
     </row>
-    <row r="14" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>7</v>
       </c>
@@ -1136,7 +1146,9 @@
       <c r="W14" s="8">
         <v>253346.65139142075</v>
       </c>
-      <c r="X14" s="9"/>
+      <c r="X14" s="8">
+        <v>482051.53681914811</v>
+      </c>
       <c r="Y14" s="9"/>
       <c r="Z14" s="9"/>
       <c r="AA14" s="9"/>
@@ -1210,7 +1222,7 @@
       <c r="CQ14" s="9"/>
       <c r="CR14" s="9"/>
     </row>
-    <row r="15" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>6</v>
       </c>
@@ -1280,7 +1292,9 @@
       <c r="W15" s="8">
         <v>20203.137124077999</v>
       </c>
-      <c r="X15" s="9"/>
+      <c r="X15" s="8">
+        <v>20380.180802357285</v>
+      </c>
       <c r="Y15" s="9"/>
       <c r="Z15" s="9"/>
       <c r="AA15" s="9"/>
@@ -1354,7 +1368,7 @@
       <c r="CQ15" s="9"/>
       <c r="CR15" s="9"/>
     </row>
-    <row r="16" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>5</v>
       </c>
@@ -1424,7 +1438,9 @@
       <c r="W16" s="8">
         <v>105387.27515525554</v>
       </c>
-      <c r="X16" s="9"/>
+      <c r="X16" s="8">
+        <v>102918.91901927924</v>
+      </c>
       <c r="Y16" s="9"/>
       <c r="Z16" s="9"/>
       <c r="AA16" s="9"/>
@@ -1498,7 +1514,7 @@
       <c r="CQ16" s="9"/>
       <c r="CR16" s="9"/>
     </row>
-    <row r="17" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>4</v>
       </c>
@@ -1568,7 +1584,9 @@
       <c r="W17" s="8">
         <v>254705.43200988305</v>
       </c>
-      <c r="X17" s="9"/>
+      <c r="X17" s="8">
+        <v>367306.41594255774</v>
+      </c>
       <c r="Y17" s="9"/>
       <c r="Z17" s="9"/>
       <c r="AA17" s="9"/>
@@ -1642,7 +1660,7 @@
       <c r="CQ17" s="9"/>
       <c r="CR17" s="9"/>
     </row>
-    <row r="18" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>3</v>
       </c>
@@ -1712,7 +1730,9 @@
       <c r="W18" s="8">
         <v>32266.404471436752</v>
       </c>
-      <c r="X18" s="9"/>
+      <c r="X18" s="8">
+        <v>33461.640518929533</v>
+      </c>
       <c r="Y18" s="9"/>
       <c r="Z18" s="9"/>
       <c r="AA18" s="9"/>
@@ -1786,7 +1806,7 @@
       <c r="CQ18" s="9"/>
       <c r="CR18" s="9"/>
     </row>
-    <row r="19" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>2</v>
       </c>
@@ -1856,7 +1876,9 @@
       <c r="W19" s="8">
         <v>35339.352697164111</v>
       </c>
-      <c r="X19" s="9"/>
+      <c r="X19" s="8">
+        <v>73515.555888535659</v>
+      </c>
       <c r="Y19" s="9"/>
       <c r="Z19" s="9"/>
       <c r="AA19" s="9"/>
@@ -1930,8 +1952,8 @@
       <c r="CQ19" s="9"/>
       <c r="CR19" s="9"/>
     </row>
-    <row r="20" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="10"/>
+    <row r="20" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20"/>
       <c r="B20" s="9"/>
       <c r="C20" s="9"/>
       <c r="D20" s="9"/>
@@ -2028,77 +2050,79 @@
       <c r="CQ20" s="9"/>
       <c r="CR20" s="9"/>
     </row>
-    <row r="21" spans="1:96" x14ac:dyDescent="0.25">
-      <c r="A21" s="11" t="s">
+    <row r="21" spans="1:96" x14ac:dyDescent="0.2">
+      <c r="A21" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B21" s="12">
+      <c r="B21" s="11">
         <v>294013.06454482698</v>
       </c>
-      <c r="C21" s="12">
+      <c r="C21" s="11">
         <v>345102.48778032907</v>
       </c>
-      <c r="D21" s="12">
+      <c r="D21" s="11">
         <v>388349.36621072399</v>
       </c>
-      <c r="E21" s="12">
+      <c r="E21" s="11">
         <v>425821.17515057581</v>
       </c>
-      <c r="F21" s="12">
+      <c r="F21" s="11">
         <v>494903.12172170408</v>
       </c>
-      <c r="G21" s="12">
+      <c r="G21" s="11">
         <v>453703.71745322685</v>
       </c>
-      <c r="H21" s="12">
+      <c r="H21" s="11">
         <v>452511.41198337602</v>
       </c>
-      <c r="I21" s="12">
+      <c r="I21" s="11">
         <v>473285.18448665307</v>
       </c>
-      <c r="J21" s="12">
+      <c r="J21" s="11">
         <v>596803.04104969115</v>
       </c>
-      <c r="K21" s="12">
+      <c r="K21" s="11">
         <v>589857.43764484813</v>
       </c>
-      <c r="L21" s="12">
+      <c r="L21" s="11">
         <v>663384.00751766691</v>
       </c>
-      <c r="M21" s="12">
+      <c r="M21" s="11">
         <v>620572.7167721556</v>
       </c>
-      <c r="N21" s="12">
+      <c r="N21" s="11">
         <v>684900.47490387596</v>
       </c>
-      <c r="O21" s="12">
+      <c r="O21" s="11">
         <v>800119.57280681201</v>
       </c>
-      <c r="P21" s="12">
+      <c r="P21" s="11">
         <v>910646.62346380437</v>
       </c>
-      <c r="Q21" s="12">
+      <c r="Q21" s="11">
         <v>1041994.8512352201</v>
       </c>
-      <c r="R21" s="12">
+      <c r="R21" s="11">
         <v>1145619.1818840301</v>
       </c>
-      <c r="S21" s="12">
+      <c r="S21" s="11">
         <v>1291361.3696460803</v>
       </c>
-      <c r="T21" s="12">
+      <c r="T21" s="11">
         <v>1428267.4370563668</v>
       </c>
-      <c r="U21" s="12">
+      <c r="U21" s="11">
         <v>1551918.3128663637</v>
       </c>
-      <c r="V21" s="12">
+      <c r="V21" s="11">
         <v>1128025.1865472822</v>
       </c>
-      <c r="W21" s="12">
+      <c r="W21" s="11">
         <v>1022296.5540519392</v>
       </c>
-      <c r="X21" s="9"/>
+      <c r="X21" s="11">
+        <v>1527261.8080467912</v>
+      </c>
       <c r="Y21" s="9"/>
       <c r="Z21" s="9"/>
       <c r="AA21" s="9"/>
@@ -2172,38 +2196,39 @@
       <c r="CQ21" s="9"/>
       <c r="CR21" s="9"/>
     </row>
-    <row r="22" spans="1:96" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="13"/>
-      <c r="B22" s="13"/>
-      <c r="C22" s="13"/>
-      <c r="D22" s="13"/>
-      <c r="E22" s="13"/>
-      <c r="F22" s="13"/>
-      <c r="G22" s="13"/>
-      <c r="H22" s="13"/>
-      <c r="I22" s="13"/>
-      <c r="J22" s="13"/>
-      <c r="K22" s="13"/>
-      <c r="L22" s="13"/>
-      <c r="M22" s="13"/>
-      <c r="N22" s="13"/>
-      <c r="O22" s="13"/>
-      <c r="P22" s="13"/>
-      <c r="Q22" s="13"/>
-      <c r="R22" s="13"/>
-      <c r="S22" s="13"/>
-      <c r="T22" s="13"/>
-      <c r="U22" s="13"/>
-      <c r="V22" s="13"/>
-      <c r="W22" s="13"/>
-    </row>
-    <row r="23" spans="1:96" x14ac:dyDescent="0.25">
-      <c r="A23" s="14" t="s">
+    <row r="22" spans="1:96" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="12"/>
+      <c r="B22" s="12"/>
+      <c r="C22" s="12"/>
+      <c r="D22" s="12"/>
+      <c r="E22" s="12"/>
+      <c r="F22" s="12"/>
+      <c r="G22" s="12"/>
+      <c r="H22" s="12"/>
+      <c r="I22" s="12"/>
+      <c r="J22" s="12"/>
+      <c r="K22" s="12"/>
+      <c r="L22" s="12"/>
+      <c r="M22" s="12"/>
+      <c r="N22" s="12"/>
+      <c r="O22" s="12"/>
+      <c r="P22" s="12"/>
+      <c r="Q22" s="12"/>
+      <c r="R22" s="12"/>
+      <c r="S22" s="12"/>
+      <c r="T22" s="12"/>
+      <c r="U22" s="12"/>
+      <c r="V22" s="12"/>
+      <c r="W22" s="12"/>
+      <c r="X22" s="12"/>
+    </row>
+    <row r="23" spans="1:96" x14ac:dyDescent="0.2">
+      <c r="A23" s="13" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="10"/>
+    <row r="24" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24"/>
       <c r="B24" s="9"/>
       <c r="C24" s="9"/>
       <c r="D24" s="9"/>
@@ -2300,8 +2325,8 @@
       <c r="CQ24" s="9"/>
       <c r="CR24" s="9"/>
     </row>
-    <row r="25" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="10"/>
+    <row r="25" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25"/>
       <c r="B25" s="9"/>
       <c r="C25" s="9"/>
       <c r="D25" s="9"/>
@@ -2398,136 +2423,140 @@
       <c r="CQ25" s="9"/>
       <c r="CR25" s="9"/>
     </row>
-    <row r="26" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="27" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="28" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="30" spans="1:96" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="30" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="31" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="32" spans="1:96" x14ac:dyDescent="0.25">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="32" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="34" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A34" s="3"/>
-      <c r="B34" s="15" t="s">
+      <c r="B34" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="C34" s="15"/>
-      <c r="D34" s="15"/>
-      <c r="E34" s="15"/>
-      <c r="F34" s="15"/>
-      <c r="G34" s="15"/>
-      <c r="H34" s="15"/>
-      <c r="I34" s="15"/>
-      <c r="J34" s="15"/>
-      <c r="K34" s="15"/>
-      <c r="L34" s="15"/>
-      <c r="M34" s="15"/>
-      <c r="N34" s="15"/>
-      <c r="O34" s="15"/>
-      <c r="P34" s="15"/>
-      <c r="Q34" s="15"/>
-      <c r="R34" s="15"/>
-      <c r="S34" s="15"/>
-      <c r="T34" s="15"/>
-      <c r="U34" s="15"/>
-      <c r="V34" s="15"/>
-      <c r="W34" s="15"/>
-    </row>
-    <row r="35" spans="1:96" x14ac:dyDescent="0.25">
+      <c r="C34" s="14"/>
+      <c r="D34" s="14"/>
+      <c r="E34" s="14"/>
+      <c r="F34" s="14"/>
+      <c r="G34" s="14"/>
+      <c r="H34" s="14"/>
+      <c r="I34" s="14"/>
+      <c r="J34" s="14"/>
+      <c r="K34" s="14"/>
+      <c r="L34" s="14"/>
+      <c r="M34" s="14"/>
+      <c r="N34" s="14"/>
+      <c r="O34" s="14"/>
+      <c r="P34" s="14"/>
+      <c r="Q34" s="14"/>
+      <c r="R34" s="14"/>
+      <c r="S34" s="14"/>
+      <c r="T34" s="14"/>
+      <c r="U34" s="14"/>
+      <c r="V34" s="14"/>
+      <c r="W34" s="14"/>
+      <c r="X34" s="14"/>
+    </row>
+    <row r="35" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A35" s="5"/>
-      <c r="B35" s="16">
+      <c r="B35" s="15">
         <v>2000</v>
       </c>
-      <c r="C35" s="16">
+      <c r="C35" s="15">
         <v>2001</v>
       </c>
-      <c r="D35" s="16">
+      <c r="D35" s="15">
         <v>2002</v>
       </c>
-      <c r="E35" s="16">
+      <c r="E35" s="15">
         <v>2003</v>
       </c>
-      <c r="F35" s="16">
+      <c r="F35" s="15">
         <v>2004</v>
       </c>
-      <c r="G35" s="16">
+      <c r="G35" s="15">
         <v>2005</v>
       </c>
-      <c r="H35" s="16">
+      <c r="H35" s="15">
         <v>2006</v>
       </c>
-      <c r="I35" s="16">
+      <c r="I35" s="15">
         <v>2007</v>
       </c>
-      <c r="J35" s="16">
+      <c r="J35" s="15">
         <v>2008</v>
       </c>
-      <c r="K35" s="16">
+      <c r="K35" s="15">
         <v>2009</v>
       </c>
-      <c r="L35" s="16">
+      <c r="L35" s="15">
         <v>2010</v>
       </c>
-      <c r="M35" s="16">
+      <c r="M35" s="15">
         <v>2011</v>
       </c>
-      <c r="N35" s="16">
+      <c r="N35" s="15">
         <v>2012</v>
       </c>
-      <c r="O35" s="16">
+      <c r="O35" s="15">
         <v>2013</v>
       </c>
-      <c r="P35" s="16">
+      <c r="P35" s="15">
         <v>2014</v>
       </c>
-      <c r="Q35" s="16">
+      <c r="Q35" s="15">
         <v>2015</v>
       </c>
-      <c r="R35" s="16">
+      <c r="R35" s="15">
         <v>2016</v>
       </c>
-      <c r="S35" s="16">
+      <c r="S35" s="15">
         <v>2017</v>
       </c>
-      <c r="T35" s="16">
+      <c r="T35" s="15">
         <v>2018</v>
       </c>
-      <c r="U35" s="16">
+      <c r="U35" s="15">
         <v>2019</v>
       </c>
-      <c r="V35" s="16">
+      <c r="V35" s="15">
         <v>2020</v>
       </c>
-      <c r="W35" s="16">
+      <c r="W35" s="15">
         <v>2021</v>
       </c>
-    </row>
-    <row r="36" spans="1:96" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X35" s="15">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="36" spans="1:96" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="7"/>
     </row>
-    <row r="37" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>9</v>
       </c>
@@ -2597,7 +2626,9 @@
       <c r="W37" s="8">
         <v>235066.56248732028</v>
       </c>
-      <c r="X37" s="9"/>
+      <c r="X37" s="8">
+        <v>316599.74688165128</v>
+      </c>
       <c r="Y37" s="9"/>
       <c r="Z37" s="9"/>
       <c r="AA37" s="9"/>
@@ -2671,7 +2702,7 @@
       <c r="CQ37" s="9"/>
       <c r="CR37" s="9"/>
     </row>
-    <row r="38" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
         <v>8</v>
       </c>
@@ -2741,7 +2772,9 @@
       <c r="W38" s="8">
         <v>78290.669941890214</v>
       </c>
-      <c r="X38" s="9"/>
+      <c r="X38" s="8">
+        <v>94251.792644612447</v>
+      </c>
       <c r="Y38" s="9"/>
       <c r="Z38" s="9"/>
       <c r="AA38" s="9"/>
@@ -2815,7 +2848,7 @@
       <c r="CQ38" s="9"/>
       <c r="CR38" s="9"/>
     </row>
-    <row r="39" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
         <v>7</v>
       </c>
@@ -2885,7 +2918,9 @@
       <c r="W39" s="8">
         <v>256401.96946446007</v>
       </c>
-      <c r="X39" s="9"/>
+      <c r="X39" s="8">
+        <v>457438.97693960648</v>
+      </c>
       <c r="Y39" s="9"/>
       <c r="Z39" s="9"/>
       <c r="AA39" s="9"/>
@@ -2959,7 +2994,7 @@
       <c r="CQ39" s="9"/>
       <c r="CR39" s="9"/>
     </row>
-    <row r="40" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
         <v>6</v>
       </c>
@@ -3029,7 +3064,9 @@
       <c r="W40" s="8">
         <v>19915.977915513202</v>
       </c>
-      <c r="X40" s="9"/>
+      <c r="X40" s="8">
+        <v>19445.696470798051</v>
+      </c>
       <c r="Y40" s="9"/>
       <c r="Z40" s="9"/>
       <c r="AA40" s="9"/>
@@ -3103,7 +3140,7 @@
       <c r="CQ40" s="9"/>
       <c r="CR40" s="9"/>
     </row>
-    <row r="41" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
         <v>5</v>
       </c>
@@ -3173,7 +3210,9 @@
       <c r="W41" s="8">
         <v>102640.85341983833</v>
       </c>
-      <c r="X41" s="9"/>
+      <c r="X41" s="8">
+        <v>97143.12078805035</v>
+      </c>
       <c r="Y41" s="9"/>
       <c r="Z41" s="9"/>
       <c r="AA41" s="9"/>
@@ -3247,7 +3286,7 @@
       <c r="CQ41" s="9"/>
       <c r="CR41" s="9"/>
     </row>
-    <row r="42" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
         <v>4</v>
       </c>
@@ -3317,7 +3356,9 @@
       <c r="W42" s="8">
         <v>253448.4118842379</v>
       </c>
-      <c r="X42" s="9"/>
+      <c r="X42" s="8">
+        <v>352756.77518294699</v>
+      </c>
       <c r="Y42" s="9"/>
       <c r="Z42" s="9"/>
       <c r="AA42" s="9"/>
@@ -3391,7 +3432,7 @@
       <c r="CQ42" s="9"/>
       <c r="CR42" s="9"/>
     </row>
-    <row r="43" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
         <v>3</v>
       </c>
@@ -3461,7 +3502,9 @@
       <c r="W43" s="8">
         <v>30977.177931895334</v>
       </c>
-      <c r="X43" s="9"/>
+      <c r="X43" s="8">
+        <v>31432.862158343149</v>
+      </c>
       <c r="Y43" s="9"/>
       <c r="Z43" s="9"/>
       <c r="AA43" s="9"/>
@@ -3535,7 +3578,7 @@
       <c r="CQ43" s="9"/>
       <c r="CR43" s="9"/>
     </row>
-    <row r="44" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
         <v>2</v>
       </c>
@@ -3605,7 +3648,9 @@
       <c r="W44" s="8">
         <v>34429.804326139907</v>
       </c>
-      <c r="X44" s="9"/>
+      <c r="X44" s="8">
+        <v>68661.006810373598</v>
+      </c>
       <c r="Y44" s="9"/>
       <c r="Z44" s="9"/>
       <c r="AA44" s="9"/>
@@ -3679,8 +3724,8 @@
       <c r="CQ44" s="9"/>
       <c r="CR44" s="9"/>
     </row>
-    <row r="45" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="10"/>
+    <row r="45" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A45"/>
       <c r="B45" s="9"/>
       <c r="C45" s="9"/>
       <c r="D45" s="9"/>
@@ -3777,77 +3822,79 @@
       <c r="CQ45" s="9"/>
       <c r="CR45" s="9"/>
     </row>
-    <row r="46" spans="1:96" x14ac:dyDescent="0.25">
-      <c r="A46" s="11" t="s">
+    <row r="46" spans="1:96" x14ac:dyDescent="0.2">
+      <c r="A46" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B46" s="12">
+      <c r="B46" s="11">
         <v>447542.97020750877</v>
       </c>
-      <c r="C46" s="12">
+      <c r="C46" s="11">
         <v>483983.62817349011</v>
       </c>
-      <c r="D46" s="12">
+      <c r="D46" s="11">
         <v>531663.54215372202</v>
       </c>
-      <c r="E46" s="12">
+      <c r="E46" s="11">
         <v>530336.56997395377</v>
       </c>
-      <c r="F46" s="12">
+      <c r="F46" s="11">
         <v>551665.12152384804</v>
       </c>
-      <c r="G46" s="12">
+      <c r="G46" s="11">
         <v>490000.98177870084</v>
       </c>
-      <c r="H46" s="12">
+      <c r="H46" s="11">
         <v>499196.80271616857</v>
       </c>
-      <c r="I46" s="12">
+      <c r="I46" s="11">
         <v>537531.30280448426</v>
       </c>
-      <c r="J46" s="12">
+      <c r="J46" s="11">
         <v>680381.89467052603</v>
       </c>
-      <c r="K46" s="12">
+      <c r="K46" s="11">
         <v>636013.84749410383</v>
       </c>
-      <c r="L46" s="12">
+      <c r="L46" s="11">
         <v>747042.8665755291</v>
       </c>
-      <c r="M46" s="12">
+      <c r="M46" s="11">
         <v>666743.93417385488</v>
       </c>
-      <c r="N46" s="12">
+      <c r="N46" s="11">
         <v>744621.34135836491</v>
       </c>
-      <c r="O46" s="12">
+      <c r="O46" s="11">
         <v>828088.62182737095</v>
       </c>
-      <c r="P46" s="12">
+      <c r="P46" s="11">
         <v>913461.96963401022</v>
       </c>
-      <c r="Q46" s="12">
+      <c r="Q46" s="11">
         <v>1067090.9628242399</v>
       </c>
-      <c r="R46" s="12">
+      <c r="R46" s="11">
         <v>1170039.4026461695</v>
       </c>
-      <c r="S46" s="12">
+      <c r="S46" s="11">
         <v>1298509.9775400271</v>
       </c>
-      <c r="T46" s="12">
+      <c r="T46" s="11">
         <v>1428267.4370563675</v>
       </c>
-      <c r="U46" s="12">
+      <c r="U46" s="11">
         <v>1529258.8994520556</v>
       </c>
-      <c r="V46" s="12">
+      <c r="V46" s="11">
         <v>1120029.6179045856</v>
       </c>
-      <c r="W46" s="12">
+      <c r="W46" s="11">
         <v>1011171.4273712953</v>
       </c>
-      <c r="X46" s="9"/>
+      <c r="X46" s="11">
+        <v>1437729.9778763824</v>
+      </c>
       <c r="Y46" s="9"/>
       <c r="Z46" s="9"/>
       <c r="AA46" s="9"/>
@@ -3921,38 +3968,39 @@
       <c r="CQ46" s="9"/>
       <c r="CR46" s="9"/>
     </row>
-    <row r="47" spans="1:96" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="13"/>
-      <c r="B47" s="13"/>
-      <c r="C47" s="13"/>
-      <c r="D47" s="13"/>
-      <c r="E47" s="13"/>
-      <c r="F47" s="13"/>
-      <c r="G47" s="13"/>
-      <c r="H47" s="13"/>
-      <c r="I47" s="13"/>
-      <c r="J47" s="13"/>
-      <c r="K47" s="13"/>
-      <c r="L47" s="13"/>
-      <c r="M47" s="13"/>
-      <c r="N47" s="13"/>
-      <c r="O47" s="13"/>
-      <c r="P47" s="13"/>
-      <c r="Q47" s="13"/>
-      <c r="R47" s="13"/>
-      <c r="S47" s="13"/>
-      <c r="T47" s="13"/>
-      <c r="U47" s="13"/>
-      <c r="V47" s="13"/>
-      <c r="W47" s="13"/>
-    </row>
-    <row r="48" spans="1:96" x14ac:dyDescent="0.25">
-      <c r="A48" s="14" t="s">
+    <row r="47" spans="1:96" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="12"/>
+      <c r="B47" s="12"/>
+      <c r="C47" s="12"/>
+      <c r="D47" s="12"/>
+      <c r="E47" s="12"/>
+      <c r="F47" s="12"/>
+      <c r="G47" s="12"/>
+      <c r="H47" s="12"/>
+      <c r="I47" s="12"/>
+      <c r="J47" s="12"/>
+      <c r="K47" s="12"/>
+      <c r="L47" s="12"/>
+      <c r="M47" s="12"/>
+      <c r="N47" s="12"/>
+      <c r="O47" s="12"/>
+      <c r="P47" s="12"/>
+      <c r="Q47" s="12"/>
+      <c r="R47" s="12"/>
+      <c r="S47" s="12"/>
+      <c r="T47" s="12"/>
+      <c r="U47" s="12"/>
+      <c r="V47" s="12"/>
+      <c r="W47" s="12"/>
+      <c r="X47" s="12"/>
+    </row>
+    <row r="48" spans="1:96" x14ac:dyDescent="0.2">
+      <c r="A48" s="13" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="10"/>
+    <row r="49" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A49"/>
       <c r="B49" s="9"/>
       <c r="C49" s="9"/>
       <c r="D49" s="9"/>
@@ -4049,8 +4097,8 @@
       <c r="CQ49" s="9"/>
       <c r="CR49" s="9"/>
     </row>
-    <row r="50" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="10"/>
+    <row r="50" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A50"/>
       <c r="B50" s="9"/>
       <c r="C50" s="9"/>
       <c r="D50" s="9"/>
@@ -4147,202 +4195,208 @@
       <c r="CQ50" s="9"/>
       <c r="CR50" s="9"/>
     </row>
-    <row r="51" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="52" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="53" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="55" spans="1:96" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="55" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="56" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="57" spans="1:96" x14ac:dyDescent="0.25">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="57" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="59" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A59" s="3"/>
-      <c r="B59" s="15" t="s">
+      <c r="B59" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="C59" s="15"/>
-      <c r="D59" s="15"/>
-      <c r="E59" s="15"/>
-      <c r="F59" s="15"/>
-      <c r="G59" s="15"/>
-      <c r="H59" s="15"/>
-      <c r="I59" s="15"/>
-      <c r="J59" s="15"/>
-      <c r="K59" s="15"/>
-      <c r="L59" s="15"/>
-      <c r="M59" s="15"/>
-      <c r="N59" s="15"/>
-      <c r="O59" s="15"/>
-      <c r="P59" s="15"/>
-      <c r="Q59" s="15"/>
-      <c r="R59" s="15"/>
-      <c r="S59" s="15"/>
-      <c r="T59" s="15"/>
-      <c r="U59" s="15"/>
-      <c r="V59" s="15"/>
-      <c r="W59" s="15"/>
-    </row>
-    <row r="60" spans="1:96" x14ac:dyDescent="0.25">
+      <c r="C59" s="14"/>
+      <c r="D59" s="14"/>
+      <c r="E59" s="14"/>
+      <c r="F59" s="14"/>
+      <c r="G59" s="14"/>
+      <c r="H59" s="14"/>
+      <c r="I59" s="14"/>
+      <c r="J59" s="14"/>
+      <c r="K59" s="14"/>
+      <c r="L59" s="14"/>
+      <c r="M59" s="14"/>
+      <c r="N59" s="14"/>
+      <c r="O59" s="14"/>
+      <c r="P59" s="14"/>
+      <c r="Q59" s="14"/>
+      <c r="R59" s="14"/>
+      <c r="S59" s="14"/>
+      <c r="T59" s="14"/>
+      <c r="U59" s="14"/>
+      <c r="V59" s="14"/>
+      <c r="W59" s="14"/>
+      <c r="X59" s="14"/>
+    </row>
+    <row r="60" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A60" s="5"/>
-      <c r="B60" s="16" t="s">
+      <c r="B60" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="C60" s="16" t="s">
+      <c r="C60" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="D60" s="16" t="s">
+      <c r="D60" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="E60" s="16" t="s">
+      <c r="E60" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="F60" s="16" t="s">
+      <c r="F60" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="G60" s="16" t="s">
+      <c r="G60" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="H60" s="16" t="s">
+      <c r="H60" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="I60" s="16" t="s">
+      <c r="I60" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="J60" s="16" t="s">
+      <c r="J60" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="K60" s="16" t="s">
+      <c r="K60" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="L60" s="16" t="s">
+      <c r="L60" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="M60" s="16" t="s">
+      <c r="M60" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="N60" s="16" t="s">
+      <c r="N60" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="O60" s="16" t="s">
+      <c r="O60" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="P60" s="16" t="s">
+      <c r="P60" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="Q60" s="16" t="s">
+      <c r="Q60" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="R60" s="16" t="s">
+      <c r="R60" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="S60" s="16" t="s">
+      <c r="S60" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="T60" s="16" t="s">
+      <c r="T60" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="U60" s="16" t="s">
+      <c r="U60" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="V60" s="16" t="s">
+      <c r="V60" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="W60" s="16"/>
-    </row>
-    <row r="61" spans="1:96" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W60" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="X60" s="15"/>
+    </row>
+    <row r="61" spans="1:96" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="7"/>
     </row>
-    <row r="62" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B62" s="17">
+      <c r="B62" s="16">
         <v>4.4146085065173111</v>
       </c>
-      <c r="C62" s="17">
+      <c r="C62" s="16">
         <v>-10.640250466972759</v>
       </c>
-      <c r="D62" s="17">
+      <c r="D62" s="16">
         <v>6.4478139830318923</v>
       </c>
-      <c r="E62" s="17">
+      <c r="E62" s="16">
         <v>4.6162901045500178</v>
       </c>
-      <c r="F62" s="17">
+      <c r="F62" s="16">
         <v>2.8346245170508269</v>
       </c>
-      <c r="G62" s="17">
+      <c r="G62" s="16">
         <v>-5.6693296140137335</v>
       </c>
-      <c r="H62" s="17">
+      <c r="H62" s="16">
         <v>7.1728932418264435</v>
       </c>
-      <c r="I62" s="17">
+      <c r="I62" s="16">
         <v>23.335037817418652</v>
       </c>
-      <c r="J62" s="17">
+      <c r="J62" s="16">
         <v>-5.5303925283062654</v>
       </c>
-      <c r="K62" s="17">
+      <c r="K62" s="16">
         <v>14.509360849499473</v>
       </c>
-      <c r="L62" s="17">
+      <c r="L62" s="16">
         <v>-24.101000226548891</v>
       </c>
-      <c r="M62" s="17">
+      <c r="M62" s="16">
         <v>8.7923280729240503</v>
       </c>
-      <c r="N62" s="17">
+      <c r="N62" s="16">
         <v>-3.3209067954724958</v>
       </c>
-      <c r="O62" s="17">
+      <c r="O62" s="16">
         <v>8.6593936534202811</v>
       </c>
-      <c r="P62" s="17">
+      <c r="P62" s="16">
         <v>12.170683194467429</v>
       </c>
-      <c r="Q62" s="17">
+      <c r="Q62" s="16">
         <v>26.732670052160401</v>
       </c>
-      <c r="R62" s="17">
+      <c r="R62" s="16">
         <v>14.93469493619142</v>
       </c>
-      <c r="S62" s="17">
+      <c r="S62" s="16">
         <v>15.334506373983331</v>
       </c>
-      <c r="T62" s="17">
+      <c r="T62" s="16">
         <v>-6.2194327472904121</v>
       </c>
-      <c r="U62" s="17">
+      <c r="U62" s="16">
         <v>-22.568704144396605</v>
       </c>
-      <c r="V62" s="17">
+      <c r="V62" s="16">
         <v>21.199434040815319</v>
       </c>
-      <c r="W62" s="17"/>
-      <c r="X62" s="9"/>
+      <c r="W62" s="16">
+        <v>44.574154010478878</v>
+      </c>
+      <c r="X62" s="16"/>
       <c r="Y62" s="9"/>
       <c r="Z62" s="9"/>
       <c r="AA62" s="9"/>
@@ -4411,75 +4465,77 @@
       <c r="CL62" s="9"/>
       <c r="CM62" s="9"/>
     </row>
-    <row r="63" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B63" s="17">
+      <c r="B63" s="16">
         <v>16.578486617123517</v>
       </c>
-      <c r="C63" s="17">
+      <c r="C63" s="16">
         <v>20.021500380985586</v>
       </c>
-      <c r="D63" s="17">
+      <c r="D63" s="16">
         <v>9.0496962923965185</v>
       </c>
-      <c r="E63" s="17">
+      <c r="E63" s="16">
         <v>13.072585890829643</v>
       </c>
-      <c r="F63" s="17">
+      <c r="F63" s="16">
         <v>0.25885057733010797</v>
       </c>
-      <c r="G63" s="17">
+      <c r="G63" s="16">
         <v>5.5370953068003388</v>
       </c>
-      <c r="H63" s="17">
+      <c r="H63" s="16">
         <v>-2.0628241863711452</v>
       </c>
-      <c r="I63" s="17">
+      <c r="I63" s="16">
         <v>0.48691870880253418</v>
       </c>
-      <c r="J63" s="17">
+      <c r="J63" s="16">
         <v>-3.6332179848871107</v>
       </c>
-      <c r="K63" s="17">
+      <c r="K63" s="16">
         <v>25.098534621206056</v>
       </c>
-      <c r="L63" s="17">
+      <c r="L63" s="16">
         <v>-2.8793301687815074</v>
       </c>
-      <c r="M63" s="17">
+      <c r="M63" s="16">
         <v>-8.7574847326784351</v>
       </c>
-      <c r="N63" s="17">
+      <c r="N63" s="16">
         <v>-5.6236456766010292</v>
       </c>
-      <c r="O63" s="17">
+      <c r="O63" s="16">
         <v>6.0051468785452045</v>
       </c>
-      <c r="P63" s="17">
+      <c r="P63" s="16">
         <v>12.767575190247896</v>
       </c>
-      <c r="Q63" s="17">
+      <c r="Q63" s="16">
         <v>66.713250255570898</v>
       </c>
-      <c r="R63" s="17">
+      <c r="R63" s="16">
         <v>18.425453908781435</v>
       </c>
-      <c r="S63" s="17">
+      <c r="S63" s="16">
         <v>9.2019838162329819</v>
       </c>
-      <c r="T63" s="17">
+      <c r="T63" s="16">
         <v>3.3925973753485863</v>
       </c>
-      <c r="U63" s="17">
+      <c r="U63" s="16">
         <v>-22.930744783154623</v>
       </c>
-      <c r="V63" s="17">
+      <c r="V63" s="16">
         <v>33.326480090290573</v>
       </c>
-      <c r="W63" s="17"/>
-      <c r="X63" s="9"/>
+      <c r="W63" s="16">
+        <v>23.903075014704342</v>
+      </c>
+      <c r="X63" s="16"/>
       <c r="Y63" s="9"/>
       <c r="Z63" s="9"/>
       <c r="AA63" s="9"/>
@@ -4548,75 +4604,77 @@
       <c r="CL63" s="9"/>
       <c r="CM63" s="9"/>
     </row>
-    <row r="64" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B64" s="17">
+      <c r="B64" s="16">
         <v>24.76684892236733</v>
       </c>
-      <c r="C64" s="17">
+      <c r="C64" s="16">
         <v>42.386308019571828</v>
       </c>
-      <c r="D64" s="17">
+      <c r="D64" s="16">
         <v>12.713025198547001</v>
       </c>
-      <c r="E64" s="17">
+      <c r="E64" s="16">
         <v>24.578676818834367</v>
       </c>
-      <c r="F64" s="17">
+      <c r="F64" s="16">
         <v>-13.030668317304546</v>
       </c>
-      <c r="G64" s="17">
+      <c r="G64" s="16">
         <v>0.95471910184777187</v>
       </c>
-      <c r="H64" s="17">
+      <c r="H64" s="16">
         <v>1.9289536921304631</v>
       </c>
-      <c r="I64" s="17">
+      <c r="I64" s="16">
         <v>29.744105858075386</v>
       </c>
-      <c r="J64" s="17">
+      <c r="J64" s="16">
         <v>-0.89567353901271929</v>
       </c>
-      <c r="K64" s="17">
+      <c r="K64" s="16">
         <v>11.378730657547067</v>
       </c>
-      <c r="L64" s="17">
+      <c r="L64" s="16">
         <v>3.3421432200432264</v>
       </c>
-      <c r="M64" s="17">
+      <c r="M64" s="16">
         <v>9.959852142378935</v>
       </c>
-      <c r="N64" s="17">
+      <c r="N64" s="16">
         <v>19.086226471513072</v>
       </c>
-      <c r="O64" s="17">
+      <c r="O64" s="16">
         <v>6.3644530383172082</v>
       </c>
-      <c r="P64" s="17">
+      <c r="P64" s="16">
         <v>5.5732224014754479</v>
       </c>
-      <c r="Q64" s="17">
+      <c r="Q64" s="16">
         <v>3.4630260190401998</v>
       </c>
-      <c r="R64" s="17">
+      <c r="R64" s="16">
         <v>9.6793620778224749</v>
       </c>
-      <c r="S64" s="17">
+      <c r="S64" s="16">
         <v>8.4314910591802601</v>
       </c>
-      <c r="T64" s="17">
+      <c r="T64" s="16">
         <v>8.8814397975719857</v>
       </c>
-      <c r="U64" s="17">
+      <c r="U64" s="16">
         <v>-37.58959134321541</v>
       </c>
-      <c r="V64" s="17">
+      <c r="V64" s="16">
         <v>-43.656615412773192</v>
       </c>
-      <c r="W64" s="17"/>
-      <c r="X64" s="9"/>
+      <c r="W64" s="16">
+        <v>90.273498454249619</v>
+      </c>
+      <c r="X64" s="16"/>
       <c r="Y64" s="9"/>
       <c r="Z64" s="9"/>
       <c r="AA64" s="9"/>
@@ -4685,75 +4743,77 @@
       <c r="CL64" s="9"/>
       <c r="CM64" s="9"/>
     </row>
-    <row r="65" spans="1:91" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:91" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B65" s="17">
+      <c r="B65" s="16">
         <v>-0.66672078269493795</v>
       </c>
-      <c r="C65" s="17">
+      <c r="C65" s="16">
         <v>-28.02683580924456</v>
       </c>
-      <c r="D65" s="17">
+      <c r="D65" s="16">
         <v>-28.562024927186513</v>
       </c>
-      <c r="E65" s="17">
+      <c r="E65" s="16">
         <v>75.906898985405405</v>
       </c>
-      <c r="F65" s="17">
+      <c r="F65" s="16">
         <v>30.981149294696706</v>
       </c>
-      <c r="G65" s="17">
+      <c r="G65" s="16">
         <v>31.540383682579716</v>
       </c>
-      <c r="H65" s="17">
+      <c r="H65" s="16">
         <v>18.170604886610178</v>
       </c>
-      <c r="I65" s="17">
+      <c r="I65" s="16">
         <v>59.675793364562793</v>
       </c>
-      <c r="J65" s="17">
+      <c r="J65" s="16">
         <v>13.278660366005425</v>
       </c>
-      <c r="K65" s="17">
+      <c r="K65" s="16">
         <v>-1.0162204797183705</v>
       </c>
-      <c r="L65" s="17">
+      <c r="L65" s="16">
         <v>18.186201828151695</v>
       </c>
-      <c r="M65" s="17">
+      <c r="M65" s="16">
         <v>-5.8496743628113563</v>
       </c>
-      <c r="N65" s="17">
+      <c r="N65" s="16">
         <v>-7.2531039088387672</v>
       </c>
-      <c r="O65" s="17">
+      <c r="O65" s="16">
         <v>29.843280688273069</v>
       </c>
-      <c r="P65" s="17">
+      <c r="P65" s="16">
         <v>-15.975161017980255</v>
       </c>
-      <c r="Q65" s="17">
+      <c r="Q65" s="16">
         <v>44.327837697065064</v>
       </c>
-      <c r="R65" s="17">
+      <c r="R65" s="16">
         <v>-12.606285330307045</v>
       </c>
-      <c r="S65" s="17">
+      <c r="S65" s="16">
         <v>84.279722305673204</v>
       </c>
-      <c r="T65" s="17">
+      <c r="T65" s="16">
         <v>5.2950892633329971</v>
       </c>
-      <c r="U65" s="17">
+      <c r="U65" s="16">
         <v>-28.353308770954968</v>
       </c>
-      <c r="V65" s="17">
+      <c r="V65" s="16">
         <v>0.24318305722728439</v>
       </c>
-      <c r="W65" s="17"/>
-      <c r="X65" s="9"/>
+      <c r="W65" s="16">
+        <v>0.87631775794010025</v>
+      </c>
+      <c r="X65" s="16"/>
       <c r="Y65" s="9"/>
       <c r="Z65" s="9"/>
       <c r="AA65" s="9"/>
@@ -4822,75 +4882,77 @@
       <c r="CL65" s="9"/>
       <c r="CM65" s="9"/>
     </row>
-    <row r="66" spans="1:91" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:91" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B66" s="17">
+      <c r="B66" s="16">
         <v>23.723525194613785</v>
       </c>
-      <c r="C66" s="17">
+      <c r="C66" s="16">
         <v>-8.5002777870106456</v>
       </c>
-      <c r="D66" s="17">
+      <c r="D66" s="16">
         <v>7.0999126989931938</v>
       </c>
-      <c r="E66" s="17">
+      <c r="E66" s="16">
         <v>33.373169665599448</v>
       </c>
-      <c r="F66" s="17">
+      <c r="F66" s="16">
         <v>-6.8329312871357786</v>
       </c>
-      <c r="G66" s="17">
+      <c r="G66" s="16">
         <v>-9.6508253842604432</v>
       </c>
-      <c r="H66" s="17">
+      <c r="H66" s="16">
         <v>-20.36579325072654</v>
       </c>
-      <c r="I66" s="17">
+      <c r="I66" s="16">
         <v>35.83861160556728</v>
       </c>
-      <c r="J66" s="17">
+      <c r="J66" s="16">
         <v>-3.4114221192933343</v>
       </c>
-      <c r="K66" s="17">
+      <c r="K66" s="16">
         <v>23.723740531742649</v>
       </c>
-      <c r="L66" s="17">
+      <c r="L66" s="16">
         <v>11.321967090691487</v>
       </c>
-      <c r="M66" s="17">
+      <c r="M66" s="16">
         <v>-3.1275700817783019</v>
       </c>
-      <c r="N66" s="17">
+      <c r="N66" s="16">
         <v>58.379016993978041</v>
       </c>
-      <c r="O66" s="17">
+      <c r="O66" s="16">
         <v>30.290110761318147</v>
       </c>
-      <c r="P66" s="17">
+      <c r="P66" s="16">
         <v>25.01061295174236</v>
       </c>
-      <c r="Q66" s="17">
+      <c r="Q66" s="16">
         <v>-6.2204523381813885</v>
       </c>
-      <c r="R66" s="17">
+      <c r="R66" s="16">
         <v>38.976793896217799</v>
       </c>
-      <c r="S66" s="17">
+      <c r="S66" s="16">
         <v>24.543089470308075</v>
       </c>
-      <c r="T66" s="17">
+      <c r="T66" s="16">
         <v>15.232388643643489</v>
       </c>
-      <c r="U66" s="17">
+      <c r="U66" s="16">
         <v>24.229378985189527</v>
       </c>
-      <c r="V66" s="17">
+      <c r="V66" s="16">
         <v>43.985732974537598</v>
       </c>
-      <c r="W66" s="17"/>
-      <c r="X66" s="9"/>
+      <c r="W66" s="16">
+        <v>-2.3421766359742549</v>
+      </c>
+      <c r="X66" s="16"/>
       <c r="Y66" s="9"/>
       <c r="Z66" s="9"/>
       <c r="AA66" s="9"/>
@@ -4959,75 +5021,77 @@
       <c r="CL66" s="9"/>
       <c r="CM66" s="9"/>
     </row>
-    <row r="67" spans="1:91" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:91" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B67" s="17">
+      <c r="B67" s="16">
         <v>37.574653121529991</v>
       </c>
-      <c r="C67" s="17">
+      <c r="C67" s="16">
         <v>-8.255837447203362</v>
       </c>
-      <c r="D67" s="17">
+      <c r="D67" s="16">
         <v>7.0129544744868184</v>
       </c>
-      <c r="E67" s="17">
+      <c r="E67" s="16">
         <v>9.8284045590701083</v>
       </c>
-      <c r="F67" s="17">
+      <c r="F67" s="16">
         <v>-26.932474149854968</v>
       </c>
-      <c r="G67" s="17">
+      <c r="G67" s="16">
         <v>-7.9692756465145749</v>
       </c>
-      <c r="H67" s="17">
+      <c r="H67" s="16">
         <v>40.614868813258425</v>
       </c>
-      <c r="I67" s="17">
+      <c r="I67" s="16">
         <v>37.163109962569195</v>
       </c>
-      <c r="J67" s="17">
+      <c r="J67" s="16">
         <v>-6.1714814361428836</v>
       </c>
-      <c r="K67" s="17">
+      <c r="K67" s="16">
         <v>8.9142668436669226</v>
       </c>
-      <c r="L67" s="17">
+      <c r="L67" s="16">
         <v>-26.311729779977128</v>
       </c>
-      <c r="M67" s="17">
+      <c r="M67" s="16">
         <v>60.393444332464554</v>
       </c>
-      <c r="N67" s="17">
+      <c r="N67" s="16">
         <v>46.036625117140289</v>
       </c>
-      <c r="O67" s="17">
+      <c r="O67" s="16">
         <v>67.792859695147939</v>
       </c>
-      <c r="P67" s="17">
+      <c r="P67" s="16">
         <v>47.052425229904287</v>
       </c>
-      <c r="Q67" s="17">
+      <c r="Q67" s="16">
         <v>4.1598938358166748</v>
       </c>
-      <c r="R67" s="17">
+      <c r="R67" s="16">
         <v>11.009292069596</v>
       </c>
-      <c r="S67" s="17">
+      <c r="S67" s="16">
         <v>-0.52825201627507568</v>
       </c>
-      <c r="T67" s="17">
+      <c r="T67" s="16">
         <v>20.998025832938282</v>
       </c>
-      <c r="U67" s="17">
+      <c r="U67" s="16">
         <v>-13.562137864043791</v>
       </c>
-      <c r="V67" s="17">
+      <c r="V67" s="16">
         <v>1.9503754806075051</v>
       </c>
-      <c r="W67" s="17"/>
-      <c r="X67" s="9"/>
+      <c r="W67" s="16">
+        <v>44.208316659813363</v>
+      </c>
+      <c r="X67" s="16"/>
       <c r="Y67" s="9"/>
       <c r="Z67" s="9"/>
       <c r="AA67" s="9"/>
@@ -5096,75 +5160,77 @@
       <c r="CL67" s="9"/>
       <c r="CM67" s="9"/>
     </row>
-    <row r="68" spans="1:91" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:91" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B68" s="17">
+      <c r="B68" s="16">
         <v>35.232374318126233</v>
       </c>
-      <c r="C68" s="17">
+      <c r="C68" s="16">
         <v>-8.1780790536285792</v>
       </c>
-      <c r="D68" s="17">
+      <c r="D68" s="16">
         <v>6.8136908236188276</v>
       </c>
-      <c r="E68" s="17">
+      <c r="E68" s="16">
         <v>-5.0058121153338675</v>
       </c>
-      <c r="F68" s="17">
+      <c r="F68" s="16">
         <v>19.584563516488558</v>
       </c>
-      <c r="G68" s="17">
+      <c r="G68" s="16">
         <v>18.237486829110679</v>
       </c>
-      <c r="H68" s="17">
+      <c r="H68" s="16">
         <v>-7.0922919346343605</v>
       </c>
-      <c r="I68" s="17">
+      <c r="I68" s="16">
         <v>-10.308935709475776</v>
       </c>
-      <c r="J68" s="17">
+      <c r="J68" s="16">
         <v>24.702092974150645</v>
       </c>
-      <c r="K68" s="17">
+      <c r="K68" s="16">
         <v>17.329247339089619</v>
       </c>
-      <c r="L68" s="17">
+      <c r="L68" s="16">
         <v>-23.490923129854508</v>
       </c>
-      <c r="M68" s="17">
+      <c r="M68" s="16">
         <v>1.1445591236626314</v>
       </c>
-      <c r="N68" s="17">
+      <c r="N68" s="16">
         <v>17.317861941736439</v>
       </c>
-      <c r="O68" s="17">
+      <c r="O68" s="16">
         <v>12.354779549546109</v>
       </c>
-      <c r="P68" s="17">
+      <c r="P68" s="16">
         <v>14.331236229742089</v>
       </c>
-      <c r="Q68" s="17">
+      <c r="Q68" s="16">
         <v>-2.7695208026214999</v>
       </c>
-      <c r="R68" s="17">
+      <c r="R68" s="16">
         <v>49.969360859747468</v>
       </c>
-      <c r="S68" s="17">
+      <c r="S68" s="16">
         <v>30.713986312914813</v>
       </c>
-      <c r="T68" s="17">
+      <c r="T68" s="16">
         <v>6.4368436327641945</v>
       </c>
-      <c r="U68" s="17">
+      <c r="U68" s="16">
         <v>-35.26562748787228</v>
       </c>
-      <c r="V68" s="17">
+      <c r="V68" s="16">
         <v>-0.96097831827771074</v>
       </c>
-      <c r="W68" s="17"/>
-      <c r="X68" s="9"/>
+      <c r="W68" s="16">
+        <v>3.7042740493470347</v>
+      </c>
+      <c r="X68" s="16"/>
       <c r="Y68" s="9"/>
       <c r="Z68" s="9"/>
       <c r="AA68" s="9"/>
@@ -5233,75 +5299,77 @@
       <c r="CL68" s="9"/>
       <c r="CM68" s="9"/>
     </row>
-    <row r="69" spans="1:91" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:91" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B69" s="17">
+      <c r="B69" s="16">
         <v>23.533309903859063</v>
       </c>
-      <c r="C69" s="17">
+      <c r="C69" s="16">
         <v>-8.248103966951561</v>
       </c>
-      <c r="D69" s="17">
+      <c r="D69" s="16">
         <v>6.9169719746461595</v>
       </c>
-      <c r="E69" s="17">
+      <c r="E69" s="16">
         <v>-4.8348213532996738</v>
       </c>
-      <c r="F69" s="17">
+      <c r="F69" s="16">
         <v>-17.678308028243052</v>
       </c>
-      <c r="G69" s="17">
+      <c r="G69" s="16">
         <v>19.383617765055078</v>
       </c>
-      <c r="H69" s="17">
+      <c r="H69" s="16">
         <v>5.1233028881683111</v>
       </c>
-      <c r="I69" s="17">
+      <c r="I69" s="16">
         <v>42.216359247753047</v>
       </c>
-      <c r="J69" s="17">
+      <c r="J69" s="16">
         <v>35.003357177849693</v>
       </c>
-      <c r="K69" s="17">
+      <c r="K69" s="16">
         <v>-0.43780554092161594</v>
       </c>
-      <c r="L69" s="17">
+      <c r="L69" s="16">
         <v>9.3953247043218653</v>
       </c>
-      <c r="M69" s="17">
+      <c r="M69" s="16">
         <v>-6.5279000403041749</v>
       </c>
-      <c r="N69" s="17">
+      <c r="N69" s="16">
         <v>57.800691497979329</v>
       </c>
-      <c r="O69" s="17">
+      <c r="O69" s="16">
         <v>-6.9993052179180921</v>
       </c>
-      <c r="P69" s="17">
+      <c r="P69" s="16">
         <v>33.004351845447445</v>
       </c>
-      <c r="Q69" s="17">
+      <c r="Q69" s="16">
         <v>22.868632552237699</v>
       </c>
-      <c r="R69" s="17">
+      <c r="R69" s="16">
         <v>13.252609145369149</v>
       </c>
-      <c r="S69" s="17">
+      <c r="S69" s="16">
         <v>24.648867987317914</v>
       </c>
-      <c r="T69" s="17">
+      <c r="T69" s="16">
         <v>31.786662722076301</v>
       </c>
-      <c r="U69" s="17">
+      <c r="U69" s="16">
         <v>-37.825416521742916</v>
       </c>
-      <c r="V69" s="17">
+      <c r="V69" s="16">
         <v>-19.179001167617415</v>
       </c>
-      <c r="W69" s="17"/>
-      <c r="X69" s="9"/>
+      <c r="W69" s="16">
+        <v>108.02745460143953</v>
+      </c>
+      <c r="X69" s="16"/>
       <c r="Y69" s="9"/>
       <c r="Z69" s="9"/>
       <c r="AA69" s="9"/>
@@ -5370,8 +5438,8 @@
       <c r="CL69" s="9"/>
       <c r="CM69" s="9"/>
     </row>
-    <row r="70" spans="1:91" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="10"/>
+    <row r="70" spans="1:91" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A70"/>
       <c r="B70" s="9"/>
       <c r="C70" s="9"/>
       <c r="D70" s="9"/>
@@ -5463,75 +5531,77 @@
       <c r="CL70" s="9"/>
       <c r="CM70" s="9"/>
     </row>
-    <row r="71" spans="1:91" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="11" t="s">
+    <row r="71" spans="1:91" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A71" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B71" s="17">
+      <c r="B71" s="16">
         <v>17.376582674853452</v>
       </c>
-      <c r="C71" s="17">
+      <c r="C71" s="16">
         <v>12.531604367315737</v>
       </c>
-      <c r="D71" s="17">
+      <c r="D71" s="16">
         <v>9.6489944879990048</v>
       </c>
-      <c r="E71" s="17">
+      <c r="E71" s="16">
         <v>16.22322951569987</v>
       </c>
-      <c r="F71" s="17">
+      <c r="F71" s="16">
         <v>-8.3247412392853448</v>
       </c>
-      <c r="G71" s="17">
+      <c r="G71" s="16">
         <v>-0.26279385069702244</v>
       </c>
-      <c r="H71" s="17">
+      <c r="H71" s="16">
         <v>4.59077317237697</v>
       </c>
-      <c r="I71" s="17">
+      <c r="I71" s="16">
         <v>26.097976571358615</v>
       </c>
-      <c r="J71" s="17">
+      <c r="J71" s="16">
         <v>-1.1638016107670524</v>
       </c>
-      <c r="K71" s="17">
+      <c r="K71" s="16">
         <v>12.465142453131023</v>
       </c>
-      <c r="L71" s="17">
+      <c r="L71" s="16">
         <v>-6.4534704274388446</v>
       </c>
-      <c r="M71" s="17">
+      <c r="M71" s="16">
         <v>10.365869525543189</v>
       </c>
-      <c r="N71" s="17">
+      <c r="N71" s="16">
         <v>16.822750476134047</v>
       </c>
-      <c r="O71" s="17">
+      <c r="O71" s="16">
         <v>13.813816636089086</v>
       </c>
-      <c r="P71" s="17">
+      <c r="P71" s="16">
         <v>14.423622114998864</v>
       </c>
-      <c r="Q71" s="17">
+      <c r="Q71" s="16">
         <v>9.9448025607775179</v>
       </c>
-      <c r="R71" s="17">
+      <c r="R71" s="16">
         <v>12.721695836339748</v>
       </c>
-      <c r="S71" s="17">
+      <c r="S71" s="16">
         <v>10.601685215952216</v>
       </c>
-      <c r="T71" s="17">
+      <c r="T71" s="16">
         <v>8.6574035507551059</v>
       </c>
-      <c r="U71" s="17">
+      <c r="U71" s="16">
         <v>-27.314139075797044</v>
       </c>
-      <c r="V71" s="17">
+      <c r="V71" s="16">
         <v>-9.3728964349601682</v>
       </c>
-      <c r="W71" s="17"/>
-      <c r="X71" s="9"/>
+      <c r="W71" s="16">
+        <v>49.395183031126265</v>
+      </c>
+      <c r="X71" s="16"/>
       <c r="Y71" s="9"/>
       <c r="Z71" s="9"/>
       <c r="AA71" s="9"/>
@@ -5600,38 +5670,39 @@
       <c r="CL71" s="9"/>
       <c r="CM71" s="9"/>
     </row>
-    <row r="72" spans="1:91" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="13"/>
-      <c r="B72" s="13"/>
-      <c r="C72" s="13"/>
-      <c r="D72" s="13"/>
-      <c r="E72" s="13"/>
-      <c r="F72" s="13"/>
-      <c r="G72" s="13"/>
-      <c r="H72" s="13"/>
-      <c r="I72" s="13"/>
-      <c r="J72" s="13"/>
-      <c r="K72" s="13"/>
-      <c r="L72" s="13"/>
-      <c r="M72" s="13"/>
-      <c r="N72" s="13"/>
-      <c r="O72" s="13"/>
-      <c r="P72" s="13"/>
-      <c r="Q72" s="13"/>
-      <c r="R72" s="13"/>
-      <c r="S72" s="13"/>
-      <c r="T72" s="13"/>
-      <c r="U72" s="13"/>
-      <c r="V72" s="13"/>
-      <c r="W72" s="13"/>
-    </row>
-    <row r="73" spans="1:91" x14ac:dyDescent="0.25">
-      <c r="A73" s="14" t="s">
+    <row r="72" spans="1:91" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A72" s="12"/>
+      <c r="B72" s="12"/>
+      <c r="C72" s="12"/>
+      <c r="D72" s="12"/>
+      <c r="E72" s="12"/>
+      <c r="F72" s="12"/>
+      <c r="G72" s="12"/>
+      <c r="H72" s="12"/>
+      <c r="I72" s="12"/>
+      <c r="J72" s="12"/>
+      <c r="K72" s="12"/>
+      <c r="L72" s="12"/>
+      <c r="M72" s="12"/>
+      <c r="N72" s="12"/>
+      <c r="O72" s="12"/>
+      <c r="P72" s="12"/>
+      <c r="Q72" s="12"/>
+      <c r="R72" s="12"/>
+      <c r="S72" s="12"/>
+      <c r="T72" s="12"/>
+      <c r="U72" s="12"/>
+      <c r="V72" s="12"/>
+      <c r="W72" s="12"/>
+      <c r="X72" s="12"/>
+    </row>
+    <row r="73" spans="1:91" x14ac:dyDescent="0.2">
+      <c r="A73" s="13" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:91" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="10"/>
+    <row r="74" spans="1:91" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A74"/>
       <c r="B74" s="9"/>
       <c r="C74" s="9"/>
       <c r="D74" s="9"/>
@@ -5723,8 +5794,8 @@
       <c r="CL74" s="9"/>
       <c r="CM74" s="9"/>
     </row>
-    <row r="75" spans="1:91" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="10"/>
+    <row r="75" spans="1:91" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A75"/>
       <c r="B75" s="9"/>
       <c r="C75" s="9"/>
       <c r="D75" s="9"/>
@@ -5816,202 +5887,208 @@
       <c r="CL75" s="9"/>
       <c r="CM75" s="9"/>
     </row>
-    <row r="76" spans="1:91" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:91" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="77" spans="1:91" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:91" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="78" spans="1:91" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:91" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="80" spans="1:91" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="80" spans="1:91" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="81" spans="1:91" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:91" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="82" spans="1:91" x14ac:dyDescent="0.25">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="82" spans="1:91" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="84" spans="1:91" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:91" x14ac:dyDescent="0.2">
       <c r="A84" s="3"/>
-      <c r="B84" s="15" t="s">
+      <c r="B84" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="C84" s="15"/>
-      <c r="D84" s="15"/>
-      <c r="E84" s="15"/>
-      <c r="F84" s="15"/>
-      <c r="G84" s="15"/>
-      <c r="H84" s="15"/>
-      <c r="I84" s="15"/>
-      <c r="J84" s="15"/>
-      <c r="K84" s="15"/>
-      <c r="L84" s="15"/>
-      <c r="M84" s="15"/>
-      <c r="N84" s="15"/>
-      <c r="O84" s="15"/>
-      <c r="P84" s="15"/>
-      <c r="Q84" s="15"/>
-      <c r="R84" s="15"/>
-      <c r="S84" s="15"/>
-      <c r="T84" s="15"/>
-      <c r="U84" s="15"/>
-      <c r="V84" s="15"/>
-      <c r="W84" s="15"/>
-    </row>
-    <row r="85" spans="1:91" x14ac:dyDescent="0.25">
+      <c r="C84" s="14"/>
+      <c r="D84" s="14"/>
+      <c r="E84" s="14"/>
+      <c r="F84" s="14"/>
+      <c r="G84" s="14"/>
+      <c r="H84" s="14"/>
+      <c r="I84" s="14"/>
+      <c r="J84" s="14"/>
+      <c r="K84" s="14"/>
+      <c r="L84" s="14"/>
+      <c r="M84" s="14"/>
+      <c r="N84" s="14"/>
+      <c r="O84" s="14"/>
+      <c r="P84" s="14"/>
+      <c r="Q84" s="14"/>
+      <c r="R84" s="14"/>
+      <c r="S84" s="14"/>
+      <c r="T84" s="14"/>
+      <c r="U84" s="14"/>
+      <c r="V84" s="14"/>
+      <c r="W84" s="14"/>
+      <c r="X84" s="14"/>
+    </row>
+    <row r="85" spans="1:91" x14ac:dyDescent="0.2">
       <c r="A85" s="5"/>
-      <c r="B85" s="16" t="s">
+      <c r="B85" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="C85" s="16" t="s">
+      <c r="C85" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="D85" s="16" t="s">
+      <c r="D85" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="E85" s="16" t="s">
+      <c r="E85" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="F85" s="16" t="s">
+      <c r="F85" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="G85" s="16" t="s">
+      <c r="G85" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="H85" s="16" t="s">
+      <c r="H85" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="I85" s="16" t="s">
+      <c r="I85" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="J85" s="16" t="s">
+      <c r="J85" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="K85" s="16" t="s">
+      <c r="K85" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="L85" s="16" t="s">
+      <c r="L85" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="M85" s="16" t="s">
+      <c r="M85" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="N85" s="16" t="s">
+      <c r="N85" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="O85" s="16" t="s">
+      <c r="O85" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="P85" s="16" t="s">
+      <c r="P85" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="Q85" s="16" t="s">
+      <c r="Q85" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="R85" s="16" t="s">
+      <c r="R85" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="S85" s="16" t="s">
+      <c r="S85" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="T85" s="16" t="s">
+      <c r="T85" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="U85" s="16" t="s">
+      <c r="U85" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="V85" s="16" t="s">
+      <c r="V85" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="W85" s="16"/>
-    </row>
-    <row r="86" spans="1:91" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W85" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="X85" s="15"/>
+    </row>
+    <row r="86" spans="1:91" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="7"/>
     </row>
-    <row r="87" spans="1:91" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:91" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B87" s="17">
+      <c r="B87" s="16">
         <v>-6.6694623001641276</v>
       </c>
-      <c r="C87" s="17">
+      <c r="C87" s="16">
         <v>-14.886573733161327</v>
       </c>
-      <c r="D87" s="17">
+      <c r="D87" s="16">
         <v>-4.6235244476227848</v>
       </c>
-      <c r="E87" s="17">
+      <c r="E87" s="16">
         <v>-9.3117289493515756</v>
       </c>
-      <c r="F87" s="17">
+      <c r="F87" s="16">
         <v>8.8109185973532789</v>
       </c>
-      <c r="G87" s="17">
+      <c r="G87" s="16">
         <v>-3.1592785360963092</v>
       </c>
-      <c r="H87" s="17">
+      <c r="H87" s="16">
         <v>13.815027166366619</v>
       </c>
-      <c r="I87" s="17">
+      <c r="I87" s="16">
         <v>31.513934776239807</v>
       </c>
-      <c r="J87" s="17">
+      <c r="J87" s="16">
         <v>-3.9542652022988278</v>
       </c>
-      <c r="K87" s="17">
+      <c r="K87" s="16">
         <v>21.200979527982341</v>
       </c>
-      <c r="L87" s="17">
+      <c r="L87" s="16">
         <v>-25.874794363644199</v>
       </c>
-      <c r="M87" s="17">
+      <c r="M87" s="16">
         <v>9.5122008532742655</v>
       </c>
-      <c r="N87" s="17">
+      <c r="N87" s="16">
         <v>-8.4586868236550998</v>
       </c>
-      <c r="O87" s="17">
+      <c r="O87" s="16">
         <v>-1.1320187766287262</v>
       </c>
-      <c r="P87" s="17">
+      <c r="P87" s="16">
         <v>8.8638171108947859</v>
       </c>
-      <c r="Q87" s="17">
+      <c r="Q87" s="16">
         <v>29.587361349332724</v>
       </c>
-      <c r="R87" s="17">
+      <c r="R87" s="16">
         <v>10.441133107136366</v>
       </c>
-      <c r="S87" s="17">
+      <c r="S87" s="16">
         <v>14.523484624436847</v>
       </c>
-      <c r="T87" s="17">
+      <c r="T87" s="16">
         <v>-7.2359365939459224</v>
       </c>
-      <c r="U87" s="17">
+      <c r="U87" s="16">
         <v>-19.914851200368005</v>
       </c>
-      <c r="V87" s="17">
+      <c r="V87" s="16">
         <v>15.500612548571397</v>
       </c>
-      <c r="W87" s="17"/>
-      <c r="X87" s="9"/>
+      <c r="W87" s="16">
+        <v>34.685147700974682</v>
+      </c>
+      <c r="X87" s="16"/>
       <c r="Y87" s="9"/>
       <c r="Z87" s="9"/>
       <c r="AA87" s="9"/>
@@ -6080,75 +6157,77 @@
       <c r="CL87" s="9"/>
       <c r="CM87" s="9"/>
     </row>
-    <row r="88" spans="1:91" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:91" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B88" s="17">
+      <c r="B88" s="16">
         <v>4.7488976357296764</v>
       </c>
-      <c r="C88" s="17">
+      <c r="C88" s="16">
         <v>14.081002055464012</v>
       </c>
-      <c r="D88" s="17">
+      <c r="D88" s="16">
         <v>-1.817086857266986</v>
       </c>
-      <c r="E88" s="17">
+      <c r="E88" s="16">
         <v>-3.487569722336346</v>
       </c>
-      <c r="F88" s="17">
+      <c r="F88" s="16">
         <v>5.2670069790899987</v>
       </c>
-      <c r="G88" s="17">
+      <c r="G88" s="16">
         <v>11.899892835547803</v>
       </c>
-      <c r="H88" s="17">
+      <c r="H88" s="16">
         <v>5.1399475017414886</v>
       </c>
-      <c r="I88" s="17">
+      <c r="I88" s="16">
         <v>6.8915953930745104</v>
       </c>
-      <c r="J88" s="17">
+      <c r="J88" s="16">
         <v>-4.5484128601811307</v>
       </c>
-      <c r="K88" s="17">
+      <c r="K88" s="16">
         <v>35.595900232606567</v>
       </c>
-      <c r="L88" s="17">
+      <c r="L88" s="16">
         <v>-3.1624957478565818</v>
       </c>
-      <c r="M88" s="17">
+      <c r="M88" s="16">
         <v>-7.5480991902247183</v>
       </c>
-      <c r="N88" s="17">
+      <c r="N88" s="16">
         <v>-10.8394972048944</v>
       </c>
-      <c r="O88" s="17">
+      <c r="O88" s="16">
         <v>-5.5674040797727571</v>
       </c>
-      <c r="P88" s="17">
+      <c r="P88" s="16">
         <v>4.477382803497207</v>
       </c>
-      <c r="Q88" s="17">
+      <c r="Q88" s="16">
         <v>67.401463911699807</v>
       </c>
-      <c r="R88" s="17">
+      <c r="R88" s="16">
         <v>17.496867996459954</v>
       </c>
-      <c r="S88" s="17">
+      <c r="S88" s="16">
         <v>9.768304396938035</v>
       </c>
-      <c r="T88" s="17">
+      <c r="T88" s="16">
         <v>0.22820138637918319</v>
       </c>
-      <c r="U88" s="17">
+      <c r="U88" s="16">
         <v>-21.113431697002326</v>
       </c>
-      <c r="V88" s="17">
+      <c r="V88" s="16">
         <v>31.588415216776639</v>
       </c>
-      <c r="W88" s="17"/>
-      <c r="X88" s="9"/>
+      <c r="W88" s="16">
+        <v>20.387004881385067</v>
+      </c>
+      <c r="X88" s="16"/>
       <c r="Y88" s="9"/>
       <c r="Z88" s="9"/>
       <c r="AA88" s="9"/>
@@ -6217,75 +6296,77 @@
       <c r="CL88" s="9"/>
       <c r="CM88" s="9"/>
     </row>
-    <row r="89" spans="1:91" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:91" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B89" s="17">
+      <c r="B89" s="16">
         <v>17.963704896145742</v>
       </c>
-      <c r="C89" s="17">
+      <c r="C89" s="16">
         <v>35.792313275627407</v>
       </c>
-      <c r="D89" s="17">
+      <c r="D89" s="16">
         <v>2.9442309603112022</v>
       </c>
-      <c r="E89" s="17">
+      <c r="E89" s="16">
         <v>11.502777353354404</v>
       </c>
-      <c r="F89" s="17">
+      <c r="F89" s="16">
         <v>-18.830560968929902</v>
       </c>
-      <c r="G89" s="17">
+      <c r="G89" s="16">
         <v>1.4971142617195738</v>
       </c>
-      <c r="H89" s="17">
+      <c r="H89" s="16">
         <v>2.1776265620077879</v>
       </c>
-      <c r="I89" s="17">
+      <c r="I89" s="16">
         <v>22.860430788046543</v>
       </c>
-      <c r="J89" s="17">
+      <c r="J89" s="16">
         <v>-10.983290600113278</v>
       </c>
-      <c r="K89" s="17">
+      <c r="K89" s="16">
         <v>13.167623298332458</v>
       </c>
-      <c r="L89" s="17">
+      <c r="L89" s="16">
         <v>-2.0181818730675758</v>
       </c>
-      <c r="M89" s="17">
+      <c r="M89" s="16">
         <v>11.184933891979341</v>
       </c>
-      <c r="N89" s="17">
+      <c r="N89" s="16">
         <v>14.279721762991414</v>
       </c>
-      <c r="O89" s="17">
+      <c r="O89" s="16">
         <v>8.5624153249952144</v>
       </c>
-      <c r="P89" s="17">
+      <c r="P89" s="16">
         <v>15.522979519961893</v>
       </c>
-      <c r="Q89" s="17">
+      <c r="Q89" s="16">
         <v>1.889770881008161</v>
       </c>
-      <c r="R89" s="17">
+      <c r="R89" s="16">
         <v>8.4506668156831637</v>
       </c>
-      <c r="S89" s="17">
+      <c r="S89" s="16">
         <v>7.0708279134894809</v>
       </c>
-      <c r="T89" s="17">
+      <c r="T89" s="16">
         <v>8.4258182517464491</v>
       </c>
-      <c r="U89" s="17">
+      <c r="U89" s="16">
         <v>-39.087328359925287</v>
       </c>
-      <c r="V89" s="17">
+      <c r="V89" s="16">
         <v>-41.329519479085285</v>
       </c>
-      <c r="W89" s="17"/>
-      <c r="X89" s="9"/>
+      <c r="W89" s="16">
+        <v>78.406966957019506</v>
+      </c>
+      <c r="X89" s="16"/>
       <c r="Y89" s="9"/>
       <c r="Z89" s="9"/>
       <c r="AA89" s="9"/>
@@ -6354,75 +6435,77 @@
       <c r="CL89" s="9"/>
       <c r="CM89" s="9"/>
     </row>
-    <row r="90" spans="1:91" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:91" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B90" s="17">
+      <c r="B90" s="16">
         <v>-10.520199101792997</v>
       </c>
-      <c r="C90" s="17">
+      <c r="C90" s="16">
         <v>-31.589168058053886</v>
       </c>
-      <c r="D90" s="17">
+      <c r="D90" s="16">
         <v>-35.680806640120693</v>
       </c>
-      <c r="E90" s="17">
+      <c r="E90" s="16">
         <v>50.144282895239257</v>
       </c>
-      <c r="F90" s="17">
+      <c r="F90" s="16">
         <v>37.52395402039167</v>
       </c>
-      <c r="G90" s="17">
+      <c r="G90" s="16">
         <v>39.470911103226683</v>
       </c>
-      <c r="H90" s="17">
+      <c r="H90" s="16">
         <v>26.861440416360026</v>
       </c>
-      <c r="I90" s="17">
+      <c r="I90" s="16">
         <v>69.852957158073082</v>
       </c>
-      <c r="J90" s="17">
+      <c r="J90" s="16">
         <v>12.20285346160037</v>
       </c>
-      <c r="K90" s="17">
+      <c r="K90" s="16">
         <v>7.2897834744361774</v>
       </c>
-      <c r="L90" s="17">
+      <c r="L90" s="16">
         <v>17.793462688295492</v>
       </c>
-      <c r="M90" s="17">
+      <c r="M90" s="16">
         <v>-4.5756911956683695</v>
       </c>
-      <c r="N90" s="17">
+      <c r="N90" s="16">
         <v>-12.367715000438366</v>
       </c>
-      <c r="O90" s="17">
+      <c r="O90" s="16">
         <v>15.669250702966963</v>
       </c>
-      <c r="P90" s="17">
+      <c r="P90" s="16">
         <v>-22.152322397541226</v>
       </c>
-      <c r="Q90" s="17">
+      <c r="Q90" s="16">
         <v>44.923665107848223</v>
       </c>
-      <c r="R90" s="17">
+      <c r="R90" s="16">
         <v>-13.291548249630154</v>
       </c>
-      <c r="S90" s="17">
+      <c r="S90" s="16">
         <v>85.235395414358749</v>
       </c>
-      <c r="T90" s="17">
+      <c r="T90" s="16">
         <v>2.4585130750088666</v>
       </c>
-      <c r="U90" s="17">
+      <c r="U90" s="16">
         <v>-27.525836334575075</v>
       </c>
-      <c r="V90" s="17">
+      <c r="V90" s="16">
         <v>0.39467254010934028</v>
       </c>
-      <c r="W90" s="17"/>
-      <c r="X90" s="9"/>
+      <c r="W90" s="16">
+        <v>-2.3613274061166436</v>
+      </c>
+      <c r="X90" s="16"/>
       <c r="Y90" s="9"/>
       <c r="Z90" s="9"/>
       <c r="AA90" s="9"/>
@@ -6491,75 +6574,77 @@
       <c r="CL90" s="9"/>
       <c r="CM90" s="9"/>
     </row>
-    <row r="91" spans="1:91" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:91" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B91" s="17">
+      <c r="B91" s="16">
         <v>11.450628511111091</v>
       </c>
-      <c r="C91" s="17">
+      <c r="C91" s="16">
         <v>-13.029082583372528</v>
       </c>
-      <c r="D91" s="17">
+      <c r="D91" s="16">
         <v>-3.5725748568386564</v>
       </c>
-      <c r="E91" s="17">
+      <c r="E91" s="16">
         <v>27.39126961553076</v>
       </c>
-      <c r="F91" s="17">
+      <c r="F91" s="16">
         <v>-12.584847561417718</v>
       </c>
-      <c r="G91" s="17">
+      <c r="G91" s="16">
         <v>-4.2037027085963103</v>
       </c>
-      <c r="H91" s="17">
+      <c r="H91" s="16">
         <v>-14.509110075886895</v>
       </c>
-      <c r="I91" s="17">
+      <c r="I91" s="16">
         <v>51.936376893425518</v>
       </c>
-      <c r="J91" s="17">
+      <c r="J91" s="16">
         <v>-9.0134774352171263</v>
       </c>
-      <c r="K91" s="17">
+      <c r="K91" s="16">
         <v>34.105743351395432</v>
       </c>
-      <c r="L91" s="17">
+      <c r="L91" s="16">
         <v>10.830211230182357</v>
       </c>
-      <c r="M91" s="17">
+      <c r="M91" s="16">
         <v>-1.7902826866104959</v>
       </c>
-      <c r="N91" s="17">
+      <c r="N91" s="16">
         <v>49.69843983303096</v>
       </c>
-      <c r="O91" s="17">
+      <c r="O91" s="16">
         <v>16.122150187505042</v>
       </c>
-      <c r="P91" s="17">
+      <c r="P91" s="16">
         <v>15.820378246740745</v>
       </c>
-      <c r="Q91" s="17">
+      <c r="Q91" s="16">
         <v>-5.8333295160581713</v>
       </c>
-      <c r="R91" s="17">
+      <c r="R91" s="16">
         <v>37.887062857052513</v>
       </c>
-      <c r="S91" s="17">
+      <c r="S91" s="16">
         <v>25.188968897465045</v>
       </c>
-      <c r="T91" s="17">
+      <c r="T91" s="16">
         <v>11.777252165447877</v>
       </c>
-      <c r="U91" s="17">
+      <c r="U91" s="16">
         <v>24.674296251189148</v>
       </c>
-      <c r="V91" s="17">
+      <c r="V91" s="16">
         <v>44.052256056189663</v>
       </c>
-      <c r="W91" s="17"/>
-      <c r="X91" s="9"/>
+      <c r="W91" s="16">
+        <v>-5.3562810992035139</v>
+      </c>
+      <c r="X91" s="16"/>
       <c r="Y91" s="9"/>
       <c r="Z91" s="9"/>
       <c r="AA91" s="9"/>
@@ -6628,75 +6713,77 @@
       <c r="CL91" s="9"/>
       <c r="CM91" s="9"/>
     </row>
-    <row r="92" spans="1:91" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:91" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B92" s="17">
+      <c r="B92" s="16">
         <v>23.318477156329138</v>
       </c>
-      <c r="C92" s="17">
+      <c r="C92" s="16">
         <v>-12.796740887764059</v>
       </c>
-      <c r="D92" s="17">
+      <c r="D92" s="16">
         <v>-3.6508677094923598</v>
       </c>
-      <c r="E92" s="17">
+      <c r="E92" s="16">
         <v>-0.99664431579097368</v>
       </c>
-      <c r="F92" s="17">
+      <c r="F92" s="16">
         <v>-27.358526905100376</v>
       </c>
-      <c r="G92" s="17">
+      <c r="G92" s="16">
         <v>-2.4207728780529152</v>
       </c>
-      <c r="H92" s="17">
+      <c r="H92" s="16">
         <v>50.956363629723199</v>
       </c>
-      <c r="I92" s="17">
+      <c r="I92" s="16">
         <v>47.397055014928327</v>
       </c>
-      <c r="J92" s="17">
+      <c r="J92" s="16">
         <v>-8.0030978266377986</v>
       </c>
-      <c r="K92" s="17">
+      <c r="K92" s="16">
         <v>18.053565579799468</v>
       </c>
-      <c r="L92" s="17">
+      <c r="L92" s="16">
         <v>-27.126606178687979</v>
       </c>
-      <c r="M92" s="17">
+      <c r="M92" s="16">
         <v>63.699569127532982</v>
       </c>
-      <c r="N92" s="17">
+      <c r="N92" s="16">
         <v>38.26513741092225</v>
       </c>
-      <c r="O92" s="17">
+      <c r="O92" s="16">
         <v>49.295191687647616</v>
       </c>
-      <c r="P92" s="17">
+      <c r="P92" s="16">
         <v>36.241772678954675</v>
       </c>
-      <c r="Q92" s="17">
+      <c r="Q92" s="16">
         <v>4.5898668209624987</v>
       </c>
-      <c r="R92" s="17">
+      <c r="R92" s="16">
         <v>10.138857029237229</v>
       </c>
-      <c r="S92" s="17">
+      <c r="S92" s="16">
         <v>-1.2392357748353788E-2</v>
       </c>
-      <c r="T92" s="17">
+      <c r="T92" s="16">
         <v>17.757657501530048</v>
       </c>
-      <c r="U92" s="17">
+      <c r="U92" s="16">
         <v>-10.101840288306647</v>
       </c>
-      <c r="V92" s="17">
+      <c r="V92" s="16">
         <v>0.22649406853322773</v>
       </c>
-      <c r="W92" s="17"/>
-      <c r="X92" s="9"/>
+      <c r="W92" s="16">
+        <v>39.182870612765186</v>
+      </c>
+      <c r="X92" s="16"/>
       <c r="Y92" s="9"/>
       <c r="Z92" s="9"/>
       <c r="AA92" s="9"/>
@@ -6765,75 +6852,77 @@
       <c r="CL92" s="9"/>
       <c r="CM92" s="9"/>
     </row>
-    <row r="93" spans="1:91" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:91" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B93" s="17">
+      <c r="B93" s="16">
         <v>21.311861822670309</v>
       </c>
-      <c r="C93" s="17">
+      <c r="C93" s="16">
         <v>-12.722831168013215</v>
       </c>
-      <c r="D93" s="17">
+      <c r="D93" s="16">
         <v>-3.8302747724264776</v>
       </c>
-      <c r="E93" s="17">
+      <c r="E93" s="16">
         <v>-18.918278353925388</v>
       </c>
-      <c r="F93" s="17">
+      <c r="F93" s="16">
         <v>25.558083000085958</v>
       </c>
-      <c r="G93" s="17">
+      <c r="G93" s="16">
         <v>25.365986877501683</v>
       </c>
-      <c r="H93" s="17">
+      <c r="H93" s="16">
         <v>-0.25941153246594695</v>
       </c>
-      <c r="I93" s="17">
+      <c r="I93" s="16">
         <v>0.74335220934334245</v>
       </c>
-      <c r="J93" s="17">
+      <c r="J93" s="16">
         <v>16.975887623609182</v>
       </c>
-      <c r="K93" s="17">
+      <c r="K93" s="16">
         <v>27.174670468611211</v>
       </c>
-      <c r="L93" s="17">
+      <c r="L93" s="16">
         <v>-23.863068116089408</v>
       </c>
-      <c r="M93" s="17">
+      <c r="M93" s="16">
         <v>2.5868446953562767</v>
       </c>
-      <c r="N93" s="17">
+      <c r="N93" s="16">
         <v>10.887800862488149</v>
       </c>
-      <c r="O93" s="17">
+      <c r="O93" s="16">
         <v>0.13713634058791513</v>
       </c>
-      <c r="P93" s="17">
+      <c r="P93" s="16">
         <v>5.9261026954402212</v>
       </c>
-      <c r="Q93" s="17">
+      <c r="Q93" s="16">
         <v>-2.3681525038638682</v>
       </c>
-      <c r="R93" s="17">
+      <c r="R93" s="16">
         <v>48.793435995811819</v>
       </c>
-      <c r="S93" s="17">
+      <c r="S93" s="16">
         <v>31.39186795982306</v>
       </c>
-      <c r="T93" s="17">
+      <c r="T93" s="16">
         <v>3.5695093516340251</v>
       </c>
-      <c r="U93" s="17">
+      <c r="U93" s="16">
         <v>-32.746209241093794</v>
       </c>
-      <c r="V93" s="17">
+      <c r="V93" s="16">
         <v>-5.9463051957355901</v>
       </c>
-      <c r="W93" s="17"/>
-      <c r="X93" s="9"/>
+      <c r="W93" s="16">
+        <v>1.4710320851358745</v>
+      </c>
+      <c r="X93" s="16"/>
       <c r="Y93" s="9"/>
       <c r="Z93" s="9"/>
       <c r="AA93" s="9"/>
@@ -6902,75 +6991,77 @@
       <c r="CL93" s="9"/>
       <c r="CM93" s="9"/>
     </row>
-    <row r="94" spans="1:91" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:91" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B94" s="17">
+      <c r="B94" s="16">
         <v>11.279281843824535</v>
       </c>
-      <c r="C94" s="17">
+      <c r="C94" s="16">
         <v>-12.789390178318641</v>
       </c>
-      <c r="D94" s="17">
+      <c r="D94" s="16">
         <v>-3.7372855700227348</v>
       </c>
-      <c r="E94" s="17">
+      <c r="E94" s="16">
         <v>-18.772330210359584</v>
       </c>
-      <c r="F94" s="17">
+      <c r="F94" s="16">
         <v>-13.566153278034093</v>
       </c>
-      <c r="G94" s="17">
+      <c r="G94" s="16">
         <v>26.58121767890708</v>
       </c>
-      <c r="H94" s="17">
+      <c r="H94" s="16">
         <v>12.854576978047106</v>
       </c>
-      <c r="I94" s="17">
+      <c r="I94" s="16">
         <v>51.280721175653667</v>
       </c>
-      <c r="J94" s="17">
+      <c r="J94" s="16">
         <v>33.72123093005942</v>
       </c>
-      <c r="K94" s="17">
+      <c r="K94" s="16">
         <v>7.9167348178040982</v>
       </c>
-      <c r="L94" s="17">
+      <c r="L94" s="16">
         <v>8.950969492688742</v>
       </c>
-      <c r="M94" s="17">
+      <c r="M94" s="16">
         <v>-5.2713782110920704</v>
       </c>
-      <c r="N94" s="17">
+      <c r="N94" s="16">
         <v>49.151811712021924</v>
       </c>
-      <c r="O94" s="17">
+      <c r="O94" s="16">
         <v>-17.112353470855453</v>
       </c>
-      <c r="P94" s="17">
+      <c r="P94" s="16">
         <v>23.226452342481736</v>
       </c>
-      <c r="Q94" s="17">
+      <c r="Q94" s="16">
         <v>23.375835380252724</v>
       </c>
-      <c r="R94" s="17">
+      <c r="R94" s="16">
         <v>12.364584029864574</v>
       </c>
-      <c r="S94" s="17">
+      <c r="S94" s="16">
         <v>25.29529598098506</v>
       </c>
-      <c r="T94" s="17">
+      <c r="T94" s="16">
         <v>26.430808414156232</v>
       </c>
-      <c r="U94" s="17">
+      <c r="U94" s="16">
         <v>-36.131447251195624</v>
       </c>
-      <c r="V94" s="17">
+      <c r="V94" s="16">
         <v>-20.100413401141438</v>
       </c>
-      <c r="W94" s="17"/>
-      <c r="X94" s="9"/>
+      <c r="W94" s="16">
+        <v>99.423168833534646</v>
+      </c>
+      <c r="X94" s="16"/>
       <c r="Y94" s="9"/>
       <c r="Z94" s="9"/>
       <c r="AA94" s="9"/>
@@ -7039,8 +7130,8 @@
       <c r="CL94" s="9"/>
       <c r="CM94" s="9"/>
     </row>
-    <row r="95" spans="1:91" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="10"/>
+    <row r="95" spans="1:91" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A95"/>
       <c r="B95" s="9"/>
       <c r="C95" s="9"/>
       <c r="D95" s="9"/>
@@ -7132,75 +7223,77 @@
       <c r="CL95" s="9"/>
       <c r="CM95" s="9"/>
     </row>
-    <row r="96" spans="1:91" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="11" t="s">
+    <row r="96" spans="1:91" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A96" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B96" s="17">
+      <c r="B96" s="16">
         <v>8.1423819368864514</v>
       </c>
-      <c r="C96" s="17">
+      <c r="C96" s="16">
         <v>9.8515551363114469</v>
       </c>
-      <c r="D96" s="17">
+      <c r="D96" s="16">
         <v>-0.24958871063319066</v>
       </c>
-      <c r="E96" s="17">
+      <c r="E96" s="16">
         <v>4.0217010776650426</v>
       </c>
-      <c r="F96" s="17">
+      <c r="F96" s="16">
         <v>-11.177820989446317</v>
       </c>
-      <c r="G96" s="17">
+      <c r="G96" s="16">
         <v>1.8766943903024185</v>
       </c>
-      <c r="H96" s="17">
+      <c r="H96" s="16">
         <v>7.6792359004975026</v>
       </c>
-      <c r="I96" s="17">
+      <c r="I96" s="16">
         <v>26.575306613910939</v>
       </c>
-      <c r="J96" s="17">
+      <c r="J96" s="16">
         <v>-6.5210505341132432</v>
       </c>
-      <c r="K96" s="17">
+      <c r="K96" s="16">
         <v>17.457012849465443</v>
       </c>
-      <c r="L96" s="17">
+      <c r="L96" s="16">
         <v>-10.74890558419591</v>
       </c>
-      <c r="M96" s="17">
+      <c r="M96" s="16">
         <v>11.680257321126717</v>
       </c>
-      <c r="N96" s="17">
+      <c r="N96" s="16">
         <v>11.209359151154857</v>
       </c>
-      <c r="O96" s="17">
+      <c r="O96" s="16">
         <v>10.309687339773248</v>
       </c>
-      <c r="P96" s="17">
+      <c r="P96" s="16">
         <v>16.818323947496467</v>
       </c>
-      <c r="Q96" s="17">
+      <c r="Q96" s="16">
         <v>9.6475786421673888</v>
       </c>
-      <c r="R96" s="17">
+      <c r="R96" s="16">
         <v>10.98002123717437</v>
       </c>
-      <c r="S96" s="17">
+      <c r="S96" s="16">
         <v>9.9927964944990606</v>
       </c>
-      <c r="T96" s="17">
+      <c r="T96" s="16">
         <v>7.0709070147135407</v>
       </c>
-      <c r="U96" s="17">
+      <c r="U96" s="16">
         <v>-26.759973847077163</v>
       </c>
-      <c r="V96" s="17">
+      <c r="V96" s="16">
         <v>-9.7192242770283315</v>
       </c>
-      <c r="W96" s="17"/>
-      <c r="X96" s="9"/>
+      <c r="W96" s="16">
+        <v>42.184592934354896</v>
+      </c>
+      <c r="X96" s="16"/>
       <c r="Y96" s="9"/>
       <c r="Z96" s="9"/>
       <c r="AA96" s="9"/>
@@ -7269,38 +7362,39 @@
       <c r="CL96" s="9"/>
       <c r="CM96" s="9"/>
     </row>
-    <row r="97" spans="1:96" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="13"/>
-      <c r="B97" s="13"/>
-      <c r="C97" s="13"/>
-      <c r="D97" s="13"/>
-      <c r="E97" s="13"/>
-      <c r="F97" s="13"/>
-      <c r="G97" s="13"/>
-      <c r="H97" s="13"/>
-      <c r="I97" s="13"/>
-      <c r="J97" s="13"/>
-      <c r="K97" s="13"/>
-      <c r="L97" s="13"/>
-      <c r="M97" s="13"/>
-      <c r="N97" s="13"/>
-      <c r="O97" s="13"/>
-      <c r="P97" s="13"/>
-      <c r="Q97" s="13"/>
-      <c r="R97" s="13"/>
-      <c r="S97" s="13"/>
-      <c r="T97" s="13"/>
-      <c r="U97" s="13"/>
-      <c r="V97" s="13"/>
-      <c r="W97" s="13"/>
-    </row>
-    <row r="98" spans="1:96" x14ac:dyDescent="0.25">
-      <c r="A98" s="14" t="s">
+    <row r="97" spans="1:96" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A97" s="12"/>
+      <c r="B97" s="12"/>
+      <c r="C97" s="12"/>
+      <c r="D97" s="12"/>
+      <c r="E97" s="12"/>
+      <c r="F97" s="12"/>
+      <c r="G97" s="12"/>
+      <c r="H97" s="12"/>
+      <c r="I97" s="12"/>
+      <c r="J97" s="12"/>
+      <c r="K97" s="12"/>
+      <c r="L97" s="12"/>
+      <c r="M97" s="12"/>
+      <c r="N97" s="12"/>
+      <c r="O97" s="12"/>
+      <c r="P97" s="12"/>
+      <c r="Q97" s="12"/>
+      <c r="R97" s="12"/>
+      <c r="S97" s="12"/>
+      <c r="T97" s="12"/>
+      <c r="U97" s="12"/>
+      <c r="V97" s="12"/>
+      <c r="W97" s="12"/>
+      <c r="X97" s="12"/>
+    </row>
+    <row r="98" spans="1:96" x14ac:dyDescent="0.2">
+      <c r="A98" s="13" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="10"/>
+    <row r="99" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A99"/>
       <c r="B99" s="9"/>
       <c r="C99" s="9"/>
       <c r="D99" s="9"/>
@@ -7393,8 +7487,8 @@
       <c r="CM99" s="9"/>
       <c r="CN99" s="9"/>
     </row>
-    <row r="100" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="10"/>
+    <row r="100" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A100"/>
       <c r="B100" s="9"/>
       <c r="C100" s="9"/>
       <c r="D100" s="9"/>
@@ -7487,201 +7581,207 @@
       <c r="CM100" s="9"/>
       <c r="CN100" s="9"/>
     </row>
-    <row r="101" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="102" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A102" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="104" spans="1:96" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="104" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A104" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="105" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A105" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="106" spans="1:96" x14ac:dyDescent="0.25">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="106" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A106" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="108" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A108" s="3"/>
-      <c r="B108" s="15" t="s">
+      <c r="B108" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="C108" s="15"/>
-      <c r="D108" s="15"/>
-      <c r="E108" s="15"/>
-      <c r="F108" s="15"/>
-      <c r="G108" s="15"/>
-      <c r="H108" s="15"/>
-      <c r="I108" s="15"/>
-      <c r="J108" s="15"/>
-      <c r="K108" s="15"/>
-      <c r="L108" s="15"/>
-      <c r="M108" s="15"/>
-      <c r="N108" s="15"/>
-      <c r="O108" s="15"/>
-      <c r="P108" s="15"/>
-      <c r="Q108" s="15"/>
-      <c r="R108" s="15"/>
-      <c r="S108" s="15"/>
-      <c r="T108" s="15"/>
-      <c r="U108" s="15"/>
-      <c r="V108" s="15"/>
-      <c r="W108" s="15"/>
-    </row>
-    <row r="109" spans="1:96" x14ac:dyDescent="0.25">
+      <c r="C108" s="14"/>
+      <c r="D108" s="14"/>
+      <c r="E108" s="14"/>
+      <c r="F108" s="14"/>
+      <c r="G108" s="14"/>
+      <c r="H108" s="14"/>
+      <c r="I108" s="14"/>
+      <c r="J108" s="14"/>
+      <c r="K108" s="14"/>
+      <c r="L108" s="14"/>
+      <c r="M108" s="14"/>
+      <c r="N108" s="14"/>
+      <c r="O108" s="14"/>
+      <c r="P108" s="14"/>
+      <c r="Q108" s="14"/>
+      <c r="R108" s="14"/>
+      <c r="S108" s="14"/>
+      <c r="T108" s="14"/>
+      <c r="U108" s="14"/>
+      <c r="V108" s="14"/>
+      <c r="W108" s="14"/>
+      <c r="X108" s="14"/>
+    </row>
+    <row r="109" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A109" s="5"/>
-      <c r="B109" s="16">
+      <c r="B109" s="15">
         <v>2000</v>
       </c>
-      <c r="C109" s="16">
+      <c r="C109" s="15">
         <v>2001</v>
       </c>
-      <c r="D109" s="16">
+      <c r="D109" s="15">
         <v>2002</v>
       </c>
-      <c r="E109" s="16">
+      <c r="E109" s="15">
         <v>2003</v>
       </c>
-      <c r="F109" s="16">
+      <c r="F109" s="15">
         <v>2004</v>
       </c>
-      <c r="G109" s="16">
+      <c r="G109" s="15">
         <v>2005</v>
       </c>
-      <c r="H109" s="16">
+      <c r="H109" s="15">
         <v>2006</v>
       </c>
-      <c r="I109" s="16">
+      <c r="I109" s="15">
         <v>2007</v>
       </c>
-      <c r="J109" s="16">
+      <c r="J109" s="15">
         <v>2008</v>
       </c>
-      <c r="K109" s="16">
+      <c r="K109" s="15">
         <v>2009</v>
       </c>
-      <c r="L109" s="16">
+      <c r="L109" s="15">
         <v>2010</v>
       </c>
-      <c r="M109" s="16">
+      <c r="M109" s="15">
         <v>2011</v>
       </c>
-      <c r="N109" s="16">
+      <c r="N109" s="15">
         <v>2012</v>
       </c>
-      <c r="O109" s="16">
+      <c r="O109" s="15">
         <v>2013</v>
       </c>
-      <c r="P109" s="16">
+      <c r="P109" s="15">
         <v>2014</v>
       </c>
-      <c r="Q109" s="16">
+      <c r="Q109" s="15">
         <v>2015</v>
       </c>
-      <c r="R109" s="16">
+      <c r="R109" s="15">
         <v>2016</v>
       </c>
-      <c r="S109" s="16">
+      <c r="S109" s="15">
         <v>2017</v>
       </c>
-      <c r="T109" s="16">
+      <c r="T109" s="15">
         <v>2018</v>
       </c>
-      <c r="U109" s="16">
+      <c r="U109" s="15">
         <v>2019</v>
       </c>
-      <c r="V109" s="16">
+      <c r="V109" s="15">
         <v>2020</v>
       </c>
-      <c r="W109" s="16">
+      <c r="W109" s="15">
         <v>2021</v>
       </c>
-    </row>
-    <row r="110" spans="1:96" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X109" s="15">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="110" spans="1:96" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" s="7"/>
     </row>
-    <row r="111" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B111" s="17">
+      <c r="B111" s="16">
         <v>70.197968035516936</v>
       </c>
-      <c r="C111" s="17">
+      <c r="C111" s="16">
         <v>78.534781123353653</v>
       </c>
-      <c r="D111" s="17">
+      <c r="D111" s="16">
         <v>82.452894668020733</v>
       </c>
-      <c r="E111" s="17">
+      <c r="E111" s="16">
         <v>92.024058795966198</v>
       </c>
-      <c r="F111" s="17">
+      <c r="F111" s="16">
         <v>106.15722981663495</v>
       </c>
-      <c r="G111" s="17">
+      <c r="G111" s="16">
         <v>100.32668604113289</v>
       </c>
-      <c r="H111" s="17">
+      <c r="H111" s="16">
         <v>97.72628093639301</v>
       </c>
-      <c r="I111" s="17">
+      <c r="I111" s="16">
         <v>92.0230705424093</v>
       </c>
-      <c r="J111" s="17">
+      <c r="J111" s="16">
         <v>86.300124049467215</v>
       </c>
-      <c r="K111" s="17">
+      <c r="K111" s="16">
         <v>84.883923902332185</v>
       </c>
-      <c r="L111" s="17">
+      <c r="L111" s="16">
         <v>80.197403604394964</v>
       </c>
-      <c r="M111" s="17">
+      <c r="M111" s="16">
         <v>82.116503633899256</v>
       </c>
-      <c r="N111" s="17">
+      <c r="N111" s="16">
         <v>81.57671505031692</v>
       </c>
-      <c r="O111" s="17">
+      <c r="O111" s="16">
         <v>86.15522941511378</v>
       </c>
-      <c r="P111" s="17">
+      <c r="P111" s="16">
         <v>94.687631652628625</v>
       </c>
-      <c r="Q111" s="17">
+      <c r="Q111" s="16">
         <v>97.563879481849398</v>
       </c>
-      <c r="R111" s="17">
+      <c r="R111" s="16">
         <v>95.414636262640656</v>
       </c>
-      <c r="S111" s="17">
+      <c r="S111" s="16">
         <v>99.296809103325415</v>
       </c>
-      <c r="T111" s="17">
+      <c r="T111" s="16">
         <v>100.00000000000004</v>
       </c>
-      <c r="U111" s="17">
+      <c r="U111" s="16">
         <v>101.09579486854304</v>
       </c>
-      <c r="V111" s="17">
+      <c r="V111" s="16">
         <v>97.745693421993352</v>
       </c>
-      <c r="W111" s="17">
+      <c r="W111" s="16">
         <v>102.56848393501589</v>
       </c>
-      <c r="X111" s="9"/>
+      <c r="X111" s="16">
+        <v>110.09938397932947</v>
+      </c>
       <c r="Y111" s="9"/>
       <c r="Z111" s="9"/>
       <c r="AA111" s="9"/>
@@ -7755,77 +7855,79 @@
       <c r="CQ111" s="9"/>
       <c r="CR111" s="9"/>
     </row>
-    <row r="112" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B112" s="17">
+      <c r="B112" s="16">
         <v>70.669297371605239</v>
       </c>
-      <c r="C112" s="17">
+      <c r="C112" s="16">
         <v>78.650180802161103</v>
       </c>
-      <c r="D112" s="17">
+      <c r="D112" s="16">
         <v>82.745702921874368</v>
       </c>
-      <c r="E112" s="17">
+      <c r="E112" s="16">
         <v>91.903911630871491</v>
       </c>
-      <c r="F112" s="17">
+      <c r="F112" s="16">
         <v>107.67331121688647</v>
       </c>
-      <c r="G112" s="17">
+      <c r="G112" s="16">
         <v>102.55067309555518</v>
       </c>
-      <c r="H112" s="17">
+      <c r="H112" s="16">
         <v>96.719486373126955</v>
       </c>
-      <c r="I112" s="17">
+      <c r="I112" s="16">
         <v>90.093571155453716</v>
       </c>
-      <c r="J112" s="17">
+      <c r="J112" s="16">
         <v>84.695390012584198</v>
       </c>
-      <c r="K112" s="17">
+      <c r="K112" s="16">
         <v>85.507453899871919</v>
       </c>
-      <c r="L112" s="17">
+      <c r="L112" s="16">
         <v>78.887762562986765</v>
       </c>
-      <c r="M112" s="17">
+      <c r="M112" s="16">
         <v>79.118440740213643</v>
       </c>
-      <c r="N112" s="17">
+      <c r="N112" s="16">
         <v>78.083473394657702</v>
       </c>
-      <c r="O112" s="17">
+      <c r="O112" s="16">
         <v>82.65132340976929</v>
       </c>
-      <c r="P112" s="17">
+      <c r="P112" s="16">
         <v>92.780099841373215</v>
       </c>
-      <c r="Q112" s="17">
+      <c r="Q112" s="16">
         <v>100.14212267069291</v>
       </c>
-      <c r="R112" s="17">
+      <c r="R112" s="16">
         <v>99.730422708426985</v>
       </c>
-      <c r="S112" s="17">
+      <c r="S112" s="16">
         <v>100.518599169094</v>
       </c>
-      <c r="T112" s="17">
+      <c r="T112" s="16">
         <v>100.00000000000011</v>
       </c>
-      <c r="U112" s="17">
+      <c r="U112" s="16">
         <v>103.15719123480108</v>
       </c>
-      <c r="V112" s="17">
+      <c r="V112" s="16">
         <v>100.78075481990132</v>
       </c>
-      <c r="W112" s="17">
+      <c r="W112" s="16">
         <v>102.11190155945383</v>
       </c>
-      <c r="X112" s="9"/>
+      <c r="X112" s="16">
+        <v>105.0942218496162</v>
+      </c>
       <c r="Y112" s="9"/>
       <c r="Z112" s="9"/>
       <c r="AA112" s="9"/>
@@ -7899,77 +8001,79 @@
       <c r="CQ112" s="9"/>
       <c r="CR112" s="9"/>
     </row>
-    <row r="113" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A113" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B113" s="17">
+      <c r="B113" s="16">
         <v>59.199019621246471</v>
       </c>
-      <c r="C113" s="17">
+      <c r="C113" s="16">
         <v>62.613115991388682</v>
       </c>
-      <c r="D113" s="17">
+      <c r="D113" s="16">
         <v>65.653572021555604</v>
       </c>
-      <c r="E113" s="17">
+      <c r="E113" s="16">
         <v>71.883704881851969</v>
       </c>
-      <c r="F113" s="17">
+      <c r="F113" s="16">
         <v>80.313486816903009</v>
       </c>
-      <c r="G113" s="17">
+      <c r="G113" s="16">
         <v>86.052218137165838</v>
       </c>
-      <c r="H113" s="17">
+      <c r="H113" s="16">
         <v>85.592359677609267</v>
       </c>
-      <c r="I113" s="17">
+      <c r="I113" s="16">
         <v>85.384050887938102</v>
       </c>
-      <c r="J113" s="17">
+      <c r="J113" s="16">
         <v>90.167983832869282</v>
       </c>
-      <c r="K113" s="17">
+      <c r="K113" s="16">
         <v>100.38606646263059</v>
       </c>
-      <c r="L113" s="17">
+      <c r="L113" s="16">
         <v>98.799217765994243</v>
       </c>
-      <c r="M113" s="17">
+      <c r="M113" s="16">
         <v>104.20426062287103</v>
       </c>
-      <c r="N113" s="17">
+      <c r="N113" s="16">
         <v>103.05609482872026</v>
       </c>
-      <c r="O113" s="17">
+      <c r="O113" s="16">
         <v>107.39054364776275</v>
       </c>
-      <c r="P113" s="17">
+      <c r="P113" s="16">
         <v>105.21630715738056</v>
       </c>
-      <c r="Q113" s="17">
+      <c r="Q113" s="16">
         <v>96.15424257533688</v>
       </c>
-      <c r="R113" s="17">
+      <c r="R113" s="16">
         <v>97.638936817626359</v>
       </c>
-      <c r="S113" s="17">
+      <c r="S113" s="16">
         <v>98.745140242562684</v>
       </c>
-      <c r="T113" s="17">
+      <c r="T113" s="16">
         <v>99.999999999999886</v>
       </c>
-      <c r="U113" s="17">
+      <c r="U113" s="16">
         <v>100.42021499415164</v>
       </c>
-      <c r="V113" s="17">
+      <c r="V113" s="16">
         <v>102.88937402417118</v>
       </c>
-      <c r="W113" s="17">
+      <c r="W113" s="16">
         <v>98.808387439682747</v>
       </c>
-      <c r="X113" s="9"/>
+      <c r="X113" s="16">
+        <v>105.38051218201967</v>
+      </c>
       <c r="Y113" s="9"/>
       <c r="Z113" s="9"/>
       <c r="AA113" s="9"/>
@@ -8043,77 +8147,79 @@
       <c r="CQ113" s="9"/>
       <c r="CR113" s="9"/>
     </row>
-    <row r="114" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A114" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B114" s="17">
+      <c r="B114" s="16">
         <v>70.848386102200905</v>
       </c>
-      <c r="C114" s="17">
+      <c r="C114" s="16">
         <v>78.650180802161088</v>
       </c>
-      <c r="D114" s="17">
+      <c r="D114" s="16">
         <v>82.745702921874297</v>
       </c>
-      <c r="E114" s="17">
+      <c r="E114" s="16">
         <v>91.903911630871505</v>
       </c>
-      <c r="F114" s="17">
+      <c r="F114" s="16">
         <v>107.67331121688646</v>
       </c>
-      <c r="G114" s="17">
+      <c r="G114" s="16">
         <v>102.55067309555518</v>
       </c>
-      <c r="H114" s="17">
+      <c r="H114" s="16">
         <v>96.719486373126955</v>
       </c>
-      <c r="I114" s="17">
+      <c r="I114" s="16">
         <v>90.09357115545356</v>
       </c>
-      <c r="J114" s="17">
+      <c r="J114" s="16">
         <v>84.695390012584085</v>
       </c>
-      <c r="K114" s="17">
+      <c r="K114" s="16">
         <v>85.507453899871933</v>
       </c>
-      <c r="L114" s="17">
+      <c r="L114" s="16">
         <v>78.887762562986637</v>
       </c>
-      <c r="M114" s="17">
+      <c r="M114" s="16">
         <v>79.150784901468626</v>
       </c>
-      <c r="N114" s="17">
+      <c r="N114" s="16">
         <v>78.094064984980747</v>
       </c>
-      <c r="O114" s="17">
+      <c r="O114" s="16">
         <v>82.651983005288912</v>
       </c>
-      <c r="P114" s="17">
+      <c r="P114" s="16">
         <v>92.780099841373215</v>
       </c>
-      <c r="Q114" s="17">
+      <c r="Q114" s="16">
         <v>100.14213898220223</v>
       </c>
-      <c r="R114" s="17">
+      <c r="R114" s="16">
         <v>99.730422708426985</v>
       </c>
-      <c r="S114" s="17">
+      <c r="S114" s="16">
         <v>100.5185991690938</v>
       </c>
-      <c r="T114" s="17">
+      <c r="T114" s="16">
         <v>100.00000000000003</v>
       </c>
-      <c r="U114" s="17">
+      <c r="U114" s="16">
         <v>102.76851195980905</v>
       </c>
-      <c r="V114" s="17">
+      <c r="V114" s="16">
         <v>101.59515435657964</v>
       </c>
-      <c r="W114" s="17">
+      <c r="W114" s="16">
         <v>101.44185341931475</v>
       </c>
-      <c r="X114" s="9"/>
+      <c r="X114" s="16">
+        <v>104.80560998657242</v>
+      </c>
       <c r="Y114" s="9"/>
       <c r="Z114" s="9"/>
       <c r="AA114" s="9"/>
@@ -8187,77 +8293,79 @@
       <c r="CQ114" s="9"/>
       <c r="CR114" s="9"/>
     </row>
-    <row r="115" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A115" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B115" s="17">
+      <c r="B115" s="16">
         <v>70.848386102200877</v>
       </c>
-      <c r="C115" s="17">
+      <c r="C115" s="16">
         <v>78.650180802161074</v>
       </c>
-      <c r="D115" s="17">
+      <c r="D115" s="16">
         <v>82.745702921874368</v>
       </c>
-      <c r="E115" s="17">
+      <c r="E115" s="16">
         <v>91.903911630871434</v>
       </c>
-      <c r="F115" s="17">
+      <c r="F115" s="16">
         <v>96.219435098416767</v>
       </c>
-      <c r="G115" s="17">
+      <c r="G115" s="16">
         <v>102.55067309555518</v>
       </c>
-      <c r="H115" s="17">
+      <c r="H115" s="16">
         <v>96.719486373126983</v>
       </c>
-      <c r="I115" s="17">
+      <c r="I115" s="16">
         <v>90.09357115545356</v>
       </c>
-      <c r="J115" s="17">
+      <c r="J115" s="16">
         <v>80.548094344309433</v>
       </c>
-      <c r="K115" s="17">
+      <c r="K115" s="16">
         <v>85.507453899872047</v>
       </c>
-      <c r="L115" s="17">
+      <c r="L115" s="16">
         <v>78.88776256298668</v>
       </c>
-      <c r="M115" s="17">
+      <c r="M115" s="16">
         <v>79.237789140868344</v>
       </c>
-      <c r="N115" s="17">
+      <c r="N115" s="16">
         <v>78.158835860706517</v>
       </c>
-      <c r="O115" s="17">
+      <c r="O115" s="16">
         <v>82.691039444494024</v>
       </c>
-      <c r="P115" s="17">
+      <c r="P115" s="16">
         <v>92.780099841373215</v>
       </c>
-      <c r="Q115" s="17">
+      <c r="Q115" s="16">
         <v>100.14211079664048</v>
       </c>
-      <c r="R115" s="17">
+      <c r="R115" s="16">
         <v>99.730422708426929</v>
       </c>
-      <c r="S115" s="17">
+      <c r="S115" s="16">
         <v>100.51859916909397</v>
       </c>
-      <c r="T115" s="17">
+      <c r="T115" s="16">
         <v>100</v>
       </c>
-      <c r="U115" s="17">
+      <c r="U115" s="16">
         <v>103.09109090737127</v>
       </c>
-      <c r="V115" s="17">
+      <c r="V115" s="16">
         <v>102.72319625952009</v>
       </c>
-      <c r="W115" s="17">
+      <c r="W115" s="16">
         <v>102.67575886590046</v>
       </c>
-      <c r="X115" s="9"/>
+      <c r="X115" s="16">
+        <v>105.94565851330916</v>
+      </c>
       <c r="Y115" s="9"/>
       <c r="Z115" s="9"/>
       <c r="AA115" s="9"/>
@@ -8331,77 +8439,79 @@
       <c r="CQ115" s="9"/>
       <c r="CR115" s="9"/>
     </row>
-    <row r="116" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A116" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B116" s="17">
+      <c r="B116" s="16">
         <v>70.500054367024887</v>
       </c>
-      <c r="C116" s="17">
+      <c r="C116" s="16">
         <v>78.65018080216106</v>
       </c>
-      <c r="D116" s="17">
+      <c r="D116" s="16">
         <v>82.745702921874368</v>
       </c>
-      <c r="E116" s="17">
+      <c r="E116" s="16">
         <v>91.903911630871406</v>
       </c>
-      <c r="F116" s="17">
+      <c r="F116" s="16">
         <v>101.95270571789624</v>
       </c>
-      <c r="G116" s="17">
+      <c r="G116" s="16">
         <v>102.5506730955551</v>
       </c>
-      <c r="H116" s="17">
+      <c r="H116" s="16">
         <v>96.719486373126983</v>
       </c>
-      <c r="I116" s="17">
+      <c r="I116" s="16">
         <v>90.09357115545356</v>
       </c>
-      <c r="J116" s="17">
+      <c r="J116" s="16">
         <v>83.838272115168536</v>
       </c>
-      <c r="K116" s="17">
+      <c r="K116" s="16">
         <v>85.507453899871919</v>
       </c>
-      <c r="L116" s="17">
+      <c r="L116" s="16">
         <v>78.88776256298668</v>
       </c>
-      <c r="M116" s="17">
+      <c r="M116" s="16">
         <v>79.769892137153491</v>
       </c>
-      <c r="N116" s="17">
+      <c r="N116" s="16">
         <v>78.158835860706517</v>
       </c>
-      <c r="O116" s="17">
+      <c r="O116" s="16">
         <v>82.551920360514856</v>
       </c>
-      <c r="P116" s="17">
+      <c r="P116" s="16">
         <v>92.7800998413732</v>
       </c>
-      <c r="Q116" s="17">
+      <c r="Q116" s="16">
         <v>100.14211079664051</v>
       </c>
-      <c r="R116" s="17">
+      <c r="R116" s="16">
         <v>99.730422708426929</v>
       </c>
-      <c r="S116" s="17">
+      <c r="S116" s="16">
         <v>100.51859916909387</v>
       </c>
-      <c r="T116" s="17">
+      <c r="T116" s="16">
         <v>100.00000000000003</v>
       </c>
-      <c r="U116" s="17">
+      <c r="U116" s="16">
         <v>102.75172621480363</v>
       </c>
-      <c r="V116" s="17">
+      <c r="V116" s="16">
         <v>98.796678077398369</v>
       </c>
-      <c r="W116" s="17">
+      <c r="W116" s="16">
         <v>100.49596685822569</v>
       </c>
-      <c r="X116" s="9"/>
+      <c r="X116" s="16">
+        <v>104.12455317181788</v>
+      </c>
       <c r="Y116" s="9"/>
       <c r="Z116" s="9"/>
       <c r="AA116" s="9"/>
@@ -8475,77 +8585,79 @@
       <c r="CQ116" s="9"/>
       <c r="CR116" s="9"/>
     </row>
-    <row r="117" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A117" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B117" s="17">
+      <c r="B117" s="16">
         <v>70.554110388941979</v>
       </c>
-      <c r="C117" s="17">
+      <c r="C117" s="16">
         <v>78.650180802161074</v>
       </c>
-      <c r="D117" s="17">
+      <c r="D117" s="16">
         <v>82.745702921874368</v>
       </c>
-      <c r="E117" s="17">
+      <c r="E117" s="16">
         <v>91.90391163087142</v>
       </c>
-      <c r="F117" s="17">
+      <c r="F117" s="16">
         <v>107.67331121688646</v>
       </c>
-      <c r="G117" s="17">
+      <c r="G117" s="16">
         <v>102.55067309555518</v>
       </c>
-      <c r="H117" s="17">
+      <c r="H117" s="16">
         <v>96.719486373126969</v>
       </c>
-      <c r="I117" s="17">
+      <c r="I117" s="16">
         <v>90.09357115545356</v>
       </c>
-      <c r="J117" s="17">
+      <c r="J117" s="16">
         <v>80.209642675730592</v>
       </c>
-      <c r="K117" s="17">
+      <c r="K117" s="16">
         <v>85.507453899871905</v>
       </c>
-      <c r="L117" s="17">
+      <c r="L117" s="16">
         <v>78.88776256298668</v>
       </c>
-      <c r="M117" s="17">
+      <c r="M117" s="16">
         <v>79.273353163851283</v>
       </c>
-      <c r="N117" s="17">
+      <c r="N117" s="16">
         <v>78.158835860706517</v>
       </c>
-      <c r="O117" s="17">
+      <c r="O117" s="16">
         <v>82.691039444494024</v>
       </c>
-      <c r="P117" s="17">
+      <c r="P117" s="16">
         <v>92.780099841373215</v>
       </c>
-      <c r="Q117" s="17">
+      <c r="Q117" s="16">
         <v>100.14211079664051</v>
       </c>
-      <c r="R117" s="17">
+      <c r="R117" s="16">
         <v>99.730422708426929</v>
       </c>
-      <c r="S117" s="17">
+      <c r="S117" s="16">
         <v>100.51859916909387</v>
       </c>
-      <c r="T117" s="17">
+      <c r="T117" s="16">
         <v>100</v>
       </c>
-      <c r="U117" s="17">
+      <c r="U117" s="16">
         <v>102.76851198685817</v>
       </c>
-      <c r="V117" s="17">
+      <c r="V117" s="16">
         <v>98.918664099143726</v>
       </c>
-      <c r="W117" s="17">
+      <c r="W117" s="16">
         <v>104.1618592319024</v>
       </c>
-      <c r="X117" s="9"/>
+      <c r="X117" s="16">
+        <v>106.45432270967375</v>
+      </c>
       <c r="Y117" s="9"/>
       <c r="Z117" s="9"/>
       <c r="AA117" s="9"/>
@@ -8619,77 +8731,79 @@
       <c r="CQ117" s="9"/>
       <c r="CR117" s="9"/>
     </row>
-    <row r="118" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A118" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B118" s="17">
+      <c r="B118" s="16">
         <v>70.848386102200863</v>
       </c>
-      <c r="C118" s="17">
+      <c r="C118" s="16">
         <v>78.650180802161088</v>
       </c>
-      <c r="D118" s="17">
+      <c r="D118" s="16">
         <v>82.745702921874383</v>
       </c>
-      <c r="E118" s="17">
+      <c r="E118" s="16">
         <v>91.90391163087142</v>
       </c>
-      <c r="F118" s="17">
+      <c r="F118" s="16">
         <v>107.67331121688646</v>
       </c>
-      <c r="G118" s="17">
+      <c r="G118" s="16">
         <v>102.55067309555518</v>
       </c>
-      <c r="H118" s="17">
+      <c r="H118" s="16">
         <v>96.719486373126998</v>
       </c>
-      <c r="I118" s="17">
+      <c r="I118" s="16">
         <v>90.09357115545356</v>
       </c>
-      <c r="J118" s="17">
+      <c r="J118" s="16">
         <v>84.695390012584141</v>
       </c>
-      <c r="K118" s="17">
+      <c r="K118" s="16">
         <v>85.507453899871919</v>
       </c>
-      <c r="L118" s="17">
+      <c r="L118" s="16">
         <v>78.88776256298668</v>
       </c>
-      <c r="M118" s="17">
+      <c r="M118" s="16">
         <v>79.209505348683436</v>
       </c>
-      <c r="N118" s="17">
+      <c r="N118" s="16">
         <v>78.158835860706503</v>
       </c>
-      <c r="O118" s="17">
+      <c r="O118" s="16">
         <v>82.691039444494024</v>
       </c>
-      <c r="P118" s="17">
+      <c r="P118" s="16">
         <v>92.780099841373215</v>
       </c>
-      <c r="Q118" s="17">
+      <c r="Q118" s="16">
         <v>100.14211079664051</v>
       </c>
-      <c r="R118" s="17">
+      <c r="R118" s="16">
         <v>99.730422708426929</v>
       </c>
-      <c r="S118" s="17">
+      <c r="S118" s="16">
         <v>100.51859916909387</v>
       </c>
-      <c r="T118" s="17">
+      <c r="T118" s="16">
         <v>100</v>
       </c>
-      <c r="U118" s="17">
+      <c r="U118" s="16">
         <v>104.23619399029356</v>
       </c>
-      <c r="V118" s="17">
+      <c r="V118" s="16">
         <v>101.47156410752751</v>
       </c>
-      <c r="W118" s="17">
+      <c r="W118" s="16">
         <v>102.64174713979904</v>
       </c>
-      <c r="X118" s="9"/>
+      <c r="X118" s="16">
+        <v>107.07031443854187</v>
+      </c>
       <c r="Y118" s="9"/>
       <c r="Z118" s="9"/>
       <c r="AA118" s="9"/>
@@ -8763,8 +8877,8 @@
       <c r="CQ118" s="9"/>
       <c r="CR118" s="9"/>
     </row>
-    <row r="119" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A119" s="10"/>
+    <row r="119" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A119"/>
       <c r="B119" s="9"/>
       <c r="C119" s="9"/>
       <c r="D119" s="9"/>
@@ -8861,77 +8975,79 @@
       <c r="CQ119" s="9"/>
       <c r="CR119" s="9"/>
     </row>
-    <row r="120" spans="1:96" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A120" s="11" t="s">
+    <row r="120" spans="1:96" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A120" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B120" s="17">
+      <c r="B120" s="16">
         <v>65.694935261412823</v>
       </c>
-      <c r="C120" s="17">
+      <c r="C120" s="16">
         <v>71.304578851709138</v>
       </c>
-      <c r="D120" s="17">
+      <c r="D120" s="16">
         <v>73.044197207420893</v>
       </c>
-      <c r="E120" s="17">
+      <c r="E120" s="16">
         <v>80.292629107490939</v>
       </c>
-      <c r="F120" s="17">
+      <c r="F120" s="16">
         <v>89.710786927157542</v>
       </c>
-      <c r="G120" s="17">
+      <c r="G120" s="16">
         <v>92.592409877687359</v>
       </c>
-      <c r="H120" s="17">
+      <c r="H120" s="16">
         <v>90.647898688698774</v>
       </c>
-      <c r="I120" s="17">
+      <c r="I120" s="16">
         <v>88.047929863314508</v>
       </c>
-      <c r="J120" s="17">
+      <c r="J120" s="16">
         <v>87.715890990704878</v>
       </c>
-      <c r="K120" s="17">
+      <c r="K120" s="16">
         <v>92.742860862053234</v>
       </c>
-      <c r="L120" s="17">
+      <c r="L120" s="16">
         <v>88.801330847136342</v>
       </c>
-      <c r="M120" s="17">
+      <c r="M120" s="16">
         <v>93.075119992068792</v>
       </c>
-      <c r="N120" s="17">
+      <c r="N120" s="16">
         <v>91.979699863887333</v>
       </c>
-      <c r="O120" s="17">
+      <c r="O120" s="16">
         <v>96.622457031369578</v>
       </c>
-      <c r="P120" s="17">
+      <c r="P120" s="16">
         <v>99.691793827899161</v>
       </c>
-      <c r="Q120" s="17">
+      <c r="Q120" s="16">
         <v>97.648175041929079</v>
       </c>
-      <c r="R120" s="17">
+      <c r="R120" s="16">
         <v>97.912871933465624</v>
       </c>
-      <c r="S120" s="17">
+      <c r="S120" s="16">
         <v>99.449476090473368</v>
       </c>
-      <c r="T120" s="17">
+      <c r="T120" s="16">
         <v>99.999999999999957</v>
       </c>
-      <c r="U120" s="17">
+      <c r="U120" s="16">
         <v>101.48172512989314</v>
       </c>
-      <c r="V120" s="17">
+      <c r="V120" s="16">
         <v>100.71387117937604</v>
       </c>
-      <c r="W120" s="17">
+      <c r="W120" s="16">
         <v>101.10022162212053</v>
       </c>
-      <c r="X120" s="9"/>
+      <c r="X120" s="16">
+        <v>106.22730495629318</v>
+      </c>
       <c r="Y120" s="9"/>
       <c r="Z120" s="9"/>
       <c r="AA120" s="9"/>
@@ -9005,236 +9121,243 @@
       <c r="CQ120" s="9"/>
       <c r="CR120" s="9"/>
     </row>
-    <row r="121" spans="1:96" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A121" s="13"/>
-      <c r="B121" s="13"/>
-      <c r="C121" s="13"/>
-      <c r="D121" s="13"/>
-      <c r="E121" s="13"/>
-      <c r="F121" s="13"/>
-      <c r="G121" s="13"/>
-      <c r="H121" s="13"/>
-      <c r="I121" s="13"/>
-      <c r="J121" s="13"/>
-      <c r="K121" s="13"/>
-      <c r="L121" s="13"/>
-      <c r="M121" s="13"/>
-      <c r="N121" s="13"/>
-      <c r="O121" s="13"/>
-      <c r="P121" s="13"/>
-      <c r="Q121" s="13"/>
-      <c r="R121" s="13"/>
-      <c r="S121" s="13"/>
-      <c r="T121" s="13"/>
-      <c r="U121" s="13"/>
-      <c r="V121" s="13"/>
-      <c r="W121" s="13"/>
-    </row>
-    <row r="122" spans="1:96" x14ac:dyDescent="0.25">
-      <c r="A122" s="14" t="s">
+    <row r="121" spans="1:96" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A121" s="12"/>
+      <c r="B121" s="12"/>
+      <c r="C121" s="12"/>
+      <c r="D121" s="12"/>
+      <c r="E121" s="12"/>
+      <c r="F121" s="12"/>
+      <c r="G121" s="12"/>
+      <c r="H121" s="12"/>
+      <c r="I121" s="12"/>
+      <c r="J121" s="12"/>
+      <c r="K121" s="12"/>
+      <c r="L121" s="12"/>
+      <c r="M121" s="12"/>
+      <c r="N121" s="12"/>
+      <c r="O121" s="12"/>
+      <c r="P121" s="12"/>
+      <c r="Q121" s="12"/>
+      <c r="R121" s="12"/>
+      <c r="S121" s="12"/>
+      <c r="T121" s="12"/>
+      <c r="U121" s="12"/>
+      <c r="V121" s="12"/>
+      <c r="W121" s="12"/>
+      <c r="X121" s="12"/>
+    </row>
+    <row r="122" spans="1:96" x14ac:dyDescent="0.2">
+      <c r="A122" s="13" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A125" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="126" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A126" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="127" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A127" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="129" spans="1:96" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="129" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A129" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="130" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A130" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="131" spans="1:96" x14ac:dyDescent="0.25">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="131" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A131" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="133" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A133" s="3"/>
-      <c r="B133" s="15" t="s">
+      <c r="B133" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="C133" s="15"/>
-      <c r="D133" s="15"/>
-      <c r="E133" s="15"/>
-      <c r="F133" s="15"/>
-      <c r="G133" s="15"/>
-      <c r="H133" s="15"/>
-      <c r="I133" s="15"/>
-      <c r="J133" s="15"/>
-      <c r="K133" s="15"/>
-      <c r="L133" s="15"/>
-      <c r="M133" s="15"/>
-      <c r="N133" s="15"/>
-      <c r="O133" s="15"/>
-      <c r="P133" s="15"/>
-      <c r="Q133" s="15"/>
-      <c r="R133" s="15"/>
-      <c r="S133" s="15"/>
-      <c r="T133" s="15"/>
-      <c r="U133" s="15"/>
-      <c r="V133" s="15"/>
-      <c r="W133" s="15"/>
-    </row>
-    <row r="134" spans="1:96" x14ac:dyDescent="0.25">
+      <c r="C133" s="14"/>
+      <c r="D133" s="14"/>
+      <c r="E133" s="14"/>
+      <c r="F133" s="14"/>
+      <c r="G133" s="14"/>
+      <c r="H133" s="14"/>
+      <c r="I133" s="14"/>
+      <c r="J133" s="14"/>
+      <c r="K133" s="14"/>
+      <c r="L133" s="14"/>
+      <c r="M133" s="14"/>
+      <c r="N133" s="14"/>
+      <c r="O133" s="14"/>
+      <c r="P133" s="14"/>
+      <c r="Q133" s="14"/>
+      <c r="R133" s="14"/>
+      <c r="S133" s="14"/>
+      <c r="T133" s="14"/>
+      <c r="U133" s="14"/>
+      <c r="V133" s="14"/>
+      <c r="W133" s="14"/>
+      <c r="X133" s="14"/>
+    </row>
+    <row r="134" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A134" s="5"/>
-      <c r="B134" s="16">
+      <c r="B134" s="15">
         <v>2000</v>
       </c>
-      <c r="C134" s="16">
+      <c r="C134" s="15">
         <v>2001</v>
       </c>
-      <c r="D134" s="16">
+      <c r="D134" s="15">
         <v>2002</v>
       </c>
-      <c r="E134" s="16">
+      <c r="E134" s="15">
         <v>2003</v>
       </c>
-      <c r="F134" s="16">
+      <c r="F134" s="15">
         <v>2004</v>
       </c>
-      <c r="G134" s="16">
+      <c r="G134" s="15">
         <v>2005</v>
       </c>
-      <c r="H134" s="16">
+      <c r="H134" s="15">
         <v>2006</v>
       </c>
-      <c r="I134" s="16">
+      <c r="I134" s="15">
         <v>2007</v>
       </c>
-      <c r="J134" s="16">
+      <c r="J134" s="15">
         <v>2008</v>
       </c>
-      <c r="K134" s="16">
+      <c r="K134" s="15">
         <v>2009</v>
       </c>
-      <c r="L134" s="16">
+      <c r="L134" s="15">
         <v>2010</v>
       </c>
-      <c r="M134" s="16">
+      <c r="M134" s="15">
         <v>2011</v>
       </c>
-      <c r="N134" s="16">
+      <c r="N134" s="15">
         <v>2012</v>
       </c>
-      <c r="O134" s="16">
+      <c r="O134" s="15">
         <v>2013</v>
       </c>
-      <c r="P134" s="16">
+      <c r="P134" s="15">
         <v>2014</v>
       </c>
-      <c r="Q134" s="16">
+      <c r="Q134" s="15">
         <v>2015</v>
       </c>
-      <c r="R134" s="16">
+      <c r="R134" s="15">
         <v>2016</v>
       </c>
-      <c r="S134" s="16">
+      <c r="S134" s="15">
         <v>2017</v>
       </c>
-      <c r="T134" s="16">
+      <c r="T134" s="15">
         <v>2018</v>
       </c>
-      <c r="U134" s="16">
+      <c r="U134" s="15">
         <v>2019</v>
       </c>
-      <c r="V134" s="16">
+      <c r="V134" s="15">
         <v>2020</v>
       </c>
-      <c r="W134" s="16">
+      <c r="W134" s="15">
         <v>2021</v>
       </c>
-    </row>
-    <row r="135" spans="1:96" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X134" s="15">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="135" spans="1:96" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A135" s="7"/>
     </row>
-    <row r="136" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A136" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B136" s="18">
+      <c r="B136" s="17">
         <v>39.551192030079804</v>
       </c>
-      <c r="C136" s="18">
+      <c r="C136" s="17">
         <v>35.18352756296094</v>
       </c>
-      <c r="D136" s="18">
+      <c r="D136" s="17">
         <v>27.938739773514754</v>
       </c>
-      <c r="E136" s="18">
+      <c r="E136" s="17">
         <v>27.123073843207351</v>
       </c>
-      <c r="F136" s="18">
+      <c r="F136" s="17">
         <v>24.414356523493534</v>
       </c>
-      <c r="G136" s="18">
+      <c r="G136" s="17">
         <v>27.386245971467559</v>
       </c>
-      <c r="H136" s="18">
+      <c r="H136" s="17">
         <v>25.901697486661597</v>
       </c>
-      <c r="I136" s="18">
+      <c r="I136" s="17">
         <v>26.541154399394141</v>
       </c>
-      <c r="J136" s="18">
+      <c r="J136" s="17">
         <v>25.959609904721848</v>
       </c>
-      <c r="K136" s="18">
+      <c r="K136" s="17">
         <v>24.812712323873892</v>
       </c>
-      <c r="L136" s="18">
+      <c r="L136" s="17">
         <v>25.263719648364674</v>
       </c>
-      <c r="M136" s="18">
+      <c r="M136" s="17">
         <v>20.497725149498187</v>
       </c>
-      <c r="N136" s="18">
+      <c r="N136" s="17">
         <v>20.205478820576143</v>
       </c>
-      <c r="O136" s="18">
+      <c r="O136" s="17">
         <v>16.721463603407123</v>
       </c>
-      <c r="P136" s="18">
+      <c r="P136" s="17">
         <v>15.964178601913451</v>
       </c>
-      <c r="Q136" s="18">
+      <c r="Q136" s="17">
         <v>15.649852603122582</v>
       </c>
-      <c r="R136" s="18">
+      <c r="R136" s="17">
         <v>18.039484906256327</v>
       </c>
-      <c r="S136" s="18">
+      <c r="S136" s="17">
         <v>18.393643558351968</v>
       </c>
-      <c r="T136" s="18">
+      <c r="T136" s="17">
         <v>19.180736677559658</v>
       </c>
-      <c r="U136" s="18">
+      <c r="U136" s="17">
         <v>16.554604722412368</v>
       </c>
-      <c r="V136" s="18">
+      <c r="V136" s="17">
         <v>17.635403636071565</v>
       </c>
-      <c r="W136" s="18">
+      <c r="W136" s="17">
         <v>23.584566379077472</v>
       </c>
-      <c r="X136" s="9"/>
+      <c r="X136" s="17">
+        <v>22.823485086856508</v>
+      </c>
       <c r="Y136" s="9"/>
       <c r="Z136" s="9"/>
       <c r="AA136" s="9"/>
@@ -9308,77 +9431,79 @@
       <c r="CQ136" s="9"/>
       <c r="CR136" s="9"/>
     </row>
-    <row r="137" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A137" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B137" s="18">
+      <c r="B137" s="17">
         <v>5.4825161159097284</v>
       </c>
-      <c r="C137" s="18">
+      <c r="C137" s="17">
         <v>5.4452380285874113</v>
       </c>
-      <c r="D137" s="18">
+      <c r="D137" s="17">
         <v>5.8076630276185801</v>
       </c>
-      <c r="E137" s="18">
+      <c r="E137" s="17">
         <v>5.775920630076576</v>
       </c>
-      <c r="F137" s="18">
+      <c r="F137" s="17">
         <v>5.6193437771811832</v>
       </c>
-      <c r="G137" s="18">
+      <c r="G137" s="17">
         <v>6.1454852237677633</v>
       </c>
-      <c r="H137" s="18">
+      <c r="H137" s="17">
         <v>6.5028557025791942</v>
       </c>
-      <c r="I137" s="18">
+      <c r="I137" s="17">
         <v>6.0891730973680085</v>
       </c>
-      <c r="J137" s="18">
+      <c r="J137" s="17">
         <v>4.8524350562658194</v>
       </c>
-      <c r="K137" s="18">
+      <c r="K137" s="17">
         <v>4.7311972630525743</v>
       </c>
-      <c r="L137" s="18">
+      <c r="L137" s="17">
         <v>5.2626603381433794</v>
       </c>
-      <c r="M137" s="18">
+      <c r="M137" s="17">
         <v>5.4637312519243935</v>
       </c>
-      <c r="N137" s="18">
+      <c r="N137" s="17">
         <v>4.5170176641871551</v>
       </c>
-      <c r="O137" s="18">
+      <c r="O137" s="17">
         <v>3.6491150723888208</v>
       </c>
-      <c r="P137" s="18">
+      <c r="P137" s="17">
         <v>3.3987523717101333</v>
       </c>
-      <c r="Q137" s="18">
+      <c r="Q137" s="17">
         <v>3.3495624115504752</v>
       </c>
-      <c r="R137" s="18">
+      <c r="R137" s="17">
         <v>5.0790617069394894</v>
       </c>
-      <c r="S137" s="18">
+      <c r="S137" s="17">
         <v>5.3360640435033986</v>
       </c>
-      <c r="T137" s="18">
+      <c r="T137" s="17">
         <v>5.2685343644022176</v>
       </c>
-      <c r="U137" s="18">
+      <c r="U137" s="17">
         <v>5.0132566626477333</v>
       </c>
-      <c r="V137" s="18">
+      <c r="V137" s="17">
         <v>5.3155861716222139</v>
       </c>
-      <c r="W137" s="18">
+      <c r="W137" s="17">
         <v>7.8200490361075961</v>
       </c>
-      <c r="X137" s="9"/>
+      <c r="X137" s="17">
+        <v>6.4856717779021773</v>
+      </c>
       <c r="Y137" s="9"/>
       <c r="Z137" s="9"/>
       <c r="AA137" s="9"/>
@@ -9452,77 +9577,79 @@
       <c r="CQ137" s="9"/>
       <c r="CR137" s="9"/>
     </row>
-    <row r="138" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A138" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B138" s="18">
+      <c r="B138" s="17">
         <v>37.648499751146971</v>
       </c>
-      <c r="C138" s="18">
+      <c r="C138" s="17">
         <v>40.018925185589652</v>
       </c>
-      <c r="D138" s="18">
+      <c r="D138" s="17">
         <v>50.635970580213005</v>
       </c>
-      <c r="E138" s="18">
+      <c r="E138" s="17">
         <v>52.050941776626111</v>
       </c>
-      <c r="F138" s="18">
+      <c r="F138" s="17">
         <v>55.792955338849247</v>
       </c>
-      <c r="G138" s="18">
+      <c r="G138" s="17">
         <v>52.928959285376209</v>
       </c>
-      <c r="H138" s="18">
+      <c r="H138" s="17">
         <v>53.575074170509382</v>
       </c>
-      <c r="I138" s="18">
+      <c r="I138" s="17">
         <v>52.211596573420763</v>
       </c>
-      <c r="J138" s="18">
+      <c r="J138" s="17">
         <v>53.7212974944729</v>
       </c>
-      <c r="K138" s="18">
+      <c r="K138" s="17">
         <v>53.867035474525579</v>
       </c>
-      <c r="L138" s="18">
+      <c r="L138" s="17">
         <v>53.34668062095794</v>
       </c>
-      <c r="M138" s="18">
+      <c r="M138" s="17">
         <v>58.93281487015193</v>
       </c>
-      <c r="N138" s="18">
+      <c r="N138" s="17">
         <v>58.716011003350111</v>
       </c>
-      <c r="O138" s="18">
+      <c r="O138" s="17">
         <v>59.853651410794953</v>
       </c>
-      <c r="P138" s="18">
+      <c r="P138" s="17">
         <v>55.936098821912495</v>
       </c>
-      <c r="Q138" s="18">
+      <c r="Q138" s="17">
         <v>51.609572324686894</v>
       </c>
-      <c r="R138" s="18">
+      <c r="R138" s="17">
         <v>48.566939044788768</v>
       </c>
-      <c r="S138" s="18">
+      <c r="S138" s="17">
         <v>47.256128050440878</v>
       </c>
-      <c r="T138" s="18">
+      <c r="T138" s="17">
         <v>46.328882025513742</v>
       </c>
-      <c r="U138" s="18">
+      <c r="U138" s="17">
         <v>46.424405648470277</v>
       </c>
-      <c r="V138" s="18">
+      <c r="V138" s="17">
         <v>39.861481880097024</v>
       </c>
-      <c r="W138" s="18">
+      <c r="W138" s="17">
         <v>24.782109495259938</v>
       </c>
-      <c r="X138" s="9"/>
+      <c r="X138" s="17">
+        <v>31.563123904449743</v>
+      </c>
       <c r="Y138" s="9"/>
       <c r="Z138" s="9"/>
       <c r="AA138" s="9"/>
@@ -9596,77 +9723,79 @@
       <c r="CQ138" s="9"/>
       <c r="CR138" s="9"/>
     </row>
-    <row r="139" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A139" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B139" s="18">
+      <c r="B139" s="17">
         <v>1.0601421756308829</v>
       </c>
-      <c r="C139" s="18">
+      <c r="C139" s="17">
         <v>0.89717553827322849</v>
       </c>
-      <c r="D139" s="18">
+      <c r="D139" s="17">
         <v>0.5738171306373312</v>
       </c>
-      <c r="E139" s="18">
+      <c r="E139" s="17">
         <v>0.37385052244423089</v>
       </c>
-      <c r="F139" s="18">
+      <c r="F139" s="17">
         <v>0.56583254794477089</v>
       </c>
-      <c r="G139" s="18">
+      <c r="G139" s="17">
         <v>0.80843401414987093</v>
       </c>
-      <c r="H139" s="18">
+      <c r="H139" s="17">
         <v>1.0662191624270325</v>
       </c>
-      <c r="I139" s="18">
+      <c r="I139" s="17">
         <v>1.2046546702359926</v>
       </c>
-      <c r="J139" s="18">
+      <c r="J139" s="17">
         <v>1.5254343918152011</v>
       </c>
-      <c r="K139" s="18">
+      <c r="K139" s="17">
         <v>1.7483388393850103</v>
       </c>
-      <c r="L139" s="18">
+      <c r="L139" s="17">
         <v>1.5387628773648796</v>
       </c>
-      <c r="M139" s="18">
+      <c r="M139" s="17">
         <v>1.9440650638872654</v>
       </c>
-      <c r="N139" s="18">
+      <c r="N139" s="17">
         <v>1.6584326260620479</v>
       </c>
-      <c r="O139" s="18">
+      <c r="O139" s="17">
         <v>1.3166483224942689</v>
       </c>
-      <c r="P139" s="18">
+      <c r="P139" s="17">
         <v>1.5020842175251186</v>
       </c>
-      <c r="Q139" s="18">
+      <c r="Q139" s="17">
         <v>1.1030273485673643</v>
       </c>
-      <c r="R139" s="18">
+      <c r="R139" s="17">
         <v>1.4479770615027487</v>
       </c>
-      <c r="S139" s="18">
+      <c r="S139" s="17">
         <v>1.1226241161680235</v>
       </c>
-      <c r="T139" s="18">
+      <c r="T139" s="17">
         <v>1.8704675247683937</v>
       </c>
-      <c r="U139" s="18">
+      <c r="U139" s="17">
         <v>1.8125874404191469</v>
       </c>
-      <c r="V139" s="18">
+      <c r="V139" s="17">
         <v>1.7866733779872295</v>
       </c>
-      <c r="W139" s="18">
+      <c r="W139" s="17">
         <v>1.9762501442464564</v>
       </c>
-      <c r="X139" s="9"/>
+      <c r="X139" s="17">
+        <v>1.3344261406249276</v>
+      </c>
       <c r="Y139" s="9"/>
       <c r="Z139" s="9"/>
       <c r="AA139" s="9"/>
@@ -9740,77 +9869,79 @@
       <c r="CQ139" s="9"/>
       <c r="CR139" s="9"/>
     </row>
-    <row r="140" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A140" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B140" s="18">
+      <c r="B140" s="17">
         <v>2.1886591190130553</v>
       </c>
-      <c r="C140" s="18">
+      <c r="C140" s="17">
         <v>2.3070072026525801</v>
       </c>
-      <c r="D140" s="18">
+      <c r="D140" s="17">
         <v>1.8758331881331198</v>
       </c>
-      <c r="E140" s="18">
+      <c r="E140" s="17">
         <v>1.8322244688611322</v>
       </c>
-      <c r="F140" s="18">
+      <c r="F140" s="17">
         <v>2.1025881484206073</v>
       </c>
-      <c r="G140" s="18">
+      <c r="G140" s="17">
         <v>2.1368030714815025</v>
       </c>
-      <c r="H140" s="18">
+      <c r="H140" s="17">
         <v>1.9356707619795313</v>
       </c>
-      <c r="I140" s="18">
+      <c r="I140" s="17">
         <v>1.4737973626407079</v>
       </c>
-      <c r="J140" s="18">
+      <c r="J140" s="17">
         <v>1.5876431404572817</v>
       </c>
-      <c r="K140" s="18">
+      <c r="K140" s="17">
         <v>1.5515387643190997</v>
       </c>
-      <c r="L140" s="18">
+      <c r="L140" s="17">
         <v>1.7068593460552066</v>
       </c>
-      <c r="M140" s="18">
+      <c r="M140" s="17">
         <v>2.0311917589910298</v>
       </c>
-      <c r="N140" s="18">
+      <c r="N140" s="17">
         <v>1.7828562595412538</v>
       </c>
-      <c r="O140" s="18">
+      <c r="O140" s="17">
         <v>2.4170550742630366</v>
       </c>
-      <c r="P140" s="18">
+      <c r="P140" s="17">
         <v>2.7669608370033347</v>
       </c>
-      <c r="Q140" s="18">
+      <c r="Q140" s="17">
         <v>3.0229725633017854</v>
       </c>
-      <c r="R140" s="18">
+      <c r="R140" s="17">
         <v>2.5785029667392849</v>
       </c>
-      <c r="S140" s="18">
+      <c r="S140" s="17">
         <v>3.1790869779816116</v>
       </c>
-      <c r="T140" s="18">
+      <c r="T140" s="17">
         <v>3.5798126688538852</v>
       </c>
-      <c r="U140" s="18">
+      <c r="U140" s="17">
         <v>3.7964312715803228</v>
       </c>
-      <c r="V140" s="18">
+      <c r="V140" s="17">
         <v>6.4885837937613795</v>
       </c>
-      <c r="W140" s="18">
+      <c r="W140" s="17">
         <v>10.308875124106228</v>
       </c>
-      <c r="X140" s="9"/>
+      <c r="X140" s="17">
+        <v>6.7387869242210563</v>
+      </c>
       <c r="Y140" s="9"/>
       <c r="Z140" s="9"/>
       <c r="AA140" s="9"/>
@@ -9884,77 +10015,79 @@
       <c r="CQ140" s="9"/>
       <c r="CR140" s="9"/>
     </row>
-    <row r="141" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A141" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B141" s="18">
+      <c r="B141" s="17">
         <v>8.4359707486748903</v>
       </c>
-      <c r="C141" s="18">
+      <c r="C141" s="17">
         <v>9.8876259901623573</v>
       </c>
-      <c r="D141" s="18">
+      <c r="D141" s="17">
         <v>8.0611306592744576</v>
       </c>
-      <c r="E141" s="18">
+      <c r="E141" s="17">
         <v>7.867335330177089</v>
       </c>
-      <c r="F141" s="18">
+      <c r="F141" s="17">
         <v>7.4344594539754585</v>
       </c>
-      <c r="G141" s="18">
+      <c r="G141" s="17">
         <v>5.9254543229933097</v>
       </c>
-      <c r="H141" s="18">
+      <c r="H141" s="17">
         <v>5.4676070698454886</v>
       </c>
-      <c r="I141" s="18">
+      <c r="I141" s="17">
         <v>7.3508095172186687</v>
       </c>
-      <c r="J141" s="18">
+      <c r="J141" s="17">
         <v>7.9958451478687449</v>
       </c>
-      <c r="K141" s="18">
+      <c r="K141" s="17">
         <v>7.5907240172873642</v>
       </c>
-      <c r="L141" s="18">
+      <c r="L141" s="17">
         <v>7.3510611654629283</v>
       </c>
-      <c r="M141" s="18">
+      <c r="M141" s="17">
         <v>5.7905620234086674</v>
       </c>
-      <c r="N141" s="18">
+      <c r="N141" s="17">
         <v>8.4153569536307273</v>
       </c>
-      <c r="O141" s="18">
+      <c r="O141" s="17">
         <v>10.519785946277265</v>
       </c>
-      <c r="P141" s="18">
+      <c r="P141" s="17">
         <v>15.509056979879738</v>
       </c>
-      <c r="Q141" s="18">
+      <c r="Q141" s="17">
         <v>19.931587549535713</v>
       </c>
-      <c r="R141" s="18">
+      <c r="R141" s="17">
         <v>18.882857531999043</v>
       </c>
-      <c r="S141" s="18">
+      <c r="S141" s="17">
         <v>18.595999921094858</v>
       </c>
-      <c r="T141" s="18">
+      <c r="T141" s="17">
         <v>16.724669375921234</v>
       </c>
-      <c r="U141" s="18">
+      <c r="U141" s="17">
         <v>18.624151793299554</v>
       </c>
-      <c r="V141" s="18">
+      <c r="V141" s="17">
         <v>22.147799374448986</v>
       </c>
-      <c r="W141" s="18">
+      <c r="W141" s="17">
         <v>24.91502402119438</v>
       </c>
-      <c r="X141" s="9"/>
+      <c r="X141" s="17">
+        <v>24.049996798669664</v>
+      </c>
       <c r="Y141" s="9"/>
       <c r="Z141" s="9"/>
       <c r="AA141" s="9"/>
@@ -10028,77 +10161,79 @@
       <c r="CQ141" s="9"/>
       <c r="CR141" s="9"/>
     </row>
-    <row r="142" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A142" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B142" s="18">
+      <c r="B142" s="17">
         <v>3.3310818257176149</v>
       </c>
-      <c r="C142" s="18">
+      <c r="C142" s="17">
         <v>3.8378192146520878</v>
       </c>
-      <c r="D142" s="18">
+      <c r="D142" s="17">
         <v>3.1315285560489259</v>
       </c>
-      <c r="E142" s="18">
+      <c r="E142" s="17">
         <v>3.0505534916487829</v>
       </c>
-      <c r="F142" s="18">
+      <c r="F142" s="17">
         <v>2.4933470937388078</v>
       </c>
-      <c r="G142" s="18">
+      <c r="G142" s="17">
         <v>3.2524132239224484</v>
       </c>
-      <c r="H142" s="18">
+      <c r="H142" s="17">
         <v>3.8557042108306878</v>
       </c>
-      <c r="I142" s="18">
+      <c r="I142" s="17">
         <v>3.4250118852823217</v>
       </c>
-      <c r="J142" s="18">
+      <c r="J142" s="17">
         <v>2.4361450480914448</v>
       </c>
-      <c r="K142" s="18">
+      <c r="K142" s="17">
         <v>3.0736955815442482</v>
       </c>
-      <c r="L142" s="18">
+      <c r="L142" s="17">
         <v>3.2066325731313912</v>
       </c>
-      <c r="M142" s="18">
+      <c r="M142" s="17">
         <v>2.622614640575438</v>
       </c>
-      <c r="N142" s="18">
+      <c r="N142" s="17">
         <v>2.4034894366584298</v>
       </c>
-      <c r="O142" s="18">
+      <c r="O142" s="17">
         <v>2.4136757674261422</v>
       </c>
-      <c r="P142" s="18">
+      <c r="P142" s="17">
         <v>2.3827336325988306</v>
       </c>
-      <c r="Q142" s="18">
+      <c r="Q142" s="17">
         <v>2.3808098082004254</v>
       </c>
-      <c r="R142" s="18">
+      <c r="R142" s="17">
         <v>2.1054863271156443</v>
       </c>
-      <c r="S142" s="18">
+      <c r="S142" s="17">
         <v>2.8012215078357148</v>
       </c>
-      <c r="T142" s="18">
+      <c r="T142" s="17">
         <v>3.3106080537538558</v>
       </c>
-      <c r="U142" s="18">
+      <c r="U142" s="17">
         <v>3.2429513335662636</v>
       </c>
-      <c r="V142" s="18">
+      <c r="V142" s="17">
         <v>2.8881878400628147</v>
       </c>
-      <c r="W142" s="18">
+      <c r="W142" s="17">
         <v>3.1562665787678488</v>
       </c>
-      <c r="X142" s="9"/>
+      <c r="X142" s="17">
+        <v>2.1909564124911554</v>
+      </c>
       <c r="Y142" s="9"/>
       <c r="Z142" s="9"/>
       <c r="AA142" s="9"/>
@@ -10172,77 +10307,79 @@
       <c r="CQ142" s="9"/>
       <c r="CR142" s="9"/>
     </row>
-    <row r="143" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A143" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B143" s="18">
+      <c r="B143" s="17">
         <v>2.3019382338270424</v>
       </c>
-      <c r="C143" s="18">
+      <c r="C143" s="17">
         <v>2.4226812771217276</v>
       </c>
-      <c r="D143" s="18">
+      <c r="D143" s="17">
         <v>1.9753170845598251</v>
       </c>
-      <c r="E143" s="18">
+      <c r="E143" s="17">
         <v>1.9260999369587262</v>
       </c>
-      <c r="F143" s="18">
+      <c r="F143" s="17">
         <v>1.577117116396382</v>
       </c>
-      <c r="G143" s="18">
+      <c r="G143" s="17">
         <v>1.4162048868413402</v>
       </c>
-      <c r="H143" s="18">
+      <c r="H143" s="17">
         <v>1.6951714351670877</v>
       </c>
-      <c r="I143" s="18">
+      <c r="I143" s="17">
         <v>1.7038024944393941</v>
       </c>
-      <c r="J143" s="18">
+      <c r="J143" s="17">
         <v>1.9215898163067562</v>
       </c>
-      <c r="K143" s="18">
+      <c r="K143" s="17">
         <v>2.6247577360122389</v>
       </c>
-      <c r="L143" s="18">
+      <c r="L143" s="17">
         <v>2.3236234305196097</v>
       </c>
-      <c r="M143" s="18">
+      <c r="M143" s="17">
         <v>2.7172952415631078</v>
       </c>
-      <c r="N143" s="18">
+      <c r="N143" s="17">
         <v>2.3013572359941281</v>
       </c>
-      <c r="O143" s="18">
+      <c r="O143" s="17">
         <v>3.1086048029483919</v>
       </c>
-      <c r="P143" s="18">
+      <c r="P143" s="17">
         <v>2.5401345374569058</v>
       </c>
-      <c r="Q143" s="18">
+      <c r="Q143" s="17">
         <v>2.9526153910347621</v>
       </c>
-      <c r="R143" s="18">
+      <c r="R143" s="17">
         <v>3.2996904546586894</v>
       </c>
-      <c r="S143" s="18">
+      <c r="S143" s="17">
         <v>3.3152318246235191</v>
       </c>
-      <c r="T143" s="18">
+      <c r="T143" s="17">
         <v>3.7362893092269998</v>
       </c>
-      <c r="U143" s="18">
+      <c r="U143" s="17">
         <v>4.5316111276043483</v>
       </c>
-      <c r="V143" s="18">
+      <c r="V143" s="17">
         <v>3.8762839259487625</v>
       </c>
-      <c r="W143" s="18">
+      <c r="W143" s="17">
         <v>3.4568592212400868</v>
       </c>
-      <c r="X143" s="9"/>
+      <c r="X143" s="17">
+        <v>4.8135529547847717</v>
+      </c>
       <c r="Y143" s="9"/>
       <c r="Z143" s="9"/>
       <c r="AA143" s="9"/>
@@ -10316,8 +10453,8 @@
       <c r="CQ143" s="9"/>
       <c r="CR143" s="9"/>
     </row>
-    <row r="144" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A144" s="10"/>
+    <row r="144" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A144"/>
       <c r="B144" s="9"/>
       <c r="C144" s="9"/>
       <c r="D144" s="9"/>
@@ -10414,77 +10551,79 @@
       <c r="CQ144" s="9"/>
       <c r="CR144" s="9"/>
     </row>
-    <row r="145" spans="1:96" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A145" s="11" t="s">
+    <row r="145" spans="1:96" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A145" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B145" s="17">
+      <c r="B145" s="16">
         <v>100</v>
       </c>
-      <c r="C145" s="17">
+      <c r="C145" s="16">
         <v>100</v>
       </c>
-      <c r="D145" s="17">
+      <c r="D145" s="16">
         <v>100</v>
       </c>
-      <c r="E145" s="17">
+      <c r="E145" s="16">
         <v>100</v>
       </c>
-      <c r="F145" s="17">
+      <c r="F145" s="16">
         <v>100</v>
       </c>
-      <c r="G145" s="17">
+      <c r="G145" s="16">
         <v>100</v>
       </c>
-      <c r="H145" s="17">
+      <c r="H145" s="16">
         <v>100</v>
       </c>
-      <c r="I145" s="17">
+      <c r="I145" s="16">
         <v>100</v>
       </c>
-      <c r="J145" s="17">
+      <c r="J145" s="16">
         <v>100</v>
       </c>
-      <c r="K145" s="17">
+      <c r="K145" s="16">
         <v>100</v>
       </c>
-      <c r="L145" s="17">
+      <c r="L145" s="16">
         <v>100</v>
       </c>
-      <c r="M145" s="17">
+      <c r="M145" s="16">
         <v>100</v>
       </c>
-      <c r="N145" s="17">
+      <c r="N145" s="16">
         <v>100</v>
       </c>
-      <c r="O145" s="17">
+      <c r="O145" s="16">
         <v>100</v>
       </c>
-      <c r="P145" s="17">
+      <c r="P145" s="16">
         <v>100</v>
       </c>
-      <c r="Q145" s="17">
+      <c r="Q145" s="16">
         <v>100</v>
       </c>
-      <c r="R145" s="17">
+      <c r="R145" s="16">
         <v>100</v>
       </c>
-      <c r="S145" s="17">
+      <c r="S145" s="16">
         <v>100</v>
       </c>
-      <c r="T145" s="17">
+      <c r="T145" s="16">
         <v>100</v>
       </c>
-      <c r="U145" s="17">
+      <c r="U145" s="16">
         <v>100</v>
       </c>
-      <c r="V145" s="17">
+      <c r="V145" s="16">
         <v>100</v>
       </c>
-      <c r="W145" s="17">
+      <c r="W145" s="16">
         <v>100</v>
       </c>
-      <c r="X145" s="9"/>
+      <c r="X145" s="16">
+        <v>100</v>
+      </c>
       <c r="Y145" s="9"/>
       <c r="Z145" s="9"/>
       <c r="AA145" s="9"/>
@@ -10558,38 +10697,39 @@
       <c r="CQ145" s="9"/>
       <c r="CR145" s="9"/>
     </row>
-    <row r="146" spans="1:96" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A146" s="13"/>
-      <c r="B146" s="13"/>
-      <c r="C146" s="13"/>
-      <c r="D146" s="13"/>
-      <c r="E146" s="13"/>
-      <c r="F146" s="13"/>
-      <c r="G146" s="13"/>
-      <c r="H146" s="13"/>
-      <c r="I146" s="13"/>
-      <c r="J146" s="13"/>
-      <c r="K146" s="13"/>
-      <c r="L146" s="13"/>
-      <c r="M146" s="13"/>
-      <c r="N146" s="13"/>
-      <c r="O146" s="13"/>
-      <c r="P146" s="13"/>
-      <c r="Q146" s="13"/>
-      <c r="R146" s="13"/>
-      <c r="S146" s="13"/>
-      <c r="T146" s="13"/>
-      <c r="U146" s="13"/>
-      <c r="V146" s="13"/>
-      <c r="W146" s="13"/>
-    </row>
-    <row r="147" spans="1:96" x14ac:dyDescent="0.25">
-      <c r="A147" s="14" t="s">
+    <row r="146" spans="1:96" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A146" s="12"/>
+      <c r="B146" s="12"/>
+      <c r="C146" s="12"/>
+      <c r="D146" s="12"/>
+      <c r="E146" s="12"/>
+      <c r="F146" s="12"/>
+      <c r="G146" s="12"/>
+      <c r="H146" s="12"/>
+      <c r="I146" s="12"/>
+      <c r="J146" s="12"/>
+      <c r="K146" s="12"/>
+      <c r="L146" s="12"/>
+      <c r="M146" s="12"/>
+      <c r="N146" s="12"/>
+      <c r="O146" s="12"/>
+      <c r="P146" s="12"/>
+      <c r="Q146" s="12"/>
+      <c r="R146" s="12"/>
+      <c r="S146" s="12"/>
+      <c r="T146" s="12"/>
+      <c r="U146" s="12"/>
+      <c r="V146" s="12"/>
+      <c r="W146" s="12"/>
+      <c r="X146" s="12"/>
+    </row>
+    <row r="147" spans="1:96" x14ac:dyDescent="0.2">
+      <c r="A147" s="13" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A148" s="10"/>
+    <row r="148" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A148"/>
       <c r="B148" s="9"/>
       <c r="C148" s="9"/>
       <c r="D148" s="9"/>
@@ -10686,8 +10826,8 @@
       <c r="CQ148" s="9"/>
       <c r="CR148" s="9"/>
     </row>
-    <row r="149" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A149" s="10"/>
+    <row r="149" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A149"/>
       <c r="B149" s="9"/>
       <c r="C149" s="9"/>
       <c r="D149" s="9"/>
@@ -10784,206 +10924,212 @@
       <c r="CQ149" s="9"/>
       <c r="CR149" s="9"/>
     </row>
-    <row r="150" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A150" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="151" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A151" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="152" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A152" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="154" spans="1:96" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="154" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A154" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="155" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A155" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="156" spans="1:96" x14ac:dyDescent="0.25">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="156" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A156" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="158" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A158" s="3"/>
-      <c r="B158" s="15" t="s">
+      <c r="B158" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="C158" s="15"/>
-      <c r="D158" s="15"/>
-      <c r="E158" s="15"/>
-      <c r="F158" s="15"/>
-      <c r="G158" s="15"/>
-      <c r="H158" s="15"/>
-      <c r="I158" s="15"/>
-      <c r="J158" s="15"/>
-      <c r="K158" s="15"/>
-      <c r="L158" s="15"/>
-      <c r="M158" s="15"/>
-      <c r="N158" s="15"/>
-      <c r="O158" s="15"/>
-      <c r="P158" s="15"/>
-      <c r="Q158" s="15"/>
-      <c r="R158" s="15"/>
-      <c r="S158" s="15"/>
-      <c r="T158" s="15"/>
-      <c r="U158" s="15"/>
-      <c r="V158" s="15"/>
-      <c r="W158" s="15"/>
-    </row>
-    <row r="159" spans="1:96" x14ac:dyDescent="0.25">
+      <c r="C158" s="14"/>
+      <c r="D158" s="14"/>
+      <c r="E158" s="14"/>
+      <c r="F158" s="14"/>
+      <c r="G158" s="14"/>
+      <c r="H158" s="14"/>
+      <c r="I158" s="14"/>
+      <c r="J158" s="14"/>
+      <c r="K158" s="14"/>
+      <c r="L158" s="14"/>
+      <c r="M158" s="14"/>
+      <c r="N158" s="14"/>
+      <c r="O158" s="14"/>
+      <c r="P158" s="14"/>
+      <c r="Q158" s="14"/>
+      <c r="R158" s="14"/>
+      <c r="S158" s="14"/>
+      <c r="T158" s="14"/>
+      <c r="U158" s="14"/>
+      <c r="V158" s="14"/>
+      <c r="W158" s="14"/>
+      <c r="X158" s="14"/>
+    </row>
+    <row r="159" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A159" s="5"/>
-      <c r="B159" s="16">
+      <c r="B159" s="15">
         <v>2000</v>
       </c>
-      <c r="C159" s="16">
+      <c r="C159" s="15">
         <v>2001</v>
       </c>
-      <c r="D159" s="16">
+      <c r="D159" s="15">
         <v>2002</v>
       </c>
-      <c r="E159" s="16">
+      <c r="E159" s="15">
         <v>2003</v>
       </c>
-      <c r="F159" s="16">
+      <c r="F159" s="15">
         <v>2004</v>
       </c>
-      <c r="G159" s="16">
+      <c r="G159" s="15">
         <v>2005</v>
       </c>
-      <c r="H159" s="16">
+      <c r="H159" s="15">
         <v>2006</v>
       </c>
-      <c r="I159" s="16">
+      <c r="I159" s="15">
         <v>2007</v>
       </c>
-      <c r="J159" s="16">
+      <c r="J159" s="15">
         <v>2008</v>
       </c>
-      <c r="K159" s="16">
+      <c r="K159" s="15">
         <v>2009</v>
       </c>
-      <c r="L159" s="16">
+      <c r="L159" s="15">
         <v>2010</v>
       </c>
-      <c r="M159" s="16">
+      <c r="M159" s="15">
         <v>2011</v>
       </c>
-      <c r="N159" s="16">
+      <c r="N159" s="15">
         <v>2012</v>
       </c>
-      <c r="O159" s="16">
+      <c r="O159" s="15">
         <v>2013</v>
       </c>
-      <c r="P159" s="16">
+      <c r="P159" s="15">
         <v>2014</v>
       </c>
-      <c r="Q159" s="16">
+      <c r="Q159" s="15">
         <v>2015</v>
       </c>
-      <c r="R159" s="16">
+      <c r="R159" s="15">
         <v>2016</v>
       </c>
-      <c r="S159" s="16">
+      <c r="S159" s="15">
         <v>2017</v>
       </c>
-      <c r="T159" s="16">
+      <c r="T159" s="15">
         <v>2018</v>
       </c>
-      <c r="U159" s="16">
+      <c r="U159" s="15">
         <v>2019</v>
       </c>
-      <c r="V159" s="16">
+      <c r="V159" s="15">
         <v>2020</v>
       </c>
-      <c r="W159" s="16">
+      <c r="W159" s="15">
         <v>2021</v>
       </c>
-    </row>
-    <row r="160" spans="1:96" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X159" s="15">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="160" spans="1:96" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A160" s="7"/>
     </row>
-    <row r="161" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A161" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B161" s="18">
+      <c r="B161" s="17">
         <v>37.014077082874721</v>
       </c>
-      <c r="C161" s="18">
+      <c r="C161" s="17">
         <v>31.94440195171579</v>
       </c>
-      <c r="D161" s="18">
+      <c r="D161" s="17">
         <v>24.750650974233569</v>
       </c>
-      <c r="E161" s="18">
+      <c r="E161" s="17">
         <v>23.665364654000655</v>
       </c>
-      <c r="F161" s="18">
+      <c r="F161" s="17">
         <v>20.631954505839747</v>
       </c>
-      <c r="G161" s="18">
+      <c r="G161" s="17">
         <v>25.275015173546688</v>
       </c>
-      <c r="H161" s="18">
+      <c r="H161" s="17">
         <v>24.025619589109521</v>
       </c>
-      <c r="I161" s="18">
+      <c r="I161" s="17">
         <v>25.394650355339831</v>
       </c>
-      <c r="J161" s="18">
+      <c r="J161" s="17">
         <v>26.385481337878353</v>
       </c>
-      <c r="K161" s="18">
+      <c r="K161" s="17">
         <v>27.10998527013151</v>
       </c>
-      <c r="L161" s="18">
+      <c r="L161" s="17">
         <v>27.974121680926658</v>
       </c>
-      <c r="M161" s="18">
+      <c r="M161" s="17">
         <v>23.233188743150556</v>
       </c>
-      <c r="N161" s="18">
+      <c r="N161" s="17">
         <v>22.782161262271931</v>
       </c>
-      <c r="O161" s="18">
+      <c r="O161" s="17">
         <v>18.752998622256428</v>
       </c>
-      <c r="P161" s="18">
+      <c r="P161" s="17">
         <v>16.807872095188618</v>
       </c>
-      <c r="Q161" s="18">
+      <c r="Q161" s="17">
         <v>15.663374134834433</v>
       </c>
-      <c r="R161" s="18">
+      <c r="R161" s="17">
         <v>18.511811652354961</v>
       </c>
-      <c r="S161" s="18">
+      <c r="S161" s="17">
         <v>18.421923441362157</v>
       </c>
-      <c r="T161" s="18">
+      <c r="T161" s="17">
         <v>19.18073667755964</v>
       </c>
-      <c r="U161" s="18">
+      <c r="U161" s="17">
         <v>16.617801445237244</v>
       </c>
-      <c r="V161" s="18">
+      <c r="V161" s="17">
         <v>18.170926081946156</v>
       </c>
-      <c r="W161" s="18">
+      <c r="W161" s="17">
         <v>23.246954583993148</v>
       </c>
-      <c r="X161" s="9"/>
+      <c r="X161" s="17">
+        <v>22.020807227605353</v>
+      </c>
       <c r="Y161" s="9"/>
       <c r="Z161" s="9"/>
       <c r="AA161" s="9"/>
@@ -11057,77 +11203,79 @@
       <c r="CQ161" s="9"/>
       <c r="CR161" s="9"/>
     </row>
-    <row r="162" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A162" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B162" s="18">
+      <c r="B162" s="17">
         <v>5.0966056646978775</v>
       </c>
-      <c r="C162" s="18">
+      <c r="C162" s="17">
         <v>4.93667529325079</v>
       </c>
-      <c r="D162" s="18">
+      <c r="D162" s="17">
         <v>5.1267445743273079</v>
       </c>
-      <c r="E162" s="18">
+      <c r="E162" s="17">
         <v>5.0461818727339205</v>
       </c>
-      <c r="F162" s="18">
+      <c r="F162" s="17">
         <v>4.6819007102856611</v>
       </c>
-      <c r="G162" s="18">
+      <c r="G162" s="17">
         <v>5.5487230806000341</v>
       </c>
-      <c r="H162" s="18">
+      <c r="H162" s="17">
         <v>6.0946374615819652</v>
       </c>
-      <c r="I162" s="18">
+      <c r="I162" s="17">
         <v>5.9509139101340365</v>
       </c>
-      <c r="J162" s="18">
+      <c r="J162" s="17">
         <v>5.0254879795895127</v>
       </c>
-      <c r="K162" s="18">
+      <c r="K162" s="17">
         <v>5.1315382398360612</v>
       </c>
-      <c r="L162" s="18">
+      <c r="L162" s="17">
         <v>5.9240017290443365</v>
       </c>
-      <c r="M162" s="18">
+      <c r="M162" s="17">
         <v>6.4275463105632733</v>
       </c>
-      <c r="N162" s="18">
+      <c r="N162" s="17">
         <v>5.3208945628209952</v>
       </c>
-      <c r="O162" s="18">
+      <c r="O162" s="17">
         <v>4.2659506192823597</v>
       </c>
-      <c r="P162" s="18">
+      <c r="P162" s="17">
         <v>3.6519439113765353</v>
       </c>
-      <c r="Q162" s="18">
+      <c r="Q162" s="17">
         <v>3.2661446347858178</v>
       </c>
-      <c r="R162" s="18">
+      <c r="R162" s="17">
         <v>4.9864976498461635</v>
       </c>
-      <c r="S162" s="18">
+      <c r="S162" s="17">
         <v>5.2793092810508258</v>
       </c>
-      <c r="T162" s="18">
+      <c r="T162" s="17">
         <v>5.2685343644022087</v>
       </c>
-      <c r="U162" s="18">
+      <c r="U162" s="17">
         <v>4.9318319794731824</v>
       </c>
-      <c r="V162" s="18">
+      <c r="V162" s="17">
         <v>5.3120584568782698</v>
       </c>
-      <c r="W162" s="18">
+      <c r="W162" s="17">
         <v>7.7425714199044915</v>
       </c>
-      <c r="X162" s="9"/>
+      <c r="X162" s="17">
+        <v>6.5555976501114817</v>
+      </c>
       <c r="Y162" s="9"/>
       <c r="Z162" s="9"/>
       <c r="AA162" s="9"/>
@@ -11201,77 +11349,79 @@
       <c r="CQ162" s="9"/>
       <c r="CR162" s="9"/>
     </row>
-    <row r="163" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A163" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B163" s="18">
+      <c r="B163" s="17">
         <v>41.779674218679915</v>
       </c>
-      <c r="C163" s="18">
+      <c r="C163" s="17">
         <v>45.574039261182584</v>
       </c>
-      <c r="D163" s="18">
+      <c r="D163" s="17">
         <v>56.336063780899593</v>
       </c>
-      <c r="E163" s="18">
+      <c r="E163" s="17">
         <v>58.139838084797567</v>
       </c>
-      <c r="F163" s="18">
+      <c r="F163" s="17">
         <v>62.321163316576452</v>
       </c>
-      <c r="G163" s="18">
+      <c r="G163" s="17">
         <v>56.951697453506114</v>
       </c>
-      <c r="H163" s="18">
+      <c r="H163" s="17">
         <v>56.73950238012069</v>
       </c>
-      <c r="I163" s="18">
+      <c r="I163" s="17">
         <v>53.840535150782387</v>
       </c>
-      <c r="J163" s="18">
+      <c r="J163" s="17">
         <v>52.260361988782222</v>
       </c>
-      <c r="K163" s="18">
+      <c r="K163" s="17">
         <v>49.765701078893521</v>
       </c>
-      <c r="L163" s="18">
+      <c r="L163" s="17">
         <v>47.94831722897225</v>
       </c>
-      <c r="M163" s="18">
+      <c r="M163" s="17">
         <v>52.63871921092894</v>
       </c>
-      <c r="N163" s="18">
+      <c r="N163" s="17">
         <v>52.405256363234088</v>
       </c>
-      <c r="O163" s="18">
+      <c r="O163" s="17">
         <v>53.852105270821852</v>
       </c>
-      <c r="P163" s="18">
+      <c r="P163" s="17">
         <v>52.999104244839778</v>
       </c>
-      <c r="Q163" s="18">
+      <c r="Q163" s="17">
         <v>52.411421661936664</v>
       </c>
-      <c r="R163" s="18">
+      <c r="R163" s="17">
         <v>48.703198108097105</v>
       </c>
-      <c r="S163" s="18">
+      <c r="S163" s="17">
         <v>47.593199676827986</v>
       </c>
-      <c r="T163" s="18">
+      <c r="T163" s="17">
         <v>46.328882025513771</v>
       </c>
-      <c r="U163" s="18">
+      <c r="U163" s="17">
         <v>46.915143266832231</v>
       </c>
-      <c r="V163" s="18">
+      <c r="V163" s="17">
         <v>39.018646863844246</v>
       </c>
-      <c r="W163" s="18">
+      <c r="W163" s="17">
         <v>25.356923912596969</v>
       </c>
-      <c r="X163" s="9"/>
+      <c r="X163" s="17">
+        <v>31.816751683460936</v>
+      </c>
       <c r="Y163" s="9"/>
       <c r="Z163" s="9"/>
       <c r="AA163" s="9"/>
@@ -11345,77 +11495,79 @@
       <c r="CQ163" s="9"/>
       <c r="CR163" s="9"/>
     </row>
-    <row r="164" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A164" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B164" s="18">
+      <c r="B164" s="17">
         <v>0.98302834302390218</v>
       </c>
-      <c r="C164" s="18">
+      <c r="C164" s="17">
         <v>0.81338304960222341</v>
       </c>
-      <c r="D164" s="18">
+      <c r="D164" s="17">
         <v>0.50654003979932849</v>
       </c>
-      <c r="E164" s="18">
+      <c r="E164" s="17">
         <v>0.32661766847117712</v>
       </c>
-      <c r="F164" s="18">
+      <c r="F164" s="17">
         <v>0.47143793175335247</v>
       </c>
-      <c r="G164" s="18">
+      <c r="G164" s="17">
         <v>0.72993039770182999</v>
       </c>
-      <c r="H164" s="18">
+      <c r="H164" s="17">
         <v>0.99928701278224308</v>
       </c>
-      <c r="I164" s="18">
+      <c r="I164" s="17">
         <v>1.1773020933029412</v>
       </c>
-      <c r="J164" s="18">
+      <c r="J164" s="17">
         <v>1.5798361257449027</v>
       </c>
-      <c r="K164" s="18">
+      <c r="K164" s="17">
         <v>1.8962784918222257</v>
       </c>
-      <c r="L164" s="18">
+      <c r="L164" s="17">
         <v>1.7321341983690925</v>
       </c>
-      <c r="M164" s="18">
+      <c r="M164" s="17">
         <v>2.2860681586284399</v>
       </c>
-      <c r="N164" s="18">
+      <c r="N164" s="17">
         <v>1.9533127801581716</v>
       </c>
-      <c r="O164" s="18">
+      <c r="O164" s="17">
         <v>1.5391983512057617</v>
       </c>
-      <c r="P164" s="18">
+      <c r="P164" s="17">
         <v>1.6139826361652578</v>
       </c>
-      <c r="Q164" s="18">
+      <c r="Q164" s="17">
         <v>1.0755572899045365</v>
       </c>
-      <c r="R164" s="18">
+      <c r="R164" s="17">
         <v>1.421588204835061</v>
       </c>
-      <c r="S164" s="18">
+      <c r="S164" s="17">
         <v>1.1106838050103631</v>
       </c>
-      <c r="T164" s="18">
+      <c r="T164" s="17">
         <v>1.8704675247683926</v>
       </c>
-      <c r="U164" s="18">
+      <c r="U164" s="17">
         <v>1.7898916399066849</v>
       </c>
-      <c r="V164" s="18">
+      <c r="V164" s="17">
         <v>1.7711749499258751</v>
       </c>
-      <c r="W164" s="18">
+      <c r="W164" s="17">
         <v>1.9695946084323239</v>
       </c>
-      <c r="X164" s="9"/>
+      <c r="X164" s="17">
+        <v>1.3525277186972597</v>
+      </c>
       <c r="Y164" s="9"/>
       <c r="Z164" s="9"/>
       <c r="AA164" s="9"/>
@@ -11489,77 +11641,79 @@
       <c r="CQ164" s="9"/>
       <c r="CR164" s="9"/>
     </row>
-    <row r="165" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A165" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B165" s="18">
+      <c r="B165" s="17">
         <v>2.0294579318356121</v>
       </c>
-      <c r="C165" s="18">
+      <c r="C165" s="17">
         <v>2.091542261127032</v>
       </c>
-      <c r="D165" s="18">
+      <c r="D165" s="17">
         <v>1.6559014484605801</v>
       </c>
-      <c r="E165" s="18">
+      <c r="E165" s="17">
         <v>1.6007383919719838</v>
       </c>
-      <c r="F165" s="18">
+      <c r="F165" s="17">
         <v>1.9603610973770045</v>
       </c>
-      <c r="G165" s="18">
+      <c r="G165" s="17">
         <v>1.9293071400727064</v>
       </c>
-      <c r="H165" s="18">
+      <c r="H165" s="17">
         <v>1.8141585910587388</v>
       </c>
-      <c r="I165" s="18">
+      <c r="I165" s="17">
         <v>1.4403337014427142</v>
       </c>
-      <c r="J165" s="18">
+      <c r="J165" s="17">
         <v>1.7289239897496083</v>
       </c>
-      <c r="K165" s="18">
+      <c r="K165" s="17">
         <v>1.6828257324773832</v>
       </c>
-      <c r="L165" s="18">
+      <c r="L165" s="17">
         <v>1.9213548030032594</v>
       </c>
-      <c r="M165" s="18">
+      <c r="M165" s="17">
         <v>2.3858996918615896</v>
       </c>
-      <c r="N165" s="18">
+      <c r="N165" s="17">
         <v>2.0981195772325951</v>
       </c>
-      <c r="O165" s="18">
+      <c r="O165" s="17">
         <v>2.8242697349595893</v>
       </c>
-      <c r="P165" s="18">
+      <c r="P165" s="17">
         <v>2.9730867908529839</v>
       </c>
-      <c r="Q165" s="18">
+      <c r="Q165" s="17">
         <v>2.947688556392448</v>
       </c>
-      <c r="R165" s="18">
+      <c r="R165" s="17">
         <v>2.5315106855660798</v>
       </c>
-      <c r="S165" s="18">
+      <c r="S165" s="17">
         <v>3.1452739793405855</v>
       </c>
-      <c r="T165" s="18">
+      <c r="T165" s="17">
         <v>3.5798126688538829</v>
       </c>
-      <c r="U165" s="18">
+      <c r="U165" s="17">
         <v>3.7371647868506281</v>
       </c>
-      <c r="V165" s="18">
+      <c r="V165" s="17">
         <v>6.3616633451561544</v>
       </c>
-      <c r="W165" s="18">
+      <c r="W165" s="17">
         <v>10.150687671888626</v>
       </c>
-      <c r="X165" s="9"/>
+      <c r="X165" s="17">
+        <v>6.7567013474628137</v>
+      </c>
       <c r="Y165" s="9"/>
       <c r="Z165" s="9"/>
       <c r="AA165" s="9"/>
@@ -11633,77 +11787,79 @@
       <c r="CQ165" s="9"/>
       <c r="CR165" s="9"/>
     </row>
-    <row r="166" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A166" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B166" s="18">
+      <c r="B166" s="17">
         <v>7.8609946783329914</v>
       </c>
-      <c r="C166" s="18">
+      <c r="C166" s="17">
         <v>8.9641625725591272</v>
       </c>
-      <c r="D166" s="18">
+      <c r="D166" s="17">
         <v>7.1160047808980789</v>
       </c>
-      <c r="E166" s="18">
+      <c r="E166" s="17">
         <v>6.8733640007328942</v>
       </c>
-      <c r="F166" s="18">
+      <c r="F166" s="17">
         <v>6.5417705523151346</v>
       </c>
-      <c r="G166" s="18">
+      <c r="G166" s="17">
         <v>5.3500584523212806</v>
       </c>
-      <c r="H166" s="18">
+      <c r="H166" s="17">
         <v>5.1243767964701936</v>
       </c>
-      <c r="I166" s="18">
+      <c r="I166" s="17">
         <v>7.1839039402033551</v>
       </c>
-      <c r="J166" s="18">
+      <c r="J166" s="17">
         <v>8.3656624078028514</v>
       </c>
-      <c r="K166" s="18">
+      <c r="K166" s="17">
         <v>8.2330303297521326</v>
       </c>
-      <c r="L166" s="18">
+      <c r="L166" s="17">
         <v>8.2748450890669396</v>
       </c>
-      <c r="M166" s="18">
+      <c r="M166" s="17">
         <v>6.7563994473455571</v>
       </c>
-      <c r="N166" s="18">
+      <c r="N166" s="17">
         <v>9.9034485137664721</v>
       </c>
-      <c r="O166" s="18">
+      <c r="O166" s="17">
         <v>12.3128276257466</v>
       </c>
-      <c r="P166" s="18">
+      <c r="P166" s="17">
         <v>16.66441094099633</v>
       </c>
-      <c r="Q166" s="18">
+      <c r="Q166" s="17">
         <v>19.435211964454517</v>
       </c>
-      <c r="R166" s="18">
+      <c r="R166" s="17">
         <v>18.538724303554709</v>
       </c>
-      <c r="S166" s="18">
+      <c r="S166" s="17">
         <v>18.398211523226092</v>
       </c>
-      <c r="T166" s="18">
+      <c r="T166" s="17">
         <v>16.72466937592122</v>
       </c>
-      <c r="U166" s="18">
+      <c r="U166" s="17">
         <v>18.393959135187107</v>
       </c>
-      <c r="V166" s="18">
+      <c r="V166" s="17">
         <v>22.577587187268104</v>
       </c>
-      <c r="W166" s="18">
+      <c r="W166" s="17">
         <v>25.064831246578862</v>
       </c>
-      <c r="X166" s="9"/>
+      <c r="X166" s="17">
+        <v>24.53567642124225</v>
+      </c>
       <c r="Y166" s="9"/>
       <c r="Z166" s="9"/>
       <c r="AA166" s="9"/>
@@ -11777,77 +11933,79 @@
       <c r="CQ166" s="9"/>
       <c r="CR166" s="9"/>
     </row>
-    <row r="167" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A167" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B167" s="18">
+      <c r="B167" s="17">
         <v>3.101664859561263</v>
       </c>
-      <c r="C167" s="18">
+      <c r="C167" s="17">
         <v>3.4793827556241941</v>
       </c>
-      <c r="D167" s="18">
+      <c r="D167" s="17">
         <v>2.7643730288287727</v>
       </c>
-      <c r="E167" s="18">
+      <c r="E167" s="17">
         <v>2.6651418392428949</v>
       </c>
-      <c r="F167" s="18">
+      <c r="F167" s="17">
         <v>2.0773962213467239</v>
       </c>
-      <c r="G167" s="18">
+      <c r="G167" s="17">
         <v>2.9365850972078165</v>
       </c>
-      <c r="H167" s="18">
+      <c r="H167" s="17">
         <v>3.6136615048658851</v>
       </c>
-      <c r="I167" s="18">
+      <c r="I167" s="17">
         <v>3.3472444525038907</v>
       </c>
-      <c r="J167" s="18">
+      <c r="J167" s="17">
         <v>2.6641264858868574</v>
       </c>
-      <c r="K167" s="18">
+      <c r="K167" s="17">
         <v>3.3337832978312201</v>
       </c>
-      <c r="L167" s="18">
+      <c r="L167" s="17">
         <v>3.6095996486715936</v>
       </c>
-      <c r="M167" s="18">
+      <c r="M167" s="17">
         <v>3.0792209818598306</v>
       </c>
-      <c r="N167" s="18">
+      <c r="N167" s="17">
         <v>2.8284996133240465</v>
       </c>
-      <c r="O167" s="18">
+      <c r="O167" s="17">
         <v>2.8203210975759365</v>
       </c>
-      <c r="P167" s="18">
+      <c r="P167" s="17">
         <v>2.560236413346892</v>
       </c>
-      <c r="Q167" s="18">
+      <c r="Q167" s="17">
         <v>2.3215182009174891</v>
       </c>
-      <c r="R167" s="18">
+      <c r="R167" s="17">
         <v>2.0671146026047835</v>
       </c>
-      <c r="S167" s="18">
+      <c r="S167" s="17">
         <v>2.7714275136186113</v>
       </c>
-      <c r="T167" s="18">
+      <c r="T167" s="17">
         <v>3.3106080537538536</v>
       </c>
-      <c r="U167" s="18">
+      <c r="U167" s="17">
         <v>3.2023456356425268</v>
       </c>
-      <c r="V167" s="18">
+      <c r="V167" s="17">
         <v>2.9406035829030635</v>
       </c>
-      <c r="W167" s="18">
+      <c r="W167" s="17">
         <v>3.0634941903397674</v>
       </c>
-      <c r="X167" s="9"/>
+      <c r="X167" s="17">
+        <v>2.1862841174649126</v>
+      </c>
       <c r="Y167" s="9"/>
       <c r="Z167" s="9"/>
       <c r="AA167" s="9"/>
@@ -11921,77 +12079,79 @@
       <c r="CQ167" s="9"/>
       <c r="CR167" s="9"/>
     </row>
-    <row r="168" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A168" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B168" s="18">
+      <c r="B168" s="17">
         <v>2.1344972209937296</v>
       </c>
-      <c r="C168" s="18">
+      <c r="C168" s="17">
         <v>2.1964128549382687</v>
       </c>
-      <c r="D168" s="18">
+      <c r="D168" s="17">
         <v>1.7437213725527818</v>
       </c>
-      <c r="E168" s="18">
+      <c r="E168" s="17">
         <v>1.6827534880489208</v>
       </c>
-      <c r="F168" s="18">
+      <c r="F168" s="17">
         <v>1.314015664505912</v>
       </c>
-      <c r="G168" s="18">
+      <c r="G168" s="17">
         <v>1.2786832050435439</v>
       </c>
-      <c r="H168" s="18">
+      <c r="H168" s="17">
         <v>1.5887566640107482</v>
       </c>
-      <c r="I168" s="18">
+      <c r="I168" s="17">
         <v>1.6651163962908277</v>
       </c>
-      <c r="J168" s="18">
+      <c r="J168" s="17">
         <v>1.9901196845656901</v>
       </c>
-      <c r="K168" s="18">
+      <c r="K168" s="17">
         <v>2.8468575592559606</v>
       </c>
-      <c r="L168" s="18">
+      <c r="L168" s="17">
         <v>2.6156256219458651</v>
       </c>
-      <c r="M168" s="18">
+      <c r="M168" s="17">
         <v>3.1929574556618228</v>
       </c>
-      <c r="N168" s="18">
+      <c r="N168" s="17">
         <v>2.7083073271917049</v>
       </c>
-      <c r="O168" s="18">
+      <c r="O168" s="17">
         <v>3.6323286781514712</v>
       </c>
-      <c r="P168" s="18">
+      <c r="P168" s="17">
         <v>2.7293629672335977</v>
       </c>
-      <c r="Q168" s="18">
+      <c r="Q168" s="17">
         <v>2.879083556774086</v>
       </c>
-      <c r="R168" s="18">
+      <c r="R168" s="17">
         <v>3.2395547931411279</v>
       </c>
-      <c r="S168" s="18">
+      <c r="S168" s="17">
         <v>3.279970779563393</v>
       </c>
-      <c r="T168" s="18">
+      <c r="T168" s="17">
         <v>3.736289309226998</v>
       </c>
-      <c r="U168" s="18">
+      <c r="U168" s="17">
         <v>4.4118621108703664</v>
       </c>
-      <c r="V168" s="18">
+      <c r="V168" s="17">
         <v>3.8473395320781187</v>
       </c>
-      <c r="W168" s="18">
+      <c r="W168" s="17">
         <v>3.4049423662658063</v>
       </c>
-      <c r="X168" s="9"/>
+      <c r="X168" s="17">
+        <v>4.7756538339549843</v>
+      </c>
       <c r="Y168" s="9"/>
       <c r="Z168" s="9"/>
       <c r="AA168" s="9"/>
@@ -12065,8 +12225,8 @@
       <c r="CQ168" s="9"/>
       <c r="CR168" s="9"/>
     </row>
-    <row r="169" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A169" s="10"/>
+    <row r="169" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A169"/>
       <c r="B169" s="9"/>
       <c r="C169" s="9"/>
       <c r="D169" s="9"/>
@@ -12163,77 +12323,79 @@
       <c r="CQ169" s="9"/>
       <c r="CR169" s="9"/>
     </row>
-    <row r="170" spans="1:96" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A170" s="11" t="s">
+    <row r="170" spans="1:96" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A170" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B170" s="17">
+      <c r="B170" s="16">
         <v>100</v>
       </c>
-      <c r="C170" s="17">
+      <c r="C170" s="16">
         <v>100</v>
       </c>
-      <c r="D170" s="17">
+      <c r="D170" s="16">
         <v>100</v>
       </c>
-      <c r="E170" s="17">
+      <c r="E170" s="16">
         <v>100</v>
       </c>
-      <c r="F170" s="17">
+      <c r="F170" s="16">
         <v>100</v>
       </c>
-      <c r="G170" s="17">
+      <c r="G170" s="16">
         <v>100</v>
       </c>
-      <c r="H170" s="17">
+      <c r="H170" s="16">
         <v>100</v>
       </c>
-      <c r="I170" s="17">
+      <c r="I170" s="16">
         <v>100</v>
       </c>
-      <c r="J170" s="17">
+      <c r="J170" s="16">
         <v>100</v>
       </c>
-      <c r="K170" s="17">
+      <c r="K170" s="16">
         <v>100</v>
       </c>
-      <c r="L170" s="17">
+      <c r="L170" s="16">
         <v>100</v>
       </c>
-      <c r="M170" s="17">
+      <c r="M170" s="16">
         <v>100</v>
       </c>
-      <c r="N170" s="17">
+      <c r="N170" s="16">
         <v>100</v>
       </c>
-      <c r="O170" s="17">
+      <c r="O170" s="16">
         <v>100</v>
       </c>
-      <c r="P170" s="17">
+      <c r="P170" s="16">
         <v>100</v>
       </c>
-      <c r="Q170" s="17">
+      <c r="Q170" s="16">
         <v>100</v>
       </c>
-      <c r="R170" s="17">
+      <c r="R170" s="16">
         <v>100</v>
       </c>
-      <c r="S170" s="17">
+      <c r="S170" s="16">
         <v>100</v>
       </c>
-      <c r="T170" s="17">
+      <c r="T170" s="16">
         <v>100</v>
       </c>
-      <c r="U170" s="17">
+      <c r="U170" s="16">
         <v>100</v>
       </c>
-      <c r="V170" s="17">
+      <c r="V170" s="16">
         <v>100</v>
       </c>
-      <c r="W170" s="17">
+      <c r="W170" s="16">
         <v>100</v>
       </c>
-      <c r="X170" s="9"/>
+      <c r="X170" s="16">
+        <v>100</v>
+      </c>
       <c r="Y170" s="9"/>
       <c r="Z170" s="9"/>
       <c r="AA170" s="9"/>
@@ -12307,240 +12469,241 @@
       <c r="CQ170" s="9"/>
       <c r="CR170" s="9"/>
     </row>
-    <row r="171" spans="1:96" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A171" s="13"/>
-      <c r="B171" s="13"/>
-      <c r="C171" s="13"/>
-      <c r="D171" s="13"/>
-      <c r="E171" s="13"/>
-      <c r="F171" s="13"/>
-      <c r="G171" s="13"/>
-      <c r="H171" s="13"/>
-      <c r="I171" s="13"/>
-      <c r="J171" s="13"/>
-      <c r="K171" s="13"/>
-      <c r="L171" s="13"/>
-      <c r="M171" s="13"/>
-      <c r="N171" s="13"/>
-      <c r="O171" s="13"/>
-      <c r="P171" s="13"/>
-      <c r="Q171" s="13"/>
-      <c r="R171" s="13"/>
-      <c r="S171" s="13"/>
-      <c r="T171" s="13"/>
-      <c r="U171" s="13"/>
-      <c r="V171" s="13"/>
-      <c r="W171" s="13"/>
-    </row>
-    <row r="172" spans="1:96" x14ac:dyDescent="0.25">
-      <c r="A172" s="14" t="s">
+    <row r="171" spans="1:96" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A171" s="12"/>
+      <c r="B171" s="12"/>
+      <c r="C171" s="12"/>
+      <c r="D171" s="12"/>
+      <c r="E171" s="12"/>
+      <c r="F171" s="12"/>
+      <c r="G171" s="12"/>
+      <c r="H171" s="12"/>
+      <c r="I171" s="12"/>
+      <c r="J171" s="12"/>
+      <c r="K171" s="12"/>
+      <c r="L171" s="12"/>
+      <c r="M171" s="12"/>
+      <c r="N171" s="12"/>
+      <c r="O171" s="12"/>
+      <c r="P171" s="12"/>
+      <c r="Q171" s="12"/>
+      <c r="R171" s="12"/>
+      <c r="S171" s="12"/>
+      <c r="T171" s="12"/>
+      <c r="U171" s="12"/>
+      <c r="V171" s="12"/>
+      <c r="W171" s="12"/>
+      <c r="X171" s="12"/>
+    </row>
+    <row r="172" spans="1:96" x14ac:dyDescent="0.2">
+      <c r="A172" s="13" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:96" s="20" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:96" s="19" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A173" s="1"/>
-      <c r="B173" s="19"/>
-      <c r="C173" s="19"/>
-      <c r="D173" s="19"/>
-      <c r="E173" s="19"/>
-      <c r="F173" s="19"/>
-      <c r="G173" s="19"/>
-      <c r="H173" s="19"/>
-      <c r="I173" s="19"/>
-      <c r="J173" s="19"/>
-      <c r="K173" s="19"/>
-      <c r="L173" s="19"/>
-      <c r="M173" s="19"/>
-      <c r="N173" s="19"/>
-      <c r="O173" s="19"/>
-      <c r="P173" s="19"/>
-      <c r="Q173" s="19"/>
-      <c r="R173" s="19"/>
-      <c r="S173" s="19"/>
-      <c r="T173" s="19"/>
-      <c r="U173" s="19"/>
-      <c r="V173" s="19"/>
-      <c r="W173" s="19"/>
-      <c r="X173" s="19"/>
-      <c r="Y173" s="19"/>
-      <c r="Z173" s="19"/>
-      <c r="AA173" s="19"/>
-      <c r="AB173" s="19"/>
-      <c r="AC173" s="19"/>
-      <c r="AD173" s="19"/>
-      <c r="AE173" s="19"/>
-      <c r="AF173" s="19"/>
-      <c r="AG173" s="19"/>
-      <c r="AH173" s="19"/>
-      <c r="AI173" s="19"/>
-      <c r="AJ173" s="19"/>
-      <c r="AK173" s="19"/>
-      <c r="AL173" s="19"/>
-      <c r="AM173" s="19"/>
-      <c r="AN173" s="19"/>
-      <c r="AO173" s="19"/>
-      <c r="AP173" s="19"/>
-      <c r="AQ173" s="19"/>
-      <c r="AR173" s="19"/>
-      <c r="AS173" s="19"/>
-      <c r="AT173" s="19"/>
-      <c r="AU173" s="19"/>
-      <c r="AV173" s="19"/>
-      <c r="AW173" s="19"/>
-      <c r="AX173" s="19"/>
-      <c r="AY173" s="19"/>
-      <c r="AZ173" s="19"/>
-      <c r="BA173" s="19"/>
-      <c r="BB173" s="19"/>
-      <c r="BC173" s="19"/>
-      <c r="BD173" s="19"/>
-      <c r="BE173" s="19"/>
-      <c r="BF173" s="19"/>
-      <c r="BG173" s="19"/>
-      <c r="BH173" s="19"/>
-      <c r="BI173" s="19"/>
-      <c r="BJ173" s="19"/>
-      <c r="BK173" s="19"/>
-      <c r="BL173" s="19"/>
-      <c r="BM173" s="19"/>
-      <c r="BN173" s="19"/>
-      <c r="BO173" s="19"/>
-      <c r="BP173" s="19"/>
-      <c r="BQ173" s="19"/>
-      <c r="BR173" s="19"/>
-      <c r="BS173" s="19"/>
-      <c r="BT173" s="19"/>
-      <c r="BU173" s="19"/>
-      <c r="BV173" s="19"/>
-      <c r="BW173" s="19"/>
-      <c r="BX173" s="19"/>
-      <c r="BY173" s="19"/>
-      <c r="BZ173" s="19"/>
-      <c r="CA173" s="19"/>
-      <c r="CB173" s="19"/>
-      <c r="CC173" s="19"/>
-      <c r="CD173" s="19"/>
-      <c r="CE173" s="19"/>
-      <c r="CF173" s="19"/>
-      <c r="CG173" s="19"/>
-      <c r="CH173" s="19"/>
-      <c r="CI173" s="19"/>
-      <c r="CJ173" s="19"/>
-      <c r="CK173" s="19"/>
-      <c r="CL173" s="19"/>
-      <c r="CM173" s="19"/>
-      <c r="CN173" s="19"/>
-      <c r="CO173" s="19"/>
-      <c r="CP173" s="19"/>
-      <c r="CQ173" s="19"/>
-      <c r="CR173" s="19"/>
-    </row>
-    <row r="174" spans="1:96" s="20" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B173" s="18"/>
+      <c r="C173" s="18"/>
+      <c r="D173" s="18"/>
+      <c r="E173" s="18"/>
+      <c r="F173" s="18"/>
+      <c r="G173" s="18"/>
+      <c r="H173" s="18"/>
+      <c r="I173" s="18"/>
+      <c r="J173" s="18"/>
+      <c r="K173" s="18"/>
+      <c r="L173" s="18"/>
+      <c r="M173" s="18"/>
+      <c r="N173" s="18"/>
+      <c r="O173" s="18"/>
+      <c r="P173" s="18"/>
+      <c r="Q173" s="18"/>
+      <c r="R173" s="18"/>
+      <c r="S173" s="18"/>
+      <c r="T173" s="18"/>
+      <c r="U173" s="18"/>
+      <c r="V173" s="18"/>
+      <c r="W173" s="18"/>
+      <c r="X173" s="18"/>
+      <c r="Y173" s="18"/>
+      <c r="Z173" s="18"/>
+      <c r="AA173" s="18"/>
+      <c r="AB173" s="18"/>
+      <c r="AC173" s="18"/>
+      <c r="AD173" s="18"/>
+      <c r="AE173" s="18"/>
+      <c r="AF173" s="18"/>
+      <c r="AG173" s="18"/>
+      <c r="AH173" s="18"/>
+      <c r="AI173" s="18"/>
+      <c r="AJ173" s="18"/>
+      <c r="AK173" s="18"/>
+      <c r="AL173" s="18"/>
+      <c r="AM173" s="18"/>
+      <c r="AN173" s="18"/>
+      <c r="AO173" s="18"/>
+      <c r="AP173" s="18"/>
+      <c r="AQ173" s="18"/>
+      <c r="AR173" s="18"/>
+      <c r="AS173" s="18"/>
+      <c r="AT173" s="18"/>
+      <c r="AU173" s="18"/>
+      <c r="AV173" s="18"/>
+      <c r="AW173" s="18"/>
+      <c r="AX173" s="18"/>
+      <c r="AY173" s="18"/>
+      <c r="AZ173" s="18"/>
+      <c r="BA173" s="18"/>
+      <c r="BB173" s="18"/>
+      <c r="BC173" s="18"/>
+      <c r="BD173" s="18"/>
+      <c r="BE173" s="18"/>
+      <c r="BF173" s="18"/>
+      <c r="BG173" s="18"/>
+      <c r="BH173" s="18"/>
+      <c r="BI173" s="18"/>
+      <c r="BJ173" s="18"/>
+      <c r="BK173" s="18"/>
+      <c r="BL173" s="18"/>
+      <c r="BM173" s="18"/>
+      <c r="BN173" s="18"/>
+      <c r="BO173" s="18"/>
+      <c r="BP173" s="18"/>
+      <c r="BQ173" s="18"/>
+      <c r="BR173" s="18"/>
+      <c r="BS173" s="18"/>
+      <c r="BT173" s="18"/>
+      <c r="BU173" s="18"/>
+      <c r="BV173" s="18"/>
+      <c r="BW173" s="18"/>
+      <c r="BX173" s="18"/>
+      <c r="BY173" s="18"/>
+      <c r="BZ173" s="18"/>
+      <c r="CA173" s="18"/>
+      <c r="CB173" s="18"/>
+      <c r="CC173" s="18"/>
+      <c r="CD173" s="18"/>
+      <c r="CE173" s="18"/>
+      <c r="CF173" s="18"/>
+      <c r="CG173" s="18"/>
+      <c r="CH173" s="18"/>
+      <c r="CI173" s="18"/>
+      <c r="CJ173" s="18"/>
+      <c r="CK173" s="18"/>
+      <c r="CL173" s="18"/>
+      <c r="CM173" s="18"/>
+      <c r="CN173" s="18"/>
+      <c r="CO173" s="18"/>
+      <c r="CP173" s="18"/>
+      <c r="CQ173" s="18"/>
+      <c r="CR173" s="18"/>
+    </row>
+    <row r="174" spans="1:96" s="19" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A174" s="1"/>
-      <c r="B174" s="19"/>
-      <c r="C174" s="19"/>
-      <c r="D174" s="19"/>
-      <c r="E174" s="19"/>
-      <c r="F174" s="19"/>
-      <c r="G174" s="19"/>
-      <c r="H174" s="19"/>
-      <c r="I174" s="19"/>
-      <c r="J174" s="19"/>
-      <c r="K174" s="19"/>
-      <c r="L174" s="19"/>
-      <c r="M174" s="19"/>
-      <c r="N174" s="19"/>
-      <c r="O174" s="19"/>
-      <c r="P174" s="19"/>
-      <c r="Q174" s="19"/>
-      <c r="R174" s="19"/>
-      <c r="S174" s="19"/>
-      <c r="T174" s="19"/>
-      <c r="U174" s="19"/>
-      <c r="V174" s="19"/>
-      <c r="W174" s="19"/>
-      <c r="X174" s="19"/>
-      <c r="Y174" s="19"/>
-      <c r="Z174" s="19"/>
-      <c r="AA174" s="19"/>
-      <c r="AB174" s="19"/>
-      <c r="AC174" s="19"/>
-      <c r="AD174" s="19"/>
-      <c r="AE174" s="19"/>
-      <c r="AF174" s="19"/>
-      <c r="AG174" s="19"/>
-      <c r="AH174" s="19"/>
-      <c r="AI174" s="19"/>
-      <c r="AJ174" s="19"/>
-      <c r="AK174" s="19"/>
-      <c r="AL174" s="19"/>
-      <c r="AM174" s="19"/>
-      <c r="AN174" s="19"/>
-      <c r="AO174" s="19"/>
-      <c r="AP174" s="19"/>
-      <c r="AQ174" s="19"/>
-      <c r="AR174" s="19"/>
-      <c r="AS174" s="19"/>
-      <c r="AT174" s="19"/>
-      <c r="AU174" s="19"/>
-      <c r="AV174" s="19"/>
-      <c r="AW174" s="19"/>
-      <c r="AX174" s="19"/>
-      <c r="AY174" s="19"/>
-      <c r="AZ174" s="19"/>
-      <c r="BA174" s="19"/>
-      <c r="BB174" s="19"/>
-      <c r="BC174" s="19"/>
-      <c r="BD174" s="19"/>
-      <c r="BE174" s="19"/>
-      <c r="BF174" s="19"/>
-      <c r="BG174" s="19"/>
-      <c r="BH174" s="19"/>
-      <c r="BI174" s="19"/>
-      <c r="BJ174" s="19"/>
-      <c r="BK174" s="19"/>
-      <c r="BL174" s="19"/>
-      <c r="BM174" s="19"/>
-      <c r="BN174" s="19"/>
-      <c r="BO174" s="19"/>
-      <c r="BP174" s="19"/>
-      <c r="BQ174" s="19"/>
-      <c r="BR174" s="19"/>
-      <c r="BS174" s="19"/>
-      <c r="BT174" s="19"/>
-      <c r="BU174" s="19"/>
-      <c r="BV174" s="19"/>
-      <c r="BW174" s="19"/>
-      <c r="BX174" s="19"/>
-      <c r="BY174" s="19"/>
-      <c r="BZ174" s="19"/>
-      <c r="CA174" s="19"/>
-      <c r="CB174" s="19"/>
-      <c r="CC174" s="19"/>
-      <c r="CD174" s="19"/>
-      <c r="CE174" s="19"/>
-      <c r="CF174" s="19"/>
-      <c r="CG174" s="19"/>
-      <c r="CH174" s="19"/>
-      <c r="CI174" s="19"/>
-      <c r="CJ174" s="19"/>
-      <c r="CK174" s="19"/>
-      <c r="CL174" s="19"/>
-      <c r="CM174" s="19"/>
-      <c r="CN174" s="19"/>
-      <c r="CO174" s="19"/>
-      <c r="CP174" s="19"/>
-      <c r="CQ174" s="19"/>
-      <c r="CR174" s="19"/>
+      <c r="B174" s="18"/>
+      <c r="C174" s="18"/>
+      <c r="D174" s="18"/>
+      <c r="E174" s="18"/>
+      <c r="F174" s="18"/>
+      <c r="G174" s="18"/>
+      <c r="H174" s="18"/>
+      <c r="I174" s="18"/>
+      <c r="J174" s="18"/>
+      <c r="K174" s="18"/>
+      <c r="L174" s="18"/>
+      <c r="M174" s="18"/>
+      <c r="N174" s="18"/>
+      <c r="O174" s="18"/>
+      <c r="P174" s="18"/>
+      <c r="Q174" s="18"/>
+      <c r="R174" s="18"/>
+      <c r="S174" s="18"/>
+      <c r="T174" s="18"/>
+      <c r="U174" s="18"/>
+      <c r="V174" s="18"/>
+      <c r="W174" s="18"/>
+      <c r="X174" s="18"/>
+      <c r="Y174" s="18"/>
+      <c r="Z174" s="18"/>
+      <c r="AA174" s="18"/>
+      <c r="AB174" s="18"/>
+      <c r="AC174" s="18"/>
+      <c r="AD174" s="18"/>
+      <c r="AE174" s="18"/>
+      <c r="AF174" s="18"/>
+      <c r="AG174" s="18"/>
+      <c r="AH174" s="18"/>
+      <c r="AI174" s="18"/>
+      <c r="AJ174" s="18"/>
+      <c r="AK174" s="18"/>
+      <c r="AL174" s="18"/>
+      <c r="AM174" s="18"/>
+      <c r="AN174" s="18"/>
+      <c r="AO174" s="18"/>
+      <c r="AP174" s="18"/>
+      <c r="AQ174" s="18"/>
+      <c r="AR174" s="18"/>
+      <c r="AS174" s="18"/>
+      <c r="AT174" s="18"/>
+      <c r="AU174" s="18"/>
+      <c r="AV174" s="18"/>
+      <c r="AW174" s="18"/>
+      <c r="AX174" s="18"/>
+      <c r="AY174" s="18"/>
+      <c r="AZ174" s="18"/>
+      <c r="BA174" s="18"/>
+      <c r="BB174" s="18"/>
+      <c r="BC174" s="18"/>
+      <c r="BD174" s="18"/>
+      <c r="BE174" s="18"/>
+      <c r="BF174" s="18"/>
+      <c r="BG174" s="18"/>
+      <c r="BH174" s="18"/>
+      <c r="BI174" s="18"/>
+      <c r="BJ174" s="18"/>
+      <c r="BK174" s="18"/>
+      <c r="BL174" s="18"/>
+      <c r="BM174" s="18"/>
+      <c r="BN174" s="18"/>
+      <c r="BO174" s="18"/>
+      <c r="BP174" s="18"/>
+      <c r="BQ174" s="18"/>
+      <c r="BR174" s="18"/>
+      <c r="BS174" s="18"/>
+      <c r="BT174" s="18"/>
+      <c r="BU174" s="18"/>
+      <c r="BV174" s="18"/>
+      <c r="BW174" s="18"/>
+      <c r="BX174" s="18"/>
+      <c r="BY174" s="18"/>
+      <c r="BZ174" s="18"/>
+      <c r="CA174" s="18"/>
+      <c r="CB174" s="18"/>
+      <c r="CC174" s="18"/>
+      <c r="CD174" s="18"/>
+      <c r="CE174" s="18"/>
+      <c r="CF174" s="18"/>
+      <c r="CG174" s="18"/>
+      <c r="CH174" s="18"/>
+      <c r="CI174" s="18"/>
+      <c r="CJ174" s="18"/>
+      <c r="CK174" s="18"/>
+      <c r="CL174" s="18"/>
+      <c r="CM174" s="18"/>
+      <c r="CN174" s="18"/>
+      <c r="CO174" s="18"/>
+      <c r="CP174" s="18"/>
+      <c r="CQ174" s="18"/>
+      <c r="CR174" s="18"/>
     </row>
   </sheetData>
   <pageMargins left="0.3" right="0.3" top="1" bottom="1" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" scale="50" orientation="landscape" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <rowBreaks count="3" manualBreakCount="3">
-    <brk id="50" max="22" man="1"/>
-    <brk id="100" max="22" man="1"/>
-    <brk id="124" max="22" man="1"/>
+    <brk id="50" max="23" man="1"/>
+    <brk id="100" max="23" man="1"/>
+    <brk id="124" max="23" man="1"/>
   </rowBreaks>
 </worksheet>
 </file>
--- a/Data/National Accounts/PSA-07IOS_2018PSNA_Ann.xlsx
+++ b/Data/National Accounts/PSA-07IOS_2018PSNA_Ann.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\Other computers\My Laptop (1)\6. MAS_Series\2018-base\NAP\NAP detailed series as of January 2023\Annl\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\Other computers\My Laptop (1)\6. MAS_Series\2018-base\NAP\NAP detailed series as of April 2023\Annl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6BA8264-CBAB-437C-B657-C14A0026ECCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B303E276-901E-4ADA-A439-A845ACC1EBD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="735" yWindow="735" windowWidth="13830" windowHeight="9735" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="IOS" sheetId="1" r:id="rId1"/>
@@ -207,13 +207,13 @@
     <t>2021 - 2022</t>
   </si>
   <si>
-    <t>As of January 2023</t>
-  </si>
-  <si>
     <t>Annual 2000 to 2022</t>
   </si>
   <si>
     <t>Annual 2001 to 2022</t>
+  </si>
+  <si>
+    <t>As of April 2023</t>
   </si>
 </sst>
 </file>
@@ -296,10 +296,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -337,8 +338,9 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Comma 3" xfId="3" xr:uid="{0B5D1949-FB82-4F83-BD2B-A93C579AB68D}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
@@ -636,12 +638,12 @@
   </sheetPr>
   <dimension ref="A1:CR174"/>
   <sheetViews>
-    <sheetView tabSelected="1" defaultGridColor="0" view="pageBreakPreview" colorId="22" zoomScale="50" zoomScaleNormal="100" zoomScaleSheetLayoutView="50" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="U3" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" defaultGridColor="0" view="pageBreakPreview" colorId="22" zoomScale="55" zoomScaleNormal="100" zoomScaleSheetLayoutView="55" workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="L3" activePane="bottomRight" state="frozen"/>
       <selection activeCell="C4" sqref="C4"/>
       <selection pane="topRight" activeCell="C4" sqref="C4"/>
       <selection pane="bottomLeft" activeCell="C4" sqref="C4"/>
-      <selection pane="bottomRight" activeCell="Y8" sqref="Y8"/>
+      <selection pane="bottomRight" activeCell="V1" sqref="V1:X1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.77734375" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -663,7 +665,7 @@
     </row>
     <row r="3" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="5" spans="1:96" x14ac:dyDescent="0.2">
@@ -673,7 +675,7 @@
     </row>
     <row r="6" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="7" spans="1:96" x14ac:dyDescent="0.2">
@@ -852,10 +854,10 @@
         <v>198931.79476416245</v>
       </c>
       <c r="W12" s="8">
-        <v>241104.20938140119</v>
+        <v>240540.42629823752</v>
       </c>
       <c r="X12" s="8">
-        <v>348574.37099681445</v>
+        <v>348782.0699750323</v>
       </c>
       <c r="Y12" s="9"/>
       <c r="Z12" s="9"/>
@@ -998,10 +1000,10 @@
         <v>59961.150828523008</v>
       </c>
       <c r="W13" s="8">
-        <v>79944.091821299837</v>
+        <v>80576.391464339496</v>
       </c>
       <c r="X13" s="8">
-        <v>99053.188059169261</v>
+        <v>99878.740228203358</v>
       </c>
       <c r="Y13" s="9"/>
       <c r="Z13" s="9"/>
@@ -1144,10 +1146,10 @@
         <v>449647.5553384755</v>
       </c>
       <c r="W14" s="8">
-        <v>253346.65139142075</v>
+        <v>251750.9331817308</v>
       </c>
       <c r="X14" s="8">
-        <v>482051.53681914811</v>
+        <v>433275.09459842835</v>
       </c>
       <c r="Y14" s="9"/>
       <c r="Z14" s="9"/>
@@ -1293,7 +1295,7 @@
         <v>20203.137124077999</v>
       </c>
       <c r="X15" s="8">
-        <v>20380.180802357285</v>
+        <v>20371.847002839164</v>
       </c>
       <c r="Y15" s="9"/>
       <c r="Z15" s="9"/>
@@ -1436,10 +1438,10 @@
         <v>73192.859443853522</v>
       </c>
       <c r="W16" s="8">
-        <v>105387.27515525554</v>
+        <v>104428.92998655383</v>
       </c>
       <c r="X16" s="8">
-        <v>102918.91901927924</v>
+        <v>113055.34791981746</v>
       </c>
       <c r="Y16" s="9"/>
       <c r="Z16" s="9"/>
@@ -1582,10 +1584,10 @@
         <v>249832.75520974598</v>
       </c>
       <c r="W17" s="8">
-        <v>254705.43200988305</v>
+        <v>259433.57317885268</v>
       </c>
       <c r="X17" s="8">
-        <v>367306.41594255774</v>
+        <v>368603.10265638609</v>
       </c>
       <c r="Y17" s="9"/>
       <c r="Z17" s="9"/>
@@ -1731,7 +1733,7 @@
         <v>32266.404471436752</v>
       </c>
       <c r="X18" s="8">
-        <v>33461.640518929533</v>
+        <v>32859.90287420839</v>
       </c>
       <c r="Y18" s="9"/>
       <c r="Z18" s="9"/>
@@ -1874,10 +1876,10 @@
         <v>43725.458986785845</v>
       </c>
       <c r="W19" s="8">
-        <v>35339.352697164111</v>
+        <v>38115.6236784836</v>
       </c>
       <c r="X19" s="8">
-        <v>73515.555888535659</v>
+        <v>90714.32555027763</v>
       </c>
       <c r="Y19" s="9"/>
       <c r="Z19" s="9"/>
@@ -2118,10 +2120,10 @@
         <v>1128025.1865472822</v>
       </c>
       <c r="W21" s="11">
-        <v>1022296.5540519392</v>
+        <v>1027315.4193837127</v>
       </c>
       <c r="X21" s="11">
-        <v>1527261.8080467912</v>
+        <v>1507540.4308051926</v>
       </c>
       <c r="Y21" s="9"/>
       <c r="Z21" s="9"/>
@@ -2435,7 +2437,7 @@
     </row>
     <row r="28" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="30" spans="1:96" x14ac:dyDescent="0.2">
@@ -2445,7 +2447,7 @@
     </row>
     <row r="31" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="32" spans="1:96" x14ac:dyDescent="0.2">
@@ -2624,10 +2626,10 @@
         <v>203519.7539653462</v>
       </c>
       <c r="W37" s="8">
-        <v>235066.56248732028</v>
+        <v>234523.96229718017</v>
       </c>
       <c r="X37" s="8">
-        <v>316599.74688165128</v>
+        <v>337763.06148876855</v>
       </c>
       <c r="Y37" s="9"/>
       <c r="Z37" s="9"/>
@@ -2770,10 +2772,10 @@
         <v>59496.628037441915</v>
       </c>
       <c r="W38" s="8">
-        <v>78290.669941890214</v>
+        <v>78968.002731282031</v>
       </c>
       <c r="X38" s="8">
-        <v>94251.792644612447</v>
+        <v>96829.378943345218</v>
       </c>
       <c r="Y38" s="9"/>
       <c r="Z38" s="9"/>
@@ -2916,10 +2918,10 @@
         <v>437020.40138065431</v>
       </c>
       <c r="W39" s="8">
-        <v>256401.96946446007</v>
+        <v>255005.48475238727</v>
       </c>
       <c r="X39" s="8">
-        <v>457438.97693960648</v>
+        <v>433037.7612616499</v>
       </c>
       <c r="Y39" s="9"/>
       <c r="Z39" s="9"/>
@@ -3065,7 +3067,7 @@
         <v>19915.977915513202</v>
       </c>
       <c r="X40" s="8">
-        <v>19445.696470798051</v>
+        <v>19762.688621565052</v>
       </c>
       <c r="Y40" s="9"/>
       <c r="Z40" s="9"/>
@@ -3208,10 +3210,10 @@
         <v>71252.513657128555</v>
       </c>
       <c r="W41" s="8">
-        <v>102640.85341983833</v>
+        <v>101674.9010164177</v>
       </c>
       <c r="X41" s="8">
-        <v>97143.12078805035</v>
+        <v>108427.15250426423</v>
       </c>
       <c r="Y41" s="9"/>
       <c r="Z41" s="9"/>
@@ -3354,10 +3356,10 @@
         <v>252875.66350563359</v>
       </c>
       <c r="W42" s="8">
-        <v>253448.4118842379</v>
+        <v>257883.08022559338</v>
       </c>
       <c r="X42" s="8">
-        <v>352756.77518294699</v>
+        <v>359839.17202274018</v>
       </c>
       <c r="Y42" s="9"/>
       <c r="Z42" s="9"/>
@@ -3503,7 +3505,7 @@
         <v>30977.177931895334</v>
       </c>
       <c r="X43" s="8">
-        <v>31432.862158343149</v>
+        <v>31381.727291279327</v>
       </c>
       <c r="Y43" s="9"/>
       <c r="Z43" s="9"/>
@@ -3646,10 +3648,10 @@
         <v>43091.342260626625</v>
       </c>
       <c r="W44" s="8">
-        <v>34429.804326139907</v>
+        <v>37209.2706729161</v>
       </c>
       <c r="X44" s="8">
-        <v>68661.006810373598</v>
+        <v>85346.186802256998</v>
       </c>
       <c r="Y44" s="9"/>
       <c r="Z44" s="9"/>
@@ -3890,10 +3892,10 @@
         <v>1120029.6179045856</v>
       </c>
       <c r="W46" s="11">
-        <v>1011171.4273712953</v>
+        <v>1016157.8575431852</v>
       </c>
       <c r="X46" s="11">
-        <v>1437729.9778763824</v>
+        <v>1472387.1289358696</v>
       </c>
       <c r="Y46" s="9"/>
       <c r="Z46" s="9"/>
@@ -4207,7 +4209,7 @@
     </row>
     <row r="53" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="55" spans="1:96" x14ac:dyDescent="0.2">
@@ -4217,7 +4219,7 @@
     </row>
     <row r="56" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="57" spans="1:96" x14ac:dyDescent="0.2">
@@ -4391,10 +4393,10 @@
         <v>-22.568704144396605</v>
       </c>
       <c r="V62" s="16">
-        <v>21.199434040815319</v>
+        <v>20.916028824554118</v>
       </c>
       <c r="W62" s="16">
-        <v>44.574154010478878</v>
+        <v>44.99935638369152</v>
       </c>
       <c r="X62" s="16"/>
       <c r="Y62" s="9"/>
@@ -4530,10 +4532,10 @@
         <v>-22.930744783154623</v>
       </c>
       <c r="V63" s="16">
-        <v>33.326480090290573</v>
+        <v>34.380995612929411</v>
       </c>
       <c r="W63" s="16">
-        <v>23.903075014704342</v>
+        <v>23.955340284016643</v>
       </c>
       <c r="X63" s="16"/>
       <c r="Y63" s="9"/>
@@ -4669,10 +4671,10 @@
         <v>-37.58959134321541</v>
       </c>
       <c r="V64" s="16">
-        <v>-43.656615412773192</v>
+        <v>-44.011497406624741</v>
       </c>
       <c r="W64" s="16">
-        <v>90.273498454249619</v>
+        <v>72.104662780201551</v>
       </c>
       <c r="X64" s="16"/>
       <c r="Y64" s="9"/>
@@ -4811,7 +4813,7 @@
         <v>0.24318305722728439</v>
       </c>
       <c r="W65" s="16">
-        <v>0.87631775794010025</v>
+        <v>0.83506773094212861</v>
       </c>
       <c r="X65" s="16"/>
       <c r="Y65" s="9"/>
@@ -4947,10 +4949,10 @@
         <v>24.229378985189527</v>
       </c>
       <c r="V66" s="16">
-        <v>43.985732974537598</v>
+        <v>42.676390538699479</v>
       </c>
       <c r="W66" s="16">
-        <v>-2.3421766359742549</v>
+        <v>8.2605633653187454</v>
       </c>
       <c r="X66" s="16"/>
       <c r="Y66" s="9"/>
@@ -5086,10 +5088,10 @@
         <v>-13.562137864043791</v>
       </c>
       <c r="V67" s="16">
-        <v>1.9503754806075051</v>
+        <v>3.8428980063268199</v>
       </c>
       <c r="W67" s="16">
-        <v>44.208316659813363</v>
+        <v>42.07995447153337</v>
       </c>
       <c r="X67" s="16"/>
       <c r="Y67" s="9"/>
@@ -5228,7 +5230,7 @@
         <v>-0.96097831827771074</v>
       </c>
       <c r="W68" s="16">
-        <v>3.7042740493470347</v>
+        <v>1.8393695005497648</v>
       </c>
       <c r="X68" s="16"/>
       <c r="Y68" s="9"/>
@@ -5364,10 +5366,10 @@
         <v>-37.825416521742916</v>
       </c>
       <c r="V69" s="16">
-        <v>-19.179001167617415</v>
+        <v>-12.82967735112301</v>
       </c>
       <c r="W69" s="16">
-        <v>108.02745460143953</v>
+        <v>137.99774684386489</v>
       </c>
       <c r="X69" s="16"/>
       <c r="Y69" s="9"/>
@@ -5596,10 +5598,10 @@
         <v>-27.314139075797044</v>
       </c>
       <c r="V71" s="16">
-        <v>-9.3728964349601682</v>
+        <v>-8.927971499628228</v>
       </c>
       <c r="W71" s="16">
-        <v>49.395183031126265</v>
+        <v>46.745624796478495</v>
       </c>
       <c r="X71" s="16"/>
       <c r="Y71" s="9"/>
@@ -5899,7 +5901,7 @@
     </row>
     <row r="78" spans="1:91" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="80" spans="1:91" x14ac:dyDescent="0.2">
@@ -5909,7 +5911,7 @@
     </row>
     <row r="81" spans="1:91" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="82" spans="1:91" x14ac:dyDescent="0.2">
@@ -6083,10 +6085,10 @@
         <v>-19.914851200368005</v>
       </c>
       <c r="V87" s="16">
-        <v>15.500612548571397</v>
+        <v>15.234004428441452</v>
       </c>
       <c r="W87" s="16">
-        <v>34.685147700974682</v>
+        <v>44.020703974277723</v>
       </c>
       <c r="X87" s="16"/>
       <c r="Y87" s="9"/>
@@ -6222,10 +6224,10 @@
         <v>-21.113431697002326</v>
       </c>
       <c r="V88" s="16">
-        <v>31.588415216776639</v>
+        <v>32.726854169931386</v>
       </c>
       <c r="W88" s="16">
-        <v>20.387004881385067</v>
+        <v>22.618498118590068</v>
       </c>
       <c r="X88" s="16"/>
       <c r="Y88" s="9"/>
@@ -6361,10 +6363,10 @@
         <v>-39.087328359925287</v>
       </c>
       <c r="V89" s="16">
-        <v>-41.329519479085285</v>
+        <v>-41.649066280026616</v>
       </c>
       <c r="W89" s="16">
-        <v>78.406966957019506</v>
+        <v>69.815077382407537</v>
       </c>
       <c r="X89" s="16"/>
       <c r="Y89" s="9"/>
@@ -6503,7 +6505,7 @@
         <v>0.39467254010934028</v>
       </c>
       <c r="W90" s="16">
-        <v>-2.3613274061166436</v>
+        <v>-0.76967997553737177</v>
       </c>
       <c r="X90" s="16"/>
       <c r="Y90" s="9"/>
@@ -6639,10 +6641,10 @@
         <v>24.674296251189148</v>
       </c>
       <c r="V91" s="16">
-        <v>44.052256056189663</v>
+        <v>42.696581212114893</v>
       </c>
       <c r="W91" s="16">
-        <v>-5.3562810992035139</v>
+        <v>6.6410209602822476</v>
       </c>
       <c r="X91" s="16"/>
       <c r="Y91" s="9"/>
@@ -6778,10 +6780,10 @@
         <v>-10.101840288306647</v>
       </c>
       <c r="V92" s="16">
-        <v>0.22649406853322773</v>
+        <v>1.9801892560721797</v>
       </c>
       <c r="W92" s="16">
-        <v>39.182870612765186</v>
+        <v>39.535781761237189</v>
       </c>
       <c r="X92" s="16"/>
       <c r="Y92" s="9"/>
@@ -6920,7 +6922,7 @@
         <v>-5.9463051957355901</v>
       </c>
       <c r="W93" s="16">
-        <v>1.4710320851358745</v>
+        <v>1.305959375232348</v>
       </c>
       <c r="X93" s="16"/>
       <c r="Y93" s="9"/>
@@ -7056,10 +7058,10 @@
         <v>-36.131447251195624</v>
       </c>
       <c r="V94" s="16">
-        <v>-20.100413401141438</v>
+        <v>-13.65023988376683</v>
       </c>
       <c r="W94" s="16">
-        <v>99.423168833534646</v>
+        <v>129.36807214654391</v>
       </c>
       <c r="X94" s="16"/>
       <c r="Y94" s="9"/>
@@ -7288,10 +7290,10 @@
         <v>-26.759973847077163</v>
       </c>
       <c r="V96" s="16">
-        <v>-9.7192242770283315</v>
+        <v>-9.2740190706500698</v>
       </c>
       <c r="W96" s="16">
-        <v>42.184592934354896</v>
+        <v>44.89748005253162</v>
       </c>
       <c r="X96" s="16"/>
       <c r="Y96" s="9"/>
@@ -7588,7 +7590,7 @@
     </row>
     <row r="102" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A102" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="104" spans="1:96" x14ac:dyDescent="0.2">
@@ -7598,7 +7600,7 @@
     </row>
     <row r="105" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A105" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="106" spans="1:96" x14ac:dyDescent="0.2">
@@ -7777,10 +7779,10 @@
         <v>97.745693421993352</v>
       </c>
       <c r="W111" s="16">
-        <v>102.56848393501589</v>
+        <v>102.5653941465621</v>
       </c>
       <c r="X111" s="16">
-        <v>110.09938397932947</v>
+        <v>103.26234859362503</v>
       </c>
       <c r="Y111" s="9"/>
       <c r="Z111" s="9"/>
@@ -7923,10 +7925,10 @@
         <v>100.78075481990132</v>
       </c>
       <c r="W112" s="16">
-        <v>102.11190155945383</v>
+        <v>102.03676005144844</v>
       </c>
       <c r="X112" s="16">
-        <v>105.0942218496162</v>
+        <v>103.14921082643968</v>
       </c>
       <c r="Y112" s="9"/>
       <c r="Z112" s="9"/>
@@ -8069,10 +8071,10 @@
         <v>102.88937402417118</v>
       </c>
       <c r="W113" s="16">
-        <v>98.808387439682747</v>
+        <v>98.723732717428931</v>
       </c>
       <c r="X113" s="16">
-        <v>105.38051218201967</v>
+        <v>100.05480661457491</v>
       </c>
       <c r="Y113" s="9"/>
       <c r="Z113" s="9"/>
@@ -8218,7 +8220,7 @@
         <v>101.44185341931475</v>
       </c>
       <c r="X114" s="16">
-        <v>104.80560998657242</v>
+        <v>103.08236593177608</v>
       </c>
       <c r="Y114" s="9"/>
       <c r="Z114" s="9"/>
@@ -8361,10 +8363,10 @@
         <v>102.72319625952009</v>
       </c>
       <c r="W115" s="16">
-        <v>102.67575886590046</v>
+        <v>102.70866156996941</v>
       </c>
       <c r="X115" s="16">
-        <v>105.94565851330916</v>
+        <v>104.26848377796438</v>
       </c>
       <c r="Y115" s="9"/>
       <c r="Z115" s="9"/>
@@ -8507,10 +8509,10 @@
         <v>98.796678077398369</v>
       </c>
       <c r="W116" s="16">
-        <v>100.49596685822569</v>
+        <v>100.60123872876923</v>
       </c>
       <c r="X116" s="16">
-        <v>104.12455317181788</v>
+        <v>102.43551322786281</v>
       </c>
       <c r="Y116" s="9"/>
       <c r="Z116" s="9"/>
@@ -8656,7 +8658,7 @@
         <v>104.1618592319024</v>
       </c>
       <c r="X117" s="16">
-        <v>106.45432270967375</v>
+        <v>104.71030663547903</v>
       </c>
       <c r="Y117" s="9"/>
       <c r="Z117" s="9"/>
@@ -8799,10 +8801,10 @@
         <v>101.47156410752751</v>
       </c>
       <c r="W118" s="16">
-        <v>102.64174713979904</v>
+        <v>102.43582577453532</v>
       </c>
       <c r="X118" s="16">
-        <v>107.07031443854187</v>
+        <v>106.2898401781656</v>
       </c>
       <c r="Y118" s="9"/>
       <c r="Z118" s="9"/>
@@ -9043,10 +9045,10 @@
         <v>100.71387117937604</v>
       </c>
       <c r="W120" s="16">
-        <v>101.10022162212053</v>
+        <v>101.0980146202386</v>
       </c>
       <c r="X120" s="16">
-        <v>106.22730495629318</v>
+        <v>102.38750401837112</v>
       </c>
       <c r="Y120" s="9"/>
       <c r="Z120" s="9"/>
@@ -9164,7 +9166,7 @@
     </row>
     <row r="127" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A127" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="129" spans="1:96" x14ac:dyDescent="0.2">
@@ -9174,7 +9176,7 @@
     </row>
     <row r="130" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A130" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="131" spans="1:96" x14ac:dyDescent="0.2">
@@ -9353,10 +9355,10 @@
         <v>17.635403636071565</v>
       </c>
       <c r="W136" s="17">
-        <v>23.584566379077472</v>
+        <v>23.414466653536447</v>
       </c>
       <c r="X136" s="17">
-        <v>22.823485086856508</v>
+        <v>23.135835221927962</v>
       </c>
       <c r="Y136" s="9"/>
       <c r="Z136" s="9"/>
@@ -9499,10 +9501,10 @@
         <v>5.3155861716222139</v>
       </c>
       <c r="W137" s="17">
-        <v>7.8200490361075961</v>
+        <v>7.8433935618991617</v>
       </c>
       <c r="X137" s="17">
-        <v>6.4856717779021773</v>
+        <v>6.6252777164229766</v>
       </c>
       <c r="Y137" s="9"/>
       <c r="Z137" s="9"/>
@@ -9645,10 +9647,10 @@
         <v>39.861481880097024</v>
       </c>
       <c r="W138" s="17">
-        <v>24.782109495259938</v>
+        <v>24.505709583601536</v>
       </c>
       <c r="X138" s="17">
-        <v>31.563123904449743</v>
+        <v>28.740528993110438</v>
       </c>
       <c r="Y138" s="9"/>
       <c r="Z138" s="9"/>
@@ -9791,10 +9793,10 @@
         <v>1.7866733779872295</v>
       </c>
       <c r="W139" s="17">
-        <v>1.9762501442464564</v>
+        <v>1.9665953360456592</v>
       </c>
       <c r="X139" s="17">
-        <v>1.3344261406249276</v>
+        <v>1.3513300596494355</v>
       </c>
       <c r="Y139" s="9"/>
       <c r="Z139" s="9"/>
@@ -9937,10 +9939,10 @@
         <v>6.4885837937613795</v>
       </c>
       <c r="W140" s="17">
-        <v>10.308875124106228</v>
+        <v>10.165225598307561</v>
       </c>
       <c r="X140" s="17">
-        <v>6.7387869242210563</v>
+        <v>7.4993244366543106</v>
       </c>
       <c r="Y140" s="9"/>
       <c r="Z140" s="9"/>
@@ -10083,10 +10085,10 @@
         <v>22.147799374448986</v>
       </c>
       <c r="W141" s="17">
-        <v>24.91502402119438</v>
+        <v>25.253546114832687</v>
       </c>
       <c r="X141" s="17">
-        <v>24.049996798669664</v>
+        <v>24.450627998050535</v>
       </c>
       <c r="Y141" s="9"/>
       <c r="Z141" s="9"/>
@@ -10229,10 +10231,10 @@
         <v>2.8881878400628147</v>
       </c>
       <c r="W142" s="17">
-        <v>3.1562665787678488</v>
+        <v>3.1408468969338932</v>
       </c>
       <c r="X142" s="17">
-        <v>2.1909564124911554</v>
+        <v>2.1797029255565361</v>
       </c>
       <c r="Y142" s="9"/>
       <c r="Z142" s="9"/>
@@ -10375,10 +10377,10 @@
         <v>3.8762839259487625</v>
       </c>
       <c r="W143" s="17">
-        <v>3.4568592212400868</v>
+        <v>3.7102162548430537</v>
       </c>
       <c r="X143" s="17">
-        <v>4.8135529547847717</v>
+        <v>6.0173726486278172</v>
       </c>
       <c r="Y143" s="9"/>
       <c r="Z143" s="9"/>
@@ -10936,7 +10938,7 @@
     </row>
     <row r="152" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A152" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="154" spans="1:96" x14ac:dyDescent="0.2">
@@ -10946,7 +10948,7 @@
     </row>
     <row r="155" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A155" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="156" spans="1:96" x14ac:dyDescent="0.2">
@@ -11125,10 +11127,10 @@
         <v>18.170926081946156</v>
       </c>
       <c r="W161" s="17">
-        <v>23.246954583993148</v>
+        <v>23.079481259358687</v>
       </c>
       <c r="X161" s="17">
-        <v>22.020807227605353</v>
+        <v>22.939827091050315</v>
       </c>
       <c r="Y161" s="9"/>
       <c r="Z161" s="9"/>
@@ -11271,10 +11273,10 @@
         <v>5.3120584568782698</v>
       </c>
       <c r="W162" s="17">
-        <v>7.7425714199044915</v>
+        <v>7.771233784700228</v>
       </c>
       <c r="X162" s="17">
-        <v>6.5555976501114817</v>
+        <v>6.5763532593039038</v>
       </c>
       <c r="Y162" s="9"/>
       <c r="Z162" s="9"/>
@@ -11417,10 +11419,10 @@
         <v>39.018646863844246</v>
       </c>
       <c r="W163" s="17">
-        <v>25.356923912596969</v>
+        <v>25.095065974190916</v>
       </c>
       <c r="X163" s="17">
-        <v>31.816751683460936</v>
+        <v>29.410591328288572</v>
       </c>
       <c r="Y163" s="9"/>
       <c r="Z163" s="9"/>
@@ -11563,10 +11565,10 @@
         <v>1.7711749499258751</v>
       </c>
       <c r="W164" s="17">
-        <v>1.9695946084323239</v>
+        <v>1.9599295294202654</v>
       </c>
       <c r="X164" s="17">
-        <v>1.3525277186972597</v>
+        <v>1.3422209575988371</v>
       </c>
       <c r="Y164" s="9"/>
       <c r="Z164" s="9"/>
@@ -11709,10 +11711,10 @@
         <v>6.3616633451561544</v>
       </c>
       <c r="W165" s="17">
-        <v>10.150687671888626</v>
+        <v>10.005817527430443</v>
       </c>
       <c r="X165" s="17">
-        <v>6.7567013474628137</v>
+        <v>7.364038327516977</v>
       </c>
       <c r="Y165" s="9"/>
       <c r="Z165" s="9"/>
@@ -11855,10 +11857,10 @@
         <v>22.577587187268104</v>
       </c>
       <c r="W166" s="17">
-        <v>25.064831246578862</v>
+        <v>25.378249876361725</v>
       </c>
       <c r="X166" s="17">
-        <v>24.53567642124225</v>
+        <v>24.439168541415111</v>
       </c>
       <c r="Y166" s="9"/>
       <c r="Z166" s="9"/>
@@ -12001,10 +12003,10 @@
         <v>2.9406035829030635</v>
       </c>
       <c r="W167" s="17">
-        <v>3.0634941903397674</v>
+        <v>3.048461191530849</v>
       </c>
       <c r="X167" s="17">
-        <v>2.1862841174649126</v>
+        <v>2.1313502865214309</v>
       </c>
       <c r="Y167" s="9"/>
       <c r="Z167" s="9"/>
@@ -12147,10 +12149,10 @@
         <v>3.8473395320781187</v>
       </c>
       <c r="W168" s="17">
-        <v>3.4049423662658063</v>
+        <v>3.6617608570068807</v>
       </c>
       <c r="X168" s="17">
-        <v>4.7756538339549843</v>
+        <v>5.796450208304849</v>
       </c>
       <c r="Y168" s="9"/>
       <c r="Z168" s="9"/>

--- a/Data/National Accounts/PSA-07IOS_2018PSNA_Ann.xlsx
+++ b/Data/National Accounts/PSA-07IOS_2018PSNA_Ann.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\Other computers\My Laptop (1)\6. MAS_Series\2018-base\NAP\NAP detailed series as of April 2023\Annl\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\Other computers\My Laptop (1)\6. MAS_Series\2018-base\NAP\NAP detailed series as of January 2024\Annl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B303E276-901E-4ADA-A439-A845ACC1EBD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6017CAE4-1CCD-40E5-8F3A-0CE51C1D3469}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="975" windowWidth="28800" windowHeight="15225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="IOS" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
     <definedName name="PCE_Per_Con_Qrt">[1]HFCE!#REF!</definedName>
     <definedName name="PCE_Per_Cur_Qrt" localSheetId="0">IOS!$A$37:$A$48</definedName>
     <definedName name="PCE_Per_Cur_Qrt">[1]HFCE!#REF!</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">IOS!$A$1:$X$174</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">IOS!$A$1:$Y$174</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="54">
   <si>
     <t>Source: Philippine Statistics Authority</t>
   </si>
@@ -207,13 +207,16 @@
     <t>2021 - 2022</t>
   </si>
   <si>
-    <t>Annual 2000 to 2022</t>
+    <t>2022 - 2023</t>
   </si>
   <si>
-    <t>Annual 2001 to 2022</t>
+    <t>As of January 2024</t>
   </si>
   <si>
-    <t>As of April 2023</t>
+    <t>Annual 2000 to 2023</t>
+  </si>
+  <si>
+    <t>Annual 2001 to 2023</t>
   </si>
 </sst>
 </file>
@@ -643,14 +646,14 @@
       <selection activeCell="C4" sqref="C4"/>
       <selection pane="topRight" activeCell="C4" sqref="C4"/>
       <selection pane="bottomLeft" activeCell="C4" sqref="C4"/>
-      <selection pane="bottomRight" activeCell="V1" sqref="V1:X1048576"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.77734375" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="42.6640625" style="1" customWidth="1"/>
-    <col min="2" max="24" width="12.33203125" style="1" customWidth="1"/>
-    <col min="25" max="16384" width="7.77734375" style="1"/>
+    <col min="2" max="25" width="12.33203125" style="1" customWidth="1"/>
+    <col min="26" max="16384" width="7.77734375" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:96" x14ac:dyDescent="0.2">
@@ -665,7 +668,7 @@
     </row>
     <row r="3" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="5" spans="1:96" x14ac:dyDescent="0.2">
@@ -675,7 +678,7 @@
     </row>
     <row r="6" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="7" spans="1:96" x14ac:dyDescent="0.2">
@@ -710,6 +713,7 @@
       <c r="V9" s="4"/>
       <c r="W9" s="4"/>
       <c r="X9" s="4"/>
+      <c r="Y9" s="4"/>
     </row>
     <row r="10" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A10" s="5"/>
@@ -782,6 +786,9 @@
       <c r="X10" s="6">
         <v>2022</v>
       </c>
+      <c r="Y10" s="6">
+        <v>2023</v>
+      </c>
     </row>
     <row r="11" spans="1:96" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="7"/>
@@ -859,7 +866,9 @@
       <c r="X12" s="8">
         <v>348782.0699750323</v>
       </c>
-      <c r="Y12" s="9"/>
+      <c r="Y12" s="8">
+        <v>389403.1478784607</v>
+      </c>
       <c r="Z12" s="9"/>
       <c r="AA12" s="9"/>
       <c r="AB12" s="9"/>
@@ -1005,7 +1014,9 @@
       <c r="X13" s="8">
         <v>99878.740228203358</v>
       </c>
-      <c r="Y13" s="9"/>
+      <c r="Y13" s="8">
+        <v>100010.65828893974</v>
+      </c>
       <c r="Z13" s="9"/>
       <c r="AA13" s="9"/>
       <c r="AB13" s="9"/>
@@ -1151,7 +1162,9 @@
       <c r="X14" s="8">
         <v>433275.09459842835</v>
       </c>
-      <c r="Y14" s="9"/>
+      <c r="Y14" s="8">
+        <v>800619.11746327742</v>
+      </c>
       <c r="Z14" s="9"/>
       <c r="AA14" s="9"/>
       <c r="AB14" s="9"/>
@@ -1297,7 +1310,9 @@
       <c r="X15" s="8">
         <v>20371.847002839164</v>
       </c>
-      <c r="Y15" s="9"/>
+      <c r="Y15" s="8">
+        <v>19931.105240823836</v>
+      </c>
       <c r="Z15" s="9"/>
       <c r="AA15" s="9"/>
       <c r="AB15" s="9"/>
@@ -1443,7 +1458,9 @@
       <c r="X16" s="8">
         <v>113055.34791981746</v>
       </c>
-      <c r="Y16" s="9"/>
+      <c r="Y16" s="8">
+        <v>110601.9173196425</v>
+      </c>
       <c r="Z16" s="9"/>
       <c r="AA16" s="9"/>
       <c r="AB16" s="9"/>
@@ -1589,7 +1606,9 @@
       <c r="X17" s="8">
         <v>368603.10265638609</v>
       </c>
-      <c r="Y17" s="9"/>
+      <c r="Y17" s="8">
+        <v>435053.77321701701</v>
+      </c>
       <c r="Z17" s="9"/>
       <c r="AA17" s="9"/>
       <c r="AB17" s="9"/>
@@ -1735,7 +1754,9 @@
       <c r="X18" s="8">
         <v>32859.90287420839</v>
       </c>
-      <c r="Y18" s="9"/>
+      <c r="Y18" s="8">
+        <v>29893.383638969564</v>
+      </c>
       <c r="Z18" s="9"/>
       <c r="AA18" s="9"/>
       <c r="AB18" s="9"/>
@@ -1881,7 +1902,9 @@
       <c r="X19" s="8">
         <v>90714.32555027763</v>
       </c>
-      <c r="Y19" s="9"/>
+      <c r="Y19" s="8">
+        <v>102562.84108225492</v>
+      </c>
       <c r="Z19" s="9"/>
       <c r="AA19" s="9"/>
       <c r="AB19" s="9"/>
@@ -2125,7 +2148,9 @@
       <c r="X21" s="11">
         <v>1507540.4308051926</v>
       </c>
-      <c r="Y21" s="9"/>
+      <c r="Y21" s="11">
+        <v>1988075.9441293858</v>
+      </c>
       <c r="Z21" s="9"/>
       <c r="AA21" s="9"/>
       <c r="AB21" s="9"/>
@@ -2223,6 +2248,7 @@
       <c r="V22" s="12"/>
       <c r="W22" s="12"/>
       <c r="X22" s="12"/>
+      <c r="Y22" s="12"/>
     </row>
     <row r="23" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A23" s="13" t="s">
@@ -2437,7 +2463,7 @@
     </row>
     <row r="28" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="30" spans="1:96" x14ac:dyDescent="0.2">
@@ -2447,7 +2473,7 @@
     </row>
     <row r="31" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="32" spans="1:96" x14ac:dyDescent="0.2">
@@ -2482,6 +2508,7 @@
       <c r="V34" s="14"/>
       <c r="W34" s="14"/>
       <c r="X34" s="14"/>
+      <c r="Y34" s="14"/>
     </row>
     <row r="35" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A35" s="5"/>
@@ -2554,6 +2581,9 @@
       <c r="X35" s="15">
         <v>2022</v>
       </c>
+      <c r="Y35" s="15">
+        <v>2023</v>
+      </c>
     </row>
     <row r="36" spans="1:96" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="7"/>
@@ -2631,7 +2661,9 @@
       <c r="X37" s="8">
         <v>337763.06148876855</v>
       </c>
-      <c r="Y37" s="9"/>
+      <c r="Y37" s="8">
+        <v>362074.5047416758</v>
+      </c>
       <c r="Z37" s="9"/>
       <c r="AA37" s="9"/>
       <c r="AB37" s="9"/>
@@ -2777,7 +2809,9 @@
       <c r="X38" s="8">
         <v>96829.378943345218</v>
       </c>
-      <c r="Y38" s="9"/>
+      <c r="Y38" s="8">
+        <v>92166.077382344592</v>
+      </c>
       <c r="Z38" s="9"/>
       <c r="AA38" s="9"/>
       <c r="AB38" s="9"/>
@@ -2923,7 +2957,9 @@
       <c r="X39" s="8">
         <v>433037.7612616499</v>
       </c>
-      <c r="Y39" s="9"/>
+      <c r="Y39" s="8">
+        <v>749128.47392327432</v>
+      </c>
       <c r="Z39" s="9"/>
       <c r="AA39" s="9"/>
       <c r="AB39" s="9"/>
@@ -3069,7 +3105,9 @@
       <c r="X40" s="8">
         <v>19762.688621565052</v>
       </c>
-      <c r="Y40" s="9"/>
+      <c r="Y40" s="8">
+        <v>18489.074328936105</v>
+      </c>
       <c r="Z40" s="9"/>
       <c r="AA40" s="9"/>
       <c r="AB40" s="9"/>
@@ -3215,7 +3253,9 @@
       <c r="X41" s="8">
         <v>108427.15250426423</v>
       </c>
-      <c r="Y41" s="9"/>
+      <c r="Y41" s="8">
+        <v>102105.83201018246</v>
+      </c>
       <c r="Z41" s="9"/>
       <c r="AA41" s="9"/>
       <c r="AB41" s="9"/>
@@ -3361,7 +3401,9 @@
       <c r="X42" s="8">
         <v>359839.17202274018</v>
       </c>
-      <c r="Y42" s="9"/>
+      <c r="Y42" s="8">
+        <v>404993.9762222289</v>
+      </c>
       <c r="Z42" s="9"/>
       <c r="AA42" s="9"/>
       <c r="AB42" s="9"/>
@@ -3507,7 +3549,9 @@
       <c r="X43" s="8">
         <v>31381.727291279327</v>
       </c>
-      <c r="Y43" s="9"/>
+      <c r="Y43" s="8">
+        <v>27626.682934620228</v>
+      </c>
       <c r="Z43" s="9"/>
       <c r="AA43" s="9"/>
       <c r="AB43" s="9"/>
@@ -3653,7 +3697,9 @@
       <c r="X44" s="8">
         <v>85346.186802256998</v>
       </c>
-      <c r="Y44" s="9"/>
+      <c r="Y44" s="8">
+        <v>93491.466397932265</v>
+      </c>
       <c r="Z44" s="9"/>
       <c r="AA44" s="9"/>
       <c r="AB44" s="9"/>
@@ -3897,7 +3943,9 @@
       <c r="X46" s="11">
         <v>1472387.1289358696</v>
       </c>
-      <c r="Y46" s="9"/>
+      <c r="Y46" s="11">
+        <v>1850076.0879411949</v>
+      </c>
       <c r="Z46" s="9"/>
       <c r="AA46" s="9"/>
       <c r="AB46" s="9"/>
@@ -3995,6 +4043,7 @@
       <c r="V47" s="12"/>
       <c r="W47" s="12"/>
       <c r="X47" s="12"/>
+      <c r="Y47" s="12"/>
     </row>
     <row r="48" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A48" s="13" t="s">
@@ -4209,7 +4258,7 @@
     </row>
     <row r="53" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="55" spans="1:96" x14ac:dyDescent="0.2">
@@ -4219,7 +4268,7 @@
     </row>
     <row r="56" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="57" spans="1:96" x14ac:dyDescent="0.2">
@@ -4254,6 +4303,7 @@
       <c r="V59" s="14"/>
       <c r="W59" s="14"/>
       <c r="X59" s="14"/>
+      <c r="Y59" s="14"/>
     </row>
     <row r="60" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A60" s="5"/>
@@ -4323,7 +4373,10 @@
       <c r="W60" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="X60" s="15"/>
+      <c r="X60" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y60" s="15"/>
     </row>
     <row r="61" spans="1:96" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="7"/>
@@ -4398,8 +4451,10 @@
       <c r="W62" s="16">
         <v>44.99935638369152</v>
       </c>
-      <c r="X62" s="16"/>
-      <c r="Y62" s="9"/>
+      <c r="X62" s="16">
+        <v>11.646549923376597</v>
+      </c>
+      <c r="Y62" s="16"/>
       <c r="Z62" s="9"/>
       <c r="AA62" s="9"/>
       <c r="AB62" s="9"/>
@@ -4537,8 +4592,10 @@
       <c r="W63" s="16">
         <v>23.955340284016643</v>
       </c>
-      <c r="X63" s="16"/>
-      <c r="Y63" s="9"/>
+      <c r="X63" s="16">
+        <v>0.13207821848271806</v>
+      </c>
+      <c r="Y63" s="16"/>
       <c r="Z63" s="9"/>
       <c r="AA63" s="9"/>
       <c r="AB63" s="9"/>
@@ -4676,8 +4733,10 @@
       <c r="W64" s="16">
         <v>72.104662780201551</v>
       </c>
-      <c r="X64" s="16"/>
-      <c r="Y64" s="9"/>
+      <c r="X64" s="16">
+        <v>84.783092184265485</v>
+      </c>
+      <c r="Y64" s="16"/>
       <c r="Z64" s="9"/>
       <c r="AA64" s="9"/>
       <c r="AB64" s="9"/>
@@ -4815,8 +4874,10 @@
       <c r="W65" s="16">
         <v>0.83506773094212861</v>
       </c>
-      <c r="X65" s="16"/>
-      <c r="Y65" s="9"/>
+      <c r="X65" s="16">
+        <v>-2.1634845478365463</v>
+      </c>
+      <c r="Y65" s="16"/>
       <c r="Z65" s="9"/>
       <c r="AA65" s="9"/>
       <c r="AB65" s="9"/>
@@ -4954,8 +5015,10 @@
       <c r="W66" s="16">
         <v>8.2605633653187454</v>
       </c>
-      <c r="X66" s="16"/>
-      <c r="Y66" s="9"/>
+      <c r="X66" s="16">
+        <v>-2.1701145901696037</v>
+      </c>
+      <c r="Y66" s="16"/>
       <c r="Z66" s="9"/>
       <c r="AA66" s="9"/>
       <c r="AB66" s="9"/>
@@ -5093,8 +5156,10 @@
       <c r="W67" s="16">
         <v>42.07995447153337</v>
       </c>
-      <c r="X67" s="16"/>
-      <c r="Y67" s="9"/>
+      <c r="X67" s="16">
+        <v>18.027702447902769</v>
+      </c>
+      <c r="Y67" s="16"/>
       <c r="Z67" s="9"/>
       <c r="AA67" s="9"/>
       <c r="AB67" s="9"/>
@@ -5232,8 +5297,10 @@
       <c r="W68" s="16">
         <v>1.8393695005497648</v>
       </c>
-      <c r="X68" s="16"/>
-      <c r="Y68" s="9"/>
+      <c r="X68" s="16">
+        <v>-9.027778464820841</v>
+      </c>
+      <c r="Y68" s="16"/>
       <c r="Z68" s="9"/>
       <c r="AA68" s="9"/>
       <c r="AB68" s="9"/>
@@ -5371,8 +5438,10 @@
       <c r="W69" s="16">
         <v>137.99774684386489</v>
       </c>
-      <c r="X69" s="16"/>
-      <c r="Y69" s="9"/>
+      <c r="X69" s="16">
+        <v>13.061349968820906</v>
+      </c>
+      <c r="Y69" s="16"/>
       <c r="Z69" s="9"/>
       <c r="AA69" s="9"/>
       <c r="AB69" s="9"/>
@@ -5603,8 +5672,10 @@
       <c r="W71" s="16">
         <v>46.745624796478495</v>
       </c>
-      <c r="X71" s="16"/>
-      <c r="Y71" s="9"/>
+      <c r="X71" s="16">
+        <v>31.875464399156073</v>
+      </c>
+      <c r="Y71" s="16"/>
       <c r="Z71" s="9"/>
       <c r="AA71" s="9"/>
       <c r="AB71" s="9"/>
@@ -5697,6 +5768,7 @@
       <c r="V72" s="12"/>
       <c r="W72" s="12"/>
       <c r="X72" s="12"/>
+      <c r="Y72" s="12"/>
     </row>
     <row r="73" spans="1:91" x14ac:dyDescent="0.2">
       <c r="A73" s="13" t="s">
@@ -5901,7 +5973,7 @@
     </row>
     <row r="78" spans="1:91" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="80" spans="1:91" x14ac:dyDescent="0.2">
@@ -5911,7 +5983,7 @@
     </row>
     <row r="81" spans="1:91" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="82" spans="1:91" x14ac:dyDescent="0.2">
@@ -5946,6 +6018,7 @@
       <c r="V84" s="14"/>
       <c r="W84" s="14"/>
       <c r="X84" s="14"/>
+      <c r="Y84" s="14"/>
     </row>
     <row r="85" spans="1:91" x14ac:dyDescent="0.2">
       <c r="A85" s="5"/>
@@ -6015,7 +6088,10 @@
       <c r="W85" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="X85" s="15"/>
+      <c r="X85" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y85" s="15"/>
     </row>
     <row r="86" spans="1:91" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="7"/>
@@ -6090,8 +6166,10 @@
       <c r="W87" s="16">
         <v>44.020703974277723</v>
       </c>
-      <c r="X87" s="16"/>
-      <c r="Y87" s="9"/>
+      <c r="X87" s="16">
+        <v>7.1977803451179483</v>
+      </c>
+      <c r="Y87" s="16"/>
       <c r="Z87" s="9"/>
       <c r="AA87" s="9"/>
       <c r="AB87" s="9"/>
@@ -6229,8 +6307,10 @@
       <c r="W88" s="16">
         <v>22.618498118590068</v>
       </c>
-      <c r="X88" s="16"/>
-      <c r="Y88" s="9"/>
+      <c r="X88" s="16">
+        <v>-4.8159986275747144</v>
+      </c>
+      <c r="Y88" s="16"/>
       <c r="Z88" s="9"/>
       <c r="AA88" s="9"/>
       <c r="AB88" s="9"/>
@@ -6368,8 +6448,10 @@
       <c r="W89" s="16">
         <v>69.815077382407537</v>
       </c>
-      <c r="X89" s="16"/>
-      <c r="Y89" s="9"/>
+      <c r="X89" s="16">
+        <v>72.993798910445634</v>
+      </c>
+      <c r="Y89" s="16"/>
       <c r="Z89" s="9"/>
       <c r="AA89" s="9"/>
       <c r="AB89" s="9"/>
@@ -6507,8 +6589,10 @@
       <c r="W90" s="16">
         <v>-0.76967997553737177</v>
       </c>
-      <c r="X90" s="16"/>
-      <c r="Y90" s="9"/>
+      <c r="X90" s="16">
+        <v>-6.4445395918406518</v>
+      </c>
+      <c r="Y90" s="16"/>
       <c r="Z90" s="9"/>
       <c r="AA90" s="9"/>
       <c r="AB90" s="9"/>
@@ -6646,8 +6730,10 @@
       <c r="W91" s="16">
         <v>6.6410209602822476</v>
       </c>
-      <c r="X91" s="16"/>
-      <c r="Y91" s="9"/>
+      <c r="X91" s="16">
+        <v>-5.8300161427121964</v>
+      </c>
+      <c r="Y91" s="16"/>
       <c r="Z91" s="9"/>
       <c r="AA91" s="9"/>
       <c r="AB91" s="9"/>
@@ -6785,8 +6871,10 @@
       <c r="W92" s="16">
         <v>39.535781761237189</v>
       </c>
-      <c r="X92" s="16"/>
-      <c r="Y92" s="9"/>
+      <c r="X92" s="16">
+        <v>12.548607186277977</v>
+      </c>
+      <c r="Y92" s="16"/>
       <c r="Z92" s="9"/>
       <c r="AA92" s="9"/>
       <c r="AB92" s="9"/>
@@ -6924,8 +7012,10 @@
       <c r="W93" s="16">
         <v>1.305959375232348</v>
       </c>
-      <c r="X93" s="16"/>
-      <c r="Y93" s="9"/>
+      <c r="X93" s="16">
+        <v>-11.965703231710222</v>
+      </c>
+      <c r="Y93" s="16"/>
       <c r="Z93" s="9"/>
       <c r="AA93" s="9"/>
       <c r="AB93" s="9"/>
@@ -7063,8 +7153,10 @@
       <c r="W94" s="16">
         <v>129.36807214654391</v>
       </c>
-      <c r="X94" s="16"/>
-      <c r="Y94" s="9"/>
+      <c r="X94" s="16">
+        <v>9.5438119743386949</v>
+      </c>
+      <c r="Y94" s="16"/>
       <c r="Z94" s="9"/>
       <c r="AA94" s="9"/>
       <c r="AB94" s="9"/>
@@ -7295,8 +7387,10 @@
       <c r="W96" s="16">
         <v>44.89748005253162</v>
       </c>
-      <c r="X96" s="16"/>
-      <c r="Y96" s="9"/>
+      <c r="X96" s="16">
+        <v>25.651471109930895</v>
+      </c>
+      <c r="Y96" s="16"/>
       <c r="Z96" s="9"/>
       <c r="AA96" s="9"/>
       <c r="AB96" s="9"/>
@@ -7389,6 +7483,7 @@
       <c r="V97" s="12"/>
       <c r="W97" s="12"/>
       <c r="X97" s="12"/>
+      <c r="Y97" s="12"/>
     </row>
     <row r="98" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A98" s="13" t="s">
@@ -7590,7 +7685,7 @@
     </row>
     <row r="102" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A102" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="104" spans="1:96" x14ac:dyDescent="0.2">
@@ -7600,7 +7695,7 @@
     </row>
     <row r="105" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A105" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="106" spans="1:96" x14ac:dyDescent="0.2">
@@ -7635,6 +7730,7 @@
       <c r="V108" s="14"/>
       <c r="W108" s="14"/>
       <c r="X108" s="14"/>
+      <c r="Y108" s="14"/>
     </row>
     <row r="109" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A109" s="5"/>
@@ -7707,6 +7803,9 @@
       <c r="X109" s="15">
         <v>2022</v>
       </c>
+      <c r="Y109" s="15">
+        <v>2023</v>
+      </c>
     </row>
     <row r="110" spans="1:96" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" s="7"/>
@@ -7784,7 +7883,9 @@
       <c r="X111" s="16">
         <v>103.26234859362503</v>
       </c>
-      <c r="Y111" s="9"/>
+      <c r="Y111" s="16">
+        <v>107.54779548929652</v>
+      </c>
       <c r="Z111" s="9"/>
       <c r="AA111" s="9"/>
       <c r="AB111" s="9"/>
@@ -7930,7 +8031,9 @@
       <c r="X112" s="16">
         <v>103.14921082643968</v>
       </c>
-      <c r="Y112" s="9"/>
+      <c r="Y112" s="16">
+        <v>108.51135377504724</v>
+      </c>
       <c r="Z112" s="9"/>
       <c r="AA112" s="9"/>
       <c r="AB112" s="9"/>
@@ -8076,7 +8179,9 @@
       <c r="X113" s="16">
         <v>100.05480661457491</v>
       </c>
-      <c r="Y113" s="9"/>
+      <c r="Y113" s="16">
+        <v>106.87340627574073</v>
+      </c>
       <c r="Z113" s="9"/>
       <c r="AA113" s="9"/>
       <c r="AB113" s="9"/>
@@ -8222,7 +8327,9 @@
       <c r="X114" s="16">
         <v>103.08236593177608</v>
       </c>
-      <c r="Y114" s="9"/>
+      <c r="Y114" s="16">
+        <v>107.79936781167511</v>
+      </c>
       <c r="Z114" s="9"/>
       <c r="AA114" s="9"/>
       <c r="AB114" s="9"/>
@@ -8368,7 +8475,9 @@
       <c r="X115" s="16">
         <v>104.26848377796438</v>
       </c>
-      <c r="Y115" s="9"/>
+      <c r="Y115" s="16">
+        <v>108.32086193530333</v>
+      </c>
       <c r="Z115" s="9"/>
       <c r="AA115" s="9"/>
       <c r="AB115" s="9"/>
@@ -8514,7 +8623,9 @@
       <c r="X116" s="16">
         <v>102.43551322786281</v>
       </c>
-      <c r="Y116" s="9"/>
+      <c r="Y116" s="16">
+        <v>107.42228249298545</v>
+      </c>
       <c r="Z116" s="9"/>
       <c r="AA116" s="9"/>
       <c r="AB116" s="9"/>
@@ -8660,7 +8771,9 @@
       <c r="X117" s="16">
         <v>104.71030663547903</v>
       </c>
-      <c r="Y117" s="9"/>
+      <c r="Y117" s="16">
+        <v>108.20475157916563</v>
+      </c>
       <c r="Z117" s="9"/>
       <c r="AA117" s="9"/>
       <c r="AB117" s="9"/>
@@ -8806,7 +8919,9 @@
       <c r="X118" s="16">
         <v>106.2898401781656</v>
       </c>
-      <c r="Y118" s="9"/>
+      <c r="Y118" s="16">
+        <v>109.70289057796111</v>
+      </c>
       <c r="Z118" s="9"/>
       <c r="AA118" s="9"/>
       <c r="AB118" s="9"/>
@@ -9050,7 +9165,9 @@
       <c r="X120" s="16">
         <v>102.38750401837112</v>
       </c>
-      <c r="Y120" s="9"/>
+      <c r="Y120" s="16">
+        <v>107.45914490153538</v>
+      </c>
       <c r="Z120" s="9"/>
       <c r="AA120" s="9"/>
       <c r="AB120" s="9"/>
@@ -9148,6 +9265,7 @@
       <c r="V121" s="12"/>
       <c r="W121" s="12"/>
       <c r="X121" s="12"/>
+      <c r="Y121" s="12"/>
     </row>
     <row r="122" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A122" s="13" t="s">
@@ -9166,7 +9284,7 @@
     </row>
     <row r="127" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A127" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="129" spans="1:96" x14ac:dyDescent="0.2">
@@ -9176,7 +9294,7 @@
     </row>
     <row r="130" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A130" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="131" spans="1:96" x14ac:dyDescent="0.2">
@@ -9211,6 +9329,7 @@
       <c r="V133" s="14"/>
       <c r="W133" s="14"/>
       <c r="X133" s="14"/>
+      <c r="Y133" s="14"/>
     </row>
     <row r="134" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A134" s="5"/>
@@ -9283,6 +9402,9 @@
       <c r="X134" s="15">
         <v>2022</v>
       </c>
+      <c r="Y134" s="15">
+        <v>2023</v>
+      </c>
     </row>
     <row r="135" spans="1:96" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A135" s="7"/>
@@ -9360,7 +9482,9 @@
       <c r="X136" s="17">
         <v>23.135835221927962</v>
       </c>
-      <c r="Y136" s="9"/>
+      <c r="Y136" s="17">
+        <v>19.586935249044892</v>
+      </c>
       <c r="Z136" s="9"/>
       <c r="AA136" s="9"/>
       <c r="AB136" s="9"/>
@@ -9506,7 +9630,9 @@
       <c r="X137" s="17">
         <v>6.6252777164229766</v>
       </c>
-      <c r="Y137" s="9"/>
+      <c r="Y137" s="17">
+        <v>5.0305250452963062</v>
+      </c>
       <c r="Z137" s="9"/>
       <c r="AA137" s="9"/>
       <c r="AB137" s="9"/>
@@ -9652,7 +9778,9 @@
       <c r="X138" s="17">
         <v>28.740528993110438</v>
       </c>
-      <c r="Y138" s="9"/>
+      <c r="Y138" s="17">
+        <v>40.271053016230873</v>
+      </c>
       <c r="Z138" s="9"/>
       <c r="AA138" s="9"/>
       <c r="AB138" s="9"/>
@@ -9798,7 +9926,9 @@
       <c r="X139" s="17">
         <v>1.3513300596494355</v>
       </c>
-      <c r="Y139" s="9"/>
+      <c r="Y139" s="17">
+        <v>1.0025323881453645</v>
+      </c>
       <c r="Z139" s="9"/>
       <c r="AA139" s="9"/>
       <c r="AB139" s="9"/>
@@ -9944,7 +10074,9 @@
       <c r="X140" s="17">
         <v>7.4993244366543106</v>
       </c>
-      <c r="Y140" s="9"/>
+      <c r="Y140" s="17">
+        <v>5.5632642025693375</v>
+      </c>
       <c r="Z140" s="9"/>
       <c r="AA140" s="9"/>
       <c r="AB140" s="9"/>
@@ -10090,7 +10222,9 @@
       <c r="X141" s="17">
         <v>24.450627998050535</v>
       </c>
-      <c r="Y141" s="9"/>
+      <c r="Y141" s="17">
+        <v>21.88315665212351</v>
+      </c>
       <c r="Z141" s="9"/>
       <c r="AA141" s="9"/>
       <c r="AB141" s="9"/>
@@ -10236,7 +10370,9 @@
       <c r="X142" s="17">
         <v>2.1797029255565361</v>
       </c>
-      <c r="Y142" s="9"/>
+      <c r="Y142" s="17">
+        <v>1.5036338892003653</v>
+      </c>
       <c r="Z142" s="9"/>
       <c r="AA142" s="9"/>
       <c r="AB142" s="9"/>
@@ -10382,7 +10518,9 @@
       <c r="X143" s="17">
         <v>6.0173726486278172</v>
       </c>
-      <c r="Y143" s="9"/>
+      <c r="Y143" s="17">
+        <v>5.1588995573893444</v>
+      </c>
       <c r="Z143" s="9"/>
       <c r="AA143" s="9"/>
       <c r="AB143" s="9"/>
@@ -10626,7 +10764,9 @@
       <c r="X145" s="16">
         <v>100</v>
       </c>
-      <c r="Y145" s="9"/>
+      <c r="Y145" s="16">
+        <v>100</v>
+      </c>
       <c r="Z145" s="9"/>
       <c r="AA145" s="9"/>
       <c r="AB145" s="9"/>
@@ -10724,6 +10864,7 @@
       <c r="V146" s="12"/>
       <c r="W146" s="12"/>
       <c r="X146" s="12"/>
+      <c r="Y146" s="12"/>
     </row>
     <row r="147" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A147" s="13" t="s">
@@ -10938,7 +11079,7 @@
     </row>
     <row r="152" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A152" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="154" spans="1:96" x14ac:dyDescent="0.2">
@@ -10948,7 +11089,7 @@
     </row>
     <row r="155" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A155" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="156" spans="1:96" x14ac:dyDescent="0.2">
@@ -10983,6 +11124,7 @@
       <c r="V158" s="14"/>
       <c r="W158" s="14"/>
       <c r="X158" s="14"/>
+      <c r="Y158" s="14"/>
     </row>
     <row r="159" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A159" s="5"/>
@@ -11055,6 +11197,9 @@
       <c r="X159" s="15">
         <v>2022</v>
       </c>
+      <c r="Y159" s="15">
+        <v>2023</v>
+      </c>
     </row>
     <row r="160" spans="1:96" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A160" s="7"/>
@@ -11132,7 +11277,9 @@
       <c r="X161" s="17">
         <v>22.939827091050315</v>
       </c>
-      <c r="Y161" s="9"/>
+      <c r="Y161" s="17">
+        <v>19.57078993138062</v>
+      </c>
       <c r="Z161" s="9"/>
       <c r="AA161" s="9"/>
       <c r="AB161" s="9"/>
@@ -11278,7 +11425,9 @@
       <c r="X162" s="17">
         <v>6.5763532593039038</v>
       </c>
-      <c r="Y162" s="9"/>
+      <c r="Y162" s="17">
+        <v>4.9817452364842474</v>
+      </c>
       <c r="Z162" s="9"/>
       <c r="AA162" s="9"/>
       <c r="AB162" s="9"/>
@@ -11424,7 +11573,9 @@
       <c r="X163" s="17">
         <v>29.410591328288572</v>
       </c>
-      <c r="Y163" s="9"/>
+      <c r="Y163" s="17">
+        <v>40.491765652564098</v>
+      </c>
       <c r="Z163" s="9"/>
       <c r="AA163" s="9"/>
       <c r="AB163" s="9"/>
@@ -11570,7 +11721,9 @@
       <c r="X164" s="17">
         <v>1.3422209575988371</v>
       </c>
-      <c r="Y164" s="9"/>
+      <c r="Y164" s="17">
+        <v>0.99936832054897551</v>
+      </c>
       <c r="Z164" s="9"/>
       <c r="AA164" s="9"/>
       <c r="AB164" s="9"/>
@@ -11716,7 +11869,9 @@
       <c r="X165" s="17">
         <v>7.364038327516977</v>
       </c>
-      <c r="Y165" s="9"/>
+      <c r="Y165" s="17">
+        <v>5.5190071735810644</v>
+      </c>
       <c r="Z165" s="9"/>
       <c r="AA165" s="9"/>
       <c r="AB165" s="9"/>
@@ -11862,7 +12017,9 @@
       <c r="X166" s="17">
         <v>24.439168541415111</v>
       </c>
-      <c r="Y166" s="9"/>
+      <c r="Y166" s="17">
+        <v>21.890665949469952</v>
+      </c>
       <c r="Z166" s="9"/>
       <c r="AA166" s="9"/>
       <c r="AB166" s="9"/>
@@ -12008,7 +12165,9 @@
       <c r="X167" s="17">
         <v>2.1313502865214309</v>
       </c>
-      <c r="Y167" s="9"/>
+      <c r="Y167" s="17">
+        <v>1.4932727964374592</v>
+      </c>
       <c r="Z167" s="9"/>
       <c r="AA167" s="9"/>
       <c r="AB167" s="9"/>
@@ -12154,7 +12313,9 @@
       <c r="X168" s="17">
         <v>5.796450208304849</v>
       </c>
-      <c r="Y168" s="9"/>
+      <c r="Y168" s="17">
+        <v>5.0533849395335739</v>
+      </c>
       <c r="Z168" s="9"/>
       <c r="AA168" s="9"/>
       <c r="AB168" s="9"/>
@@ -12398,7 +12559,9 @@
       <c r="X170" s="16">
         <v>100</v>
       </c>
-      <c r="Y170" s="9"/>
+      <c r="Y170" s="16">
+        <v>100</v>
+      </c>
       <c r="Z170" s="9"/>
       <c r="AA170" s="9"/>
       <c r="AB170" s="9"/>
@@ -12496,6 +12659,7 @@
       <c r="V171" s="12"/>
       <c r="W171" s="12"/>
       <c r="X171" s="12"/>
+      <c r="Y171" s="12"/>
     </row>
     <row r="172" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A172" s="13" t="s">
@@ -12703,9 +12867,9 @@
   <pageSetup paperSize="9" scale="50" orientation="landscape" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <rowBreaks count="3" manualBreakCount="3">
-    <brk id="50" max="23" man="1"/>
-    <brk id="100" max="23" man="1"/>
-    <brk id="124" max="23" man="1"/>
+    <brk id="50" max="24" man="1"/>
+    <brk id="100" max="24" man="1"/>
+    <brk id="124" max="24" man="1"/>
   </rowBreaks>
 </worksheet>
 </file>
--- a/Data/National Accounts/PSA-07IOS_2018PSNA_Ann.xlsx
+++ b/Data/National Accounts/PSA-07IOS_2018PSNA_Ann.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\Other computers\My Laptop (1)\6. MAS_Series\2018-base\NAP\NAP detailed series as of January 2024\Annl\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Other computers\My Laptop (1)\6. MAS_Series\2018-base\NAP\NAP detailed series as of April 2024\Annl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6017CAE4-1CCD-40E5-8F3A-0CE51C1D3469}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{139EB68C-2573-46F7-A3F7-857E61378AA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="975" windowWidth="28800" windowHeight="15225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="IOS" sheetId="1" r:id="rId1"/>
@@ -210,13 +210,13 @@
     <t>2022 - 2023</t>
   </si>
   <si>
-    <t>As of January 2024</t>
-  </si>
-  <si>
     <t>Annual 2000 to 2023</t>
   </si>
   <si>
     <t>Annual 2001 to 2023</t>
+  </si>
+  <si>
+    <t>As of April 2024</t>
   </si>
 </sst>
 </file>
@@ -642,51 +642,51 @@
   <dimension ref="A1:CR174"/>
   <sheetViews>
     <sheetView tabSelected="1" defaultGridColor="0" view="pageBreakPreview" colorId="22" zoomScale="55" zoomScaleNormal="100" zoomScaleSheetLayoutView="55" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="L3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="G3" activePane="bottomRight" state="frozen"/>
       <selection activeCell="C4" sqref="C4"/>
       <selection pane="topRight" activeCell="C4" sqref="C4"/>
       <selection pane="bottomLeft" activeCell="C4" sqref="C4"/>
       <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="7.77734375" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="7.81640625" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="42.6640625" style="1" customWidth="1"/>
-    <col min="2" max="25" width="12.33203125" style="1" customWidth="1"/>
-    <col min="26" max="16384" width="7.77734375" style="1"/>
+    <col min="1" max="1" width="42.6328125" style="1" customWidth="1"/>
+    <col min="2" max="25" width="12.36328125" style="1" customWidth="1"/>
+    <col min="26" max="16384" width="7.81640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:96" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:96" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="1:96" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="5" spans="1:96" x14ac:dyDescent="0.2">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="5" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="6" spans="1:96" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="7" spans="1:96" x14ac:dyDescent="0.2">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="7" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="9" spans="1:96" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A9" s="3"/>
       <c r="B9" s="4" t="s">
         <v>10</v>
@@ -715,7 +715,7 @@
       <c r="X9" s="4"/>
       <c r="Y9" s="4"/>
     </row>
-    <row r="10" spans="1:96" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A10" s="5"/>
       <c r="B10" s="6">
         <v>2000</v>
@@ -790,10 +790,10 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="11" spans="1:96" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:96" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="7"/>
     </row>
-    <row r="12" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>9</v>
       </c>
@@ -864,10 +864,10 @@
         <v>240540.42629823752</v>
       </c>
       <c r="X12" s="8">
-        <v>348782.0699750323</v>
+        <v>348085.76353051834</v>
       </c>
       <c r="Y12" s="8">
-        <v>389403.1478784607</v>
+        <v>386429.39225341514</v>
       </c>
       <c r="Z12" s="9"/>
       <c r="AA12" s="9"/>
@@ -941,7 +941,7 @@
       <c r="CQ12" s="9"/>
       <c r="CR12" s="9"/>
     </row>
-    <row r="13" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1012,10 +1012,10 @@
         <v>80576.391464339496</v>
       </c>
       <c r="X13" s="8">
-        <v>99878.740228203358</v>
+        <v>99845.491592369246</v>
       </c>
       <c r="Y13" s="8">
-        <v>100010.65828893974</v>
+        <v>100003.89282257679</v>
       </c>
       <c r="Z13" s="9"/>
       <c r="AA13" s="9"/>
@@ -1089,7 +1089,7 @@
       <c r="CQ13" s="9"/>
       <c r="CR13" s="9"/>
     </row>
-    <row r="14" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>7</v>
       </c>
@@ -1163,7 +1163,7 @@
         <v>433275.09459842835</v>
       </c>
       <c r="Y14" s="8">
-        <v>800619.11746327742</v>
+        <v>802332.90871450142</v>
       </c>
       <c r="Z14" s="9"/>
       <c r="AA14" s="9"/>
@@ -1237,7 +1237,7 @@
       <c r="CQ14" s="9"/>
       <c r="CR14" s="9"/>
     </row>
-    <row r="15" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>6</v>
       </c>
@@ -1385,7 +1385,7 @@
       <c r="CQ15" s="9"/>
       <c r="CR15" s="9"/>
     </row>
-    <row r="16" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>5</v>
       </c>
@@ -1459,7 +1459,7 @@
         <v>113055.34791981746</v>
       </c>
       <c r="Y16" s="8">
-        <v>110601.9173196425</v>
+        <v>109934.14036255066</v>
       </c>
       <c r="Z16" s="9"/>
       <c r="AA16" s="9"/>
@@ -1533,7 +1533,7 @@
       <c r="CQ16" s="9"/>
       <c r="CR16" s="9"/>
     </row>
-    <row r="17" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>4</v>
       </c>
@@ -1607,7 +1607,7 @@
         <v>368603.10265638609</v>
       </c>
       <c r="Y17" s="8">
-        <v>435053.77321701701</v>
+        <v>439830.64230279956</v>
       </c>
       <c r="Z17" s="9"/>
       <c r="AA17" s="9"/>
@@ -1681,7 +1681,7 @@
       <c r="CQ17" s="9"/>
       <c r="CR17" s="9"/>
     </row>
-    <row r="18" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>3</v>
       </c>
@@ -1755,7 +1755,7 @@
         <v>32859.90287420839</v>
       </c>
       <c r="Y18" s="8">
-        <v>29893.383638969564</v>
+        <v>27613.513617339362</v>
       </c>
       <c r="Z18" s="9"/>
       <c r="AA18" s="9"/>
@@ -1829,7 +1829,7 @@
       <c r="CQ18" s="9"/>
       <c r="CR18" s="9"/>
     </row>
-    <row r="19" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>2</v>
       </c>
@@ -1900,10 +1900,10 @@
         <v>38115.6236784836</v>
       </c>
       <c r="X19" s="8">
-        <v>90714.32555027763</v>
+        <v>88559.647590157721</v>
       </c>
       <c r="Y19" s="8">
-        <v>102562.84108225492</v>
+        <v>99436.06034308768</v>
       </c>
       <c r="Z19" s="9"/>
       <c r="AA19" s="9"/>
@@ -1977,7 +1977,7 @@
       <c r="CQ19" s="9"/>
       <c r="CR19" s="9"/>
     </row>
-    <row r="20" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20"/>
       <c r="B20" s="9"/>
       <c r="C20" s="9"/>
@@ -2075,7 +2075,7 @@
       <c r="CQ20" s="9"/>
       <c r="CR20" s="9"/>
     </row>
-    <row r="21" spans="1:96" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A21" s="10" t="s">
         <v>1</v>
       </c>
@@ -2146,10 +2146,10 @@
         <v>1027315.4193837127</v>
       </c>
       <c r="X21" s="11">
-        <v>1507540.4308051926</v>
+        <v>1504656.1977647247</v>
       </c>
       <c r="Y21" s="11">
-        <v>1988075.9441293858</v>
+        <v>1985511.6556570944</v>
       </c>
       <c r="Z21" s="9"/>
       <c r="AA21" s="9"/>
@@ -2223,7 +2223,7 @@
       <c r="CQ21" s="9"/>
       <c r="CR21" s="9"/>
     </row>
-    <row r="22" spans="1:96" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:96" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="12"/>
       <c r="B22" s="12"/>
       <c r="C22" s="12"/>
@@ -2250,12 +2250,12 @@
       <c r="X22" s="12"/>
       <c r="Y22" s="12"/>
     </row>
-    <row r="23" spans="1:96" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A23" s="13" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24"/>
       <c r="B24" s="9"/>
       <c r="C24" s="9"/>
@@ -2353,7 +2353,7 @@
       <c r="CQ24" s="9"/>
       <c r="CR24" s="9"/>
     </row>
-    <row r="25" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25"/>
       <c r="B25" s="9"/>
       <c r="C25" s="9"/>
@@ -2451,37 +2451,37 @@
       <c r="CQ25" s="9"/>
       <c r="CR25" s="9"/>
     </row>
-    <row r="26" spans="1:96" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="27" spans="1:96" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="28" spans="1:96" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="30" spans="1:96" x14ac:dyDescent="0.2">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="30" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="31" spans="1:96" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="32" spans="1:96" x14ac:dyDescent="0.2">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="32" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="34" spans="1:96" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A34" s="3"/>
       <c r="B34" s="14" t="s">
         <v>10</v>
@@ -2510,7 +2510,7 @@
       <c r="X34" s="14"/>
       <c r="Y34" s="14"/>
     </row>
-    <row r="35" spans="1:96" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A35" s="5"/>
       <c r="B35" s="15">
         <v>2000</v>
@@ -2585,10 +2585,10 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="36" spans="1:96" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:96" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="7"/>
     </row>
-    <row r="37" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>9</v>
       </c>
@@ -2659,10 +2659,10 @@
         <v>234523.96229718017</v>
       </c>
       <c r="X37" s="8">
-        <v>337763.06148876855</v>
+        <v>337105.14452912047</v>
       </c>
       <c r="Y37" s="8">
-        <v>362074.5047416758</v>
+        <v>356411.77721551066</v>
       </c>
       <c r="Z37" s="9"/>
       <c r="AA37" s="9"/>
@@ -2736,7 +2736,7 @@
       <c r="CQ37" s="9"/>
       <c r="CR37" s="9"/>
     </row>
-    <row r="38" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>8</v>
       </c>
@@ -2807,10 +2807,10 @@
         <v>78968.002731282031</v>
       </c>
       <c r="X38" s="8">
-        <v>96829.378943345218</v>
+        <v>96776.782707267252</v>
       </c>
       <c r="Y38" s="8">
-        <v>92166.077382344592</v>
+        <v>92140.34468930916</v>
       </c>
       <c r="Z38" s="9"/>
       <c r="AA38" s="9"/>
@@ -2884,7 +2884,7 @@
       <c r="CQ38" s="9"/>
       <c r="CR38" s="9"/>
     </row>
-    <row r="39" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>7</v>
       </c>
@@ -2958,7 +2958,7 @@
         <v>433037.7612616499</v>
       </c>
       <c r="Y39" s="8">
-        <v>749128.47392327432</v>
+        <v>749090.6990654273</v>
       </c>
       <c r="Z39" s="9"/>
       <c r="AA39" s="9"/>
@@ -3032,7 +3032,7 @@
       <c r="CQ39" s="9"/>
       <c r="CR39" s="9"/>
     </row>
-    <row r="40" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>6</v>
       </c>
@@ -3180,7 +3180,7 @@
       <c r="CQ40" s="9"/>
       <c r="CR40" s="9"/>
     </row>
-    <row r="41" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>5</v>
       </c>
@@ -3254,7 +3254,7 @@
         <v>108427.15250426423</v>
       </c>
       <c r="Y41" s="8">
-        <v>102105.83201018246</v>
+        <v>101322.31213129265</v>
       </c>
       <c r="Z41" s="9"/>
       <c r="AA41" s="9"/>
@@ -3328,7 +3328,7 @@
       <c r="CQ41" s="9"/>
       <c r="CR41" s="9"/>
     </row>
-    <row r="42" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>4</v>
       </c>
@@ -3402,7 +3402,7 @@
         <v>359839.17202274018</v>
       </c>
       <c r="Y42" s="8">
-        <v>404993.9762222289</v>
+        <v>408379.26542728528</v>
       </c>
       <c r="Z42" s="9"/>
       <c r="AA42" s="9"/>
@@ -3476,7 +3476,7 @@
       <c r="CQ42" s="9"/>
       <c r="CR42" s="9"/>
     </row>
-    <row r="43" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>3</v>
       </c>
@@ -3550,7 +3550,7 @@
         <v>31381.727291279327</v>
       </c>
       <c r="Y43" s="8">
-        <v>27626.682934620228</v>
+        <v>25483.428356030086</v>
       </c>
       <c r="Z43" s="9"/>
       <c r="AA43" s="9"/>
@@ -3624,7 +3624,7 @@
       <c r="CQ43" s="9"/>
       <c r="CR43" s="9"/>
     </row>
-    <row r="44" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>2</v>
       </c>
@@ -3695,10 +3695,10 @@
         <v>37209.2706729161</v>
       </c>
       <c r="X44" s="8">
-        <v>85346.186802256998</v>
+        <v>83236.567475496529</v>
       </c>
       <c r="Y44" s="8">
-        <v>93491.466397932265</v>
+        <v>88692.312006931927</v>
       </c>
       <c r="Z44" s="9"/>
       <c r="AA44" s="9"/>
@@ -3772,7 +3772,7 @@
       <c r="CQ44" s="9"/>
       <c r="CR44" s="9"/>
     </row>
-    <row r="45" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45"/>
       <c r="B45" s="9"/>
       <c r="C45" s="9"/>
@@ -3870,7 +3870,7 @@
       <c r="CQ45" s="9"/>
       <c r="CR45" s="9"/>
     </row>
-    <row r="46" spans="1:96" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A46" s="10" t="s">
         <v>1</v>
       </c>
@@ -3941,10 +3941,10 @@
         <v>1016157.8575431852</v>
       </c>
       <c r="X46" s="11">
-        <v>1472387.1289358696</v>
+        <v>1469566.9964133829</v>
       </c>
       <c r="Y46" s="11">
-        <v>1850076.0879411949</v>
+        <v>1840009.2132207232</v>
       </c>
       <c r="Z46" s="9"/>
       <c r="AA46" s="9"/>
@@ -4018,7 +4018,7 @@
       <c r="CQ46" s="9"/>
       <c r="CR46" s="9"/>
     </row>
-    <row r="47" spans="1:96" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:96" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="12"/>
       <c r="B47" s="12"/>
       <c r="C47" s="12"/>
@@ -4045,12 +4045,12 @@
       <c r="X47" s="12"/>
       <c r="Y47" s="12"/>
     </row>
-    <row r="48" spans="1:96" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A48" s="13" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49"/>
       <c r="B49" s="9"/>
       <c r="C49" s="9"/>
@@ -4148,7 +4148,7 @@
       <c r="CQ49" s="9"/>
       <c r="CR49" s="9"/>
     </row>
-    <row r="50" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50"/>
       <c r="B50" s="9"/>
       <c r="C50" s="9"/>
@@ -4246,37 +4246,37 @@
       <c r="CQ50" s="9"/>
       <c r="CR50" s="9"/>
     </row>
-    <row r="51" spans="1:96" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="52" spans="1:96" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="53" spans="1:96" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="55" spans="1:96" x14ac:dyDescent="0.2">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="55" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="56" spans="1:96" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="57" spans="1:96" x14ac:dyDescent="0.2">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="57" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="59" spans="1:96" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A59" s="3"/>
       <c r="B59" s="14" t="s">
         <v>10</v>
@@ -4305,7 +4305,7 @@
       <c r="X59" s="14"/>
       <c r="Y59" s="14"/>
     </row>
-    <row r="60" spans="1:96" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A60" s="5"/>
       <c r="B60" s="15" t="s">
         <v>37</v>
@@ -4378,10 +4378,10 @@
       </c>
       <c r="Y60" s="15"/>
     </row>
-    <row r="61" spans="1:96" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:96" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="7"/>
     </row>
-    <row r="62" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>9</v>
       </c>
@@ -4449,10 +4449,10 @@
         <v>20.916028824554118</v>
       </c>
       <c r="W62" s="16">
-        <v>44.99935638369152</v>
+        <v>44.709880533320074</v>
       </c>
       <c r="X62" s="16">
-        <v>11.646549923376597</v>
+        <v>11.01556936255885</v>
       </c>
       <c r="Y62" s="16"/>
       <c r="Z62" s="9"/>
@@ -4522,7 +4522,7 @@
       <c r="CL62" s="9"/>
       <c r="CM62" s="9"/>
     </row>
-    <row r="63" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>8</v>
       </c>
@@ -4590,10 +4590,10 @@
         <v>34.380995612929411</v>
       </c>
       <c r="W63" s="16">
-        <v>23.955340284016643</v>
+        <v>23.914076788307952</v>
       </c>
       <c r="X63" s="16">
-        <v>0.13207821848271806</v>
+        <v>0.15864635216003364</v>
       </c>
       <c r="Y63" s="16"/>
       <c r="Z63" s="9"/>
@@ -4663,7 +4663,7 @@
       <c r="CL63" s="9"/>
       <c r="CM63" s="9"/>
     </row>
-    <row r="64" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>7</v>
       </c>
@@ -4734,7 +4734,7 @@
         <v>72.104662780201551</v>
       </c>
       <c r="X64" s="16">
-        <v>84.783092184265485</v>
+        <v>85.178635632894242</v>
       </c>
       <c r="Y64" s="16"/>
       <c r="Z64" s="9"/>
@@ -4804,7 +4804,7 @@
       <c r="CL64" s="9"/>
       <c r="CM64" s="9"/>
     </row>
-    <row r="65" spans="1:91" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:91" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>6</v>
       </c>
@@ -4945,7 +4945,7 @@
       <c r="CL65" s="9"/>
       <c r="CM65" s="9"/>
     </row>
-    <row r="66" spans="1:91" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:91" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>5</v>
       </c>
@@ -5016,7 +5016,7 @@
         <v>8.2605633653187454</v>
       </c>
       <c r="X66" s="16">
-        <v>-2.1701145901696037</v>
+        <v>-2.7607783397212273</v>
       </c>
       <c r="Y66" s="16"/>
       <c r="Z66" s="9"/>
@@ -5086,7 +5086,7 @@
       <c r="CL66" s="9"/>
       <c r="CM66" s="9"/>
     </row>
-    <row r="67" spans="1:91" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:91" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
         <v>4</v>
       </c>
@@ -5157,7 +5157,7 @@
         <v>42.07995447153337</v>
       </c>
       <c r="X67" s="16">
-        <v>18.027702447902769</v>
+        <v>19.323640830232563</v>
       </c>
       <c r="Y67" s="16"/>
       <c r="Z67" s="9"/>
@@ -5227,7 +5227,7 @@
       <c r="CL67" s="9"/>
       <c r="CM67" s="9"/>
     </row>
-    <row r="68" spans="1:91" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:91" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>3</v>
       </c>
@@ -5298,7 +5298,7 @@
         <v>1.8393695005497648</v>
       </c>
       <c r="X68" s="16">
-        <v>-9.027778464820841</v>
+        <v>-15.965930504885634</v>
       </c>
       <c r="Y68" s="16"/>
       <c r="Z68" s="9"/>
@@ -5368,7 +5368,7 @@
       <c r="CL68" s="9"/>
       <c r="CM68" s="9"/>
     </row>
-    <row r="69" spans="1:91" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:91" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
         <v>2</v>
       </c>
@@ -5436,10 +5436,10 @@
         <v>-12.82967735112301</v>
       </c>
       <c r="W69" s="16">
-        <v>137.99774684386489</v>
+        <v>132.34474224319186</v>
       </c>
       <c r="X69" s="16">
-        <v>13.061349968820906</v>
+        <v>12.281454419584591</v>
       </c>
       <c r="Y69" s="16"/>
       <c r="Z69" s="9"/>
@@ -5509,7 +5509,7 @@
       <c r="CL69" s="9"/>
       <c r="CM69" s="9"/>
     </row>
-    <row r="70" spans="1:91" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:91" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70"/>
       <c r="B70" s="9"/>
       <c r="C70" s="9"/>
@@ -5602,7 +5602,7 @@
       <c r="CL70" s="9"/>
       <c r="CM70" s="9"/>
     </row>
-    <row r="71" spans="1:91" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:91" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="10" t="s">
         <v>1</v>
       </c>
@@ -5670,10 +5670,10 @@
         <v>-8.927971499628228</v>
       </c>
       <c r="W71" s="16">
-        <v>46.745624796478495</v>
+        <v>46.464870416076224</v>
       </c>
       <c r="X71" s="16">
-        <v>31.875464399156073</v>
+        <v>31.957829210866578</v>
       </c>
       <c r="Y71" s="16"/>
       <c r="Z71" s="9"/>
@@ -5743,7 +5743,7 @@
       <c r="CL71" s="9"/>
       <c r="CM71" s="9"/>
     </row>
-    <row r="72" spans="1:91" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:91" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="12"/>
       <c r="B72" s="12"/>
       <c r="C72" s="12"/>
@@ -5770,12 +5770,12 @@
       <c r="X72" s="12"/>
       <c r="Y72" s="12"/>
     </row>
-    <row r="73" spans="1:91" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A73" s="13" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:91" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:91" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74"/>
       <c r="B74" s="9"/>
       <c r="C74" s="9"/>
@@ -5868,7 +5868,7 @@
       <c r="CL74" s="9"/>
       <c r="CM74" s="9"/>
     </row>
-    <row r="75" spans="1:91" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:91" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75"/>
       <c r="B75" s="9"/>
       <c r="C75" s="9"/>
@@ -5961,37 +5961,37 @@
       <c r="CL75" s="9"/>
       <c r="CM75" s="9"/>
     </row>
-    <row r="76" spans="1:91" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="77" spans="1:91" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="78" spans="1:91" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="80" spans="1:91" x14ac:dyDescent="0.2">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="80" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="81" spans="1:91" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="82" spans="1:91" x14ac:dyDescent="0.2">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="82" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="84" spans="1:91" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A84" s="3"/>
       <c r="B84" s="14" t="s">
         <v>10</v>
@@ -6020,7 +6020,7 @@
       <c r="X84" s="14"/>
       <c r="Y84" s="14"/>
     </row>
-    <row r="85" spans="1:91" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A85" s="5"/>
       <c r="B85" s="15" t="s">
         <v>37</v>
@@ -6093,10 +6093,10 @@
       </c>
       <c r="Y85" s="15"/>
     </row>
-    <row r="86" spans="1:91" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:91" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="7"/>
     </row>
-    <row r="87" spans="1:91" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:91" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
         <v>9</v>
       </c>
@@ -6164,10 +6164,10 @@
         <v>15.234004428441452</v>
       </c>
       <c r="W87" s="16">
-        <v>44.020703974277723</v>
+        <v>43.740171037172388</v>
       </c>
       <c r="X87" s="16">
-        <v>7.1977803451179483</v>
+        <v>5.7271842330849978</v>
       </c>
       <c r="Y87" s="16"/>
       <c r="Z87" s="9"/>
@@ -6237,7 +6237,7 @@
       <c r="CL87" s="9"/>
       <c r="CM87" s="9"/>
     </row>
-    <row r="88" spans="1:91" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:91" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
         <v>8</v>
       </c>
@@ -6305,10 +6305,10 @@
         <v>32.726854169931386</v>
       </c>
       <c r="W88" s="16">
-        <v>22.618498118590068</v>
+        <v>22.551893627835824</v>
       </c>
       <c r="X88" s="16">
-        <v>-4.8159986275747144</v>
+        <v>-4.7908577742065432</v>
       </c>
       <c r="Y88" s="16"/>
       <c r="Z88" s="9"/>
@@ -6378,7 +6378,7 @@
       <c r="CL88" s="9"/>
       <c r="CM88" s="9"/>
     </row>
-    <row r="89" spans="1:91" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:91" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
         <v>7</v>
       </c>
@@ -6449,7 +6449,7 @@
         <v>69.815077382407537</v>
       </c>
       <c r="X89" s="16">
-        <v>72.993798910445634</v>
+        <v>72.985075685538675</v>
       </c>
       <c r="Y89" s="16"/>
       <c r="Z89" s="9"/>
@@ -6519,7 +6519,7 @@
       <c r="CL89" s="9"/>
       <c r="CM89" s="9"/>
     </row>
-    <row r="90" spans="1:91" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:91" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
         <v>6</v>
       </c>
@@ -6660,7 +6660,7 @@
       <c r="CL90" s="9"/>
       <c r="CM90" s="9"/>
     </row>
-    <row r="91" spans="1:91" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:91" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
         <v>5</v>
       </c>
@@ -6731,7 +6731,7 @@
         <v>6.6410209602822476</v>
       </c>
       <c r="X91" s="16">
-        <v>-5.8300161427121964</v>
+        <v>-6.55263945319615</v>
       </c>
       <c r="Y91" s="16"/>
       <c r="Z91" s="9"/>
@@ -6801,7 +6801,7 @@
       <c r="CL91" s="9"/>
       <c r="CM91" s="9"/>
     </row>
-    <row r="92" spans="1:91" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:91" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
         <v>4</v>
       </c>
@@ -6872,7 +6872,7 @@
         <v>39.535781761237189</v>
       </c>
       <c r="X92" s="16">
-        <v>12.548607186277977</v>
+        <v>13.489385586257853</v>
       </c>
       <c r="Y92" s="16"/>
       <c r="Z92" s="9"/>
@@ -6942,7 +6942,7 @@
       <c r="CL92" s="9"/>
       <c r="CM92" s="9"/>
     </row>
-    <row r="93" spans="1:91" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:91" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
         <v>3</v>
       </c>
@@ -7013,7 +7013,7 @@
         <v>1.305959375232348</v>
       </c>
       <c r="X93" s="16">
-        <v>-11.965703231710222</v>
+        <v>-18.795329143301558</v>
       </c>
       <c r="Y93" s="16"/>
       <c r="Z93" s="9"/>
@@ -7083,7 +7083,7 @@
       <c r="CL93" s="9"/>
       <c r="CM93" s="9"/>
     </row>
-    <row r="94" spans="1:91" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:91" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
         <v>2</v>
       </c>
@@ -7151,10 +7151,10 @@
         <v>-13.65023988376683</v>
       </c>
       <c r="W94" s="16">
-        <v>129.36807214654391</v>
+        <v>123.69846538293694</v>
       </c>
       <c r="X94" s="16">
-        <v>9.5438119743386949</v>
+        <v>6.5545044646891313</v>
       </c>
       <c r="Y94" s="16"/>
       <c r="Z94" s="9"/>
@@ -7224,7 +7224,7 @@
       <c r="CL94" s="9"/>
       <c r="CM94" s="9"/>
     </row>
-    <row r="95" spans="1:91" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:91" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95"/>
       <c r="B95" s="9"/>
       <c r="C95" s="9"/>
@@ -7317,7 +7317,7 @@
       <c r="CL95" s="9"/>
       <c r="CM95" s="9"/>
     </row>
-    <row r="96" spans="1:91" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:91" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="10" t="s">
         <v>1</v>
       </c>
@@ -7385,10 +7385,10 @@
         <v>-9.2740190706500698</v>
       </c>
       <c r="W96" s="16">
-        <v>44.89748005253162</v>
+        <v>44.619951073982463</v>
       </c>
       <c r="X96" s="16">
-        <v>25.651471109930895</v>
+        <v>25.207575953422975</v>
       </c>
       <c r="Y96" s="16"/>
       <c r="Z96" s="9"/>
@@ -7458,7 +7458,7 @@
       <c r="CL96" s="9"/>
       <c r="CM96" s="9"/>
     </row>
-    <row r="97" spans="1:96" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:96" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="12"/>
       <c r="B97" s="12"/>
       <c r="C97" s="12"/>
@@ -7485,12 +7485,12 @@
       <c r="X97" s="12"/>
       <c r="Y97" s="12"/>
     </row>
-    <row r="98" spans="1:96" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A98" s="13" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99"/>
       <c r="B99" s="9"/>
       <c r="C99" s="9"/>
@@ -7584,7 +7584,7 @@
       <c r="CM99" s="9"/>
       <c r="CN99" s="9"/>
     </row>
-    <row r="100" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100"/>
       <c r="B100" s="9"/>
       <c r="C100" s="9"/>
@@ -7678,32 +7678,32 @@
       <c r="CM100" s="9"/>
       <c r="CN100" s="9"/>
     </row>
-    <row r="101" spans="1:96" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="102" spans="1:96" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="104" spans="1:96" x14ac:dyDescent="0.2">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="104" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="105" spans="1:96" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="106" spans="1:96" x14ac:dyDescent="0.2">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="106" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="108" spans="1:96" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A108" s="3"/>
       <c r="B108" s="14" t="s">
         <v>10</v>
@@ -7732,7 +7732,7 @@
       <c r="X108" s="14"/>
       <c r="Y108" s="14"/>
     </row>
-    <row r="109" spans="1:96" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A109" s="5"/>
       <c r="B109" s="15">
         <v>2000</v>
@@ -7807,10 +7807,10 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="110" spans="1:96" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:96" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="7"/>
     </row>
-    <row r="111" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
         <v>9</v>
       </c>
@@ -7881,10 +7881,10 @@
         <v>102.5653941465621</v>
       </c>
       <c r="X111" s="16">
-        <v>103.26234859362503</v>
+        <v>103.25732762599513</v>
       </c>
       <c r="Y111" s="16">
-        <v>107.54779548929652</v>
+        <v>108.42217259834088</v>
       </c>
       <c r="Z111" s="9"/>
       <c r="AA111" s="9"/>
@@ -7958,7 +7958,7 @@
       <c r="CQ111" s="9"/>
       <c r="CR111" s="9"/>
     </row>
-    <row r="112" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
         <v>8</v>
       </c>
@@ -8029,10 +8029,10 @@
         <v>102.03676005144844</v>
       </c>
       <c r="X112" s="16">
-        <v>103.14921082643968</v>
+        <v>103.17091434459471</v>
       </c>
       <c r="Y112" s="16">
-        <v>108.51135377504724</v>
+        <v>108.5343159500683</v>
       </c>
       <c r="Z112" s="9"/>
       <c r="AA112" s="9"/>
@@ -8106,7 +8106,7 @@
       <c r="CQ112" s="9"/>
       <c r="CR112" s="9"/>
     </row>
-    <row r="113" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
         <v>7</v>
       </c>
@@ -8180,7 +8180,7 @@
         <v>100.05480661457491</v>
       </c>
       <c r="Y113" s="16">
-        <v>106.87340627574073</v>
+        <v>107.10757852360196</v>
       </c>
       <c r="Z113" s="9"/>
       <c r="AA113" s="9"/>
@@ -8254,7 +8254,7 @@
       <c r="CQ113" s="9"/>
       <c r="CR113" s="9"/>
     </row>
-    <row r="114" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
         <v>6</v>
       </c>
@@ -8402,7 +8402,7 @@
       <c r="CQ114" s="9"/>
       <c r="CR114" s="9"/>
     </row>
-    <row r="115" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
         <v>5</v>
       </c>
@@ -8476,7 +8476,7 @@
         <v>104.26848377796438</v>
       </c>
       <c r="Y115" s="16">
-        <v>108.32086193530333</v>
+        <v>108.49943911672571</v>
       </c>
       <c r="Z115" s="9"/>
       <c r="AA115" s="9"/>
@@ -8550,7 +8550,7 @@
       <c r="CQ115" s="9"/>
       <c r="CR115" s="9"/>
     </row>
-    <row r="116" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
         <v>4</v>
       </c>
@@ -8624,7 +8624,7 @@
         <v>102.43551322786281</v>
       </c>
       <c r="Y116" s="16">
-        <v>107.42228249298545</v>
+        <v>107.70151169222729</v>
       </c>
       <c r="Z116" s="9"/>
       <c r="AA116" s="9"/>
@@ -8698,7 +8698,7 @@
       <c r="CQ116" s="9"/>
       <c r="CR116" s="9"/>
     </row>
-    <row r="117" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
         <v>3</v>
       </c>
@@ -8772,7 +8772,7 @@
         <v>104.71030663547903</v>
       </c>
       <c r="Y117" s="16">
-        <v>108.20475157916563</v>
+        <v>108.35870759440121</v>
       </c>
       <c r="Z117" s="9"/>
       <c r="AA117" s="9"/>
@@ -8846,7 +8846,7 @@
       <c r="CQ117" s="9"/>
       <c r="CR117" s="9"/>
     </row>
-    <row r="118" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
         <v>2</v>
       </c>
@@ -8917,10 +8917,10 @@
         <v>102.43582577453532</v>
       </c>
       <c r="X118" s="16">
-        <v>106.2898401781656</v>
+        <v>106.39512209129505</v>
       </c>
       <c r="Y118" s="16">
-        <v>109.70289057796111</v>
+        <v>112.11350577411497</v>
       </c>
       <c r="Z118" s="9"/>
       <c r="AA118" s="9"/>
@@ -8994,7 +8994,7 @@
       <c r="CQ118" s="9"/>
       <c r="CR118" s="9"/>
     </row>
-    <row r="119" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119"/>
       <c r="B119" s="9"/>
       <c r="C119" s="9"/>
@@ -9092,7 +9092,7 @@
       <c r="CQ119" s="9"/>
       <c r="CR119" s="9"/>
     </row>
-    <row r="120" spans="1:96" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:96" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="10" t="s">
         <v>1</v>
       </c>
@@ -9163,10 +9163,10 @@
         <v>101.0980146202386</v>
       </c>
       <c r="X120" s="16">
-        <v>102.38750401837112</v>
+        <v>102.38772382865022</v>
       </c>
       <c r="Y120" s="16">
-        <v>107.45914490153538</v>
+        <v>107.90770184143187</v>
       </c>
       <c r="Z120" s="9"/>
       <c r="AA120" s="9"/>
@@ -9240,7 +9240,7 @@
       <c r="CQ120" s="9"/>
       <c r="CR120" s="9"/>
     </row>
-    <row r="121" spans="1:96" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:96" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="12"/>
       <c r="B121" s="12"/>
       <c r="C121" s="12"/>
@@ -9267,42 +9267,42 @@
       <c r="X121" s="12"/>
       <c r="Y121" s="12"/>
     </row>
-    <row r="122" spans="1:96" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A122" s="13" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:96" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="126" spans="1:96" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="127" spans="1:96" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="129" spans="1:96" x14ac:dyDescent="0.2">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="129" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A129" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="130" spans="1:96" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="131" spans="1:96" x14ac:dyDescent="0.2">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="131" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A131" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="133" spans="1:96" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A133" s="3"/>
       <c r="B133" s="14" t="s">
         <v>10</v>
@@ -9331,7 +9331,7 @@
       <c r="X133" s="14"/>
       <c r="Y133" s="14"/>
     </row>
-    <row r="134" spans="1:96" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A134" s="5"/>
       <c r="B134" s="15">
         <v>2000</v>
@@ -9406,10 +9406,10 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="135" spans="1:96" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:96" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" s="7"/>
     </row>
-    <row r="136" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" s="1" t="s">
         <v>9</v>
       </c>
@@ -9480,10 +9480,10 @@
         <v>23.414466653536447</v>
       </c>
       <c r="X136" s="17">
-        <v>23.135835221927962</v>
+        <v>23.133906871724243</v>
       </c>
       <c r="Y136" s="17">
-        <v>19.586935249044892</v>
+        <v>19.462459016667339</v>
       </c>
       <c r="Z136" s="9"/>
       <c r="AA136" s="9"/>
@@ -9557,7 +9557,7 @@
       <c r="CQ136" s="9"/>
       <c r="CR136" s="9"/>
     </row>
-    <row r="137" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" s="1" t="s">
         <v>8</v>
       </c>
@@ -9628,10 +9628,10 @@
         <v>7.8433935618991617</v>
       </c>
       <c r="X137" s="17">
-        <v>6.6252777164229766</v>
+        <v>6.6357678080013844</v>
       </c>
       <c r="Y137" s="17">
-        <v>5.0305250452963062</v>
+        <v>5.0366812271107539</v>
       </c>
       <c r="Z137" s="9"/>
       <c r="AA137" s="9"/>
@@ -9705,7 +9705,7 @@
       <c r="CQ137" s="9"/>
       <c r="CR137" s="9"/>
     </row>
-    <row r="138" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" s="1" t="s">
         <v>7</v>
       </c>
@@ -9776,10 +9776,10 @@
         <v>24.505709583601536</v>
       </c>
       <c r="X138" s="17">
-        <v>28.740528993110438</v>
+        <v>28.795620902774317</v>
       </c>
       <c r="Y138" s="17">
-        <v>40.271053016230873</v>
+        <v>40.409377926767881</v>
       </c>
       <c r="Z138" s="9"/>
       <c r="AA138" s="9"/>
@@ -9853,7 +9853,7 @@
       <c r="CQ138" s="9"/>
       <c r="CR138" s="9"/>
     </row>
-    <row r="139" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" s="1" t="s">
         <v>6</v>
       </c>
@@ -9924,10 +9924,10 @@
         <v>1.9665953360456592</v>
       </c>
       <c r="X139" s="17">
-        <v>1.3513300596494355</v>
+        <v>1.3539203861389075</v>
       </c>
       <c r="Y139" s="17">
-        <v>1.0025323881453645</v>
+        <v>1.0038271588099916</v>
       </c>
       <c r="Z139" s="9"/>
       <c r="AA139" s="9"/>
@@ -10001,7 +10001,7 @@
       <c r="CQ139" s="9"/>
       <c r="CR139" s="9"/>
     </row>
-    <row r="140" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A140" s="1" t="s">
         <v>5</v>
       </c>
@@ -10072,10 +10072,10 @@
         <v>10.165225598307561</v>
       </c>
       <c r="X140" s="17">
-        <v>7.4993244366543106</v>
+        <v>7.51369968021727</v>
       </c>
       <c r="Y140" s="17">
-        <v>5.5632642025693375</v>
+        <v>5.5368166713767559</v>
       </c>
       <c r="Z140" s="9"/>
       <c r="AA140" s="9"/>
@@ -10149,7 +10149,7 @@
       <c r="CQ140" s="9"/>
       <c r="CR140" s="9"/>
     </row>
-    <row r="141" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141" s="1" t="s">
         <v>4</v>
       </c>
@@ -10220,10 +10220,10 @@
         <v>25.253546114832687</v>
       </c>
       <c r="X141" s="17">
-        <v>24.450627998050535</v>
+        <v>24.497496717454297</v>
       </c>
       <c r="Y141" s="17">
-        <v>21.88315665212351</v>
+        <v>22.152005053691816</v>
       </c>
       <c r="Z141" s="9"/>
       <c r="AA141" s="9"/>
@@ -10297,7 +10297,7 @@
       <c r="CQ141" s="9"/>
       <c r="CR141" s="9"/>
     </row>
-    <row r="142" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A142" s="1" t="s">
         <v>3</v>
       </c>
@@ -10368,10 +10368,10 @@
         <v>3.1408468969338932</v>
       </c>
       <c r="X142" s="17">
-        <v>2.1797029255565361</v>
+        <v>2.1838811366360069</v>
       </c>
       <c r="Y142" s="17">
-        <v>1.5036338892003653</v>
+        <v>1.3907505170600882</v>
       </c>
       <c r="Z142" s="9"/>
       <c r="AA142" s="9"/>
@@ -10445,7 +10445,7 @@
       <c r="CQ142" s="9"/>
       <c r="CR142" s="9"/>
     </row>
-    <row r="143" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A143" s="1" t="s">
         <v>2</v>
       </c>
@@ -10516,10 +10516,10 @@
         <v>3.7102162548430537</v>
       </c>
       <c r="X143" s="17">
-        <v>6.0173726486278172</v>
+        <v>5.8857064970535768</v>
       </c>
       <c r="Y143" s="17">
-        <v>5.1588995573893444</v>
+        <v>5.0080824285153769</v>
       </c>
       <c r="Z143" s="9"/>
       <c r="AA143" s="9"/>
@@ -10593,7 +10593,7 @@
       <c r="CQ143" s="9"/>
       <c r="CR143" s="9"/>
     </row>
-    <row r="144" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144"/>
       <c r="B144" s="9"/>
       <c r="C144" s="9"/>
@@ -10691,7 +10691,7 @@
       <c r="CQ144" s="9"/>
       <c r="CR144" s="9"/>
     </row>
-    <row r="145" spans="1:96" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:96" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A145" s="10" t="s">
         <v>1</v>
       </c>
@@ -10839,7 +10839,7 @@
       <c r="CQ145" s="9"/>
       <c r="CR145" s="9"/>
     </row>
-    <row r="146" spans="1:96" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:96" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A146" s="12"/>
       <c r="B146" s="12"/>
       <c r="C146" s="12"/>
@@ -10866,12 +10866,12 @@
       <c r="X146" s="12"/>
       <c r="Y146" s="12"/>
     </row>
-    <row r="147" spans="1:96" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A147" s="13" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A148"/>
       <c r="B148" s="9"/>
       <c r="C148" s="9"/>
@@ -10969,7 +10969,7 @@
       <c r="CQ148" s="9"/>
       <c r="CR148" s="9"/>
     </row>
-    <row r="149" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A149"/>
       <c r="B149" s="9"/>
       <c r="C149" s="9"/>
@@ -11067,37 +11067,37 @@
       <c r="CQ149" s="9"/>
       <c r="CR149" s="9"/>
     </row>
-    <row r="150" spans="1:96" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A150" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="151" spans="1:96" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A151" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="152" spans="1:96" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A152" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="154" spans="1:96" x14ac:dyDescent="0.2">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="154" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A154" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="155" spans="1:96" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A155" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="156" spans="1:96" x14ac:dyDescent="0.2">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="156" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A156" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="158" spans="1:96" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A158" s="3"/>
       <c r="B158" s="14" t="s">
         <v>10</v>
@@ -11126,7 +11126,7 @@
       <c r="X158" s="14"/>
       <c r="Y158" s="14"/>
     </row>
-    <row r="159" spans="1:96" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A159" s="5"/>
       <c r="B159" s="15">
         <v>2000</v>
@@ -11201,10 +11201,10 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="160" spans="1:96" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:96" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A160" s="7"/>
     </row>
-    <row r="161" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A161" s="1" t="s">
         <v>9</v>
       </c>
@@ -11275,10 +11275,10 @@
         <v>23.079481259358687</v>
       </c>
       <c r="X161" s="17">
-        <v>22.939827091050315</v>
+        <v>22.939079698432081</v>
       </c>
       <c r="Y161" s="17">
-        <v>19.57078993138062</v>
+        <v>19.370108293732567</v>
       </c>
       <c r="Z161" s="9"/>
       <c r="AA161" s="9"/>
@@ -11352,7 +11352,7 @@
       <c r="CQ161" s="9"/>
       <c r="CR161" s="9"/>
     </row>
-    <row r="162" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A162" s="1" t="s">
         <v>8</v>
       </c>
@@ -11423,10 +11423,10 @@
         <v>7.771233784700228</v>
       </c>
       <c r="X162" s="17">
-        <v>6.5763532593039038</v>
+        <v>6.5853944014434269</v>
       </c>
       <c r="Y162" s="17">
-        <v>4.9817452364842474</v>
+        <v>5.0076023547745256</v>
       </c>
       <c r="Z162" s="9"/>
       <c r="AA162" s="9"/>
@@ -11500,7 +11500,7 @@
       <c r="CQ162" s="9"/>
       <c r="CR162" s="9"/>
     </row>
-    <row r="163" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A163" s="1" t="s">
         <v>7</v>
       </c>
@@ -11571,10 +11571,10 @@
         <v>25.095065974190916</v>
       </c>
       <c r="X163" s="17">
-        <v>29.410591328288572</v>
+        <v>29.467030922613226</v>
       </c>
       <c r="Y163" s="17">
-        <v>40.491765652564098</v>
+        <v>40.711247187411125</v>
       </c>
       <c r="Z163" s="9"/>
       <c r="AA163" s="9"/>
@@ -11648,7 +11648,7 @@
       <c r="CQ163" s="9"/>
       <c r="CR163" s="9"/>
     </row>
-    <row r="164" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A164" s="1" t="s">
         <v>6</v>
       </c>
@@ -11719,10 +11719,10 @@
         <v>1.9599295294202654</v>
       </c>
       <c r="X164" s="17">
-        <v>1.3422209575988371</v>
+        <v>1.3447967101736606</v>
       </c>
       <c r="Y164" s="17">
-        <v>0.99936832054897551</v>
+        <v>1.0048359647380851</v>
       </c>
       <c r="Z164" s="9"/>
       <c r="AA164" s="9"/>
@@ -11796,7 +11796,7 @@
       <c r="CQ164" s="9"/>
       <c r="CR164" s="9"/>
     </row>
-    <row r="165" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A165" s="1" t="s">
         <v>5</v>
       </c>
@@ -11867,10 +11867,10 @@
         <v>10.005817527430443</v>
       </c>
       <c r="X165" s="17">
-        <v>7.364038327516977</v>
+        <v>7.3781700847182146</v>
       </c>
       <c r="Y165" s="17">
-        <v>5.5190071735810644</v>
+        <v>5.5066198257746581</v>
       </c>
       <c r="Z165" s="9"/>
       <c r="AA165" s="9"/>
@@ -11944,7 +11944,7 @@
       <c r="CQ165" s="9"/>
       <c r="CR165" s="9"/>
     </row>
-    <row r="166" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A166" s="1" t="s">
         <v>4</v>
       </c>
@@ -12015,10 +12015,10 @@
         <v>25.378249876361725</v>
       </c>
       <c r="X166" s="17">
-        <v>24.439168541415111</v>
+        <v>24.486067862231643</v>
       </c>
       <c r="Y166" s="17">
-        <v>21.890665949469952</v>
+        <v>22.194414163419577</v>
       </c>
       <c r="Z166" s="9"/>
       <c r="AA166" s="9"/>
@@ -12092,7 +12092,7 @@
       <c r="CQ166" s="9"/>
       <c r="CR166" s="9"/>
     </row>
-    <row r="167" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A167" s="1" t="s">
         <v>3</v>
       </c>
@@ -12163,10 +12163,10 @@
         <v>3.048461191530849</v>
       </c>
       <c r="X167" s="17">
-        <v>2.1313502865214309</v>
+        <v>2.1354403962438866</v>
       </c>
       <c r="Y167" s="17">
-        <v>1.4932727964374592</v>
+        <v>1.384961997631756</v>
       </c>
       <c r="Z167" s="9"/>
       <c r="AA167" s="9"/>
@@ -12240,7 +12240,7 @@
       <c r="CQ167" s="9"/>
       <c r="CR167" s="9"/>
     </row>
-    <row r="168" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A168" s="1" t="s">
         <v>2</v>
       </c>
@@ -12311,10 +12311,10 @@
         <v>3.6617608570068807</v>
       </c>
       <c r="X168" s="17">
-        <v>5.796450208304849</v>
+        <v>5.6640199241438625</v>
       </c>
       <c r="Y168" s="17">
-        <v>5.0533849395335739</v>
+        <v>4.8202102125177024</v>
       </c>
       <c r="Z168" s="9"/>
       <c r="AA168" s="9"/>
@@ -12388,7 +12388,7 @@
       <c r="CQ168" s="9"/>
       <c r="CR168" s="9"/>
     </row>
-    <row r="169" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A169"/>
       <c r="B169" s="9"/>
       <c r="C169" s="9"/>
@@ -12486,7 +12486,7 @@
       <c r="CQ169" s="9"/>
       <c r="CR169" s="9"/>
     </row>
-    <row r="170" spans="1:96" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:96" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A170" s="10" t="s">
         <v>1</v>
       </c>
@@ -12634,7 +12634,7 @@
       <c r="CQ170" s="9"/>
       <c r="CR170" s="9"/>
     </row>
-    <row r="171" spans="1:96" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:96" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A171" s="12"/>
       <c r="B171" s="12"/>
       <c r="C171" s="12"/>
@@ -12661,12 +12661,12 @@
       <c r="X171" s="12"/>
       <c r="Y171" s="12"/>
     </row>
-    <row r="172" spans="1:96" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A172" s="13" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:96" s="19" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:96" s="19" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A173" s="1"/>
       <c r="B173" s="18"/>
       <c r="C173" s="18"/>
@@ -12764,7 +12764,7 @@
       <c r="CQ173" s="18"/>
       <c r="CR173" s="18"/>
     </row>
-    <row r="174" spans="1:96" s="19" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:96" s="19" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A174" s="1"/>
       <c r="B174" s="18"/>
       <c r="C174" s="18"/>

--- a/Data/National Accounts/PSA-07IOS_2018PSNA_Ann.xlsx
+++ b/Data/National Accounts/PSA-07IOS_2018PSNA_Ann.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28324"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Other computers\My Laptop (1)\6. MAS_Series\2018-base\NAP\NAP detailed series as of April 2024\Annl\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\Other computers\My Laptop (1)\6. MAS_Series\2018-base\NAP\NAP detailed series as of January 2025\Annl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{139EB68C-2573-46F7-A3F7-857E61378AA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE8DC645-4FF7-42D1-A381-DCBE46B48C2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="IOS" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
     <definedName name="PCE_Per_Con_Qrt">[1]HFCE!#REF!</definedName>
     <definedName name="PCE_Per_Cur_Qrt" localSheetId="0">IOS!$A$37:$A$48</definedName>
     <definedName name="PCE_Per_Cur_Qrt">[1]HFCE!#REF!</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">IOS!$A$1:$Y$174</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">IOS!$A$1:$Z$174</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="55">
   <si>
     <t>Source: Philippine Statistics Authority</t>
   </si>
@@ -210,13 +210,16 @@
     <t>2022 - 2023</t>
   </si>
   <si>
-    <t>Annual 2000 to 2023</t>
+    <t>2023 - 2024</t>
   </si>
   <si>
-    <t>Annual 2001 to 2023</t>
+    <t>Annual 2000 to 2024</t>
   </si>
   <si>
-    <t>As of April 2024</t>
+    <t>Annual 2001 to 2024</t>
+  </si>
+  <si>
+    <t>As of January 2025</t>
   </si>
 </sst>
 </file>
@@ -299,10 +302,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="20">
@@ -341,8 +345,9 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="4">
+  <cellStyles count="5">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Comma 2" xfId="4" xr:uid="{D5EB6BD3-16A7-4CD0-8607-930C78757B29}"/>
     <cellStyle name="Comma 3" xfId="3" xr:uid="{0B5D1949-FB82-4F83-BD2B-A93C579AB68D}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
@@ -642,51 +647,51 @@
   <dimension ref="A1:CR174"/>
   <sheetViews>
     <sheetView tabSelected="1" defaultGridColor="0" view="pageBreakPreview" colorId="22" zoomScale="55" zoomScaleNormal="100" zoomScaleSheetLayoutView="55" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="G3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection activeCell="C4" sqref="C4"/>
       <selection pane="topRight" activeCell="C4" sqref="C4"/>
       <selection pane="bottomLeft" activeCell="C4" sqref="C4"/>
       <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="7.81640625" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="7.77734375" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="42.6328125" style="1" customWidth="1"/>
-    <col min="2" max="25" width="12.36328125" style="1" customWidth="1"/>
-    <col min="26" max="16384" width="7.81640625" style="1"/>
+    <col min="1" max="1" width="42.6640625" style="1" customWidth="1"/>
+    <col min="2" max="26" width="12.33203125" style="1" customWidth="1"/>
+    <col min="27" max="16384" width="7.77734375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="5" spans="1:96" x14ac:dyDescent="0.25">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="5" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="6" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="7" spans="1:96" x14ac:dyDescent="0.25">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="7" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="9" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A9" s="3"/>
       <c r="B9" s="4" t="s">
         <v>10</v>
@@ -714,8 +719,9 @@
       <c r="W9" s="4"/>
       <c r="X9" s="4"/>
       <c r="Y9" s="4"/>
-    </row>
-    <row r="10" spans="1:96" x14ac:dyDescent="0.25">
+      <c r="Z9" s="4"/>
+    </row>
+    <row r="10" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A10" s="5"/>
       <c r="B10" s="6">
         <v>2000</v>
@@ -789,11 +795,14 @@
       <c r="Y10" s="6">
         <v>2023</v>
       </c>
-    </row>
-    <row r="11" spans="1:96" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Z10" s="6">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="11" spans="1:96" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="7"/>
     </row>
-    <row r="12" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>9</v>
       </c>
@@ -869,7 +878,9 @@
       <c r="Y12" s="8">
         <v>386429.39225341514</v>
       </c>
-      <c r="Z12" s="9"/>
+      <c r="Z12" s="8">
+        <v>406196.80090738653</v>
+      </c>
       <c r="AA12" s="9"/>
       <c r="AB12" s="9"/>
       <c r="AC12" s="9"/>
@@ -941,7 +952,7 @@
       <c r="CQ12" s="9"/>
       <c r="CR12" s="9"/>
     </row>
-    <row r="13" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1017,7 +1028,9 @@
       <c r="Y13" s="8">
         <v>100003.89282257679</v>
       </c>
-      <c r="Z13" s="9"/>
+      <c r="Z13" s="8">
+        <v>104995.1560920622</v>
+      </c>
       <c r="AA13" s="9"/>
       <c r="AB13" s="9"/>
       <c r="AC13" s="9"/>
@@ -1089,7 +1102,7 @@
       <c r="CQ13" s="9"/>
       <c r="CR13" s="9"/>
     </row>
-    <row r="14" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>7</v>
       </c>
@@ -1165,7 +1178,9 @@
       <c r="Y14" s="8">
         <v>802332.90871450142</v>
       </c>
-      <c r="Z14" s="9"/>
+      <c r="Z14" s="8">
+        <v>1014002.0861253523</v>
+      </c>
       <c r="AA14" s="9"/>
       <c r="AB14" s="9"/>
       <c r="AC14" s="9"/>
@@ -1237,7 +1252,7 @@
       <c r="CQ14" s="9"/>
       <c r="CR14" s="9"/>
     </row>
-    <row r="15" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>6</v>
       </c>
@@ -1313,7 +1328,9 @@
       <c r="Y15" s="8">
         <v>19931.105240823836</v>
       </c>
-      <c r="Z15" s="9"/>
+      <c r="Z15" s="8">
+        <v>21233.284517618766</v>
+      </c>
       <c r="AA15" s="9"/>
       <c r="AB15" s="9"/>
       <c r="AC15" s="9"/>
@@ -1385,7 +1402,7 @@
       <c r="CQ15" s="9"/>
       <c r="CR15" s="9"/>
     </row>
-    <row r="16" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>5</v>
       </c>
@@ -1461,7 +1478,9 @@
       <c r="Y16" s="8">
         <v>109934.14036255066</v>
       </c>
-      <c r="Z16" s="9"/>
+      <c r="Z16" s="8">
+        <v>127697.48821333027</v>
+      </c>
       <c r="AA16" s="9"/>
       <c r="AB16" s="9"/>
       <c r="AC16" s="9"/>
@@ -1533,7 +1552,7 @@
       <c r="CQ16" s="9"/>
       <c r="CR16" s="9"/>
     </row>
-    <row r="17" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>4</v>
       </c>
@@ -1609,7 +1628,9 @@
       <c r="Y17" s="8">
         <v>439830.64230279956</v>
       </c>
-      <c r="Z17" s="9"/>
+      <c r="Z17" s="8">
+        <v>448288.61882774404</v>
+      </c>
       <c r="AA17" s="9"/>
       <c r="AB17" s="9"/>
       <c r="AC17" s="9"/>
@@ -1681,7 +1702,7 @@
       <c r="CQ17" s="9"/>
       <c r="CR17" s="9"/>
     </row>
-    <row r="18" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>3</v>
       </c>
@@ -1757,7 +1778,9 @@
       <c r="Y18" s="8">
         <v>27613.513617339362</v>
       </c>
-      <c r="Z18" s="9"/>
+      <c r="Z18" s="8">
+        <v>28680.455719618501</v>
+      </c>
       <c r="AA18" s="9"/>
       <c r="AB18" s="9"/>
       <c r="AC18" s="9"/>
@@ -1829,7 +1852,7 @@
       <c r="CQ18" s="9"/>
       <c r="CR18" s="9"/>
     </row>
-    <row r="19" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>2</v>
       </c>
@@ -1905,7 +1928,9 @@
       <c r="Y19" s="8">
         <v>99436.06034308768</v>
       </c>
-      <c r="Z19" s="9"/>
+      <c r="Z19" s="8">
+        <v>151311.8274213415</v>
+      </c>
       <c r="AA19" s="9"/>
       <c r="AB19" s="9"/>
       <c r="AC19" s="9"/>
@@ -1977,7 +2002,7 @@
       <c r="CQ19" s="9"/>
       <c r="CR19" s="9"/>
     </row>
-    <row r="20" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20"/>
       <c r="B20" s="9"/>
       <c r="C20" s="9"/>
@@ -2075,7 +2100,7 @@
       <c r="CQ20" s="9"/>
       <c r="CR20" s="9"/>
     </row>
-    <row r="21" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A21" s="10" t="s">
         <v>1</v>
       </c>
@@ -2151,7 +2176,9 @@
       <c r="Y21" s="11">
         <v>1985511.6556570944</v>
       </c>
-      <c r="Z21" s="9"/>
+      <c r="Z21" s="11">
+        <v>2302405.7178244544</v>
+      </c>
       <c r="AA21" s="9"/>
       <c r="AB21" s="9"/>
       <c r="AC21" s="9"/>
@@ -2223,7 +2250,7 @@
       <c r="CQ21" s="9"/>
       <c r="CR21" s="9"/>
     </row>
-    <row r="22" spans="1:96" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:96" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="12"/>
       <c r="B22" s="12"/>
       <c r="C22" s="12"/>
@@ -2249,13 +2276,14 @@
       <c r="W22" s="12"/>
       <c r="X22" s="12"/>
       <c r="Y22" s="12"/>
-    </row>
-    <row r="23" spans="1:96" x14ac:dyDescent="0.25">
+      <c r="Z22" s="12"/>
+    </row>
+    <row r="23" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A23" s="13" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24"/>
       <c r="B24" s="9"/>
       <c r="C24" s="9"/>
@@ -2353,7 +2381,7 @@
       <c r="CQ24" s="9"/>
       <c r="CR24" s="9"/>
     </row>
-    <row r="25" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25"/>
       <c r="B25" s="9"/>
       <c r="C25" s="9"/>
@@ -2451,37 +2479,37 @@
       <c r="CQ25" s="9"/>
       <c r="CR25" s="9"/>
     </row>
-    <row r="26" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="27" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="28" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="30" spans="1:96" x14ac:dyDescent="0.25">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="30" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="31" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="32" spans="1:96" x14ac:dyDescent="0.25">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="32" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="34" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A34" s="3"/>
       <c r="B34" s="14" t="s">
         <v>10</v>
@@ -2509,8 +2537,9 @@
       <c r="W34" s="14"/>
       <c r="X34" s="14"/>
       <c r="Y34" s="14"/>
-    </row>
-    <row r="35" spans="1:96" x14ac:dyDescent="0.25">
+      <c r="Z34" s="14"/>
+    </row>
+    <row r="35" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A35" s="5"/>
       <c r="B35" s="15">
         <v>2000</v>
@@ -2584,11 +2613,14 @@
       <c r="Y35" s="15">
         <v>2023</v>
       </c>
-    </row>
-    <row r="36" spans="1:96" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Z35" s="15">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="36" spans="1:96" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="7"/>
     </row>
-    <row r="37" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>9</v>
       </c>
@@ -2664,7 +2696,9 @@
       <c r="Y37" s="8">
         <v>356411.77721551066</v>
       </c>
-      <c r="Z37" s="9"/>
+      <c r="Z37" s="8">
+        <v>362713.33942034893</v>
+      </c>
       <c r="AA37" s="9"/>
       <c r="AB37" s="9"/>
       <c r="AC37" s="9"/>
@@ -2736,7 +2770,7 @@
       <c r="CQ37" s="9"/>
       <c r="CR37" s="9"/>
     </row>
-    <row r="38" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
         <v>8</v>
       </c>
@@ -2812,7 +2846,9 @@
       <c r="Y38" s="8">
         <v>92140.34468930916</v>
       </c>
-      <c r="Z38" s="9"/>
+      <c r="Z38" s="8">
+        <v>92864.738888920852</v>
+      </c>
       <c r="AA38" s="9"/>
       <c r="AB38" s="9"/>
       <c r="AC38" s="9"/>
@@ -2884,7 +2920,7 @@
       <c r="CQ38" s="9"/>
       <c r="CR38" s="9"/>
     </row>
-    <row r="39" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
         <v>7</v>
       </c>
@@ -2960,7 +2996,9 @@
       <c r="Y39" s="8">
         <v>749090.6990654273</v>
       </c>
-      <c r="Z39" s="9"/>
+      <c r="Z39" s="8">
+        <v>908013.76270597137</v>
+      </c>
       <c r="AA39" s="9"/>
       <c r="AB39" s="9"/>
       <c r="AC39" s="9"/>
@@ -3032,7 +3070,7 @@
       <c r="CQ39" s="9"/>
       <c r="CR39" s="9"/>
     </row>
-    <row r="40" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
         <v>6</v>
       </c>
@@ -3108,7 +3146,9 @@
       <c r="Y40" s="8">
         <v>18489.074328936105</v>
       </c>
-      <c r="Z40" s="9"/>
+      <c r="Z40" s="8">
+        <v>18969.968923572535</v>
+      </c>
       <c r="AA40" s="9"/>
       <c r="AB40" s="9"/>
       <c r="AC40" s="9"/>
@@ -3180,7 +3220,7 @@
       <c r="CQ40" s="9"/>
       <c r="CR40" s="9"/>
     </row>
-    <row r="41" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
         <v>5</v>
       </c>
@@ -3256,7 +3296,9 @@
       <c r="Y41" s="8">
         <v>101322.31213129265</v>
       </c>
-      <c r="Z41" s="9"/>
+      <c r="Z41" s="8">
+        <v>113779.43348195899</v>
+      </c>
       <c r="AA41" s="9"/>
       <c r="AB41" s="9"/>
       <c r="AC41" s="9"/>
@@ -3328,7 +3370,7 @@
       <c r="CQ41" s="9"/>
       <c r="CR41" s="9"/>
     </row>
-    <row r="42" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
         <v>4</v>
       </c>
@@ -3404,7 +3446,9 @@
       <c r="Y42" s="8">
         <v>408379.26542728528</v>
       </c>
-      <c r="Z42" s="9"/>
+      <c r="Z42" s="8">
+        <v>405260.1311740051</v>
+      </c>
       <c r="AA42" s="9"/>
       <c r="AB42" s="9"/>
       <c r="AC42" s="9"/>
@@ -3476,7 +3520,7 @@
       <c r="CQ42" s="9"/>
       <c r="CR42" s="9"/>
     </row>
-    <row r="43" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
         <v>3</v>
       </c>
@@ -3552,7 +3596,9 @@
       <c r="Y43" s="8">
         <v>25483.428356030086</v>
       </c>
-      <c r="Z43" s="9"/>
+      <c r="Z43" s="8">
+        <v>25432.090901222567</v>
+      </c>
       <c r="AA43" s="9"/>
       <c r="AB43" s="9"/>
       <c r="AC43" s="9"/>
@@ -3624,7 +3670,7 @@
       <c r="CQ43" s="9"/>
       <c r="CR43" s="9"/>
     </row>
-    <row r="44" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
         <v>2</v>
       </c>
@@ -3700,7 +3746,9 @@
       <c r="Y44" s="8">
         <v>88692.312006931927</v>
       </c>
-      <c r="Z44" s="9"/>
+      <c r="Z44" s="8">
+        <v>131868.90895542892</v>
+      </c>
       <c r="AA44" s="9"/>
       <c r="AB44" s="9"/>
       <c r="AC44" s="9"/>
@@ -3772,7 +3820,7 @@
       <c r="CQ44" s="9"/>
       <c r="CR44" s="9"/>
     </row>
-    <row r="45" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45"/>
       <c r="B45" s="9"/>
       <c r="C45" s="9"/>
@@ -3870,7 +3918,7 @@
       <c r="CQ45" s="9"/>
       <c r="CR45" s="9"/>
     </row>
-    <row r="46" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A46" s="10" t="s">
         <v>1</v>
       </c>
@@ -3946,7 +3994,9 @@
       <c r="Y46" s="11">
         <v>1840009.2132207232</v>
       </c>
-      <c r="Z46" s="9"/>
+      <c r="Z46" s="11">
+        <v>2058902.3744514291</v>
+      </c>
       <c r="AA46" s="9"/>
       <c r="AB46" s="9"/>
       <c r="AC46" s="9"/>
@@ -4018,7 +4068,7 @@
       <c r="CQ46" s="9"/>
       <c r="CR46" s="9"/>
     </row>
-    <row r="47" spans="1:96" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:96" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="12"/>
       <c r="B47" s="12"/>
       <c r="C47" s="12"/>
@@ -4044,13 +4094,14 @@
       <c r="W47" s="12"/>
       <c r="X47" s="12"/>
       <c r="Y47" s="12"/>
-    </row>
-    <row r="48" spans="1:96" x14ac:dyDescent="0.25">
+      <c r="Z47" s="12"/>
+    </row>
+    <row r="48" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A48" s="13" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49"/>
       <c r="B49" s="9"/>
       <c r="C49" s="9"/>
@@ -4148,7 +4199,7 @@
       <c r="CQ49" s="9"/>
       <c r="CR49" s="9"/>
     </row>
-    <row r="50" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50"/>
       <c r="B50" s="9"/>
       <c r="C50" s="9"/>
@@ -4246,37 +4297,37 @@
       <c r="CQ50" s="9"/>
       <c r="CR50" s="9"/>
     </row>
-    <row r="51" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="52" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="53" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="55" spans="1:96" x14ac:dyDescent="0.25">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="55" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="56" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="57" spans="1:96" x14ac:dyDescent="0.25">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="57" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="59" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A59" s="3"/>
       <c r="B59" s="14" t="s">
         <v>10</v>
@@ -4304,8 +4355,9 @@
       <c r="W59" s="14"/>
       <c r="X59" s="14"/>
       <c r="Y59" s="14"/>
-    </row>
-    <row r="60" spans="1:96" x14ac:dyDescent="0.25">
+      <c r="Z59" s="14"/>
+    </row>
+    <row r="60" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A60" s="5"/>
       <c r="B60" s="15" t="s">
         <v>37</v>
@@ -4376,12 +4428,15 @@
       <c r="X60" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="Y60" s="15"/>
-    </row>
-    <row r="61" spans="1:96" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Y60" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z60" s="15"/>
+    </row>
+    <row r="61" spans="1:96" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="7"/>
     </row>
-    <row r="62" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
         <v>9</v>
       </c>
@@ -4454,8 +4509,10 @@
       <c r="X62" s="16">
         <v>11.01556936255885</v>
       </c>
-      <c r="Y62" s="16"/>
-      <c r="Z62" s="9"/>
+      <c r="Y62" s="16">
+        <v>5.1153998764690698</v>
+      </c>
+      <c r="Z62" s="16"/>
       <c r="AA62" s="9"/>
       <c r="AB62" s="9"/>
       <c r="AC62" s="9"/>
@@ -4522,7 +4579,7 @@
       <c r="CL62" s="9"/>
       <c r="CM62" s="9"/>
     </row>
-    <row r="63" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
         <v>8</v>
       </c>
@@ -4595,8 +4652,10 @@
       <c r="X63" s="16">
         <v>0.15864635216003364</v>
       </c>
-      <c r="Y63" s="16"/>
-      <c r="Z63" s="9"/>
+      <c r="Y63" s="16">
+        <v>4.9910689760254741</v>
+      </c>
+      <c r="Z63" s="16"/>
       <c r="AA63" s="9"/>
       <c r="AB63" s="9"/>
       <c r="AC63" s="9"/>
@@ -4663,7 +4722,7 @@
       <c r="CL63" s="9"/>
       <c r="CM63" s="9"/>
     </row>
-    <row r="64" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
         <v>7</v>
       </c>
@@ -4736,8 +4795,10 @@
       <c r="X64" s="16">
         <v>85.178635632894242</v>
       </c>
-      <c r="Y64" s="16"/>
-      <c r="Z64" s="9"/>
+      <c r="Y64" s="16">
+        <v>26.381714511746424</v>
+      </c>
+      <c r="Z64" s="16"/>
       <c r="AA64" s="9"/>
       <c r="AB64" s="9"/>
       <c r="AC64" s="9"/>
@@ -4804,7 +4865,7 @@
       <c r="CL64" s="9"/>
       <c r="CM64" s="9"/>
     </row>
-    <row r="65" spans="1:91" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:91" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
         <v>6</v>
       </c>
@@ -4877,8 +4938,10 @@
       <c r="X65" s="16">
         <v>-2.1634845478365463</v>
       </c>
-      <c r="Y65" s="16"/>
-      <c r="Z65" s="9"/>
+      <c r="Y65" s="16">
+        <v>6.5334022426801823</v>
+      </c>
+      <c r="Z65" s="16"/>
       <c r="AA65" s="9"/>
       <c r="AB65" s="9"/>
       <c r="AC65" s="9"/>
@@ -4945,7 +5008,7 @@
       <c r="CL65" s="9"/>
       <c r="CM65" s="9"/>
     </row>
-    <row r="66" spans="1:91" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:91" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
         <v>5</v>
       </c>
@@ -5018,8 +5081,10 @@
       <c r="X66" s="16">
         <v>-2.7607783397212273</v>
       </c>
-      <c r="Y66" s="16"/>
-      <c r="Z66" s="9"/>
+      <c r="Y66" s="16">
+        <v>16.158172331359523</v>
+      </c>
+      <c r="Z66" s="16"/>
       <c r="AA66" s="9"/>
       <c r="AB66" s="9"/>
       <c r="AC66" s="9"/>
@@ -5086,7 +5151,7 @@
       <c r="CL66" s="9"/>
       <c r="CM66" s="9"/>
     </row>
-    <row r="67" spans="1:91" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:91" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
         <v>4</v>
       </c>
@@ -5159,8 +5224,10 @@
       <c r="X67" s="16">
         <v>19.323640830232563</v>
       </c>
-      <c r="Y67" s="16"/>
-      <c r="Z67" s="9"/>
+      <c r="Y67" s="16">
+        <v>1.9230075650621785</v>
+      </c>
+      <c r="Z67" s="16"/>
       <c r="AA67" s="9"/>
       <c r="AB67" s="9"/>
       <c r="AC67" s="9"/>
@@ -5227,7 +5294,7 @@
       <c r="CL67" s="9"/>
       <c r="CM67" s="9"/>
     </row>
-    <row r="68" spans="1:91" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:91" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
         <v>3</v>
       </c>
@@ -5300,8 +5367,10 @@
       <c r="X68" s="16">
         <v>-15.965930504885634</v>
       </c>
-      <c r="Y68" s="16"/>
-      <c r="Z68" s="9"/>
+      <c r="Y68" s="16">
+        <v>3.8638404263381148</v>
+      </c>
+      <c r="Z68" s="16"/>
       <c r="AA68" s="9"/>
       <c r="AB68" s="9"/>
       <c r="AC68" s="9"/>
@@ -5368,7 +5437,7 @@
       <c r="CL68" s="9"/>
       <c r="CM68" s="9"/>
     </row>
-    <row r="69" spans="1:91" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:91" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
         <v>2</v>
       </c>
@@ -5441,8 +5510,10 @@
       <c r="X69" s="16">
         <v>12.281454419584591</v>
       </c>
-      <c r="Y69" s="16"/>
-      <c r="Z69" s="9"/>
+      <c r="Y69" s="16">
+        <v>52.169974252062133</v>
+      </c>
+      <c r="Z69" s="16"/>
       <c r="AA69" s="9"/>
       <c r="AB69" s="9"/>
       <c r="AC69" s="9"/>
@@ -5509,7 +5580,7 @@
       <c r="CL69" s="9"/>
       <c r="CM69" s="9"/>
     </row>
-    <row r="70" spans="1:91" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:91" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70"/>
       <c r="B70" s="9"/>
       <c r="C70" s="9"/>
@@ -5602,7 +5673,7 @@
       <c r="CL70" s="9"/>
       <c r="CM70" s="9"/>
     </row>
-    <row r="71" spans="1:91" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:91" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="10" t="s">
         <v>1</v>
       </c>
@@ -5675,8 +5746,10 @@
       <c r="X71" s="16">
         <v>31.957829210866578</v>
       </c>
-      <c r="Y71" s="16"/>
-      <c r="Z71" s="9"/>
+      <c r="Y71" s="16">
+        <v>15.960322431977133</v>
+      </c>
+      <c r="Z71" s="16"/>
       <c r="AA71" s="9"/>
       <c r="AB71" s="9"/>
       <c r="AC71" s="9"/>
@@ -5743,7 +5816,7 @@
       <c r="CL71" s="9"/>
       <c r="CM71" s="9"/>
     </row>
-    <row r="72" spans="1:91" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:91" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="12"/>
       <c r="B72" s="12"/>
       <c r="C72" s="12"/>
@@ -5769,13 +5842,14 @@
       <c r="W72" s="12"/>
       <c r="X72" s="12"/>
       <c r="Y72" s="12"/>
-    </row>
-    <row r="73" spans="1:91" x14ac:dyDescent="0.25">
+      <c r="Z72" s="12"/>
+    </row>
+    <row r="73" spans="1:91" x14ac:dyDescent="0.2">
       <c r="A73" s="13" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:91" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:91" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74"/>
       <c r="B74" s="9"/>
       <c r="C74" s="9"/>
@@ -5868,7 +5942,7 @@
       <c r="CL74" s="9"/>
       <c r="CM74" s="9"/>
     </row>
-    <row r="75" spans="1:91" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:91" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75"/>
       <c r="B75" s="9"/>
       <c r="C75" s="9"/>
@@ -5961,37 +6035,37 @@
       <c r="CL75" s="9"/>
       <c r="CM75" s="9"/>
     </row>
-    <row r="76" spans="1:91" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:91" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="77" spans="1:91" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:91" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="78" spans="1:91" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:91" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="80" spans="1:91" x14ac:dyDescent="0.25">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="80" spans="1:91" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="81" spans="1:91" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:91" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="82" spans="1:91" x14ac:dyDescent="0.25">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="82" spans="1:91" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="84" spans="1:91" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:91" x14ac:dyDescent="0.2">
       <c r="A84" s="3"/>
       <c r="B84" s="14" t="s">
         <v>10</v>
@@ -6019,8 +6093,9 @@
       <c r="W84" s="14"/>
       <c r="X84" s="14"/>
       <c r="Y84" s="14"/>
-    </row>
-    <row r="85" spans="1:91" x14ac:dyDescent="0.25">
+      <c r="Z84" s="14"/>
+    </row>
+    <row r="85" spans="1:91" x14ac:dyDescent="0.2">
       <c r="A85" s="5"/>
       <c r="B85" s="15" t="s">
         <v>37</v>
@@ -6091,12 +6166,15 @@
       <c r="X85" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="Y85" s="15"/>
-    </row>
-    <row r="86" spans="1:91" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Y85" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z85" s="15"/>
+    </row>
+    <row r="86" spans="1:91" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="7"/>
     </row>
-    <row r="87" spans="1:91" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:91" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
         <v>9</v>
       </c>
@@ -6169,8 +6247,10 @@
       <c r="X87" s="16">
         <v>5.7271842330849978</v>
       </c>
-      <c r="Y87" s="16"/>
-      <c r="Z87" s="9"/>
+      <c r="Y87" s="16">
+        <v>1.7680566714348203</v>
+      </c>
+      <c r="Z87" s="16"/>
       <c r="AA87" s="9"/>
       <c r="AB87" s="9"/>
       <c r="AC87" s="9"/>
@@ -6237,7 +6317,7 @@
       <c r="CL87" s="9"/>
       <c r="CM87" s="9"/>
     </row>
-    <row r="88" spans="1:91" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:91" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
         <v>8</v>
       </c>
@@ -6310,8 +6390,10 @@
       <c r="X88" s="16">
         <v>-4.7908577742065432</v>
       </c>
-      <c r="Y88" s="16"/>
-      <c r="Z88" s="9"/>
+      <c r="Y88" s="16">
+        <v>0.78618568451669546</v>
+      </c>
+      <c r="Z88" s="16"/>
       <c r="AA88" s="9"/>
       <c r="AB88" s="9"/>
       <c r="AC88" s="9"/>
@@ -6378,7 +6460,7 @@
       <c r="CL88" s="9"/>
       <c r="CM88" s="9"/>
     </row>
-    <row r="89" spans="1:91" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:91" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
         <v>7</v>
       </c>
@@ -6451,8 +6533,10 @@
       <c r="X89" s="16">
         <v>72.985075685538675</v>
       </c>
-      <c r="Y89" s="16"/>
-      <c r="Z89" s="9"/>
+      <c r="Y89" s="16">
+        <v>21.215463473090509</v>
+      </c>
+      <c r="Z89" s="16"/>
       <c r="AA89" s="9"/>
       <c r="AB89" s="9"/>
       <c r="AC89" s="9"/>
@@ -6519,7 +6603,7 @@
       <c r="CL89" s="9"/>
       <c r="CM89" s="9"/>
     </row>
-    <row r="90" spans="1:91" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:91" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
         <v>6</v>
       </c>
@@ -6592,8 +6676,10 @@
       <c r="X90" s="16">
         <v>-6.4445395918406518</v>
       </c>
-      <c r="Y90" s="16"/>
-      <c r="Z90" s="9"/>
+      <c r="Y90" s="16">
+        <v>2.6009663116763448</v>
+      </c>
+      <c r="Z90" s="16"/>
       <c r="AA90" s="9"/>
       <c r="AB90" s="9"/>
       <c r="AC90" s="9"/>
@@ -6660,7 +6746,7 @@
       <c r="CL90" s="9"/>
       <c r="CM90" s="9"/>
     </row>
-    <row r="91" spans="1:91" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:91" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
         <v>5</v>
       </c>
@@ -6733,8 +6819,10 @@
       <c r="X91" s="16">
         <v>-6.55263945319615</v>
       </c>
-      <c r="Y91" s="16"/>
-      <c r="Z91" s="9"/>
+      <c r="Y91" s="16">
+        <v>12.294549037258932</v>
+      </c>
+      <c r="Z91" s="16"/>
       <c r="AA91" s="9"/>
       <c r="AB91" s="9"/>
       <c r="AC91" s="9"/>
@@ -6801,7 +6889,7 @@
       <c r="CL91" s="9"/>
       <c r="CM91" s="9"/>
     </row>
-    <row r="92" spans="1:91" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:91" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
         <v>4</v>
       </c>
@@ -6874,8 +6962,10 @@
       <c r="X92" s="16">
         <v>13.489385586257853</v>
       </c>
-      <c r="Y92" s="16"/>
-      <c r="Z92" s="9"/>
+      <c r="Y92" s="16">
+        <v>-0.76378369749420472</v>
+      </c>
+      <c r="Z92" s="16"/>
       <c r="AA92" s="9"/>
       <c r="AB92" s="9"/>
       <c r="AC92" s="9"/>
@@ -6942,7 +7032,7 @@
       <c r="CL92" s="9"/>
       <c r="CM92" s="9"/>
     </row>
-    <row r="93" spans="1:91" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:91" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
         <v>3</v>
       </c>
@@ -7015,8 +7105,10 @@
       <c r="X93" s="16">
         <v>-18.795329143301558</v>
       </c>
-      <c r="Y93" s="16"/>
-      <c r="Z93" s="9"/>
+      <c r="Y93" s="16">
+        <v>-0.20145427094927015</v>
+      </c>
+      <c r="Z93" s="16"/>
       <c r="AA93" s="9"/>
       <c r="AB93" s="9"/>
       <c r="AC93" s="9"/>
@@ -7083,7 +7175,7 @@
       <c r="CL93" s="9"/>
       <c r="CM93" s="9"/>
     </row>
-    <row r="94" spans="1:91" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:91" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
         <v>2</v>
       </c>
@@ -7156,8 +7248,10 @@
       <c r="X94" s="16">
         <v>6.5545044646891313</v>
       </c>
-      <c r="Y94" s="16"/>
-      <c r="Z94" s="9"/>
+      <c r="Y94" s="16">
+        <v>48.681329837384823</v>
+      </c>
+      <c r="Z94" s="16"/>
       <c r="AA94" s="9"/>
       <c r="AB94" s="9"/>
       <c r="AC94" s="9"/>
@@ -7224,7 +7318,7 @@
       <c r="CL94" s="9"/>
       <c r="CM94" s="9"/>
     </row>
-    <row r="95" spans="1:91" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:91" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95"/>
       <c r="B95" s="9"/>
       <c r="C95" s="9"/>
@@ -7317,7 +7411,7 @@
       <c r="CL95" s="9"/>
       <c r="CM95" s="9"/>
     </row>
-    <row r="96" spans="1:91" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:91" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="10" t="s">
         <v>1</v>
       </c>
@@ -7390,8 +7484,10 @@
       <c r="X96" s="16">
         <v>25.207575953422975</v>
       </c>
-      <c r="Y96" s="16"/>
-      <c r="Z96" s="9"/>
+      <c r="Y96" s="16">
+        <v>11.896307891174018</v>
+      </c>
+      <c r="Z96" s="16"/>
       <c r="AA96" s="9"/>
       <c r="AB96" s="9"/>
       <c r="AC96" s="9"/>
@@ -7458,7 +7554,7 @@
       <c r="CL96" s="9"/>
       <c r="CM96" s="9"/>
     </row>
-    <row r="97" spans="1:96" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:96" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="12"/>
       <c r="B97" s="12"/>
       <c r="C97" s="12"/>
@@ -7484,13 +7580,14 @@
       <c r="W97" s="12"/>
       <c r="X97" s="12"/>
       <c r="Y97" s="12"/>
-    </row>
-    <row r="98" spans="1:96" x14ac:dyDescent="0.25">
+      <c r="Z97" s="12"/>
+    </row>
+    <row r="98" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A98" s="13" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99"/>
       <c r="B99" s="9"/>
       <c r="C99" s="9"/>
@@ -7584,7 +7681,7 @@
       <c r="CM99" s="9"/>
       <c r="CN99" s="9"/>
     </row>
-    <row r="100" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100"/>
       <c r="B100" s="9"/>
       <c r="C100" s="9"/>
@@ -7678,32 +7775,32 @@
       <c r="CM100" s="9"/>
       <c r="CN100" s="9"/>
     </row>
-    <row r="101" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="102" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A102" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="104" spans="1:96" x14ac:dyDescent="0.25">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="104" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A104" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="105" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A105" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="106" spans="1:96" x14ac:dyDescent="0.25">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="106" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A106" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="108" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A108" s="3"/>
       <c r="B108" s="14" t="s">
         <v>10</v>
@@ -7731,8 +7828,9 @@
       <c r="W108" s="14"/>
       <c r="X108" s="14"/>
       <c r="Y108" s="14"/>
-    </row>
-    <row r="109" spans="1:96" x14ac:dyDescent="0.25">
+      <c r="Z108" s="14"/>
+    </row>
+    <row r="109" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A109" s="5"/>
       <c r="B109" s="15">
         <v>2000</v>
@@ -7806,11 +7904,14 @@
       <c r="Y109" s="15">
         <v>2023</v>
       </c>
-    </row>
-    <row r="110" spans="1:96" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Z109" s="15">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="110" spans="1:96" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" s="7"/>
     </row>
-    <row r="111" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" s="1" t="s">
         <v>9</v>
       </c>
@@ -7886,7 +7987,9 @@
       <c r="Y111" s="16">
         <v>108.42217259834088</v>
       </c>
-      <c r="Z111" s="9"/>
+      <c r="Z111" s="16">
+        <v>111.98838221845615</v>
+      </c>
       <c r="AA111" s="9"/>
       <c r="AB111" s="9"/>
       <c r="AC111" s="9"/>
@@ -7958,7 +8061,7 @@
       <c r="CQ111" s="9"/>
       <c r="CR111" s="9"/>
     </row>
-    <row r="112" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112" s="1" t="s">
         <v>8</v>
       </c>
@@ -8034,7 +8137,9 @@
       <c r="Y112" s="16">
         <v>108.5343159500683</v>
       </c>
-      <c r="Z112" s="9"/>
+      <c r="Z112" s="16">
+        <v>113.06245766506812</v>
+      </c>
       <c r="AA112" s="9"/>
       <c r="AB112" s="9"/>
       <c r="AC112" s="9"/>
@@ -8106,7 +8211,7 @@
       <c r="CQ112" s="9"/>
       <c r="CR112" s="9"/>
     </row>
-    <row r="113" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A113" s="1" t="s">
         <v>7</v>
       </c>
@@ -8182,7 +8287,9 @@
       <c r="Y113" s="16">
         <v>107.10757852360196</v>
       </c>
-      <c r="Z113" s="9"/>
+      <c r="Z113" s="16">
+        <v>111.67254592083771</v>
+      </c>
       <c r="AA113" s="9"/>
       <c r="AB113" s="9"/>
       <c r="AC113" s="9"/>
@@ -8254,7 +8361,7 @@
       <c r="CQ113" s="9"/>
       <c r="CR113" s="9"/>
     </row>
-    <row r="114" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A114" s="1" t="s">
         <v>6</v>
       </c>
@@ -8330,7 +8437,9 @@
       <c r="Y114" s="16">
         <v>107.79936781167511</v>
       </c>
-      <c r="Z114" s="9"/>
+      <c r="Z114" s="16">
+        <v>111.93104534416914</v>
+      </c>
       <c r="AA114" s="9"/>
       <c r="AB114" s="9"/>
       <c r="AC114" s="9"/>
@@ -8402,7 +8511,7 @@
       <c r="CQ114" s="9"/>
       <c r="CR114" s="9"/>
     </row>
-    <row r="115" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A115" s="1" t="s">
         <v>5</v>
       </c>
@@ -8478,7 +8587,9 @@
       <c r="Y115" s="16">
         <v>108.49943911672571</v>
       </c>
-      <c r="Z115" s="9"/>
+      <c r="Z115" s="16">
+        <v>112.23248728301864</v>
+      </c>
       <c r="AA115" s="9"/>
       <c r="AB115" s="9"/>
       <c r="AC115" s="9"/>
@@ -8550,7 +8661,7 @@
       <c r="CQ115" s="9"/>
       <c r="CR115" s="9"/>
     </row>
-    <row r="116" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A116" s="1" t="s">
         <v>4</v>
       </c>
@@ -8626,7 +8737,9 @@
       <c r="Y116" s="16">
         <v>107.70151169222729</v>
       </c>
-      <c r="Z116" s="9"/>
+      <c r="Z116" s="16">
+        <v>110.61749832856466</v>
+      </c>
       <c r="AA116" s="9"/>
       <c r="AB116" s="9"/>
       <c r="AC116" s="9"/>
@@ -8698,7 +8811,7 @@
       <c r="CQ116" s="9"/>
       <c r="CR116" s="9"/>
     </row>
-    <row r="117" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A117" s="1" t="s">
         <v>3</v>
       </c>
@@ -8774,7 +8887,9 @@
       <c r="Y117" s="16">
         <v>108.35870759440121</v>
       </c>
-      <c r="Z117" s="9"/>
+      <c r="Z117" s="16">
+        <v>112.77270056564549</v>
+      </c>
       <c r="AA117" s="9"/>
       <c r="AB117" s="9"/>
       <c r="AC117" s="9"/>
@@ -8846,7 +8961,7 @@
       <c r="CQ117" s="9"/>
       <c r="CR117" s="9"/>
     </row>
-    <row r="118" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A118" s="1" t="s">
         <v>2</v>
       </c>
@@ -8922,7 +9037,9 @@
       <c r="Y118" s="16">
         <v>112.11350577411497</v>
       </c>
-      <c r="Z118" s="9"/>
+      <c r="Z118" s="16">
+        <v>114.74412628414497</v>
+      </c>
       <c r="AA118" s="9"/>
       <c r="AB118" s="9"/>
       <c r="AC118" s="9"/>
@@ -8994,7 +9111,7 @@
       <c r="CQ118" s="9"/>
       <c r="CR118" s="9"/>
     </row>
-    <row r="119" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A119"/>
       <c r="B119" s="9"/>
       <c r="C119" s="9"/>
@@ -9092,7 +9209,7 @@
       <c r="CQ119" s="9"/>
       <c r="CR119" s="9"/>
     </row>
-    <row r="120" spans="1:96" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:96" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A120" s="10" t="s">
         <v>1</v>
       </c>
@@ -9168,7 +9285,9 @@
       <c r="Y120" s="16">
         <v>107.90770184143187</v>
       </c>
-      <c r="Z120" s="9"/>
+      <c r="Z120" s="16">
+        <v>111.82685232649285</v>
+      </c>
       <c r="AA120" s="9"/>
       <c r="AB120" s="9"/>
       <c r="AC120" s="9"/>
@@ -9240,7 +9359,7 @@
       <c r="CQ120" s="9"/>
       <c r="CR120" s="9"/>
     </row>
-    <row r="121" spans="1:96" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:96" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A121" s="12"/>
       <c r="B121" s="12"/>
       <c r="C121" s="12"/>
@@ -9266,43 +9385,44 @@
       <c r="W121" s="12"/>
       <c r="X121" s="12"/>
       <c r="Y121" s="12"/>
-    </row>
-    <row r="122" spans="1:96" x14ac:dyDescent="0.25">
+      <c r="Z121" s="12"/>
+    </row>
+    <row r="122" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A122" s="13" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A125" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="126" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A126" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="127" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A127" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="129" spans="1:96" x14ac:dyDescent="0.25">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="129" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A129" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="130" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A130" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="131" spans="1:96" x14ac:dyDescent="0.25">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="131" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A131" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="133" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A133" s="3"/>
       <c r="B133" s="14" t="s">
         <v>10</v>
@@ -9330,8 +9450,9 @@
       <c r="W133" s="14"/>
       <c r="X133" s="14"/>
       <c r="Y133" s="14"/>
-    </row>
-    <row r="134" spans="1:96" x14ac:dyDescent="0.25">
+      <c r="Z133" s="14"/>
+    </row>
+    <row r="134" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A134" s="5"/>
       <c r="B134" s="15">
         <v>2000</v>
@@ -9405,11 +9526,14 @@
       <c r="Y134" s="15">
         <v>2023</v>
       </c>
-    </row>
-    <row r="135" spans="1:96" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Z134" s="15">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="135" spans="1:96" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A135" s="7"/>
     </row>
-    <row r="136" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A136" s="1" t="s">
         <v>9</v>
       </c>
@@ -9485,7 +9609,9 @@
       <c r="Y136" s="17">
         <v>19.462459016667339</v>
       </c>
-      <c r="Z136" s="9"/>
+      <c r="Z136" s="17">
+        <v>17.642277282528742</v>
+      </c>
       <c r="AA136" s="9"/>
       <c r="AB136" s="9"/>
       <c r="AC136" s="9"/>
@@ -9557,7 +9683,7 @@
       <c r="CQ136" s="9"/>
       <c r="CR136" s="9"/>
     </row>
-    <row r="137" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A137" s="1" t="s">
         <v>8</v>
       </c>
@@ -9633,7 +9759,9 @@
       <c r="Y137" s="17">
         <v>5.0366812271107539</v>
       </c>
-      <c r="Z137" s="9"/>
+      <c r="Z137" s="17">
+        <v>4.560236941700798</v>
+      </c>
       <c r="AA137" s="9"/>
       <c r="AB137" s="9"/>
       <c r="AC137" s="9"/>
@@ -9705,7 +9833,7 @@
       <c r="CQ137" s="9"/>
       <c r="CR137" s="9"/>
     </row>
-    <row r="138" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A138" s="1" t="s">
         <v>7</v>
       </c>
@@ -9781,7 +9909,9 @@
       <c r="Y138" s="17">
         <v>40.409377926767881</v>
       </c>
-      <c r="Z138" s="9"/>
+      <c r="Z138" s="17">
+        <v>44.040981929261534</v>
+      </c>
       <c r="AA138" s="9"/>
       <c r="AB138" s="9"/>
       <c r="AC138" s="9"/>
@@ -9853,7 +9983,7 @@
       <c r="CQ138" s="9"/>
       <c r="CR138" s="9"/>
     </row>
-    <row r="139" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A139" s="1" t="s">
         <v>6</v>
       </c>
@@ -9929,7 +10059,9 @@
       <c r="Y139" s="17">
         <v>1.0038271588099916</v>
       </c>
-      <c r="Z139" s="9"/>
+      <c r="Z139" s="17">
+        <v>0.92222167245493636</v>
+      </c>
       <c r="AA139" s="9"/>
       <c r="AB139" s="9"/>
       <c r="AC139" s="9"/>
@@ -10001,7 +10133,7 @@
       <c r="CQ139" s="9"/>
       <c r="CR139" s="9"/>
     </row>
-    <row r="140" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A140" s="1" t="s">
         <v>5</v>
       </c>
@@ -10077,7 +10209,9 @@
       <c r="Y140" s="17">
         <v>5.5368166713767559</v>
       </c>
-      <c r="Z140" s="9"/>
+      <c r="Z140" s="17">
+        <v>5.5462635114540877</v>
+      </c>
       <c r="AA140" s="9"/>
       <c r="AB140" s="9"/>
       <c r="AC140" s="9"/>
@@ -10149,7 +10283,7 @@
       <c r="CQ140" s="9"/>
       <c r="CR140" s="9"/>
     </row>
-    <row r="141" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A141" s="1" t="s">
         <v>4</v>
       </c>
@@ -10225,7 +10359,9 @@
       <c r="Y141" s="17">
         <v>22.152005053691816</v>
       </c>
-      <c r="Z141" s="9"/>
+      <c r="Z141" s="17">
+        <v>19.470444125344354</v>
+      </c>
       <c r="AA141" s="9"/>
       <c r="AB141" s="9"/>
       <c r="AC141" s="9"/>
@@ -10297,7 +10433,7 @@
       <c r="CQ141" s="9"/>
       <c r="CR141" s="9"/>
     </row>
-    <row r="142" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A142" s="1" t="s">
         <v>3</v>
       </c>
@@ -10373,7 +10509,9 @@
       <c r="Y142" s="17">
         <v>1.3907505170600882</v>
       </c>
-      <c r="Z142" s="9"/>
+      <c r="Z142" s="17">
+        <v>1.2456734057592027</v>
+      </c>
       <c r="AA142" s="9"/>
       <c r="AB142" s="9"/>
       <c r="AC142" s="9"/>
@@ -10445,7 +10583,7 @@
       <c r="CQ142" s="9"/>
       <c r="CR142" s="9"/>
     </row>
-    <row r="143" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A143" s="1" t="s">
         <v>2</v>
       </c>
@@ -10521,7 +10659,9 @@
       <c r="Y143" s="17">
         <v>5.0080824285153769</v>
       </c>
-      <c r="Z143" s="9"/>
+      <c r="Z143" s="17">
+        <v>6.5719011314963289</v>
+      </c>
       <c r="AA143" s="9"/>
       <c r="AB143" s="9"/>
       <c r="AC143" s="9"/>
@@ -10593,7 +10733,7 @@
       <c r="CQ143" s="9"/>
       <c r="CR143" s="9"/>
     </row>
-    <row r="144" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A144"/>
       <c r="B144" s="9"/>
       <c r="C144" s="9"/>
@@ -10691,7 +10831,7 @@
       <c r="CQ144" s="9"/>
       <c r="CR144" s="9"/>
     </row>
-    <row r="145" spans="1:96" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:96" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A145" s="10" t="s">
         <v>1</v>
       </c>
@@ -10767,7 +10907,9 @@
       <c r="Y145" s="16">
         <v>100</v>
       </c>
-      <c r="Z145" s="9"/>
+      <c r="Z145" s="16">
+        <v>100</v>
+      </c>
       <c r="AA145" s="9"/>
       <c r="AB145" s="9"/>
       <c r="AC145" s="9"/>
@@ -10839,7 +10981,7 @@
       <c r="CQ145" s="9"/>
       <c r="CR145" s="9"/>
     </row>
-    <row r="146" spans="1:96" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:96" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A146" s="12"/>
       <c r="B146" s="12"/>
       <c r="C146" s="12"/>
@@ -10865,13 +11007,14 @@
       <c r="W146" s="12"/>
       <c r="X146" s="12"/>
       <c r="Y146" s="12"/>
-    </row>
-    <row r="147" spans="1:96" x14ac:dyDescent="0.25">
+      <c r="Z146" s="12"/>
+    </row>
+    <row r="147" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A147" s="13" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A148"/>
       <c r="B148" s="9"/>
       <c r="C148" s="9"/>
@@ -10969,7 +11112,7 @@
       <c r="CQ148" s="9"/>
       <c r="CR148" s="9"/>
     </row>
-    <row r="149" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A149"/>
       <c r="B149" s="9"/>
       <c r="C149" s="9"/>
@@ -11067,37 +11210,37 @@
       <c r="CQ149" s="9"/>
       <c r="CR149" s="9"/>
     </row>
-    <row r="150" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A150" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="151" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A151" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="152" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A152" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="154" spans="1:96" x14ac:dyDescent="0.25">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="154" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A154" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="155" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A155" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="156" spans="1:96" x14ac:dyDescent="0.25">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="156" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A156" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="158" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A158" s="3"/>
       <c r="B158" s="14" t="s">
         <v>10</v>
@@ -11125,8 +11268,9 @@
       <c r="W158" s="14"/>
       <c r="X158" s="14"/>
       <c r="Y158" s="14"/>
-    </row>
-    <row r="159" spans="1:96" x14ac:dyDescent="0.25">
+      <c r="Z158" s="14"/>
+    </row>
+    <row r="159" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A159" s="5"/>
       <c r="B159" s="15">
         <v>2000</v>
@@ -11200,11 +11344,14 @@
       <c r="Y159" s="15">
         <v>2023</v>
       </c>
-    </row>
-    <row r="160" spans="1:96" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Z159" s="15">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="160" spans="1:96" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A160" s="7"/>
     </row>
-    <row r="161" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A161" s="1" t="s">
         <v>9</v>
       </c>
@@ -11280,7 +11427,9 @@
       <c r="Y161" s="17">
         <v>19.370108293732567</v>
       </c>
-      <c r="Z161" s="9"/>
+      <c r="Z161" s="17">
+        <v>17.616830400566698</v>
+      </c>
       <c r="AA161" s="9"/>
       <c r="AB161" s="9"/>
       <c r="AC161" s="9"/>
@@ -11352,7 +11501,7 @@
       <c r="CQ161" s="9"/>
       <c r="CR161" s="9"/>
     </row>
-    <row r="162" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A162" s="1" t="s">
         <v>8</v>
       </c>
@@ -11428,7 +11577,9 @@
       <c r="Y162" s="17">
         <v>5.0076023547745256</v>
       </c>
-      <c r="Z162" s="9"/>
+      <c r="Z162" s="17">
+        <v>4.5104003007264293</v>
+      </c>
       <c r="AA162" s="9"/>
       <c r="AB162" s="9"/>
       <c r="AC162" s="9"/>
@@ -11500,7 +11651,7 @@
       <c r="CQ162" s="9"/>
       <c r="CR162" s="9"/>
     </row>
-    <row r="163" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A163" s="1" t="s">
         <v>7</v>
       </c>
@@ -11576,7 +11727,9 @@
       <c r="Y163" s="17">
         <v>40.711247187411125</v>
       </c>
-      <c r="Z163" s="9"/>
+      <c r="Z163" s="17">
+        <v>44.101836686059542</v>
+      </c>
       <c r="AA163" s="9"/>
       <c r="AB163" s="9"/>
       <c r="AC163" s="9"/>
@@ -11648,7 +11801,7 @@
       <c r="CQ163" s="9"/>
       <c r="CR163" s="9"/>
     </row>
-    <row r="164" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A164" s="1" t="s">
         <v>6</v>
       </c>
@@ -11724,7 +11877,9 @@
       <c r="Y164" s="17">
         <v>1.0048359647380851</v>
       </c>
-      <c r="Z164" s="9"/>
+      <c r="Z164" s="17">
+        <v>0.92136320589881615</v>
+      </c>
       <c r="AA164" s="9"/>
       <c r="AB164" s="9"/>
       <c r="AC164" s="9"/>
@@ -11796,7 +11951,7 @@
       <c r="CQ164" s="9"/>
       <c r="CR164" s="9"/>
     </row>
-    <row r="165" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A165" s="1" t="s">
         <v>5</v>
       </c>
@@ -11872,7 +12027,9 @@
       <c r="Y165" s="17">
         <v>5.5066198257746581</v>
       </c>
-      <c r="Z165" s="9"/>
+      <c r="Z165" s="17">
+        <v>5.5262179933263811</v>
+      </c>
       <c r="AA165" s="9"/>
       <c r="AB165" s="9"/>
       <c r="AC165" s="9"/>
@@ -11944,7 +12101,7 @@
       <c r="CQ165" s="9"/>
       <c r="CR165" s="9"/>
     </row>
-    <row r="166" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A166" s="1" t="s">
         <v>4</v>
       </c>
@@ -12020,7 +12177,9 @@
       <c r="Y166" s="17">
         <v>22.194414163419577</v>
       </c>
-      <c r="Z166" s="9"/>
+      <c r="Z166" s="17">
+        <v>19.683309718945853</v>
+      </c>
       <c r="AA166" s="9"/>
       <c r="AB166" s="9"/>
       <c r="AC166" s="9"/>
@@ -12092,7 +12251,7 @@
       <c r="CQ166" s="9"/>
       <c r="CR166" s="9"/>
     </row>
-    <row r="167" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A167" s="1" t="s">
         <v>3</v>
       </c>
@@ -12168,7 +12327,9 @@
       <c r="Y167" s="17">
         <v>1.384961997631756</v>
       </c>
-      <c r="Z167" s="9"/>
+      <c r="Z167" s="17">
+        <v>1.2352256822278256</v>
+      </c>
       <c r="AA167" s="9"/>
       <c r="AB167" s="9"/>
       <c r="AC167" s="9"/>
@@ -12240,7 +12401,7 @@
       <c r="CQ167" s="9"/>
       <c r="CR167" s="9"/>
     </row>
-    <row r="168" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A168" s="1" t="s">
         <v>2</v>
       </c>
@@ -12316,7 +12477,9 @@
       <c r="Y168" s="17">
         <v>4.8202102125177024</v>
       </c>
-      <c r="Z168" s="9"/>
+      <c r="Z168" s="17">
+        <v>6.404816012248463</v>
+      </c>
       <c r="AA168" s="9"/>
       <c r="AB168" s="9"/>
       <c r="AC168" s="9"/>
@@ -12388,7 +12551,7 @@
       <c r="CQ168" s="9"/>
       <c r="CR168" s="9"/>
     </row>
-    <row r="169" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A169"/>
       <c r="B169" s="9"/>
       <c r="C169" s="9"/>
@@ -12486,7 +12649,7 @@
       <c r="CQ169" s="9"/>
       <c r="CR169" s="9"/>
     </row>
-    <row r="170" spans="1:96" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:96" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A170" s="10" t="s">
         <v>1</v>
       </c>
@@ -12562,7 +12725,9 @@
       <c r="Y170" s="16">
         <v>100</v>
       </c>
-      <c r="Z170" s="9"/>
+      <c r="Z170" s="16">
+        <v>100</v>
+      </c>
       <c r="AA170" s="9"/>
       <c r="AB170" s="9"/>
       <c r="AC170" s="9"/>
@@ -12634,7 +12799,7 @@
       <c r="CQ170" s="9"/>
       <c r="CR170" s="9"/>
     </row>
-    <row r="171" spans="1:96" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:96" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A171" s="12"/>
       <c r="B171" s="12"/>
       <c r="C171" s="12"/>
@@ -12660,13 +12825,14 @@
       <c r="W171" s="12"/>
       <c r="X171" s="12"/>
       <c r="Y171" s="12"/>
-    </row>
-    <row r="172" spans="1:96" x14ac:dyDescent="0.25">
+      <c r="Z171" s="12"/>
+    </row>
+    <row r="172" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A172" s="13" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:96" s="19" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:96" s="19" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A173" s="1"/>
       <c r="B173" s="18"/>
       <c r="C173" s="18"/>
@@ -12764,7 +12930,7 @@
       <c r="CQ173" s="18"/>
       <c r="CR173" s="18"/>
     </row>
-    <row r="174" spans="1:96" s="19" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:96" s="19" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A174" s="1"/>
       <c r="B174" s="18"/>
       <c r="C174" s="18"/>
@@ -12867,9 +13033,9 @@
   <pageSetup paperSize="9" scale="50" orientation="landscape" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <rowBreaks count="3" manualBreakCount="3">
-    <brk id="50" max="24" man="1"/>
-    <brk id="100" max="24" man="1"/>
-    <brk id="124" max="24" man="1"/>
+    <brk id="50" max="25" man="1"/>
+    <brk id="100" max="25" man="1"/>
+    <brk id="124" max="25" man="1"/>
   </rowBreaks>
 </worksheet>
 </file>
--- a/Data/National Accounts/PSA-07IOS_2018PSNA_Ann.xlsx
+++ b/Data/National Accounts/PSA-07IOS_2018PSNA_Ann.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\Other computers\My Laptop (1)\6. MAS_Series\2018-base\NAP\NAP detailed series as of January 2025\Annl\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\Other computers\My Laptop (1)\6. MAS_Series\2018-base\NAP\NAP detailed series as of April 2025\Annl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE8DC645-4FF7-42D1-A381-DCBE46B48C2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E40D814-2998-40B3-9718-8F314FF5A221}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4410" yWindow="4410" windowWidth="7500" windowHeight="10800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="IOS" sheetId="1" r:id="rId1"/>
@@ -219,7 +219,7 @@
     <t>Annual 2001 to 2024</t>
   </si>
   <si>
-    <t>As of January 2025</t>
+    <t>As of April 2025</t>
   </si>
 </sst>
 </file>
@@ -651,7 +651,7 @@
       <selection activeCell="C4" sqref="C4"/>
       <selection pane="topRight" activeCell="C4" sqref="C4"/>
       <selection pane="bottomLeft" activeCell="C4" sqref="C4"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.77734375" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -876,10 +876,10 @@
         <v>348085.76353051834</v>
       </c>
       <c r="Y12" s="8">
-        <v>386429.39225341514</v>
+        <v>390201.27925001539</v>
       </c>
       <c r="Z12" s="8">
-        <v>406196.80090738653</v>
+        <v>406845.48744039342</v>
       </c>
       <c r="AA12" s="9"/>
       <c r="AB12" s="9"/>
@@ -1026,10 +1026,10 @@
         <v>99845.491592369246</v>
       </c>
       <c r="Y13" s="8">
-        <v>100003.89282257679</v>
+        <v>100010.10423388844</v>
       </c>
       <c r="Z13" s="8">
-        <v>104995.1560920622</v>
+        <v>105001.18868307432</v>
       </c>
       <c r="AA13" s="9"/>
       <c r="AB13" s="9"/>
@@ -1179,7 +1179,7 @@
         <v>802332.90871450142</v>
       </c>
       <c r="Z14" s="8">
-        <v>1014002.0861253523</v>
+        <v>1013217.2416465436</v>
       </c>
       <c r="AA14" s="9"/>
       <c r="AB14" s="9"/>
@@ -1326,10 +1326,10 @@
         <v>20371.847002839164</v>
       </c>
       <c r="Y15" s="8">
-        <v>19931.105240823836</v>
+        <v>19856.509394895242</v>
       </c>
       <c r="Z15" s="8">
-        <v>21233.284517618766</v>
+        <v>21333.540643867167</v>
       </c>
       <c r="AA15" s="9"/>
       <c r="AB15" s="9"/>
@@ -1476,10 +1476,10 @@
         <v>113055.34791981746</v>
       </c>
       <c r="Y16" s="8">
-        <v>109934.14036255066</v>
+        <v>110797.95031627973</v>
       </c>
       <c r="Z16" s="8">
-        <v>127697.48821333027</v>
+        <v>126036.11521174925</v>
       </c>
       <c r="AA16" s="9"/>
       <c r="AB16" s="9"/>
@@ -1626,10 +1626,10 @@
         <v>368603.10265638609</v>
       </c>
       <c r="Y17" s="8">
-        <v>439830.64230279956</v>
+        <v>439870.2736023597</v>
       </c>
       <c r="Z17" s="8">
-        <v>448288.61882774404</v>
+        <v>450704.67790504789</v>
       </c>
       <c r="AA17" s="9"/>
       <c r="AB17" s="9"/>
@@ -1776,10 +1776,10 @@
         <v>32859.90287420839</v>
       </c>
       <c r="Y18" s="8">
-        <v>27613.513617339362</v>
+        <v>27064.549591538162</v>
       </c>
       <c r="Z18" s="8">
-        <v>28680.455719618501</v>
+        <v>28275.940478810578</v>
       </c>
       <c r="AA18" s="9"/>
       <c r="AB18" s="9"/>
@@ -1926,10 +1926,10 @@
         <v>88559.647590157721</v>
       </c>
       <c r="Y19" s="8">
-        <v>99436.06034308768</v>
+        <v>103082.06824747362</v>
       </c>
       <c r="Z19" s="8">
-        <v>151311.8274213415</v>
+        <v>162276.554568705</v>
       </c>
       <c r="AA19" s="9"/>
       <c r="AB19" s="9"/>
@@ -2174,10 +2174,10 @@
         <v>1504656.1977647247</v>
       </c>
       <c r="Y21" s="11">
-        <v>1985511.6556570944</v>
+        <v>1993215.6433509516</v>
       </c>
       <c r="Z21" s="11">
-        <v>2302405.7178244544</v>
+        <v>2313690.7465781914</v>
       </c>
       <c r="AA21" s="9"/>
       <c r="AB21" s="9"/>
@@ -2694,10 +2694,10 @@
         <v>337105.14452912047</v>
       </c>
       <c r="Y37" s="8">
-        <v>356411.77721551066</v>
+        <v>359921.48162211839</v>
       </c>
       <c r="Z37" s="8">
-        <v>362713.33942034893</v>
+        <v>362517.42909224523</v>
       </c>
       <c r="AA37" s="9"/>
       <c r="AB37" s="9"/>
@@ -2844,10 +2844,10 @@
         <v>96776.782707267252</v>
       </c>
       <c r="Y38" s="8">
-        <v>92140.34468930916</v>
+        <v>92147.590316263348</v>
       </c>
       <c r="Z38" s="8">
-        <v>92864.738888920852</v>
+        <v>92871.594461904213</v>
       </c>
       <c r="AA38" s="9"/>
       <c r="AB38" s="9"/>
@@ -2997,7 +2997,7 @@
         <v>749090.6990654273</v>
       </c>
       <c r="Z39" s="8">
-        <v>908013.76270597137</v>
+        <v>907271.62000598002</v>
       </c>
       <c r="AA39" s="9"/>
       <c r="AB39" s="9"/>
@@ -3144,10 +3144,10 @@
         <v>19762.688621565052</v>
       </c>
       <c r="Y40" s="8">
-        <v>18489.074328936105</v>
+        <v>18422.107292564047</v>
       </c>
       <c r="Z40" s="8">
-        <v>18969.968923572535</v>
+        <v>19057.731312379568</v>
       </c>
       <c r="AA40" s="9"/>
       <c r="AB40" s="9"/>
@@ -3294,10 +3294,10 @@
         <v>108427.15250426423</v>
       </c>
       <c r="Y41" s="8">
-        <v>101322.31213129265</v>
+        <v>102082.61486478668</v>
       </c>
       <c r="Z41" s="8">
-        <v>113779.43348195899</v>
+        <v>112344.88028522229</v>
       </c>
       <c r="AA41" s="9"/>
       <c r="AB41" s="9"/>
@@ -3444,10 +3444,10 @@
         <v>359839.17202274018</v>
       </c>
       <c r="Y42" s="8">
-        <v>408379.26542728528</v>
+        <v>408414.60957547819</v>
       </c>
       <c r="Z42" s="8">
-        <v>405260.1311740051</v>
+        <v>407076.61180034454</v>
       </c>
       <c r="AA42" s="9"/>
       <c r="AB42" s="9"/>
@@ -3594,10 +3594,10 @@
         <v>31381.727291279327</v>
       </c>
       <c r="Y43" s="8">
-        <v>25483.428356030086</v>
+        <v>25015.887754260031</v>
       </c>
       <c r="Z43" s="8">
-        <v>25432.090901222567</v>
+        <v>25107.554001249991</v>
       </c>
       <c r="AA43" s="9"/>
       <c r="AB43" s="9"/>
@@ -3744,10 +3744,10 @@
         <v>83236.567475496529</v>
       </c>
       <c r="Y44" s="8">
-        <v>88692.312006931927</v>
+        <v>91742.898170975241</v>
       </c>
       <c r="Z44" s="8">
-        <v>131868.90895542892</v>
+        <v>141409.42769081233</v>
       </c>
       <c r="AA44" s="9"/>
       <c r="AB44" s="9"/>
@@ -3992,10 +3992,10 @@
         <v>1469566.9964133829</v>
       </c>
       <c r="Y46" s="11">
-        <v>1840009.2132207232</v>
+        <v>1846837.8886618733</v>
       </c>
       <c r="Z46" s="11">
-        <v>2058902.3744514291</v>
+        <v>2067656.8486501381</v>
       </c>
       <c r="AA46" s="9"/>
       <c r="AB46" s="9"/>
@@ -4507,10 +4507,10 @@
         <v>44.709880533320074</v>
       </c>
       <c r="X62" s="16">
-        <v>11.01556936255885</v>
+        <v>12.099177884304524</v>
       </c>
       <c r="Y62" s="16">
-        <v>5.1153998764690698</v>
+        <v>4.2655442397239227</v>
       </c>
       <c r="Z62" s="16"/>
       <c r="AA62" s="9"/>
@@ -4650,10 +4650,10 @@
         <v>23.914076788307952</v>
       </c>
       <c r="X63" s="16">
-        <v>0.15864635216003364</v>
+        <v>0.16486737547573682</v>
       </c>
       <c r="Y63" s="16">
-        <v>4.9910689760254741</v>
+        <v>4.9905801892911512</v>
       </c>
       <c r="Z63" s="16"/>
       <c r="AA63" s="9"/>
@@ -4796,7 +4796,7 @@
         <v>85.178635632894242</v>
       </c>
       <c r="Y64" s="16">
-        <v>26.381714511746424</v>
+        <v>26.283894209190706</v>
       </c>
       <c r="Z64" s="16"/>
       <c r="AA64" s="9"/>
@@ -4936,10 +4936,10 @@
         <v>0.83506773094212861</v>
       </c>
       <c r="X65" s="16">
-        <v>-2.1634845478365463</v>
+        <v>-2.5296557934688053</v>
       </c>
       <c r="Y65" s="16">
-        <v>6.5334022426801823</v>
+        <v>7.4385241615106992</v>
       </c>
       <c r="Z65" s="16"/>
       <c r="AA65" s="9"/>
@@ -5079,10 +5079,10 @@
         <v>8.2605633653187454</v>
       </c>
       <c r="X66" s="16">
-        <v>-2.7607783397212273</v>
+        <v>-1.9967189921336228</v>
       </c>
       <c r="Y66" s="16">
-        <v>16.158172331359523</v>
+        <v>13.753110821970267</v>
       </c>
       <c r="Z66" s="16"/>
       <c r="AA66" s="9"/>
@@ -5222,10 +5222,10 @@
         <v>42.07995447153337</v>
       </c>
       <c r="X67" s="16">
-        <v>19.323640830232563</v>
+        <v>19.334392584429565</v>
       </c>
       <c r="Y67" s="16">
-        <v>1.9230075650621785</v>
+        <v>2.4630908140163257</v>
       </c>
       <c r="Z67" s="16"/>
       <c r="AA67" s="9"/>
@@ -5365,10 +5365,10 @@
         <v>1.8393695005497648</v>
       </c>
       <c r="X68" s="16">
-        <v>-15.965930504885634</v>
+        <v>-17.636550250484689</v>
       </c>
       <c r="Y68" s="16">
-        <v>3.8638404263381148</v>
+        <v>4.4759321900969837</v>
       </c>
       <c r="Z68" s="16"/>
       <c r="AA68" s="9"/>
@@ -5508,10 +5508,10 @@
         <v>132.34474224319186</v>
       </c>
       <c r="X69" s="16">
-        <v>12.281454419584591</v>
+        <v>16.398462564489577</v>
       </c>
       <c r="Y69" s="16">
-        <v>52.169974252062133</v>
+        <v>57.424620331754113</v>
       </c>
       <c r="Z69" s="16"/>
       <c r="AA69" s="9"/>
@@ -5744,10 +5744,10 @@
         <v>46.464870416076224</v>
       </c>
       <c r="X71" s="16">
-        <v>31.957829210866578</v>
+        <v>32.46983904442871</v>
       </c>
       <c r="Y71" s="16">
-        <v>15.960322431977133</v>
+        <v>16.078295607216077</v>
       </c>
       <c r="Z71" s="16"/>
       <c r="AA71" s="9"/>
@@ -6245,10 +6245,10 @@
         <v>43.740171037172388</v>
       </c>
       <c r="X87" s="16">
-        <v>5.7271842330849978</v>
+        <v>6.7683147122742753</v>
       </c>
       <c r="Y87" s="16">
-        <v>1.7680566714348203</v>
+        <v>0.72125382970398277</v>
       </c>
       <c r="Z87" s="16"/>
       <c r="AA87" s="9"/>
@@ -6388,10 +6388,10 @@
         <v>22.551893627835824</v>
       </c>
       <c r="X88" s="16">
-        <v>-4.7908577742065432</v>
+        <v>-4.7833708266644948</v>
       </c>
       <c r="Y88" s="16">
-        <v>0.78618568451669546</v>
+        <v>0.7857005735646112</v>
       </c>
       <c r="Z88" s="16"/>
       <c r="AA88" s="9"/>
@@ -6534,7 +6534,7 @@
         <v>72.985075685538675</v>
       </c>
       <c r="Y89" s="16">
-        <v>21.215463473090509</v>
+        <v>21.116390997498797</v>
       </c>
       <c r="Z89" s="16"/>
       <c r="AA89" s="9"/>
@@ -6674,10 +6674,10 @@
         <v>-0.76967997553737177</v>
       </c>
       <c r="X90" s="16">
-        <v>-6.4445395918406518</v>
+        <v>-6.7833954917356891</v>
       </c>
       <c r="Y90" s="16">
-        <v>2.6009663116763448</v>
+        <v>3.4503328512915914</v>
       </c>
       <c r="Z90" s="16"/>
       <c r="AA90" s="9"/>
@@ -6817,10 +6817,10 @@
         <v>6.6410209602822476</v>
       </c>
       <c r="X91" s="16">
-        <v>-6.55263945319615</v>
+        <v>-5.8514288099819112</v>
       </c>
       <c r="Y91" s="16">
-        <v>12.294549037258932</v>
+        <v>10.052902185184493</v>
       </c>
       <c r="Z91" s="16"/>
       <c r="AA91" s="9"/>
@@ -6960,10 +6960,10 @@
         <v>39.535781761237189</v>
       </c>
       <c r="X92" s="16">
-        <v>13.489385586257853</v>
+        <v>13.499207793216101</v>
       </c>
       <c r="Y92" s="16">
-        <v>-0.76378369749420472</v>
+        <v>-0.32760771621866525</v>
       </c>
       <c r="Z92" s="16"/>
       <c r="AA92" s="9"/>
@@ -7103,10 +7103,10 @@
         <v>1.305959375232348</v>
       </c>
       <c r="X93" s="16">
-        <v>-18.795329143301558</v>
+        <v>-20.285178944845086</v>
       </c>
       <c r="Y93" s="16">
-        <v>-0.20145427094927015</v>
+        <v>0.36643211662297404</v>
       </c>
       <c r="Z93" s="16"/>
       <c r="AA93" s="9"/>
@@ -7246,10 +7246,10 @@
         <v>123.69846538293694</v>
       </c>
       <c r="X94" s="16">
-        <v>6.5545044646891313</v>
+        <v>10.219463576489801</v>
       </c>
       <c r="Y94" s="16">
-        <v>48.681329837384823</v>
+        <v>54.136647642498531</v>
       </c>
       <c r="Z94" s="16"/>
       <c r="AA94" s="9"/>
@@ -7482,10 +7482,10 @@
         <v>44.619951073982463</v>
       </c>
       <c r="X96" s="16">
-        <v>25.207575953422975</v>
+        <v>25.672248571807586</v>
       </c>
       <c r="Y96" s="16">
-        <v>11.896307891174018</v>
+        <v>11.956596804945292</v>
       </c>
       <c r="Z96" s="16"/>
       <c r="AA96" s="9"/>
@@ -7985,10 +7985,10 @@
         <v>103.25732762599513</v>
       </c>
       <c r="Y111" s="16">
-        <v>108.42217259834088</v>
+        <v>108.41288980347323</v>
       </c>
       <c r="Z111" s="16">
-        <v>111.98838221845615</v>
+        <v>112.22784197139073</v>
       </c>
       <c r="AA111" s="9"/>
       <c r="AB111" s="9"/>
@@ -8135,10 +8135,10 @@
         <v>103.17091434459471</v>
       </c>
       <c r="Y112" s="16">
-        <v>108.5343159500683</v>
+        <v>108.53252254414885</v>
       </c>
       <c r="Z112" s="16">
-        <v>113.06245766506812</v>
+        <v>113.06060727335272</v>
       </c>
       <c r="AA112" s="9"/>
       <c r="AB112" s="9"/>
@@ -8288,7 +8288,7 @@
         <v>107.10757852360196</v>
       </c>
       <c r="Z113" s="16">
-        <v>111.67254592083771</v>
+        <v>111.67738737819941</v>
       </c>
       <c r="AA113" s="9"/>
       <c r="AB113" s="9"/>
@@ -8435,10 +8435,10 @@
         <v>103.08236593177608</v>
       </c>
       <c r="Y114" s="16">
-        <v>107.79936781167511</v>
+        <v>107.78630848008457</v>
       </c>
       <c r="Z114" s="16">
-        <v>111.93104534416914</v>
+        <v>111.94165923626636</v>
       </c>
       <c r="AA114" s="9"/>
       <c r="AB114" s="9"/>
@@ -8585,10 +8585,10 @@
         <v>104.26848377796438</v>
       </c>
       <c r="Y115" s="16">
-        <v>108.49943911672571</v>
+        <v>108.53753155033982</v>
       </c>
       <c r="Z115" s="16">
-        <v>112.23248728301864</v>
+        <v>112.18679025850355</v>
       </c>
       <c r="AA115" s="9"/>
       <c r="AB115" s="9"/>
@@ -8735,10 +8735,10 @@
         <v>102.43551322786281</v>
       </c>
       <c r="Y116" s="16">
-        <v>107.70151169222729</v>
+        <v>107.70189491007133</v>
       </c>
       <c r="Z116" s="16">
-        <v>110.61749832856466</v>
+        <v>110.71740916574721</v>
       </c>
       <c r="AA116" s="9"/>
       <c r="AB116" s="9"/>
@@ -8885,10 +8885,10 @@
         <v>104.71030663547903</v>
       </c>
       <c r="Y117" s="16">
-        <v>108.35870759440121</v>
+        <v>108.18944287487562</v>
       </c>
       <c r="Z117" s="16">
-        <v>112.77270056564549</v>
+        <v>112.61925585185577</v>
       </c>
       <c r="AA117" s="9"/>
       <c r="AB117" s="9"/>
@@ -9035,10 +9035,10 @@
         <v>106.39512209129505</v>
       </c>
       <c r="Y118" s="16">
-        <v>112.11350577411497</v>
+        <v>112.35972516953446</v>
       </c>
       <c r="Z118" s="16">
-        <v>114.74412628414497</v>
+        <v>114.75653159668961</v>
       </c>
       <c r="AA118" s="9"/>
       <c r="AB118" s="9"/>
@@ -9283,10 +9283,10 @@
         <v>102.38772382865022</v>
       </c>
       <c r="Y120" s="16">
-        <v>107.90770184143187</v>
+        <v>107.92585833265183</v>
       </c>
       <c r="Z120" s="16">
-        <v>111.82685232649285</v>
+        <v>111.89916489714797</v>
       </c>
       <c r="AA120" s="9"/>
       <c r="AB120" s="9"/>
@@ -9607,10 +9607,10 @@
         <v>23.133906871724243</v>
       </c>
       <c r="Y136" s="17">
-        <v>19.462459016667339</v>
+        <v>19.576470842563591</v>
       </c>
       <c r="Z136" s="17">
-        <v>17.642277282528742</v>
+        <v>17.584263931646582</v>
       </c>
       <c r="AA136" s="9"/>
       <c r="AB136" s="9"/>
@@ -9757,10 +9757,10 @@
         <v>6.6357678080013844</v>
       </c>
       <c r="Y137" s="17">
-        <v>5.0366812271107539</v>
+        <v>5.0175255531184568</v>
       </c>
       <c r="Z137" s="17">
-        <v>4.560236941700798</v>
+        <v>4.5382551163488349</v>
       </c>
       <c r="AA137" s="9"/>
       <c r="AB137" s="9"/>
@@ -9907,10 +9907,10 @@
         <v>28.795620902774317</v>
       </c>
       <c r="Y138" s="17">
-        <v>40.409377926767881</v>
+        <v>40.253191439218114</v>
       </c>
       <c r="Z138" s="17">
-        <v>44.040981929261534</v>
+        <v>43.792250245415495</v>
       </c>
       <c r="AA138" s="9"/>
       <c r="AB138" s="9"/>
@@ -10057,10 +10057,10 @@
         <v>1.3539203861389075</v>
       </c>
       <c r="Y139" s="17">
-        <v>1.0038271588099916</v>
+        <v>0.99620477398586449</v>
       </c>
       <c r="Z139" s="17">
-        <v>0.92222167245493636</v>
+        <v>0.92205670422541053</v>
       </c>
       <c r="AA139" s="9"/>
       <c r="AB139" s="9"/>
@@ -10207,10 +10207,10 @@
         <v>7.51369968021727</v>
       </c>
       <c r="Y140" s="17">
-        <v>5.5368166713767559</v>
+        <v>5.5587537999655963</v>
       </c>
       <c r="Z140" s="17">
-        <v>5.5462635114540877</v>
+        <v>5.447405423484061</v>
       </c>
       <c r="AA140" s="9"/>
       <c r="AB140" s="9"/>
@@ -10357,10 +10357,10 @@
         <v>24.497496717454297</v>
       </c>
       <c r="Y141" s="17">
-        <v>22.152005053691816</v>
+        <v>22.068373538492764</v>
       </c>
       <c r="Z141" s="17">
-        <v>19.470444125344354</v>
+        <v>19.479901476531072</v>
       </c>
       <c r="AA141" s="9"/>
       <c r="AB141" s="9"/>
@@ -10507,10 +10507,10 @@
         <v>2.1838811366360069</v>
       </c>
       <c r="Y142" s="17">
-        <v>1.3907505170600882</v>
+        <v>1.3578334929199041</v>
       </c>
       <c r="Z142" s="17">
-        <v>1.2456734057592027</v>
+        <v>1.2221140842020042</v>
       </c>
       <c r="AA142" s="9"/>
       <c r="AB142" s="9"/>
@@ -10657,10 +10657,10 @@
         <v>5.8857064970535768</v>
       </c>
       <c r="Y143" s="17">
-        <v>5.0080824285153769</v>
+        <v>5.1716465597357164</v>
       </c>
       <c r="Z143" s="17">
-        <v>6.5719011314963289</v>
+        <v>7.0137530181465344</v>
       </c>
       <c r="AA143" s="9"/>
       <c r="AB143" s="9"/>
@@ -11425,10 +11425,10 @@
         <v>22.939079698432081</v>
       </c>
       <c r="Y161" s="17">
-        <v>19.370108293732567</v>
+        <v>19.488525973598016</v>
       </c>
       <c r="Z161" s="17">
-        <v>17.616830400566698</v>
+        <v>17.532765619639125</v>
       </c>
       <c r="AA161" s="9"/>
       <c r="AB161" s="9"/>
@@ -11575,10 +11575,10 @@
         <v>6.5853944014434269</v>
       </c>
       <c r="Y162" s="17">
-        <v>5.0076023547745256</v>
+        <v>4.9894790919103844</v>
       </c>
       <c r="Z162" s="17">
-        <v>4.5104003007264293</v>
+        <v>4.4916347953256883</v>
       </c>
       <c r="AA162" s="9"/>
       <c r="AB162" s="9"/>
@@ -11725,10 +11725,10 @@
         <v>29.467030922613226</v>
       </c>
       <c r="Y163" s="17">
-        <v>40.711247187411125</v>
+        <v>40.560717519618414</v>
       </c>
       <c r="Z163" s="17">
-        <v>44.101836686059542</v>
+        <v>43.879216253813532</v>
       </c>
       <c r="AA163" s="9"/>
       <c r="AB163" s="9"/>
@@ -11875,10 +11875,10 @@
         <v>1.3447967101736606</v>
       </c>
       <c r="Y164" s="17">
-        <v>1.0048359647380851</v>
+        <v>0.99749455031550116</v>
       </c>
       <c r="Z164" s="17">
-        <v>0.92136320589881615</v>
+        <v>0.92170668091377617</v>
       </c>
       <c r="AA164" s="9"/>
       <c r="AB164" s="9"/>
@@ -12025,10 +12025,10 @@
         <v>7.3781700847182146</v>
       </c>
       <c r="Y165" s="17">
-        <v>5.5066198257746581</v>
+        <v>5.5274269328939667</v>
       </c>
       <c r="Z165" s="17">
-        <v>5.5262179933263811</v>
+        <v>5.4334393232883986</v>
       </c>
       <c r="AA165" s="9"/>
       <c r="AB165" s="9"/>
@@ -12175,10 +12175,10 @@
         <v>24.486067862231643</v>
       </c>
       <c r="Y166" s="17">
-        <v>22.194414163419577</v>
+        <v>22.114264174610099</v>
       </c>
       <c r="Z166" s="17">
-        <v>19.683309718945853</v>
+        <v>19.687822573949006</v>
       </c>
       <c r="AA166" s="9"/>
       <c r="AB166" s="9"/>
@@ -12325,10 +12325,10 @@
         <v>2.1354403962438866</v>
       </c>
       <c r="Y167" s="17">
-        <v>1.384961997631756</v>
+        <v>1.3545253705177827</v>
       </c>
       <c r="Z167" s="17">
-        <v>1.2352256822278256</v>
+        <v>1.2142998494958852</v>
       </c>
       <c r="AA167" s="9"/>
       <c r="AB167" s="9"/>
@@ -12475,10 +12475,10 @@
         <v>5.6640199241438625</v>
       </c>
       <c r="Y168" s="17">
-        <v>4.8202102125177024</v>
+        <v>4.9675663865358297</v>
       </c>
       <c r="Z168" s="17">
-        <v>6.404816012248463</v>
+        <v>6.8391149035745915</v>
       </c>
       <c r="AA168" s="9"/>
       <c r="AB168" s="9"/>

--- a/Data/National Accounts/PSA-07IOS_2018PSNA_Ann.xlsx
+++ b/Data/National Accounts/PSA-07IOS_2018PSNA_Ann.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29530"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\Other computers\My Laptop (1)\6. MAS_Series\2018-base\NAP\NAP detailed series as of April 2025\Annl\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Shared drives\QNAP\NAP Dissemination\As of January 2026\Tables\Prelim Q4 2025\NAP Q1 2000 to Q4 2025\Annl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E40D814-2998-40B3-9718-8F314FF5A221}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC8C262F-02DC-4FDD-AB5B-6A48DAD200A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4410" yWindow="4410" windowWidth="7500" windowHeight="10800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="IOS" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
     <definedName name="PCE_Per_Con_Qrt">[1]HFCE!#REF!</definedName>
     <definedName name="PCE_Per_Cur_Qrt" localSheetId="0">IOS!$A$37:$A$48</definedName>
     <definedName name="PCE_Per_Cur_Qrt">[1]HFCE!#REF!</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">IOS!$A$1:$Z$174</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">IOS!$A$1:$AA$174</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="56">
   <si>
     <t>Source: Philippine Statistics Authority</t>
   </si>
@@ -213,13 +213,16 @@
     <t>2023 - 2024</t>
   </si>
   <si>
-    <t>Annual 2000 to 2024</t>
+    <t>As of January 2026</t>
   </si>
   <si>
-    <t>Annual 2001 to 2024</t>
+    <t>Annual 2000 to 2025</t>
   </si>
   <si>
-    <t>As of April 2025</t>
+    <t>Annual 2001 to 2025</t>
+  </si>
+  <si>
+    <t>2024 - 2025</t>
   </si>
 </sst>
 </file>
@@ -651,14 +654,14 @@
       <selection activeCell="C4" sqref="C4"/>
       <selection pane="topRight" activeCell="C4" sqref="C4"/>
       <selection pane="bottomLeft" activeCell="C4" sqref="C4"/>
-      <selection pane="bottomRight" activeCell="B3" sqref="B3"/>
+      <selection pane="bottomRight" activeCell="Z1" sqref="Z1:AA1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.77734375" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="42.6640625" style="1" customWidth="1"/>
-    <col min="2" max="26" width="12.33203125" style="1" customWidth="1"/>
-    <col min="27" max="16384" width="7.77734375" style="1"/>
+    <col min="2" max="27" width="12.33203125" style="1" customWidth="1"/>
+    <col min="28" max="16384" width="7.77734375" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:96" x14ac:dyDescent="0.2">
@@ -673,7 +676,7 @@
     </row>
     <row r="3" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="5" spans="1:96" x14ac:dyDescent="0.2">
@@ -683,7 +686,7 @@
     </row>
     <row r="6" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="7" spans="1:96" x14ac:dyDescent="0.2">
@@ -720,6 +723,7 @@
       <c r="X9" s="4"/>
       <c r="Y9" s="4"/>
       <c r="Z9" s="4"/>
+      <c r="AA9" s="4"/>
     </row>
     <row r="10" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A10" s="5"/>
@@ -798,6 +802,9 @@
       <c r="Z10" s="6">
         <v>2024</v>
       </c>
+      <c r="AA10" s="6">
+        <v>2025</v>
+      </c>
     </row>
     <row r="11" spans="1:96" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="7"/>
@@ -881,7 +888,9 @@
       <c r="Z12" s="8">
         <v>406845.48744039342</v>
       </c>
-      <c r="AA12" s="9"/>
+      <c r="AA12" s="8">
+        <v>397351.93417235144</v>
+      </c>
       <c r="AB12" s="9"/>
       <c r="AC12" s="9"/>
       <c r="AD12" s="9"/>
@@ -1031,7 +1040,9 @@
       <c r="Z13" s="8">
         <v>105001.18868307432</v>
       </c>
-      <c r="AA13" s="9"/>
+      <c r="AA13" s="8">
+        <v>110411.69487700476</v>
+      </c>
       <c r="AB13" s="9"/>
       <c r="AC13" s="9"/>
       <c r="AD13" s="9"/>
@@ -1181,7 +1192,9 @@
       <c r="Z14" s="8">
         <v>1013217.2416465436</v>
       </c>
-      <c r="AA14" s="9"/>
+      <c r="AA14" s="8">
+        <v>1186254.8882666414</v>
+      </c>
       <c r="AB14" s="9"/>
       <c r="AC14" s="9"/>
       <c r="AD14" s="9"/>
@@ -1331,7 +1344,9 @@
       <c r="Z15" s="8">
         <v>21333.540643867167</v>
       </c>
-      <c r="AA15" s="9"/>
+      <c r="AA15" s="8">
+        <v>23927.964952765284</v>
+      </c>
       <c r="AB15" s="9"/>
       <c r="AC15" s="9"/>
       <c r="AD15" s="9"/>
@@ -1481,7 +1496,9 @@
       <c r="Z16" s="8">
         <v>126036.11521174925</v>
       </c>
-      <c r="AA16" s="9"/>
+      <c r="AA16" s="8">
+        <v>135648.61181064375</v>
+      </c>
       <c r="AB16" s="9"/>
       <c r="AC16" s="9"/>
       <c r="AD16" s="9"/>
@@ -1631,7 +1648,9 @@
       <c r="Z17" s="8">
         <v>450704.67790504789</v>
       </c>
-      <c r="AA17" s="9"/>
+      <c r="AA17" s="8">
+        <v>463384.42718479771</v>
+      </c>
       <c r="AB17" s="9"/>
       <c r="AC17" s="9"/>
       <c r="AD17" s="9"/>
@@ -1781,7 +1800,9 @@
       <c r="Z18" s="8">
         <v>28275.940478810578</v>
       </c>
-      <c r="AA18" s="9"/>
+      <c r="AA18" s="8">
+        <v>25194.93186706955</v>
+      </c>
       <c r="AB18" s="9"/>
       <c r="AC18" s="9"/>
       <c r="AD18" s="9"/>
@@ -1931,7 +1952,9 @@
       <c r="Z19" s="8">
         <v>162276.554568705</v>
       </c>
-      <c r="AA19" s="9"/>
+      <c r="AA19" s="8">
+        <v>150877.60911132125</v>
+      </c>
       <c r="AB19" s="9"/>
       <c r="AC19" s="9"/>
       <c r="AD19" s="9"/>
@@ -2179,7 +2202,9 @@
       <c r="Z21" s="11">
         <v>2313690.7465781914</v>
       </c>
-      <c r="AA21" s="9"/>
+      <c r="AA21" s="11">
+        <v>2493052.062242595</v>
+      </c>
       <c r="AB21" s="9"/>
       <c r="AC21" s="9"/>
       <c r="AD21" s="9"/>
@@ -2277,6 +2302,7 @@
       <c r="X22" s="12"/>
       <c r="Y22" s="12"/>
       <c r="Z22" s="12"/>
+      <c r="AA22" s="12"/>
     </row>
     <row r="23" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A23" s="13" t="s">
@@ -2491,7 +2517,7 @@
     </row>
     <row r="28" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="30" spans="1:96" x14ac:dyDescent="0.2">
@@ -2501,7 +2527,7 @@
     </row>
     <row r="31" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="32" spans="1:96" x14ac:dyDescent="0.2">
@@ -2538,6 +2564,7 @@
       <c r="X34" s="14"/>
       <c r="Y34" s="14"/>
       <c r="Z34" s="14"/>
+      <c r="AA34" s="14"/>
     </row>
     <row r="35" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A35" s="5"/>
@@ -2616,6 +2643,9 @@
       <c r="Z35" s="15">
         <v>2024</v>
       </c>
+      <c r="AA35" s="15">
+        <v>2025</v>
+      </c>
     </row>
     <row r="36" spans="1:96" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="7"/>
@@ -2699,7 +2729,9 @@
       <c r="Z37" s="8">
         <v>362517.42909224523</v>
       </c>
-      <c r="AA37" s="9"/>
+      <c r="AA37" s="8">
+        <v>350025.1911444944</v>
+      </c>
       <c r="AB37" s="9"/>
       <c r="AC37" s="9"/>
       <c r="AD37" s="9"/>
@@ -2849,7 +2881,9 @@
       <c r="Z38" s="8">
         <v>92871.594461904213</v>
       </c>
-      <c r="AA38" s="9"/>
+      <c r="AA38" s="8">
+        <v>96901.868874645428</v>
+      </c>
       <c r="AB38" s="9"/>
       <c r="AC38" s="9"/>
       <c r="AD38" s="9"/>
@@ -2999,7 +3033,9 @@
       <c r="Z39" s="8">
         <v>907271.62000598002</v>
       </c>
-      <c r="AA39" s="9"/>
+      <c r="AA39" s="8">
+        <v>1039833.491323573</v>
+      </c>
       <c r="AB39" s="9"/>
       <c r="AC39" s="9"/>
       <c r="AD39" s="9"/>
@@ -3149,7 +3185,9 @@
       <c r="Z40" s="8">
         <v>19057.731312379568</v>
       </c>
-      <c r="AA40" s="9"/>
+      <c r="AA40" s="8">
+        <v>21082.118141808198</v>
+      </c>
       <c r="AB40" s="9"/>
       <c r="AC40" s="9"/>
       <c r="AD40" s="9"/>
@@ -3299,7 +3337,9 @@
       <c r="Z41" s="8">
         <v>112344.88028522229</v>
       </c>
-      <c r="AA41" s="9"/>
+      <c r="AA41" s="8">
+        <v>119252.87683264127</v>
+      </c>
       <c r="AB41" s="9"/>
       <c r="AC41" s="9"/>
       <c r="AD41" s="9"/>
@@ -3449,7 +3489,9 @@
       <c r="Z42" s="8">
         <v>407076.61180034454</v>
       </c>
-      <c r="AA42" s="9"/>
+      <c r="AA42" s="8">
+        <v>415302.88502485334</v>
+      </c>
       <c r="AB42" s="9"/>
       <c r="AC42" s="9"/>
       <c r="AD42" s="9"/>
@@ -3599,7 +3641,9 @@
       <c r="Z43" s="8">
         <v>25107.554001249991</v>
       </c>
-      <c r="AA43" s="9"/>
+      <c r="AA43" s="8">
+        <v>22084.488273259482</v>
+      </c>
       <c r="AB43" s="9"/>
       <c r="AC43" s="9"/>
       <c r="AD43" s="9"/>
@@ -3749,7 +3793,9 @@
       <c r="Z44" s="8">
         <v>141409.42769081233</v>
       </c>
-      <c r="AA44" s="9"/>
+      <c r="AA44" s="8">
+        <v>129965.51287831966</v>
+      </c>
       <c r="AB44" s="9"/>
       <c r="AC44" s="9"/>
       <c r="AD44" s="9"/>
@@ -3997,7 +4043,9 @@
       <c r="Z46" s="11">
         <v>2067656.8486501381</v>
       </c>
-      <c r="AA46" s="9"/>
+      <c r="AA46" s="11">
+        <v>2194448.4324935949</v>
+      </c>
       <c r="AB46" s="9"/>
       <c r="AC46" s="9"/>
       <c r="AD46" s="9"/>
@@ -4095,6 +4143,7 @@
       <c r="X47" s="12"/>
       <c r="Y47" s="12"/>
       <c r="Z47" s="12"/>
+      <c r="AA47" s="12"/>
     </row>
     <row r="48" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A48" s="13" t="s">
@@ -4309,7 +4358,7 @@
     </row>
     <row r="53" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="55" spans="1:96" x14ac:dyDescent="0.2">
@@ -4319,7 +4368,7 @@
     </row>
     <row r="56" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="57" spans="1:96" x14ac:dyDescent="0.2">
@@ -4356,6 +4405,7 @@
       <c r="X59" s="14"/>
       <c r="Y59" s="14"/>
       <c r="Z59" s="14"/>
+      <c r="AA59" s="14"/>
     </row>
     <row r="60" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A60" s="5"/>
@@ -4431,7 +4481,10 @@
       <c r="Y60" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="Z60" s="15"/>
+      <c r="Z60" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="AA60" s="15"/>
     </row>
     <row r="61" spans="1:96" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="7"/>
@@ -4512,8 +4565,10 @@
       <c r="Y62" s="16">
         <v>4.2655442397239227</v>
       </c>
-      <c r="Z62" s="16"/>
-      <c r="AA62" s="9"/>
+      <c r="Z62" s="16">
+        <v>-2.3334542378162411</v>
+      </c>
+      <c r="AA62" s="16"/>
       <c r="AB62" s="9"/>
       <c r="AC62" s="9"/>
       <c r="AD62" s="9"/>
@@ -4655,8 +4710,10 @@
       <c r="Y63" s="16">
         <v>4.9905801892911512</v>
       </c>
-      <c r="Z63" s="16"/>
-      <c r="AA63" s="9"/>
+      <c r="Z63" s="16">
+        <v>5.1528047080124111</v>
+      </c>
+      <c r="AA63" s="16"/>
       <c r="AB63" s="9"/>
       <c r="AC63" s="9"/>
       <c r="AD63" s="9"/>
@@ -4798,8 +4855,10 @@
       <c r="Y64" s="16">
         <v>26.283894209190706</v>
       </c>
-      <c r="Z64" s="16"/>
-      <c r="AA64" s="9"/>
+      <c r="Z64" s="16">
+        <v>17.078040079430593</v>
+      </c>
+      <c r="AA64" s="16"/>
       <c r="AB64" s="9"/>
       <c r="AC64" s="9"/>
       <c r="AD64" s="9"/>
@@ -4941,8 +5000,10 @@
       <c r="Y65" s="16">
         <v>7.4385241615106992</v>
       </c>
-      <c r="Z65" s="16"/>
-      <c r="AA65" s="9"/>
+      <c r="Z65" s="16">
+        <v>12.161245768849653</v>
+      </c>
+      <c r="AA65" s="16"/>
       <c r="AB65" s="9"/>
       <c r="AC65" s="9"/>
       <c r="AD65" s="9"/>
@@ -5084,8 +5145,10 @@
       <c r="Y66" s="16">
         <v>13.753110821970267</v>
       </c>
-      <c r="Z66" s="16"/>
-      <c r="AA66" s="9"/>
+      <c r="Z66" s="16">
+        <v>7.6267795010540169</v>
+      </c>
+      <c r="AA66" s="16"/>
       <c r="AB66" s="9"/>
       <c r="AC66" s="9"/>
       <c r="AD66" s="9"/>
@@ -5227,8 +5290,10 @@
       <c r="Y67" s="16">
         <v>2.4630908140163257</v>
       </c>
-      <c r="Z67" s="16"/>
-      <c r="AA67" s="9"/>
+      <c r="Z67" s="16">
+        <v>2.8133165465882115</v>
+      </c>
+      <c r="AA67" s="16"/>
       <c r="AB67" s="9"/>
       <c r="AC67" s="9"/>
       <c r="AD67" s="9"/>
@@ -5370,8 +5435,10 @@
       <c r="Y68" s="16">
         <v>4.4759321900969837</v>
       </c>
-      <c r="Z68" s="16"/>
-      <c r="AA68" s="9"/>
+      <c r="Z68" s="16">
+        <v>-10.896219752796114</v>
+      </c>
+      <c r="AA68" s="16"/>
       <c r="AB68" s="9"/>
       <c r="AC68" s="9"/>
       <c r="AD68" s="9"/>
@@ -5513,8 +5580,10 @@
       <c r="Y69" s="16">
         <v>57.424620331754113</v>
       </c>
-      <c r="Z69" s="16"/>
-      <c r="AA69" s="9"/>
+      <c r="Z69" s="16">
+        <v>-7.0243945514369699</v>
+      </c>
+      <c r="AA69" s="16"/>
       <c r="AB69" s="9"/>
       <c r="AC69" s="9"/>
       <c r="AD69" s="9"/>
@@ -5749,8 +5818,10 @@
       <c r="Y71" s="16">
         <v>16.078295607216077</v>
       </c>
-      <c r="Z71" s="16"/>
-      <c r="AA71" s="9"/>
+      <c r="Z71" s="16">
+        <v>7.7521732724940904</v>
+      </c>
+      <c r="AA71" s="16"/>
       <c r="AB71" s="9"/>
       <c r="AC71" s="9"/>
       <c r="AD71" s="9"/>
@@ -5843,6 +5914,7 @@
       <c r="X72" s="12"/>
       <c r="Y72" s="12"/>
       <c r="Z72" s="12"/>
+      <c r="AA72" s="12"/>
     </row>
     <row r="73" spans="1:91" x14ac:dyDescent="0.2">
       <c r="A73" s="13" t="s">
@@ -6047,7 +6119,7 @@
     </row>
     <row r="78" spans="1:91" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="80" spans="1:91" x14ac:dyDescent="0.2">
@@ -6057,7 +6129,7 @@
     </row>
     <row r="81" spans="1:91" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="82" spans="1:91" x14ac:dyDescent="0.2">
@@ -6094,6 +6166,7 @@
       <c r="X84" s="14"/>
       <c r="Y84" s="14"/>
       <c r="Z84" s="14"/>
+      <c r="AA84" s="14"/>
     </row>
     <row r="85" spans="1:91" x14ac:dyDescent="0.2">
       <c r="A85" s="5"/>
@@ -6169,7 +6242,10 @@
       <c r="Y85" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="Z85" s="15"/>
+      <c r="Z85" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="AA85" s="15"/>
     </row>
     <row r="86" spans="1:91" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="7"/>
@@ -6250,8 +6326,10 @@
       <c r="Y87" s="16">
         <v>0.72125382970398277</v>
       </c>
-      <c r="Z87" s="16"/>
-      <c r="AA87" s="9"/>
+      <c r="Z87" s="16">
+        <v>-3.4459689232133712</v>
+      </c>
+      <c r="AA87" s="16"/>
       <c r="AB87" s="9"/>
       <c r="AC87" s="9"/>
       <c r="AD87" s="9"/>
@@ -6393,8 +6471,10 @@
       <c r="Y88" s="16">
         <v>0.7857005735646112</v>
       </c>
-      <c r="Z88" s="16"/>
-      <c r="AA88" s="9"/>
+      <c r="Z88" s="16">
+        <v>4.3396201347597412</v>
+      </c>
+      <c r="AA88" s="16"/>
       <c r="AB88" s="9"/>
       <c r="AC88" s="9"/>
       <c r="AD88" s="9"/>
@@ -6536,8 +6616,10 @@
       <c r="Y89" s="16">
         <v>21.116390997498797</v>
       </c>
-      <c r="Z89" s="16"/>
-      <c r="AA89" s="9"/>
+      <c r="Z89" s="16">
+        <v>14.61104573255794</v>
+      </c>
+      <c r="AA89" s="16"/>
       <c r="AB89" s="9"/>
       <c r="AC89" s="9"/>
       <c r="AD89" s="9"/>
@@ -6679,8 +6761,10 @@
       <c r="Y90" s="16">
         <v>3.4503328512915914</v>
       </c>
-      <c r="Z90" s="16"/>
-      <c r="AA90" s="9"/>
+      <c r="Z90" s="16">
+        <v>10.622391491654739</v>
+      </c>
+      <c r="AA90" s="16"/>
       <c r="AB90" s="9"/>
       <c r="AC90" s="9"/>
       <c r="AD90" s="9"/>
@@ -6822,8 +6906,10 @@
       <c r="Y91" s="16">
         <v>10.052902185184493</v>
       </c>
-      <c r="Z91" s="16"/>
-      <c r="AA91" s="9"/>
+      <c r="Z91" s="16">
+        <v>6.148919763749717</v>
+      </c>
+      <c r="AA91" s="16"/>
       <c r="AB91" s="9"/>
       <c r="AC91" s="9"/>
       <c r="AD91" s="9"/>
@@ -6965,8 +7051,10 @@
       <c r="Y92" s="16">
         <v>-0.32760771621866525</v>
       </c>
-      <c r="Z92" s="16"/>
-      <c r="AA92" s="9"/>
+      <c r="Z92" s="16">
+        <v>2.0208169632067978</v>
+      </c>
+      <c r="AA92" s="16"/>
       <c r="AB92" s="9"/>
       <c r="AC92" s="9"/>
       <c r="AD92" s="9"/>
@@ -7108,8 +7196,10 @@
       <c r="Y93" s="16">
         <v>0.36643211662297404</v>
       </c>
-      <c r="Z93" s="16"/>
-      <c r="AA93" s="9"/>
+      <c r="Z93" s="16">
+        <v>-12.040462913432364</v>
+      </c>
+      <c r="AA93" s="16"/>
       <c r="AB93" s="9"/>
       <c r="AC93" s="9"/>
       <c r="AD93" s="9"/>
@@ -7251,8 +7341,10 @@
       <c r="Y94" s="16">
         <v>54.136647642498531</v>
       </c>
-      <c r="Z94" s="16"/>
-      <c r="AA94" s="9"/>
+      <c r="Z94" s="16">
+        <v>-8.0927523711604721</v>
+      </c>
+      <c r="AA94" s="16"/>
       <c r="AB94" s="9"/>
       <c r="AC94" s="9"/>
       <c r="AD94" s="9"/>
@@ -7487,8 +7579,10 @@
       <c r="Y96" s="16">
         <v>11.956596804945292</v>
       </c>
-      <c r="Z96" s="16"/>
-      <c r="AA96" s="9"/>
+      <c r="Z96" s="16">
+        <v>6.132138605408926</v>
+      </c>
+      <c r="AA96" s="16"/>
       <c r="AB96" s="9"/>
       <c r="AC96" s="9"/>
       <c r="AD96" s="9"/>
@@ -7581,6 +7675,7 @@
       <c r="X97" s="12"/>
       <c r="Y97" s="12"/>
       <c r="Z97" s="12"/>
+      <c r="AA97" s="12"/>
     </row>
     <row r="98" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A98" s="13" t="s">
@@ -7782,7 +7877,7 @@
     </row>
     <row r="102" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A102" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="104" spans="1:96" x14ac:dyDescent="0.2">
@@ -7792,7 +7887,7 @@
     </row>
     <row r="105" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A105" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="106" spans="1:96" x14ac:dyDescent="0.2">
@@ -7829,6 +7924,7 @@
       <c r="X108" s="14"/>
       <c r="Y108" s="14"/>
       <c r="Z108" s="14"/>
+      <c r="AA108" s="14"/>
     </row>
     <row r="109" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A109" s="5"/>
@@ -7907,6 +8003,9 @@
       <c r="Z109" s="15">
         <v>2024</v>
       </c>
+      <c r="AA109" s="15">
+        <v>2025</v>
+      </c>
     </row>
     <row r="110" spans="1:96" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" s="7"/>
@@ -7990,7 +8089,9 @@
       <c r="Z111" s="16">
         <v>112.22784197139073</v>
       </c>
-      <c r="AA111" s="9"/>
+      <c r="AA111" s="16">
+        <v>113.52095341284165</v>
+      </c>
       <c r="AB111" s="9"/>
       <c r="AC111" s="9"/>
       <c r="AD111" s="9"/>
@@ -8140,7 +8241,9 @@
       <c r="Z112" s="16">
         <v>113.06060727335272</v>
       </c>
-      <c r="AA112" s="9"/>
+      <c r="AA112" s="16">
+        <v>113.94176000860826</v>
+      </c>
       <c r="AB112" s="9"/>
       <c r="AC112" s="9"/>
       <c r="AD112" s="9"/>
@@ -8290,7 +8393,9 @@
       <c r="Z113" s="16">
         <v>111.67738737819941</v>
       </c>
-      <c r="AA113" s="9"/>
+      <c r="AA113" s="16">
+        <v>114.08123494432681</v>
+      </c>
       <c r="AB113" s="9"/>
       <c r="AC113" s="9"/>
       <c r="AD113" s="9"/>
@@ -8440,7 +8545,9 @@
       <c r="Z114" s="16">
         <v>111.94165923626636</v>
       </c>
-      <c r="AA114" s="9"/>
+      <c r="AA114" s="16">
+        <v>113.49886568235026</v>
+      </c>
       <c r="AB114" s="9"/>
       <c r="AC114" s="9"/>
       <c r="AD114" s="9"/>
@@ -8590,7 +8697,9 @@
       <c r="Z115" s="16">
         <v>112.18679025850355</v>
       </c>
-      <c r="AA115" s="9"/>
+      <c r="AA115" s="16">
+        <v>113.74871232751235</v>
+      </c>
       <c r="AB115" s="9"/>
       <c r="AC115" s="9"/>
       <c r="AD115" s="9"/>
@@ -8740,7 +8849,9 @@
       <c r="Z116" s="16">
         <v>110.71740916574721</v>
       </c>
-      <c r="AA116" s="9"/>
+      <c r="AA116" s="16">
+        <v>111.57746403737767</v>
+      </c>
       <c r="AB116" s="9"/>
       <c r="AC116" s="9"/>
       <c r="AD116" s="9"/>
@@ -8890,7 +9001,9 @@
       <c r="Z117" s="16">
         <v>112.61925585185577</v>
       </c>
-      <c r="AA117" s="9"/>
+      <c r="AA117" s="16">
+        <v>114.08429099793216</v>
+      </c>
       <c r="AB117" s="9"/>
       <c r="AC117" s="9"/>
       <c r="AD117" s="9"/>
@@ -9040,7 +9153,9 @@
       <c r="Z118" s="16">
         <v>114.75653159668961</v>
       </c>
-      <c r="AA118" s="9"/>
+      <c r="AA118" s="16">
+        <v>116.09049644776192</v>
+      </c>
       <c r="AB118" s="9"/>
       <c r="AC118" s="9"/>
       <c r="AD118" s="9"/>
@@ -9288,7 +9403,9 @@
       <c r="Z120" s="16">
         <v>111.89916489714797</v>
       </c>
-      <c r="AA120" s="9"/>
+      <c r="AA120" s="16">
+        <v>113.607229284932</v>
+      </c>
       <c r="AB120" s="9"/>
       <c r="AC120" s="9"/>
       <c r="AD120" s="9"/>
@@ -9386,6 +9503,7 @@
       <c r="X121" s="12"/>
       <c r="Y121" s="12"/>
       <c r="Z121" s="12"/>
+      <c r="AA121" s="12"/>
     </row>
     <row r="122" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A122" s="13" t="s">
@@ -9404,7 +9522,7 @@
     </row>
     <row r="127" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A127" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="129" spans="1:96" x14ac:dyDescent="0.2">
@@ -9414,7 +9532,7 @@
     </row>
     <row r="130" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A130" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="131" spans="1:96" x14ac:dyDescent="0.2">
@@ -9451,6 +9569,7 @@
       <c r="X133" s="14"/>
       <c r="Y133" s="14"/>
       <c r="Z133" s="14"/>
+      <c r="AA133" s="14"/>
     </row>
     <row r="134" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A134" s="5"/>
@@ -9529,6 +9648,9 @@
       <c r="Z134" s="15">
         <v>2024</v>
       </c>
+      <c r="AA134" s="15">
+        <v>2025</v>
+      </c>
     </row>
     <row r="135" spans="1:96" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A135" s="7"/>
@@ -9612,7 +9734,9 @@
       <c r="Z136" s="17">
         <v>17.584263931646582</v>
       </c>
-      <c r="AA136" s="9"/>
+      <c r="AA136" s="17">
+        <v>15.938372896028424</v>
+      </c>
       <c r="AB136" s="9"/>
       <c r="AC136" s="9"/>
       <c r="AD136" s="9"/>
@@ -9762,7 +9886,9 @@
       <c r="Z137" s="17">
         <v>4.5382551163488349</v>
       </c>
-      <c r="AA137" s="9"/>
+      <c r="AA137" s="17">
+        <v>4.4287761394635794</v>
+      </c>
       <c r="AB137" s="9"/>
       <c r="AC137" s="9"/>
       <c r="AD137" s="9"/>
@@ -9912,7 +10038,9 @@
       <c r="Z138" s="17">
         <v>43.792250245415495</v>
       </c>
-      <c r="AA138" s="9"/>
+      <c r="AA138" s="17">
+        <v>47.582435450608287</v>
+      </c>
       <c r="AB138" s="9"/>
       <c r="AC138" s="9"/>
       <c r="AD138" s="9"/>
@@ -10062,7 +10190,9 @@
       <c r="Z139" s="17">
         <v>0.92205670422541053</v>
       </c>
-      <c r="AA139" s="9"/>
+      <c r="AA139" s="17">
+        <v>0.95978601149793763</v>
+      </c>
       <c r="AB139" s="9"/>
       <c r="AC139" s="9"/>
       <c r="AD139" s="9"/>
@@ -10212,7 +10342,9 @@
       <c r="Z140" s="17">
         <v>5.447405423484061</v>
       </c>
-      <c r="AA140" s="9"/>
+      <c r="AA140" s="17">
+        <v>5.4410661479978346</v>
+      </c>
       <c r="AB140" s="9"/>
       <c r="AC140" s="9"/>
       <c r="AD140" s="9"/>
@@ -10362,7 +10494,9 @@
       <c r="Z141" s="17">
         <v>19.479901476531072</v>
       </c>
-      <c r="AA141" s="9"/>
+      <c r="AA141" s="17">
+        <v>18.587033708713079</v>
+      </c>
       <c r="AB141" s="9"/>
       <c r="AC141" s="9"/>
       <c r="AD141" s="9"/>
@@ -10512,7 +10646,9 @@
       <c r="Z142" s="17">
         <v>1.2221140842020042</v>
       </c>
-      <c r="AA142" s="9"/>
+      <c r="AA142" s="17">
+        <v>1.0106059255098649</v>
+      </c>
       <c r="AB142" s="9"/>
       <c r="AC142" s="9"/>
       <c r="AD142" s="9"/>
@@ -10662,7 +10798,9 @@
       <c r="Z143" s="17">
         <v>7.0137530181465344</v>
       </c>
-      <c r="AA143" s="9"/>
+      <c r="AA143" s="17">
+        <v>6.0519237201810023</v>
+      </c>
       <c r="AB143" s="9"/>
       <c r="AC143" s="9"/>
       <c r="AD143" s="9"/>
@@ -10910,7 +11048,9 @@
       <c r="Z145" s="16">
         <v>100</v>
       </c>
-      <c r="AA145" s="9"/>
+      <c r="AA145" s="16">
+        <v>100</v>
+      </c>
       <c r="AB145" s="9"/>
       <c r="AC145" s="9"/>
       <c r="AD145" s="9"/>
@@ -11008,6 +11148,7 @@
       <c r="X146" s="12"/>
       <c r="Y146" s="12"/>
       <c r="Z146" s="12"/>
+      <c r="AA146" s="12"/>
     </row>
     <row r="147" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A147" s="13" t="s">
@@ -11222,7 +11363,7 @@
     </row>
     <row r="152" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A152" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="154" spans="1:96" x14ac:dyDescent="0.2">
@@ -11232,7 +11373,7 @@
     </row>
     <row r="155" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A155" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="156" spans="1:96" x14ac:dyDescent="0.2">
@@ -11269,6 +11410,7 @@
       <c r="X158" s="14"/>
       <c r="Y158" s="14"/>
       <c r="Z158" s="14"/>
+      <c r="AA158" s="14"/>
     </row>
     <row r="159" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A159" s="5"/>
@@ -11347,6 +11489,9 @@
       <c r="Z159" s="15">
         <v>2024</v>
       </c>
+      <c r="AA159" s="15">
+        <v>2025</v>
+      </c>
     </row>
     <row r="160" spans="1:96" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A160" s="7"/>
@@ -11430,7 +11575,9 @@
       <c r="Z161" s="17">
         <v>17.532765619639125</v>
       </c>
-      <c r="AA161" s="9"/>
+      <c r="AA161" s="17">
+        <v>15.950486052057913</v>
+      </c>
       <c r="AB161" s="9"/>
       <c r="AC161" s="9"/>
       <c r="AD161" s="9"/>
@@ -11580,7 +11727,9 @@
       <c r="Z162" s="17">
         <v>4.4916347953256883</v>
       </c>
-      <c r="AA162" s="9"/>
+      <c r="AA162" s="17">
+        <v>4.4157733414830771</v>
+      </c>
       <c r="AB162" s="9"/>
       <c r="AC162" s="9"/>
       <c r="AD162" s="9"/>
@@ -11730,7 +11879,9 @@
       <c r="Z163" s="17">
         <v>43.879216253813532</v>
       </c>
-      <c r="AA163" s="9"/>
+      <c r="AA163" s="17">
+        <v>47.38473121202442</v>
+      </c>
       <c r="AB163" s="9"/>
       <c r="AC163" s="9"/>
       <c r="AD163" s="9"/>
@@ -11880,7 +12031,9 @@
       <c r="Z164" s="17">
         <v>0.92170668091377617</v>
       </c>
-      <c r="AA164" s="9"/>
+      <c r="AA164" s="17">
+        <v>0.96070237193280372</v>
+      </c>
       <c r="AB164" s="9"/>
       <c r="AC164" s="9"/>
       <c r="AD164" s="9"/>
@@ -12030,7 +12183,9 @@
       <c r="Z165" s="17">
         <v>5.4334393232883986</v>
       </c>
-      <c r="AA165" s="9"/>
+      <c r="AA165" s="17">
+        <v>5.4342984353991808</v>
+      </c>
       <c r="AB165" s="9"/>
       <c r="AC165" s="9"/>
       <c r="AD165" s="9"/>
@@ -12180,7 +12335,9 @@
       <c r="Z166" s="17">
         <v>19.687822573949006</v>
       </c>
-      <c r="AA166" s="9"/>
+      <c r="AA166" s="17">
+        <v>18.925160367196987</v>
+      </c>
       <c r="AB166" s="9"/>
       <c r="AC166" s="9"/>
       <c r="AD166" s="9"/>
@@ -12330,7 +12487,9 @@
       <c r="Z167" s="17">
         <v>1.2142998494958852</v>
       </c>
-      <c r="AA167" s="9"/>
+      <c r="AA167" s="17">
+        <v>1.0063799151645794</v>
+      </c>
       <c r="AB167" s="9"/>
       <c r="AC167" s="9"/>
       <c r="AD167" s="9"/>
@@ -12480,7 +12639,9 @@
       <c r="Z168" s="17">
         <v>6.8391149035745915</v>
       </c>
-      <c r="AA168" s="9"/>
+      <c r="AA168" s="17">
+        <v>5.9224683047410362</v>
+      </c>
       <c r="AB168" s="9"/>
       <c r="AC168" s="9"/>
       <c r="AD168" s="9"/>
@@ -12728,7 +12889,9 @@
       <c r="Z170" s="16">
         <v>100</v>
       </c>
-      <c r="AA170" s="9"/>
+      <c r="AA170" s="16">
+        <v>100</v>
+      </c>
       <c r="AB170" s="9"/>
       <c r="AC170" s="9"/>
       <c r="AD170" s="9"/>
@@ -12826,6 +12989,7 @@
       <c r="X171" s="12"/>
       <c r="Y171" s="12"/>
       <c r="Z171" s="12"/>
+      <c r="AA171" s="12"/>
     </row>
     <row r="172" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A172" s="13" t="s">
@@ -13033,9 +13197,9 @@
   <pageSetup paperSize="9" scale="50" orientation="landscape" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <rowBreaks count="3" manualBreakCount="3">
-    <brk id="50" max="25" man="1"/>
-    <brk id="100" max="25" man="1"/>
-    <brk id="124" max="25" man="1"/>
+    <brk id="50" max="26" man="1"/>
+    <brk id="100" max="26" man="1"/>
+    <brk id="124" max="26" man="1"/>
   </rowBreaks>
 </worksheet>
 </file>